--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51C83CB-6EE8-4A4B-A7A3-816CA7CC8164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
     <sheet name="Army HQs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId19" roundtripDataSignature="AMtx7mhxGr4XIyWxQ0Gd24kTJ/DFYX7p4g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mhxGr4XIyWxQ0Gd24kTJ/DFYX7p4g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Jon Desmarais</author>
+    <author>Frode Nakken</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{84952A71-A426-4DBE-8D29-24A2B4749CC9}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Jon Desmarais:</t>
+          <t>Neck: Will be deleted, but here for SA so we know what targets are already identified in the .miz</t>
         </r>
         <r>
           <rPr>
@@ -54,63 +49,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Format: 
-XYY001
-X: </t>
-        </r>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">otia </t>
-        </r>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>K</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ambiland
-YY: Sector 
-001: Target index</t>
+</t>
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jon Desmarais</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{0F6093D8-679E-4968-B13A-47EA62B50211}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,61 +61,20 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Jon Desmarais:</t>
+          <t xml:space="preserve">Neck: Will be deleted, but here for SA so we know what targets are identified in the intelligence
+</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Format: 
-XYY001
-X: </t>
-        </r>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">otia </t>
-        </r>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>K</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ambiland
-YY: Sector 
-001: Target index</t>
+</t>
         </r>
       </text>
     </comment>
@@ -181,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="557">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -1843,16 +1745,25 @@
   </si>
   <si>
     <t>Ver 0.2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Triggerzone in .miz ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target in "Country as candidate for air attack" </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,13 +1849,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -2000,8 +1904,28 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,6 +1959,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2230,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2312,7 +2242,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2324,17 +2254,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,7 +2293,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2384,10 +2314,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,6 +2326,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2434,7 +2385,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2397,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2466,7 +2417,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2495,7 +2446,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2484,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,15 +2709,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J825"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L825"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -2776,11 +2727,12 @@
     <col min="8" max="8" width="6.75" customWidth="1"/>
     <col min="9" max="9" width="52.625" customWidth="1"/>
     <col min="10" max="10" width="35" style="50" customWidth="1"/>
-    <col min="11" max="11" width="27.25" customWidth="1"/>
-    <col min="12" max="27" width="10" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="70" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="70" customWidth="1"/>
+    <col min="13" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="69" t="s">
@@ -2794,7 +2746,7 @@
       <c r="I1" s="69"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="67" t="s">
         <v>553</v>
       </c>
@@ -2807,7 +2759,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -2838,8 +2790,14 @@
       <c r="J3" s="54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K3" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -2861,8 +2819,11 @@
       <c r="J4" s="50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K4" s="74" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -2885,8 +2846,11 @@
       <c r="J5" s="50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K5" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25">
       <c r="A6" s="28" t="s">
         <v>22</v>
       </c>
@@ -2909,8 +2873,11 @@
       <c r="J6" s="50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K6" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25">
       <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
@@ -2933,8 +2900,11 @@
       <c r="J7" s="50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K7" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25">
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
@@ -2957,8 +2927,11 @@
       <c r="J8" s="50" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K8" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25">
       <c r="A9" s="30" t="s">
         <v>36</v>
       </c>
@@ -2985,8 +2958,11 @@
       <c r="J9" s="50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K9" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25">
       <c r="A10" s="28" t="s">
         <v>42</v>
       </c>
@@ -3013,8 +2989,11 @@
       <c r="J10" s="50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K10" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25">
       <c r="A11" s="30" t="s">
         <v>46</v>
       </c>
@@ -3042,7 +3021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="14.25">
       <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
@@ -3070,7 +3049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="14.25">
       <c r="A13" s="30" t="s">
         <v>52</v>
       </c>
@@ -3094,7 +3073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="14.25">
       <c r="A14" s="28" t="s">
         <v>56</v>
       </c>
@@ -3118,7 +3097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="14.25">
       <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
@@ -3142,7 +3121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="14.25">
       <c r="A16" s="28" t="s">
         <v>66</v>
       </c>
@@ -3166,7 +3145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.25">
       <c r="A17" s="30" t="s">
         <v>70</v>
       </c>
@@ -3190,7 +3169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.25">
       <c r="A18" s="28" t="s">
         <v>74</v>
       </c>
@@ -3214,7 +3193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.25">
       <c r="A19" s="30" t="s">
         <v>79</v>
       </c>
@@ -3238,7 +3217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.25">
       <c r="A20" s="28" t="s">
         <v>84</v>
       </c>
@@ -3262,7 +3241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.25">
       <c r="A21" s="30" t="s">
         <v>88</v>
       </c>
@@ -3286,7 +3265,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.25">
       <c r="A22" s="28" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.25">
       <c r="A23" s="30" t="s">
         <v>99</v>
       </c>
@@ -3334,7 +3313,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.25">
       <c r="A24" s="28" t="s">
         <v>104</v>
       </c>
@@ -3358,7 +3337,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.25">
       <c r="A25" s="30" t="s">
         <v>108</v>
       </c>
@@ -3382,7 +3361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.25">
       <c r="A26" s="28" t="s">
         <v>113</v>
       </c>
@@ -3406,7 +3385,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.25">
       <c r="A27" s="30" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.25">
       <c r="A28" s="28" t="s">
         <v>123</v>
       </c>
@@ -3453,8 +3432,11 @@
       <c r="J28" s="50" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K28" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25">
       <c r="A29" s="30" t="s">
         <v>128</v>
       </c>
@@ -3477,8 +3459,11 @@
       <c r="J29" s="50" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K29" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.25">
       <c r="A30" s="28" t="s">
         <v>133</v>
       </c>
@@ -3502,7 +3487,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A31" s="30" t="s">
         <v>137</v>
       </c>
@@ -3525,8 +3510,10 @@
       <c r="J31" s="61" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25">
       <c r="A32" s="28" t="s">
         <v>142</v>
       </c>
@@ -3550,7 +3537,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A33" s="30" t="s">
         <v>145</v>
       </c>
@@ -3573,8 +3560,10 @@
       <c r="J33" s="61" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="49" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+    </row>
+    <row r="34" spans="1:12" s="49" customFormat="1" ht="14.25">
       <c r="A34" s="44" t="s">
         <v>150</v>
       </c>
@@ -3597,8 +3586,10 @@
       <c r="J34" s="51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+    </row>
+    <row r="35" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A35" s="30" t="s">
         <v>155</v>
       </c>
@@ -3621,8 +3612,10 @@
       <c r="J35" s="61" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.25">
       <c r="A36" s="28" t="s">
         <v>159</v>
       </c>
@@ -3646,7 +3639,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A37" s="30" t="s">
         <v>163</v>
       </c>
@@ -3669,8 +3662,10 @@
       <c r="J37" s="61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.25">
       <c r="A38" s="28" t="s">
         <v>167</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A39" s="30" t="s">
         <v>171</v>
       </c>
@@ -3717,8 +3712,10 @@
       <c r="J39" s="61" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.25">
       <c r="A40" s="28" t="s">
         <v>175</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A41" s="28" t="s">
         <v>180</v>
       </c>
@@ -3765,8 +3762,10 @@
       <c r="J41" s="61" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+    </row>
+    <row r="42" spans="1:12" ht="14.25">
       <c r="A42" s="28" t="s">
         <v>184</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A43" s="28" t="s">
         <v>188</v>
       </c>
@@ -3813,8 +3812,10 @@
       <c r="J43" s="61" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+    </row>
+    <row r="44" spans="1:12" ht="14.25">
       <c r="A44" s="28" t="s">
         <v>192</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A45" s="28" t="s">
         <v>196</v>
       </c>
@@ -3861,8 +3862,10 @@
       <c r="J45" s="61" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:12" ht="14.25">
       <c r="A46" s="28" t="s">
         <v>200</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A47" s="28" t="s">
         <v>204</v>
       </c>
@@ -3911,8 +3914,10 @@
       <c r="J47" s="61" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+    </row>
+    <row r="48" spans="1:12" ht="14.25">
       <c r="A48" s="28" t="s">
         <v>205</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A49" s="28" t="s">
         <v>206</v>
       </c>
@@ -3963,8 +3968,10 @@
       <c r="J49" s="61" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.25">
       <c r="A50" s="28" t="s">
         <v>207</v>
       </c>
@@ -3990,7 +3997,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A51" s="28" t="s">
         <v>208</v>
       </c>
@@ -4015,8 +4022,10 @@
       <c r="J51" s="61" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.25">
       <c r="A52" s="28" t="s">
         <v>209</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.25">
       <c r="A53" s="28" t="s">
         <v>210</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="28" t="s">
         <v>211</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="28" t="s">
         <v>212</v>
       </c>
@@ -4118,7 +4127,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="28" t="s">
         <v>213</v>
       </c>
@@ -4144,7 +4153,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="28" t="s">
         <v>214</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="28" t="s">
         <v>215</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="28" t="s">
         <v>216</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="28" t="s">
         <v>217</v>
       </c>
@@ -4247,8 +4256,11 @@
       <c r="J60" s="65" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="28" t="s">
         <v>218</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="28" t="s">
         <v>219</v>
       </c>
@@ -4299,8 +4311,11 @@
       <c r="J62" s="65" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="28" t="s">
         <v>220</v>
       </c>
@@ -4326,7 +4341,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="28" t="s">
         <v>221</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="28" t="s">
         <v>222</v>
       </c>
@@ -4378,7 +4393,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="28" t="s">
         <v>223</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="28" t="s">
         <v>224</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="28" t="s">
         <v>225</v>
       </c>
@@ -4452,7 +4467,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="28" t="s">
         <v>226</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="28" t="s">
         <v>227</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="28" t="s">
         <v>228</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="28" t="s">
         <v>229</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="28" t="s">
         <v>230</v>
       </c>
@@ -4581,8 +4596,11 @@
       <c r="J73" s="65" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="28" t="s">
         <v>231</v>
       </c>
@@ -4595,7 +4613,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="28" t="s">
         <v>232</v>
       </c>
@@ -4608,7 +4626,7 @@
       <c r="H75" s="60"/>
       <c r="I75" s="53"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="28" t="s">
         <v>233</v>
       </c>
@@ -4621,7 +4639,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="28" t="s">
         <v>234</v>
       </c>
@@ -4634,7 +4652,7 @@
       <c r="H77" s="34"/>
       <c r="I77" s="53"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="28" t="s">
         <v>235</v>
       </c>
@@ -4647,7 +4665,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="28" t="s">
         <v>236</v>
       </c>
@@ -4660,7 +4678,7 @@
       <c r="H79" s="60"/>
       <c r="I79" s="53"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="28" t="s">
         <v>237</v>
       </c>
@@ -4673,7 +4691,7 @@
       <c r="H80" s="11"/>
       <c r="I80" s="52"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="28" t="s">
         <v>238</v>
       </c>
@@ -4686,7 +4704,7 @@
       <c r="H81" s="34"/>
       <c r="I81" s="53"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="28" t="s">
         <v>239</v>
       </c>
@@ -4699,7 +4717,7 @@
       <c r="H82" s="11"/>
       <c r="I82" s="52"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="28" t="s">
         <v>240</v>
       </c>
@@ -4712,7 +4730,7 @@
       <c r="H83" s="60"/>
       <c r="I83" s="53"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="28" t="s">
         <v>241</v>
       </c>
@@ -4725,7 +4743,7 @@
       <c r="H84" s="11"/>
       <c r="I84" s="52"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="28" t="s">
         <v>242</v>
       </c>
@@ -4738,7 +4756,7 @@
       <c r="H85" s="34"/>
       <c r="I85" s="53"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="28" t="s">
         <v>243</v>
       </c>
@@ -4751,7 +4769,7 @@
       <c r="H86" s="11"/>
       <c r="I86" s="52"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="28" t="s">
         <v>244</v>
       </c>
@@ -4764,7 +4782,7 @@
       <c r="H87" s="60"/>
       <c r="I87" s="53"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="28" t="s">
         <v>245</v>
       </c>
@@ -4777,7 +4795,7 @@
       <c r="H88" s="11"/>
       <c r="I88" s="52"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="28" t="s">
         <v>246</v>
       </c>
@@ -4790,7 +4808,7 @@
       <c r="H89" s="34"/>
       <c r="I89" s="53"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="28" t="s">
         <v>247</v>
       </c>
@@ -4803,7 +4821,7 @@
       <c r="H90" s="11"/>
       <c r="I90" s="52"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="28" t="s">
         <v>248</v>
       </c>
@@ -4816,7 +4834,7 @@
       <c r="H91" s="60"/>
       <c r="I91" s="53"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="28" t="s">
         <v>249</v>
       </c>
@@ -4829,7 +4847,7 @@
       <c r="H92" s="11"/>
       <c r="I92" s="52"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="28" t="s">
         <v>250</v>
       </c>
@@ -4842,7 +4860,7 @@
       <c r="H93" s="34"/>
       <c r="I93" s="53"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="28" t="s">
         <v>251</v>
       </c>
@@ -4855,7 +4873,7 @@
       <c r="H94" s="11"/>
       <c r="I94" s="52"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="28" t="s">
         <v>252</v>
       </c>
@@ -4868,7 +4886,7 @@
       <c r="H95" s="60"/>
       <c r="I95" s="53"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="28" t="s">
         <v>253</v>
       </c>
@@ -4881,7 +4899,7 @@
       <c r="H96" s="11"/>
       <c r="I96" s="52"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="28" t="s">
         <v>254</v>
       </c>
@@ -4894,7 +4912,7 @@
       <c r="H97" s="34"/>
       <c r="I97" s="53"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="28" t="s">
         <v>255</v>
       </c>
@@ -4907,7 +4925,7 @@
       <c r="H98" s="11"/>
       <c r="I98" s="52"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="28" t="s">
         <v>256</v>
       </c>
@@ -4920,7 +4938,7 @@
       <c r="H99" s="60"/>
       <c r="I99" s="53"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="28" t="s">
         <v>257</v>
       </c>
@@ -4933,7 +4951,7 @@
       <c r="H100" s="11"/>
       <c r="I100" s="52"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="28" t="s">
         <v>258</v>
       </c>
@@ -4946,7 +4964,7 @@
       <c r="H101" s="34"/>
       <c r="I101" s="53"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="28" t="s">
         <v>259</v>
       </c>
@@ -4959,7 +4977,7 @@
       <c r="H102" s="11"/>
       <c r="I102" s="52"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="28" t="s">
         <v>260</v>
       </c>
@@ -4972,7 +4990,7 @@
       <c r="H103" s="60"/>
       <c r="I103" s="53"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="28" t="s">
         <v>261</v>
       </c>
@@ -4985,7 +5003,7 @@
       <c r="H104" s="11"/>
       <c r="I104" s="52"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="28" t="s">
         <v>262</v>
       </c>
@@ -4998,7 +5016,7 @@
       <c r="H105" s="34"/>
       <c r="I105" s="53"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="28" t="s">
         <v>263</v>
       </c>
@@ -5011,7 +5029,7 @@
       <c r="H106" s="11"/>
       <c r="I106" s="52"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="28" t="s">
         <v>264</v>
       </c>
@@ -5024,7 +5042,7 @@
       <c r="H107" s="60"/>
       <c r="I107" s="53"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="28" t="s">
         <v>265</v>
       </c>
@@ -5037,7 +5055,7 @@
       <c r="H108" s="11"/>
       <c r="I108" s="52"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="28" t="s">
         <v>266</v>
       </c>
@@ -5050,7 +5068,7 @@
       <c r="H109" s="34"/>
       <c r="I109" s="53"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="28" t="s">
         <v>267</v>
       </c>
@@ -5063,7 +5081,7 @@
       <c r="H110" s="11"/>
       <c r="I110" s="52"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="28" t="s">
         <v>268</v>
       </c>
@@ -5076,7 +5094,7 @@
       <c r="H111" s="60"/>
       <c r="I111" s="53"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="28" t="s">
         <v>269</v>
       </c>
@@ -5089,7 +5107,7 @@
       <c r="H112" s="11"/>
       <c r="I112" s="52"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="28" t="s">
         <v>270</v>
       </c>
@@ -5102,7 +5120,7 @@
       <c r="H113" s="34"/>
       <c r="I113" s="53"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="28" t="s">
         <v>271</v>
       </c>
@@ -5115,7 +5133,7 @@
       <c r="H114" s="11"/>
       <c r="I114" s="52"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="28" t="s">
         <v>272</v>
       </c>
@@ -5128,7 +5146,7 @@
       <c r="H115" s="60"/>
       <c r="I115" s="53"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="28" t="s">
         <v>273</v>
       </c>
@@ -5141,7 +5159,7 @@
       <c r="H116" s="11"/>
       <c r="I116" s="52"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="28" t="s">
         <v>274</v>
       </c>
@@ -5154,7 +5172,7 @@
       <c r="H117" s="34"/>
       <c r="I117" s="53"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="28" t="s">
         <v>275</v>
       </c>
@@ -5167,7 +5185,7 @@
       <c r="H118" s="11"/>
       <c r="I118" s="52"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="28" t="s">
         <v>276</v>
       </c>
@@ -5180,7 +5198,7 @@
       <c r="H119" s="60"/>
       <c r="I119" s="53"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="28" t="s">
         <v>277</v>
       </c>
@@ -5193,7 +5211,7 @@
       <c r="H120" s="11"/>
       <c r="I120" s="52"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="28" t="s">
         <v>278</v>
       </c>
@@ -5206,7 +5224,7 @@
       <c r="H121" s="34"/>
       <c r="I121" s="53"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="28" t="s">
         <v>279</v>
       </c>
@@ -5219,7 +5237,7 @@
       <c r="H122" s="11"/>
       <c r="I122" s="52"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="28" t="s">
         <v>280</v>
       </c>
@@ -5232,7 +5250,7 @@
       <c r="H123" s="60"/>
       <c r="I123" s="53"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="28" t="s">
         <v>281</v>
       </c>
@@ -5245,7 +5263,7 @@
       <c r="H124" s="11"/>
       <c r="I124" s="52"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="28" t="s">
         <v>282</v>
       </c>
@@ -5258,7 +5276,7 @@
       <c r="H125" s="34"/>
       <c r="I125" s="53"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="28" t="s">
         <v>283</v>
       </c>
@@ -5271,7 +5289,7 @@
       <c r="H126" s="11"/>
       <c r="I126" s="52"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="28" t="s">
         <v>284</v>
       </c>
@@ -5284,7 +5302,7 @@
       <c r="H127" s="60"/>
       <c r="I127" s="53"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="28" t="s">
         <v>285</v>
       </c>
@@ -5297,7 +5315,7 @@
       <c r="H128" s="11"/>
       <c r="I128" s="52"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="28" t="s">
         <v>286</v>
       </c>
@@ -5310,7 +5328,7 @@
       <c r="H129" s="60"/>
       <c r="I129" s="53"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="28" t="s">
         <v>287</v>
       </c>
@@ -5323,7 +5341,7 @@
       <c r="H130" s="11"/>
       <c r="I130" s="52"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="28" t="s">
         <v>288</v>
       </c>
@@ -5336,7 +5354,7 @@
       <c r="H131" s="60"/>
       <c r="I131" s="53"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="28" t="s">
         <v>289</v>
       </c>
@@ -5349,7 +5367,7 @@
       <c r="H132" s="11"/>
       <c r="I132" s="52"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="28" t="s">
         <v>290</v>
       </c>
@@ -5362,7 +5380,7 @@
       <c r="H133" s="60"/>
       <c r="I133" s="53"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="28" t="s">
         <v>291</v>
       </c>
@@ -5375,7 +5393,7 @@
       <c r="H134" s="11"/>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="28" t="s">
         <v>292</v>
       </c>
@@ -5388,7 +5406,7 @@
       <c r="H135" s="60"/>
       <c r="I135" s="53"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="28" t="s">
         <v>293</v>
       </c>
@@ -5401,7 +5419,7 @@
       <c r="H136" s="11"/>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="28" t="s">
         <v>294</v>
       </c>
@@ -5414,7 +5432,7 @@
       <c r="H137" s="60"/>
       <c r="I137" s="53"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="28" t="s">
         <v>295</v>
       </c>
@@ -5427,7 +5445,7 @@
       <c r="H138" s="11"/>
       <c r="I138" s="52"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="28" t="s">
         <v>296</v>
       </c>
@@ -5440,7 +5458,7 @@
       <c r="H139" s="60"/>
       <c r="I139" s="53"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="28" t="s">
         <v>297</v>
       </c>
@@ -5453,7 +5471,7 @@
       <c r="H140" s="11"/>
       <c r="I140" s="52"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="28" t="s">
         <v>298</v>
       </c>
@@ -5466,7 +5484,7 @@
       <c r="H141" s="60"/>
       <c r="I141" s="53"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="28" t="s">
         <v>299</v>
       </c>
@@ -5479,7 +5497,7 @@
       <c r="H142" s="11"/>
       <c r="I142" s="52"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="28" t="s">
         <v>300</v>
       </c>
@@ -5492,7 +5510,7 @@
       <c r="H143" s="60"/>
       <c r="I143" s="53"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="28" t="s">
         <v>301</v>
       </c>
@@ -5505,7 +5523,7 @@
       <c r="H144" s="11"/>
       <c r="I144" s="52"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="28" t="s">
         <v>302</v>
       </c>
@@ -5518,7 +5536,7 @@
       <c r="H145" s="60"/>
       <c r="I145" s="53"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="28" t="s">
         <v>303</v>
       </c>
@@ -5531,7 +5549,7 @@
       <c r="H146" s="11"/>
       <c r="I146" s="52"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="28" t="s">
         <v>304</v>
       </c>
@@ -5544,7 +5562,7 @@
       <c r="H147" s="60"/>
       <c r="I147" s="53"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="28" t="s">
         <v>305</v>
       </c>
@@ -5557,7 +5575,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="52"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="28" t="s">
         <v>306</v>
       </c>
@@ -5570,7 +5588,7 @@
       <c r="H149" s="60"/>
       <c r="I149" s="53"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="28" t="s">
         <v>307</v>
       </c>
@@ -5583,7 +5601,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="52"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="28" t="s">
         <v>308</v>
       </c>
@@ -5596,7 +5614,7 @@
       <c r="H151" s="60"/>
       <c r="I151" s="53"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="28" t="s">
         <v>309</v>
       </c>
@@ -5609,7 +5627,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="52"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="28" t="s">
         <v>310</v>
       </c>
@@ -5622,7 +5640,7 @@
       <c r="H153" s="60"/>
       <c r="I153" s="53"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="28" t="s">
         <v>311</v>
       </c>
@@ -5635,7 +5653,7 @@
       <c r="H154" s="11"/>
       <c r="I154" s="52"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="28" t="s">
         <v>312</v>
       </c>
@@ -5648,7 +5666,7 @@
       <c r="H155" s="60"/>
       <c r="I155" s="53"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="28" t="s">
         <v>313</v>
       </c>
@@ -5661,7 +5679,7 @@
       <c r="H156" s="11"/>
       <c r="I156" s="52"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="28" t="s">
         <v>314</v>
       </c>
@@ -5674,7 +5692,7 @@
       <c r="H157" s="60"/>
       <c r="I157" s="53"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="28" t="s">
         <v>315</v>
       </c>
@@ -5687,7 +5705,7 @@
       <c r="H158" s="11"/>
       <c r="I158" s="52"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="28" t="s">
         <v>316</v>
       </c>
@@ -5700,7 +5718,7 @@
       <c r="H159" s="60"/>
       <c r="I159" s="53"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="28" t="s">
         <v>317</v>
       </c>
@@ -5713,7 +5731,7 @@
       <c r="H160" s="11"/>
       <c r="I160" s="52"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="28" t="s">
         <v>318</v>
       </c>
@@ -5726,7 +5744,7 @@
       <c r="H161" s="60"/>
       <c r="I161" s="53"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="28" t="s">
         <v>319</v>
       </c>
@@ -5739,7 +5757,7 @@
       <c r="H162" s="11"/>
       <c r="I162" s="52"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="28" t="s">
         <v>320</v>
       </c>
@@ -5752,7 +5770,7 @@
       <c r="H163" s="60"/>
       <c r="I163" s="53"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="28" t="s">
         <v>321</v>
       </c>
@@ -5765,7 +5783,7 @@
       <c r="H164" s="11"/>
       <c r="I164" s="52"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="28" t="s">
         <v>322</v>
       </c>
@@ -5778,7 +5796,7 @@
       <c r="H165" s="60"/>
       <c r="I165" s="53"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="28" t="s">
         <v>323</v>
       </c>
@@ -5791,7 +5809,7 @@
       <c r="H166" s="11"/>
       <c r="I166" s="52"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="28" t="s">
         <v>324</v>
       </c>
@@ -5804,7 +5822,7 @@
       <c r="H167" s="60"/>
       <c r="I167" s="53"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="28" t="s">
         <v>325</v>
       </c>
@@ -5817,7 +5835,7 @@
       <c r="H168" s="11"/>
       <c r="I168" s="52"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="28" t="s">
         <v>326</v>
       </c>
@@ -5830,7 +5848,7 @@
       <c r="H169" s="60"/>
       <c r="I169" s="53"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="28" t="s">
         <v>327</v>
       </c>
@@ -5843,7 +5861,7 @@
       <c r="H170" s="11"/>
       <c r="I170" s="52"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="28" t="s">
         <v>328</v>
       </c>
@@ -5856,7 +5874,7 @@
       <c r="H171" s="60"/>
       <c r="I171" s="53"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="28" t="s">
         <v>329</v>
       </c>
@@ -5869,7 +5887,7 @@
       <c r="H172" s="11"/>
       <c r="I172" s="52"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="28" t="s">
         <v>330</v>
       </c>
@@ -5882,7 +5900,7 @@
       <c r="H173" s="60"/>
       <c r="I173" s="53"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="28" t="s">
         <v>331</v>
       </c>
@@ -5895,7 +5913,7 @@
       <c r="H174" s="11"/>
       <c r="I174" s="52"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="28" t="s">
         <v>332</v>
       </c>
@@ -5908,7 +5926,7 @@
       <c r="H175" s="60"/>
       <c r="I175" s="53"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="28" t="s">
         <v>333</v>
       </c>
@@ -5921,7 +5939,7 @@
       <c r="H176" s="11"/>
       <c r="I176" s="52"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="28" t="s">
         <v>334</v>
       </c>
@@ -5934,7 +5952,7 @@
       <c r="H177" s="60"/>
       <c r="I177" s="53"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="28" t="s">
         <v>335</v>
       </c>
@@ -5947,7 +5965,7 @@
       <c r="H178" s="11"/>
       <c r="I178" s="52"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="28" t="s">
         <v>336</v>
       </c>
@@ -5960,7 +5978,7 @@
       <c r="H179" s="60"/>
       <c r="I179" s="53"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="28" t="s">
         <v>337</v>
       </c>
@@ -5973,7 +5991,7 @@
       <c r="H180" s="11"/>
       <c r="I180" s="52"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="28" t="s">
         <v>338</v>
       </c>
@@ -5986,7 +6004,7 @@
       <c r="H181" s="60"/>
       <c r="I181" s="53"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="28" t="s">
         <v>339</v>
       </c>
@@ -5999,7 +6017,7 @@
       <c r="H182" s="11"/>
       <c r="I182" s="52"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="28" t="s">
         <v>340</v>
       </c>
@@ -6012,7 +6030,7 @@
       <c r="H183" s="60"/>
       <c r="I183" s="53"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="28" t="s">
         <v>341</v>
       </c>
@@ -6025,7 +6043,7 @@
       <c r="H184" s="11"/>
       <c r="I184" s="52"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="28" t="s">
         <v>342</v>
       </c>
@@ -6038,7 +6056,7 @@
       <c r="H185" s="60"/>
       <c r="I185" s="53"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="28" t="s">
         <v>343</v>
       </c>
@@ -6051,7 +6069,7 @@
       <c r="H186" s="11"/>
       <c r="I186" s="52"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="28" t="s">
         <v>344</v>
       </c>
@@ -6064,7 +6082,7 @@
       <c r="H187" s="60"/>
       <c r="I187" s="53"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="28" t="s">
         <v>345</v>
       </c>
@@ -6077,7 +6095,7 @@
       <c r="H188" s="11"/>
       <c r="I188" s="52"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="28" t="s">
         <v>346</v>
       </c>
@@ -6090,7 +6108,7 @@
       <c r="H189" s="60"/>
       <c r="I189" s="53"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="28" t="s">
         <v>347</v>
       </c>
@@ -6103,7 +6121,7 @@
       <c r="H190" s="11"/>
       <c r="I190" s="52"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="28" t="s">
         <v>348</v>
       </c>
@@ -6116,7 +6134,7 @@
       <c r="H191" s="60"/>
       <c r="I191" s="53"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="28" t="s">
         <v>349</v>
       </c>
@@ -6129,7 +6147,7 @@
       <c r="H192" s="11"/>
       <c r="I192" s="52"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="28" t="s">
         <v>350</v>
       </c>
@@ -6142,7 +6160,7 @@
       <c r="H193" s="60"/>
       <c r="I193" s="53"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="28" t="s">
         <v>351</v>
       </c>
@@ -6155,7 +6173,7 @@
       <c r="H194" s="11"/>
       <c r="I194" s="52"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="28" t="s">
         <v>352</v>
       </c>
@@ -6168,7 +6186,7 @@
       <c r="H195" s="60"/>
       <c r="I195" s="53"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="28" t="s">
         <v>353</v>
       </c>
@@ -6181,7 +6199,7 @@
       <c r="H196" s="11"/>
       <c r="I196" s="52"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="28" t="s">
         <v>354</v>
       </c>
@@ -6194,7 +6212,7 @@
       <c r="H197" s="60"/>
       <c r="I197" s="53"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="28" t="s">
         <v>355</v>
       </c>
@@ -6207,7 +6225,7 @@
       <c r="H198" s="11"/>
       <c r="I198" s="52"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="28" t="s">
         <v>356</v>
       </c>
@@ -6220,7 +6238,7 @@
       <c r="H199" s="60"/>
       <c r="I199" s="53"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="28" t="s">
         <v>357</v>
       </c>
@@ -6233,7 +6251,7 @@
       <c r="H200" s="11"/>
       <c r="I200" s="52"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="28" t="s">
         <v>358</v>
       </c>
@@ -6246,7 +6264,7 @@
       <c r="H201" s="60"/>
       <c r="I201" s="53"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="28" t="s">
         <v>359</v>
       </c>
@@ -6259,7 +6277,7 @@
       <c r="H202" s="11"/>
       <c r="I202" s="52"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="28" t="s">
         <v>360</v>
       </c>
@@ -6272,7 +6290,7 @@
       <c r="H203" s="60"/>
       <c r="I203" s="53"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1">
       <c r="A204" s="66" t="s">
         <v>446</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1">
       <c r="A205" s="66" t="s">
         <v>447</v>
       </c>
@@ -6320,7 +6338,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1">
       <c r="A206" s="66" t="s">
         <v>448</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1">
       <c r="A207" s="66" t="s">
         <v>449</v>
       </c>
@@ -6357,7 +6375,7 @@
       <c r="H207" s="11"/>
       <c r="I207" s="52"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1">
       <c r="A208" s="66" t="s">
         <v>450</v>
       </c>
@@ -6370,7 +6388,7 @@
       <c r="H208" s="60"/>
       <c r="I208" s="53"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1">
       <c r="A209" s="66" t="s">
         <v>451</v>
       </c>
@@ -6383,7 +6401,7 @@
       <c r="H209" s="11"/>
       <c r="I209" s="52"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1">
       <c r="A210" s="66" t="s">
         <v>452</v>
       </c>
@@ -6396,7 +6414,7 @@
       <c r="H210" s="34"/>
       <c r="I210" s="53"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.75" customHeight="1">
       <c r="A211" s="66" t="s">
         <v>453</v>
       </c>
@@ -6409,7 +6427,7 @@
       <c r="H211" s="11"/>
       <c r="I211" s="52"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.75" customHeight="1">
       <c r="A212" s="66" t="s">
         <v>454</v>
       </c>
@@ -6422,7 +6440,7 @@
       <c r="H212" s="60"/>
       <c r="I212" s="53"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.75" customHeight="1">
       <c r="A213" s="66" t="s">
         <v>455</v>
       </c>
@@ -6435,7 +6453,7 @@
       <c r="H213" s="11"/>
       <c r="I213" s="52"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.75" customHeight="1">
       <c r="A214" s="66" t="s">
         <v>456</v>
       </c>
@@ -6448,7 +6466,7 @@
       <c r="H214" s="34"/>
       <c r="I214" s="53"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.75" customHeight="1">
       <c r="A215" s="66" t="s">
         <v>457</v>
       </c>
@@ -6461,7 +6479,7 @@
       <c r="H215" s="11"/>
       <c r="I215" s="52"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.75" customHeight="1">
       <c r="A216" s="66" t="s">
         <v>458</v>
       </c>
@@ -6474,7 +6492,7 @@
       <c r="H216" s="60"/>
       <c r="I216" s="53"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.75" customHeight="1">
       <c r="A217" s="66" t="s">
         <v>459</v>
       </c>
@@ -6487,7 +6505,7 @@
       <c r="H217" s="11"/>
       <c r="I217" s="52"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.75" customHeight="1">
       <c r="A218" s="66" t="s">
         <v>460</v>
       </c>
@@ -6500,7 +6518,7 @@
       <c r="H218" s="34"/>
       <c r="I218" s="53"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.75" customHeight="1">
       <c r="A219" s="66" t="s">
         <v>461</v>
       </c>
@@ -6513,7 +6531,7 @@
       <c r="H219" s="11"/>
       <c r="I219" s="52"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.75" customHeight="1">
       <c r="A220" s="66" t="s">
         <v>462</v>
       </c>
@@ -6526,7 +6544,7 @@
       <c r="H220" s="60"/>
       <c r="I220" s="53"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.75" customHeight="1">
       <c r="A221" s="66" t="s">
         <v>463</v>
       </c>
@@ -6539,7 +6557,7 @@
       <c r="H221" s="11"/>
       <c r="I221" s="52"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.75" customHeight="1">
       <c r="A222" s="66" t="s">
         <v>464</v>
       </c>
@@ -6552,7 +6570,7 @@
       <c r="H222" s="34"/>
       <c r="I222" s="53"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.75" customHeight="1">
       <c r="A223" s="66" t="s">
         <v>465</v>
       </c>
@@ -6565,7 +6583,7 @@
       <c r="H223" s="11"/>
       <c r="I223" s="52"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.75" customHeight="1">
       <c r="A224" s="66" t="s">
         <v>466</v>
       </c>
@@ -6578,7 +6596,7 @@
       <c r="H224" s="60"/>
       <c r="I224" s="53"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.75" customHeight="1">
       <c r="A225" s="66" t="s">
         <v>467</v>
       </c>
@@ -6591,7 +6609,7 @@
       <c r="H225" s="11"/>
       <c r="I225" s="52"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.75" customHeight="1">
       <c r="A226" s="66" t="s">
         <v>468</v>
       </c>
@@ -6604,7 +6622,7 @@
       <c r="H226" s="34"/>
       <c r="I226" s="53"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.75" customHeight="1">
       <c r="A227" s="66" t="s">
         <v>469</v>
       </c>
@@ -6617,7 +6635,7 @@
       <c r="H227" s="11"/>
       <c r="I227" s="52"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.75" customHeight="1">
       <c r="A228" s="66" t="s">
         <v>470</v>
       </c>
@@ -6630,7 +6648,7 @@
       <c r="H228" s="60"/>
       <c r="I228" s="53"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.75" customHeight="1">
       <c r="A229" s="66" t="s">
         <v>471</v>
       </c>
@@ -6643,7 +6661,7 @@
       <c r="H229" s="11"/>
       <c r="I229" s="52"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.75" customHeight="1">
       <c r="A230" s="66" t="s">
         <v>472</v>
       </c>
@@ -6656,7 +6674,7 @@
       <c r="H230" s="34"/>
       <c r="I230" s="53"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.75" customHeight="1">
       <c r="A231" s="66" t="s">
         <v>473</v>
       </c>
@@ -6669,7 +6687,7 @@
       <c r="H231" s="11"/>
       <c r="I231" s="52"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.75" customHeight="1">
       <c r="A232" s="66" t="s">
         <v>474</v>
       </c>
@@ -6682,7 +6700,7 @@
       <c r="H232" s="60"/>
       <c r="I232" s="53"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.75" customHeight="1">
       <c r="A233" s="66" t="s">
         <v>475</v>
       </c>
@@ -6695,7 +6713,7 @@
       <c r="H233" s="11"/>
       <c r="I233" s="52"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.75" customHeight="1">
       <c r="A234" s="66" t="s">
         <v>476</v>
       </c>
@@ -6708,7 +6726,7 @@
       <c r="H234" s="60"/>
       <c r="I234" s="53"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.75" customHeight="1">
       <c r="A235" s="66" t="s">
         <v>477</v>
       </c>
@@ -6721,7 +6739,7 @@
       <c r="H235" s="11"/>
       <c r="I235" s="52"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.75" customHeight="1">
       <c r="A236" s="66" t="s">
         <v>478</v>
       </c>
@@ -6734,7 +6752,7 @@
       <c r="H236" s="60"/>
       <c r="I236" s="53"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.75" customHeight="1">
       <c r="A237" s="66" t="s">
         <v>479</v>
       </c>
@@ -6747,7 +6765,7 @@
       <c r="H237" s="11"/>
       <c r="I237" s="52"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.75" customHeight="1">
       <c r="A238" s="66" t="s">
         <v>480</v>
       </c>
@@ -6760,7 +6778,7 @@
       <c r="H238" s="60"/>
       <c r="I238" s="53"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.75" customHeight="1">
       <c r="A239" s="66" t="s">
         <v>481</v>
       </c>
@@ -6773,7 +6791,7 @@
       <c r="H239" s="11"/>
       <c r="I239" s="52"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.75" customHeight="1">
       <c r="A240" s="66" t="s">
         <v>482</v>
       </c>
@@ -6786,7 +6804,7 @@
       <c r="H240" s="60"/>
       <c r="I240" s="53"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.75" customHeight="1">
       <c r="A241" s="66" t="s">
         <v>483</v>
       </c>
@@ -6799,7 +6817,7 @@
       <c r="H241" s="11"/>
       <c r="I241" s="52"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.75" customHeight="1">
       <c r="A242" s="66" t="s">
         <v>484</v>
       </c>
@@ -6812,7 +6830,7 @@
       <c r="H242" s="60"/>
       <c r="I242" s="53"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.75" customHeight="1">
       <c r="A243" s="66" t="s">
         <v>485</v>
       </c>
@@ -6825,7 +6843,7 @@
       <c r="H243" s="11"/>
       <c r="I243" s="52"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.75" customHeight="1">
       <c r="A244" s="66" t="s">
         <v>486</v>
       </c>
@@ -6838,7 +6856,7 @@
       <c r="H244" s="60"/>
       <c r="I244" s="53"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.75" customHeight="1">
       <c r="A245" s="66" t="s">
         <v>487</v>
       </c>
@@ -6851,7 +6869,7 @@
       <c r="H245" s="11"/>
       <c r="I245" s="52"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.75" customHeight="1">
       <c r="A246" s="66" t="s">
         <v>488</v>
       </c>
@@ -6864,7 +6882,7 @@
       <c r="H246" s="60"/>
       <c r="I246" s="53"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.75" customHeight="1">
       <c r="A247" s="66" t="s">
         <v>489</v>
       </c>
@@ -6877,7 +6895,7 @@
       <c r="H247" s="11"/>
       <c r="I247" s="52"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.75" customHeight="1">
       <c r="A248" s="66" t="s">
         <v>490</v>
       </c>
@@ -6890,7 +6908,7 @@
       <c r="H248" s="60"/>
       <c r="I248" s="53"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.75" customHeight="1">
       <c r="A249" s="66" t="s">
         <v>491</v>
       </c>
@@ -6903,7 +6921,7 @@
       <c r="H249" s="11"/>
       <c r="I249" s="52"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.75" customHeight="1">
       <c r="A250" s="66" t="s">
         <v>492</v>
       </c>
@@ -6916,7 +6934,7 @@
       <c r="H250" s="60"/>
       <c r="I250" s="53"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.75" customHeight="1">
       <c r="A251" s="66" t="s">
         <v>493</v>
       </c>
@@ -6929,7 +6947,7 @@
       <c r="H251" s="11"/>
       <c r="I251" s="52"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.75" customHeight="1">
       <c r="A252" s="66" t="s">
         <v>494</v>
       </c>
@@ -6942,7 +6960,7 @@
       <c r="H252" s="60"/>
       <c r="I252" s="53"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.75" customHeight="1">
       <c r="A253" s="66" t="s">
         <v>495</v>
       </c>
@@ -6955,7 +6973,7 @@
       <c r="H253" s="11"/>
       <c r="I253" s="52"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.75" customHeight="1">
       <c r="A254" s="66" t="s">
         <v>496</v>
       </c>
@@ -6968,7 +6986,7 @@
       <c r="H254" s="60"/>
       <c r="I254" s="53"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.75" customHeight="1">
       <c r="A255" s="66" t="s">
         <v>497</v>
       </c>
@@ -6981,7 +6999,7 @@
       <c r="H255" s="11"/>
       <c r="I255" s="52"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.75" customHeight="1">
       <c r="A256" s="66" t="s">
         <v>498</v>
       </c>
@@ -6994,7 +7012,7 @@
       <c r="H256" s="60"/>
       <c r="I256" s="53"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.75" customHeight="1">
       <c r="A257" s="66" t="s">
         <v>499</v>
       </c>
@@ -7007,7 +7025,7 @@
       <c r="H257" s="11"/>
       <c r="I257" s="52"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.75" customHeight="1">
       <c r="A258" s="66" t="s">
         <v>500</v>
       </c>
@@ -7020,7 +7038,7 @@
       <c r="H258" s="60"/>
       <c r="I258" s="53"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.75" customHeight="1">
       <c r="A259" s="66" t="s">
         <v>501</v>
       </c>
@@ -7033,7 +7051,7 @@
       <c r="H259" s="11"/>
       <c r="I259" s="52"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.75" customHeight="1">
       <c r="A260" s="66" t="s">
         <v>502</v>
       </c>
@@ -7046,7 +7064,7 @@
       <c r="H260" s="60"/>
       <c r="I260" s="53"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.75" customHeight="1">
       <c r="A261" s="66" t="s">
         <v>503</v>
       </c>
@@ -7059,7 +7077,7 @@
       <c r="H261" s="11"/>
       <c r="I261" s="52"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.75" customHeight="1">
       <c r="A262" s="66" t="s">
         <v>504</v>
       </c>
@@ -7072,7 +7090,7 @@
       <c r="H262" s="60"/>
       <c r="I262" s="53"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.75" customHeight="1">
       <c r="A263" s="66" t="s">
         <v>505</v>
       </c>
@@ -7085,7 +7103,7 @@
       <c r="H263" s="11"/>
       <c r="I263" s="52"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.75" customHeight="1">
       <c r="A264" s="66" t="s">
         <v>506</v>
       </c>
@@ -7098,7 +7116,7 @@
       <c r="H264" s="60"/>
       <c r="I264" s="53"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.75" customHeight="1">
       <c r="A265" s="66" t="s">
         <v>507</v>
       </c>
@@ -7111,7 +7129,7 @@
       <c r="H265" s="11"/>
       <c r="I265" s="52"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.75" customHeight="1">
       <c r="A266" s="66" t="s">
         <v>508</v>
       </c>
@@ -7124,7 +7142,7 @@
       <c r="H266" s="60"/>
       <c r="I266" s="53"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.75" customHeight="1">
       <c r="A267" s="66" t="s">
         <v>509</v>
       </c>
@@ -7137,7 +7155,7 @@
       <c r="H267" s="11"/>
       <c r="I267" s="52"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.75" customHeight="1">
       <c r="A268" s="66" t="s">
         <v>510</v>
       </c>
@@ -7150,7 +7168,7 @@
       <c r="H268" s="60"/>
       <c r="I268" s="53"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.75" customHeight="1">
       <c r="A269" s="66" t="s">
         <v>511</v>
       </c>
@@ -7163,7 +7181,7 @@
       <c r="H269" s="11"/>
       <c r="I269" s="52"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.75" customHeight="1">
       <c r="A270" s="66" t="s">
         <v>512</v>
       </c>
@@ -7176,7 +7194,7 @@
       <c r="H270" s="60"/>
       <c r="I270" s="53"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.75" customHeight="1">
       <c r="A271" s="66" t="s">
         <v>513</v>
       </c>
@@ -7189,7 +7207,7 @@
       <c r="H271" s="11"/>
       <c r="I271" s="52"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.75" customHeight="1">
       <c r="A272" s="66" t="s">
         <v>514</v>
       </c>
@@ -7202,7 +7220,7 @@
       <c r="H272" s="60"/>
       <c r="I272" s="53"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.75" customHeight="1">
       <c r="A273" s="66" t="s">
         <v>515</v>
       </c>
@@ -7215,7 +7233,7 @@
       <c r="H273" s="11"/>
       <c r="I273" s="52"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.75" customHeight="1">
       <c r="A274" s="66" t="s">
         <v>516</v>
       </c>
@@ -7228,7 +7246,7 @@
       <c r="H274" s="60"/>
       <c r="I274" s="53"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.75" customHeight="1">
       <c r="A275" s="66" t="s">
         <v>517</v>
       </c>
@@ -7241,7 +7259,7 @@
       <c r="H275" s="11"/>
       <c r="I275" s="52"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.75" customHeight="1">
       <c r="A276" s="66" t="s">
         <v>518</v>
       </c>
@@ -7254,7 +7272,7 @@
       <c r="H276" s="60"/>
       <c r="I276" s="53"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.75" customHeight="1">
       <c r="A277" s="66" t="s">
         <v>519</v>
       </c>
@@ -7267,7 +7285,7 @@
       <c r="H277" s="11"/>
       <c r="I277" s="52"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.75" customHeight="1">
       <c r="A278" s="66" t="s">
         <v>520</v>
       </c>
@@ -7280,7 +7298,7 @@
       <c r="H278" s="60"/>
       <c r="I278" s="53"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.75" customHeight="1">
       <c r="A279" s="66" t="s">
         <v>521</v>
       </c>
@@ -7293,7 +7311,7 @@
       <c r="H279" s="11"/>
       <c r="I279" s="52"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.75" customHeight="1">
       <c r="A280" s="66" t="s">
         <v>522</v>
       </c>
@@ -7306,7 +7324,7 @@
       <c r="H280" s="60"/>
       <c r="I280" s="53"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.75" customHeight="1">
       <c r="A281" s="66" t="s">
         <v>523</v>
       </c>
@@ -7319,7 +7337,7 @@
       <c r="H281" s="11"/>
       <c r="I281" s="52"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.75" customHeight="1">
       <c r="A282" s="66" t="s">
         <v>524</v>
       </c>
@@ -7332,7 +7350,7 @@
       <c r="H282" s="60"/>
       <c r="I282" s="53"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.75" customHeight="1">
       <c r="A283" s="66" t="s">
         <v>525</v>
       </c>
@@ -7345,7 +7363,7 @@
       <c r="H283" s="11"/>
       <c r="I283" s="52"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.75" customHeight="1">
       <c r="A284" s="66" t="s">
         <v>526</v>
       </c>
@@ -7358,7 +7376,7 @@
       <c r="H284" s="60"/>
       <c r="I284" s="53"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.75" customHeight="1">
       <c r="A285" s="66" t="s">
         <v>527</v>
       </c>
@@ -7371,7 +7389,7 @@
       <c r="H285" s="11"/>
       <c r="I285" s="52"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.75" customHeight="1">
       <c r="A286" s="66" t="s">
         <v>528</v>
       </c>
@@ -7384,7 +7402,7 @@
       <c r="H286" s="60"/>
       <c r="I286" s="53"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.75" customHeight="1">
       <c r="A287" s="66" t="s">
         <v>529</v>
       </c>
@@ -7397,7 +7415,7 @@
       <c r="H287" s="11"/>
       <c r="I287" s="52"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.75" customHeight="1">
       <c r="A288" s="66" t="s">
         <v>530</v>
       </c>
@@ -7410,7 +7428,7 @@
       <c r="H288" s="60"/>
       <c r="I288" s="53"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.75" customHeight="1">
       <c r="A289" s="66" t="s">
         <v>531</v>
       </c>
@@ -7423,7 +7441,7 @@
       <c r="H289" s="11"/>
       <c r="I289" s="52"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.75" customHeight="1">
       <c r="A290" s="66" t="s">
         <v>532</v>
       </c>
@@ -7436,7 +7454,7 @@
       <c r="H290" s="60"/>
       <c r="I290" s="53"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.75" customHeight="1">
       <c r="A291" s="66" t="s">
         <v>533</v>
       </c>
@@ -7449,7 +7467,7 @@
       <c r="H291" s="11"/>
       <c r="I291" s="52"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.75" customHeight="1">
       <c r="A292" s="66" t="s">
         <v>534</v>
       </c>
@@ -7462,7 +7480,7 @@
       <c r="H292" s="60"/>
       <c r="I292" s="53"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.75" customHeight="1">
       <c r="A293" s="66" t="s">
         <v>535</v>
       </c>
@@ -7475,7 +7493,7 @@
       <c r="H293" s="11"/>
       <c r="I293" s="52"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.75" customHeight="1">
       <c r="A294" s="66" t="s">
         <v>536</v>
       </c>
@@ -7488,7 +7506,7 @@
       <c r="H294" s="60"/>
       <c r="I294" s="53"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.75" customHeight="1">
       <c r="A295" s="66" t="s">
         <v>537</v>
       </c>
@@ -7501,7 +7519,7 @@
       <c r="H295" s="11"/>
       <c r="I295" s="52"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.75" customHeight="1">
       <c r="A296" s="66" t="s">
         <v>538</v>
       </c>
@@ -7514,7 +7532,7 @@
       <c r="H296" s="60"/>
       <c r="I296" s="53"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.75" customHeight="1">
       <c r="A297" s="66" t="s">
         <v>539</v>
       </c>
@@ -7527,7 +7545,7 @@
       <c r="H297" s="11"/>
       <c r="I297" s="52"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.75" customHeight="1">
       <c r="A298" s="66" t="s">
         <v>540</v>
       </c>
@@ -7540,7 +7558,7 @@
       <c r="H298" s="60"/>
       <c r="I298" s="53"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.75" customHeight="1">
       <c r="A299" s="66" t="s">
         <v>541</v>
       </c>
@@ -7553,7 +7571,7 @@
       <c r="H299" s="11"/>
       <c r="I299" s="52"/>
     </row>
-    <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.75" customHeight="1">
       <c r="A300" s="66" t="s">
         <v>542</v>
       </c>
@@ -7566,7 +7584,7 @@
       <c r="H300" s="60"/>
       <c r="I300" s="53"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.75" customHeight="1">
       <c r="A301" s="66" t="s">
         <v>543</v>
       </c>
@@ -7579,7 +7597,7 @@
       <c r="H301" s="11"/>
       <c r="I301" s="52"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.75" customHeight="1">
       <c r="A302" s="66" t="s">
         <v>544</v>
       </c>
@@ -7592,7 +7610,7 @@
       <c r="H302" s="60"/>
       <c r="I302" s="53"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.75" customHeight="1">
       <c r="A303" s="66" t="s">
         <v>545</v>
       </c>
@@ -7605,7 +7623,7 @@
       <c r="H303" s="11"/>
       <c r="I303" s="52"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7613,7 +7631,7 @@
       <c r="E304" s="3"/>
       <c r="H304" s="35"/>
     </row>
-    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7621,7 +7639,7 @@
       <c r="E305" s="3"/>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7629,7 +7647,7 @@
       <c r="E306" s="3"/>
       <c r="H306" s="35"/>
     </row>
-    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7637,7 +7655,7 @@
       <c r="E307" s="3"/>
       <c r="H307" s="35"/>
     </row>
-    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7645,7 +7663,7 @@
       <c r="E308" s="3"/>
       <c r="H308" s="35"/>
     </row>
-    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7653,7 +7671,7 @@
       <c r="E309" s="3"/>
       <c r="H309" s="35"/>
     </row>
-    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7661,7 +7679,7 @@
       <c r="E310" s="3"/>
       <c r="H310" s="35"/>
     </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7669,7 +7687,7 @@
       <c r="E311" s="3"/>
       <c r="H311" s="35"/>
     </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7677,7 +7695,7 @@
       <c r="E312" s="3"/>
       <c r="H312" s="35"/>
     </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7685,7 +7703,7 @@
       <c r="E313" s="3"/>
       <c r="H313" s="35"/>
     </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7693,7 +7711,7 @@
       <c r="E314" s="3"/>
       <c r="H314" s="35"/>
     </row>
-    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7701,7 +7719,7 @@
       <c r="E315" s="3"/>
       <c r="H315" s="35"/>
     </row>
-    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7709,7 +7727,7 @@
       <c r="E316" s="3"/>
       <c r="H316" s="35"/>
     </row>
-    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7717,7 +7735,7 @@
       <c r="E317" s="3"/>
       <c r="H317" s="35"/>
     </row>
-    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7725,7 +7743,7 @@
       <c r="E318" s="3"/>
       <c r="H318" s="35"/>
     </row>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7733,7 +7751,7 @@
       <c r="E319" s="3"/>
       <c r="H319" s="35"/>
     </row>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7741,7 +7759,7 @@
       <c r="E320" s="3"/>
       <c r="H320" s="35"/>
     </row>
-    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7749,7 +7767,7 @@
       <c r="E321" s="3"/>
       <c r="H321" s="35"/>
     </row>
-    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7757,7 +7775,7 @@
       <c r="E322" s="3"/>
       <c r="H322" s="35"/>
     </row>
-    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7765,7 +7783,7 @@
       <c r="E323" s="3"/>
       <c r="H323" s="35"/>
     </row>
-    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7773,7 +7791,7 @@
       <c r="E324" s="3"/>
       <c r="H324" s="35"/>
     </row>
-    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -7781,7 +7799,7 @@
       <c r="E325" s="3"/>
       <c r="H325" s="35"/>
     </row>
-    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -7789,7 +7807,7 @@
       <c r="E326" s="3"/>
       <c r="H326" s="35"/>
     </row>
-    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -7797,7 +7815,7 @@
       <c r="E327" s="3"/>
       <c r="H327" s="35"/>
     </row>
-    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7805,7 +7823,7 @@
       <c r="E328" s="3"/>
       <c r="H328" s="35"/>
     </row>
-    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7813,7 +7831,7 @@
       <c r="E329" s="3"/>
       <c r="H329" s="35"/>
     </row>
-    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7821,7 +7839,7 @@
       <c r="E330" s="3"/>
       <c r="H330" s="35"/>
     </row>
-    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7829,7 +7847,7 @@
       <c r="E331" s="3"/>
       <c r="H331" s="35"/>
     </row>
-    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7837,7 +7855,7 @@
       <c r="E332" s="3"/>
       <c r="H332" s="35"/>
     </row>
-    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7845,7 +7863,7 @@
       <c r="E333" s="3"/>
       <c r="H333" s="35"/>
     </row>
-    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -7853,7 +7871,7 @@
       <c r="E334" s="3"/>
       <c r="H334" s="35"/>
     </row>
-    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -7861,7 +7879,7 @@
       <c r="E335" s="3"/>
       <c r="H335" s="35"/>
     </row>
-    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -7869,7 +7887,7 @@
       <c r="E336" s="3"/>
       <c r="H336" s="35"/>
     </row>
-    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -7877,7 +7895,7 @@
       <c r="E337" s="3"/>
       <c r="H337" s="35"/>
     </row>
-    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -7885,7 +7903,7 @@
       <c r="E338" s="3"/>
       <c r="H338" s="35"/>
     </row>
-    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -7893,7 +7911,7 @@
       <c r="E339" s="3"/>
       <c r="H339" s="35"/>
     </row>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -7901,7 +7919,7 @@
       <c r="E340" s="3"/>
       <c r="H340" s="35"/>
     </row>
-    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -7909,7 +7927,7 @@
       <c r="E341" s="3"/>
       <c r="H341" s="35"/>
     </row>
-    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -7917,7 +7935,7 @@
       <c r="E342" s="3"/>
       <c r="H342" s="35"/>
     </row>
-    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -7925,7 +7943,7 @@
       <c r="E343" s="3"/>
       <c r="H343" s="35"/>
     </row>
-    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -7933,7 +7951,7 @@
       <c r="E344" s="3"/>
       <c r="H344" s="35"/>
     </row>
-    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -7941,7 +7959,7 @@
       <c r="E345" s="3"/>
       <c r="H345" s="35"/>
     </row>
-    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -7949,7 +7967,7 @@
       <c r="E346" s="3"/>
       <c r="H346" s="35"/>
     </row>
-    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -7957,7 +7975,7 @@
       <c r="E347" s="3"/>
       <c r="H347" s="35"/>
     </row>
-    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -7965,7 +7983,7 @@
       <c r="E348" s="3"/>
       <c r="H348" s="35"/>
     </row>
-    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -7973,7 +7991,7 @@
       <c r="E349" s="3"/>
       <c r="H349" s="35"/>
     </row>
-    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -7981,7 +7999,7 @@
       <c r="E350" s="3"/>
       <c r="H350" s="35"/>
     </row>
-    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -7989,7 +8007,7 @@
       <c r="E351" s="3"/>
       <c r="H351" s="35"/>
     </row>
-    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -7997,7 +8015,7 @@
       <c r="E352" s="3"/>
       <c r="H352" s="35"/>
     </row>
-    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8005,7 +8023,7 @@
       <c r="E353" s="3"/>
       <c r="H353" s="35"/>
     </row>
-    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -8013,7 +8031,7 @@
       <c r="E354" s="3"/>
       <c r="H354" s="35"/>
     </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -8021,7 +8039,7 @@
       <c r="E355" s="3"/>
       <c r="H355" s="35"/>
     </row>
-    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -8029,7 +8047,7 @@
       <c r="E356" s="3"/>
       <c r="H356" s="35"/>
     </row>
-    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -8037,7 +8055,7 @@
       <c r="E357" s="3"/>
       <c r="H357" s="35"/>
     </row>
-    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -8045,7 +8063,7 @@
       <c r="E358" s="3"/>
       <c r="H358" s="35"/>
     </row>
-    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -8053,7 +8071,7 @@
       <c r="E359" s="3"/>
       <c r="H359" s="35"/>
     </row>
-    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8061,7 +8079,7 @@
       <c r="E360" s="3"/>
       <c r="H360" s="35"/>
     </row>
-    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8069,7 +8087,7 @@
       <c r="E361" s="3"/>
       <c r="H361" s="35"/>
     </row>
-    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -8077,7 +8095,7 @@
       <c r="E362" s="3"/>
       <c r="H362" s="35"/>
     </row>
-    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -8085,7 +8103,7 @@
       <c r="E363" s="3"/>
       <c r="H363" s="35"/>
     </row>
-    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -8093,7 +8111,7 @@
       <c r="E364" s="3"/>
       <c r="H364" s="35"/>
     </row>
-    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -8101,7 +8119,7 @@
       <c r="E365" s="3"/>
       <c r="H365" s="35"/>
     </row>
-    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -8109,7 +8127,7 @@
       <c r="E366" s="3"/>
       <c r="H366" s="35"/>
     </row>
-    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8117,7 +8135,7 @@
       <c r="E367" s="3"/>
       <c r="H367" s="35"/>
     </row>
-    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -8125,7 +8143,7 @@
       <c r="E368" s="3"/>
       <c r="H368" s="35"/>
     </row>
-    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -8133,7 +8151,7 @@
       <c r="E369" s="3"/>
       <c r="H369" s="35"/>
     </row>
-    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -8141,7 +8159,7 @@
       <c r="E370" s="3"/>
       <c r="H370" s="35"/>
     </row>
-    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -8149,7 +8167,7 @@
       <c r="E371" s="3"/>
       <c r="H371" s="35"/>
     </row>
-    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -8157,7 +8175,7 @@
       <c r="E372" s="3"/>
       <c r="H372" s="35"/>
     </row>
-    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -8165,7 +8183,7 @@
       <c r="E373" s="3"/>
       <c r="H373" s="35"/>
     </row>
-    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -8173,7 +8191,7 @@
       <c r="E374" s="3"/>
       <c r="H374" s="35"/>
     </row>
-    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -8181,7 +8199,7 @@
       <c r="E375" s="3"/>
       <c r="H375" s="35"/>
     </row>
-    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -8189,7 +8207,7 @@
       <c r="E376" s="3"/>
       <c r="H376" s="35"/>
     </row>
-    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -8197,7 +8215,7 @@
       <c r="E377" s="3"/>
       <c r="H377" s="35"/>
     </row>
-    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -8205,7 +8223,7 @@
       <c r="E378" s="3"/>
       <c r="H378" s="35"/>
     </row>
-    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -8213,7 +8231,7 @@
       <c r="E379" s="3"/>
       <c r="H379" s="35"/>
     </row>
-    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -8221,7 +8239,7 @@
       <c r="E380" s="3"/>
       <c r="H380" s="35"/>
     </row>
-    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -8229,7 +8247,7 @@
       <c r="E381" s="3"/>
       <c r="H381" s="35"/>
     </row>
-    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -8237,7 +8255,7 @@
       <c r="E382" s="3"/>
       <c r="H382" s="35"/>
     </row>
-    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -8245,7 +8263,7 @@
       <c r="E383" s="3"/>
       <c r="H383" s="35"/>
     </row>
-    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -8253,7 +8271,7 @@
       <c r="E384" s="3"/>
       <c r="H384" s="35"/>
     </row>
-    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -8261,7 +8279,7 @@
       <c r="E385" s="3"/>
       <c r="H385" s="35"/>
     </row>
-    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -8269,7 +8287,7 @@
       <c r="E386" s="3"/>
       <c r="H386" s="35"/>
     </row>
-    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -8277,7 +8295,7 @@
       <c r="E387" s="3"/>
       <c r="H387" s="35"/>
     </row>
-    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -8285,7 +8303,7 @@
       <c r="E388" s="3"/>
       <c r="H388" s="35"/>
     </row>
-    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -8293,7 +8311,7 @@
       <c r="E389" s="3"/>
       <c r="H389" s="35"/>
     </row>
-    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -8301,7 +8319,7 @@
       <c r="E390" s="3"/>
       <c r="H390" s="35"/>
     </row>
-    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -8309,7 +8327,7 @@
       <c r="E391" s="3"/>
       <c r="H391" s="35"/>
     </row>
-    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -8317,7 +8335,7 @@
       <c r="E392" s="3"/>
       <c r="H392" s="35"/>
     </row>
-    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -8325,7 +8343,7 @@
       <c r="E393" s="3"/>
       <c r="H393" s="35"/>
     </row>
-    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -8333,7 +8351,7 @@
       <c r="E394" s="3"/>
       <c r="H394" s="35"/>
     </row>
-    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -8341,7 +8359,7 @@
       <c r="E395" s="3"/>
       <c r="H395" s="35"/>
     </row>
-    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -8349,7 +8367,7 @@
       <c r="E396" s="3"/>
       <c r="H396" s="35"/>
     </row>
-    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -8357,7 +8375,7 @@
       <c r="E397" s="3"/>
       <c r="H397" s="35"/>
     </row>
-    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -8365,7 +8383,7 @@
       <c r="E398" s="3"/>
       <c r="H398" s="35"/>
     </row>
-    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -8373,7 +8391,7 @@
       <c r="E399" s="3"/>
       <c r="H399" s="35"/>
     </row>
-    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -8381,7 +8399,7 @@
       <c r="E400" s="3"/>
       <c r="H400" s="35"/>
     </row>
-    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -8389,7 +8407,7 @@
       <c r="E401" s="3"/>
       <c r="H401" s="35"/>
     </row>
-    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -8397,7 +8415,7 @@
       <c r="E402" s="3"/>
       <c r="H402" s="35"/>
     </row>
-    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -8405,7 +8423,7 @@
       <c r="E403" s="3"/>
       <c r="H403" s="35"/>
     </row>
-    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -8413,7 +8431,7 @@
       <c r="E404" s="3"/>
       <c r="H404" s="35"/>
     </row>
-    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -8421,7 +8439,7 @@
       <c r="E405" s="3"/>
       <c r="H405" s="35"/>
     </row>
-    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -8429,7 +8447,7 @@
       <c r="E406" s="3"/>
       <c r="H406" s="35"/>
     </row>
-    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -8437,7 +8455,7 @@
       <c r="E407" s="3"/>
       <c r="H407" s="35"/>
     </row>
-    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -8445,7 +8463,7 @@
       <c r="E408" s="3"/>
       <c r="H408" s="35"/>
     </row>
-    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -8453,7 +8471,7 @@
       <c r="E409" s="3"/>
       <c r="H409" s="35"/>
     </row>
-    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -8461,7 +8479,7 @@
       <c r="E410" s="3"/>
       <c r="H410" s="35"/>
     </row>
-    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -8469,7 +8487,7 @@
       <c r="E411" s="3"/>
       <c r="H411" s="35"/>
     </row>
-    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -8477,7 +8495,7 @@
       <c r="E412" s="3"/>
       <c r="H412" s="35"/>
     </row>
-    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -8485,7 +8503,7 @@
       <c r="E413" s="3"/>
       <c r="H413" s="35"/>
     </row>
-    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -8493,7 +8511,7 @@
       <c r="E414" s="3"/>
       <c r="H414" s="35"/>
     </row>
-    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -8501,7 +8519,7 @@
       <c r="E415" s="3"/>
       <c r="H415" s="35"/>
     </row>
-    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -8509,7 +8527,7 @@
       <c r="E416" s="3"/>
       <c r="H416" s="35"/>
     </row>
-    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -8517,7 +8535,7 @@
       <c r="E417" s="3"/>
       <c r="H417" s="35"/>
     </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -8525,7 +8543,7 @@
       <c r="E418" s="3"/>
       <c r="H418" s="35"/>
     </row>
-    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -8533,7 +8551,7 @@
       <c r="E419" s="3"/>
       <c r="H419" s="35"/>
     </row>
-    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -8541,7 +8559,7 @@
       <c r="E420" s="3"/>
       <c r="H420" s="35"/>
     </row>
-    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -8549,7 +8567,7 @@
       <c r="E421" s="3"/>
       <c r="H421" s="35"/>
     </row>
-    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -8557,7 +8575,7 @@
       <c r="E422" s="3"/>
       <c r="H422" s="35"/>
     </row>
-    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -8565,7 +8583,7 @@
       <c r="E423" s="3"/>
       <c r="H423" s="35"/>
     </row>
-    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -8573,7 +8591,7 @@
       <c r="E424" s="3"/>
       <c r="H424" s="35"/>
     </row>
-    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -8581,7 +8599,7 @@
       <c r="E425" s="3"/>
       <c r="H425" s="35"/>
     </row>
-    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -8589,7 +8607,7 @@
       <c r="E426" s="3"/>
       <c r="H426" s="35"/>
     </row>
-    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -8597,7 +8615,7 @@
       <c r="E427" s="3"/>
       <c r="H427" s="35"/>
     </row>
-    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -8605,7 +8623,7 @@
       <c r="E428" s="3"/>
       <c r="H428" s="35"/>
     </row>
-    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -8613,7 +8631,7 @@
       <c r="E429" s="3"/>
       <c r="H429" s="35"/>
     </row>
-    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -8621,7 +8639,7 @@
       <c r="E430" s="3"/>
       <c r="H430" s="35"/>
     </row>
-    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -8629,7 +8647,7 @@
       <c r="E431" s="3"/>
       <c r="H431" s="35"/>
     </row>
-    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -8637,7 +8655,7 @@
       <c r="E432" s="3"/>
       <c r="H432" s="35"/>
     </row>
-    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -8645,7 +8663,7 @@
       <c r="E433" s="3"/>
       <c r="H433" s="35"/>
     </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -8653,7 +8671,7 @@
       <c r="E434" s="3"/>
       <c r="H434" s="35"/>
     </row>
-    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -8661,7 +8679,7 @@
       <c r="E435" s="3"/>
       <c r="H435" s="35"/>
     </row>
-    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -8669,7 +8687,7 @@
       <c r="E436" s="3"/>
       <c r="H436" s="35"/>
     </row>
-    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -8677,7 +8695,7 @@
       <c r="E437" s="3"/>
       <c r="H437" s="35"/>
     </row>
-    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -8685,7 +8703,7 @@
       <c r="E438" s="3"/>
       <c r="H438" s="35"/>
     </row>
-    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -8693,7 +8711,7 @@
       <c r="E439" s="3"/>
       <c r="H439" s="35"/>
     </row>
-    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -8701,7 +8719,7 @@
       <c r="E440" s="3"/>
       <c r="H440" s="35"/>
     </row>
-    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -8709,7 +8727,7 @@
       <c r="E441" s="3"/>
       <c r="H441" s="35"/>
     </row>
-    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -8717,7 +8735,7 @@
       <c r="E442" s="3"/>
       <c r="H442" s="35"/>
     </row>
-    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -8725,7 +8743,7 @@
       <c r="E443" s="3"/>
       <c r="H443" s="35"/>
     </row>
-    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -8733,7 +8751,7 @@
       <c r="E444" s="3"/>
       <c r="H444" s="35"/>
     </row>
-    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -8741,7 +8759,7 @@
       <c r="E445" s="3"/>
       <c r="H445" s="35"/>
     </row>
-    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -8749,7 +8767,7 @@
       <c r="E446" s="3"/>
       <c r="H446" s="35"/>
     </row>
-    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -8757,7 +8775,7 @@
       <c r="E447" s="3"/>
       <c r="H447" s="35"/>
     </row>
-    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -8765,7 +8783,7 @@
       <c r="E448" s="3"/>
       <c r="H448" s="35"/>
     </row>
-    <row r="449" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -8773,7 +8791,7 @@
       <c r="E449" s="3"/>
       <c r="H449" s="35"/>
     </row>
-    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -8781,7 +8799,7 @@
       <c r="E450" s="3"/>
       <c r="H450" s="35"/>
     </row>
-    <row r="451" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -8789,7 +8807,7 @@
       <c r="E451" s="3"/>
       <c r="H451" s="35"/>
     </row>
-    <row r="452" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -8797,7 +8815,7 @@
       <c r="E452" s="3"/>
       <c r="H452" s="35"/>
     </row>
-    <row r="453" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -8805,7 +8823,7 @@
       <c r="E453" s="3"/>
       <c r="H453" s="35"/>
     </row>
-    <row r="454" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -8813,7 +8831,7 @@
       <c r="E454" s="3"/>
       <c r="H454" s="35"/>
     </row>
-    <row r="455" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -8821,7 +8839,7 @@
       <c r="E455" s="3"/>
       <c r="H455" s="35"/>
     </row>
-    <row r="456" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -8829,7 +8847,7 @@
       <c r="E456" s="3"/>
       <c r="H456" s="35"/>
     </row>
-    <row r="457" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -8837,7 +8855,7 @@
       <c r="E457" s="3"/>
       <c r="H457" s="35"/>
     </row>
-    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -8845,7 +8863,7 @@
       <c r="E458" s="3"/>
       <c r="H458" s="35"/>
     </row>
-    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -8853,7 +8871,7 @@
       <c r="E459" s="3"/>
       <c r="H459" s="35"/>
     </row>
-    <row r="460" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -8861,7 +8879,7 @@
       <c r="E460" s="3"/>
       <c r="H460" s="35"/>
     </row>
-    <row r="461" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -8869,7 +8887,7 @@
       <c r="E461" s="3"/>
       <c r="H461" s="35"/>
     </row>
-    <row r="462" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -8877,7 +8895,7 @@
       <c r="E462" s="3"/>
       <c r="H462" s="35"/>
     </row>
-    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -8885,7 +8903,7 @@
       <c r="E463" s="3"/>
       <c r="H463" s="35"/>
     </row>
-    <row r="464" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -8893,7 +8911,7 @@
       <c r="E464" s="3"/>
       <c r="H464" s="35"/>
     </row>
-    <row r="465" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -8901,7 +8919,7 @@
       <c r="E465" s="3"/>
       <c r="H465" s="35"/>
     </row>
-    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -8909,7 +8927,7 @@
       <c r="E466" s="3"/>
       <c r="H466" s="35"/>
     </row>
-    <row r="467" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -8917,7 +8935,7 @@
       <c r="E467" s="3"/>
       <c r="H467" s="35"/>
     </row>
-    <row r="468" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -8925,7 +8943,7 @@
       <c r="E468" s="3"/>
       <c r="H468" s="35"/>
     </row>
-    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -8933,7 +8951,7 @@
       <c r="E469" s="3"/>
       <c r="H469" s="35"/>
     </row>
-    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -8941,7 +8959,7 @@
       <c r="E470" s="3"/>
       <c r="H470" s="35"/>
     </row>
-    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -8949,7 +8967,7 @@
       <c r="E471" s="3"/>
       <c r="H471" s="35"/>
     </row>
-    <row r="472" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -8957,7 +8975,7 @@
       <c r="E472" s="3"/>
       <c r="H472" s="35"/>
     </row>
-    <row r="473" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -8965,7 +8983,7 @@
       <c r="E473" s="3"/>
       <c r="H473" s="35"/>
     </row>
-    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -8973,7 +8991,7 @@
       <c r="E474" s="3"/>
       <c r="H474" s="35"/>
     </row>
-    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -8981,7 +8999,7 @@
       <c r="E475" s="3"/>
       <c r="H475" s="35"/>
     </row>
-    <row r="476" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -8989,7 +9007,7 @@
       <c r="E476" s="3"/>
       <c r="H476" s="35"/>
     </row>
-    <row r="477" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -8997,7 +9015,7 @@
       <c r="E477" s="3"/>
       <c r="H477" s="35"/>
     </row>
-    <row r="478" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -9005,7 +9023,7 @@
       <c r="E478" s="3"/>
       <c r="H478" s="35"/>
     </row>
-    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -9013,7 +9031,7 @@
       <c r="E479" s="3"/>
       <c r="H479" s="35"/>
     </row>
-    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -9021,7 +9039,7 @@
       <c r="E480" s="3"/>
       <c r="H480" s="35"/>
     </row>
-    <row r="481" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -9029,7 +9047,7 @@
       <c r="E481" s="3"/>
       <c r="H481" s="35"/>
     </row>
-    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -9037,7 +9055,7 @@
       <c r="E482" s="3"/>
       <c r="H482" s="35"/>
     </row>
-    <row r="483" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -9045,7 +9063,7 @@
       <c r="E483" s="3"/>
       <c r="H483" s="35"/>
     </row>
-    <row r="484" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -9053,7 +9071,7 @@
       <c r="E484" s="3"/>
       <c r="H484" s="35"/>
     </row>
-    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -9061,7 +9079,7 @@
       <c r="E485" s="3"/>
       <c r="H485" s="35"/>
     </row>
-    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -9069,7 +9087,7 @@
       <c r="E486" s="3"/>
       <c r="H486" s="35"/>
     </row>
-    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -9077,7 +9095,7 @@
       <c r="E487" s="3"/>
       <c r="H487" s="35"/>
     </row>
-    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -9085,7 +9103,7 @@
       <c r="E488" s="3"/>
       <c r="H488" s="35"/>
     </row>
-    <row r="489" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -9093,7 +9111,7 @@
       <c r="E489" s="3"/>
       <c r="H489" s="35"/>
     </row>
-    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -9101,7 +9119,7 @@
       <c r="E490" s="3"/>
       <c r="H490" s="35"/>
     </row>
-    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -9109,7 +9127,7 @@
       <c r="E491" s="3"/>
       <c r="H491" s="35"/>
     </row>
-    <row r="492" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -9117,7 +9135,7 @@
       <c r="E492" s="3"/>
       <c r="H492" s="35"/>
     </row>
-    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -9125,7 +9143,7 @@
       <c r="E493" s="3"/>
       <c r="H493" s="35"/>
     </row>
-    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -9133,7 +9151,7 @@
       <c r="E494" s="3"/>
       <c r="H494" s="35"/>
     </row>
-    <row r="495" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -9141,7 +9159,7 @@
       <c r="E495" s="3"/>
       <c r="H495" s="35"/>
     </row>
-    <row r="496" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -9149,7 +9167,7 @@
       <c r="E496" s="3"/>
       <c r="H496" s="35"/>
     </row>
-    <row r="497" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -9157,7 +9175,7 @@
       <c r="E497" s="3"/>
       <c r="H497" s="35"/>
     </row>
-    <row r="498" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -9165,7 +9183,7 @@
       <c r="E498" s="3"/>
       <c r="H498" s="35"/>
     </row>
-    <row r="499" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -9173,7 +9191,7 @@
       <c r="E499" s="3"/>
       <c r="H499" s="35"/>
     </row>
-    <row r="500" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -9181,7 +9199,7 @@
       <c r="E500" s="3"/>
       <c r="H500" s="35"/>
     </row>
-    <row r="501" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -9189,7 +9207,7 @@
       <c r="E501" s="3"/>
       <c r="H501" s="35"/>
     </row>
-    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -9197,7 +9215,7 @@
       <c r="E502" s="3"/>
       <c r="H502" s="35"/>
     </row>
-    <row r="503" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -9205,7 +9223,7 @@
       <c r="E503" s="3"/>
       <c r="H503" s="35"/>
     </row>
-    <row r="504" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -9213,7 +9231,7 @@
       <c r="E504" s="3"/>
       <c r="H504" s="35"/>
     </row>
-    <row r="505" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -9221,7 +9239,7 @@
       <c r="E505" s="3"/>
       <c r="H505" s="35"/>
     </row>
-    <row r="506" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -9229,7 +9247,7 @@
       <c r="E506" s="3"/>
       <c r="H506" s="35"/>
     </row>
-    <row r="507" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -9237,7 +9255,7 @@
       <c r="E507" s="3"/>
       <c r="H507" s="35"/>
     </row>
-    <row r="508" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -9245,7 +9263,7 @@
       <c r="E508" s="3"/>
       <c r="H508" s="35"/>
     </row>
-    <row r="509" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -9253,7 +9271,7 @@
       <c r="E509" s="3"/>
       <c r="H509" s="35"/>
     </row>
-    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -9261,7 +9279,7 @@
       <c r="E510" s="3"/>
       <c r="H510" s="35"/>
     </row>
-    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -9269,7 +9287,7 @@
       <c r="E511" s="3"/>
       <c r="H511" s="35"/>
     </row>
-    <row r="512" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -9277,7 +9295,7 @@
       <c r="E512" s="3"/>
       <c r="H512" s="35"/>
     </row>
-    <row r="513" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -9285,7 +9303,7 @@
       <c r="E513" s="3"/>
       <c r="H513" s="35"/>
     </row>
-    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -9293,7 +9311,7 @@
       <c r="E514" s="3"/>
       <c r="H514" s="35"/>
     </row>
-    <row r="515" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -9301,7 +9319,7 @@
       <c r="E515" s="3"/>
       <c r="H515" s="35"/>
     </row>
-    <row r="516" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -9309,7 +9327,7 @@
       <c r="E516" s="3"/>
       <c r="H516" s="35"/>
     </row>
-    <row r="517" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -9317,7 +9335,7 @@
       <c r="E517" s="3"/>
       <c r="H517" s="35"/>
     </row>
-    <row r="518" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -9325,7 +9343,7 @@
       <c r="E518" s="3"/>
       <c r="H518" s="35"/>
     </row>
-    <row r="519" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -9333,7 +9351,7 @@
       <c r="E519" s="3"/>
       <c r="H519" s="35"/>
     </row>
-    <row r="520" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -9341,7 +9359,7 @@
       <c r="E520" s="3"/>
       <c r="H520" s="35"/>
     </row>
-    <row r="521" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -9349,7 +9367,7 @@
       <c r="E521" s="3"/>
       <c r="H521" s="35"/>
     </row>
-    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -9357,7 +9375,7 @@
       <c r="E522" s="3"/>
       <c r="H522" s="35"/>
     </row>
-    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -9365,7 +9383,7 @@
       <c r="E523" s="3"/>
       <c r="H523" s="35"/>
     </row>
-    <row r="524" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -9373,7 +9391,7 @@
       <c r="E524" s="3"/>
       <c r="H524" s="35"/>
     </row>
-    <row r="525" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -9381,7 +9399,7 @@
       <c r="E525" s="3"/>
       <c r="H525" s="35"/>
     </row>
-    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -9389,7 +9407,7 @@
       <c r="E526" s="3"/>
       <c r="H526" s="35"/>
     </row>
-    <row r="527" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -9397,7 +9415,7 @@
       <c r="E527" s="3"/>
       <c r="H527" s="35"/>
     </row>
-    <row r="528" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -9405,7 +9423,7 @@
       <c r="E528" s="3"/>
       <c r="H528" s="35"/>
     </row>
-    <row r="529" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -9413,7 +9431,7 @@
       <c r="E529" s="3"/>
       <c r="H529" s="35"/>
     </row>
-    <row r="530" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -9421,7 +9439,7 @@
       <c r="E530" s="3"/>
       <c r="H530" s="35"/>
     </row>
-    <row r="531" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -9429,7 +9447,7 @@
       <c r="E531" s="3"/>
       <c r="H531" s="35"/>
     </row>
-    <row r="532" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -9437,7 +9455,7 @@
       <c r="E532" s="3"/>
       <c r="H532" s="35"/>
     </row>
-    <row r="533" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -9445,7 +9463,7 @@
       <c r="E533" s="3"/>
       <c r="H533" s="35"/>
     </row>
-    <row r="534" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -9453,7 +9471,7 @@
       <c r="E534" s="3"/>
       <c r="H534" s="35"/>
     </row>
-    <row r="535" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -9461,7 +9479,7 @@
       <c r="E535" s="3"/>
       <c r="H535" s="35"/>
     </row>
-    <row r="536" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -9469,7 +9487,7 @@
       <c r="E536" s="3"/>
       <c r="H536" s="35"/>
     </row>
-    <row r="537" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -9477,7 +9495,7 @@
       <c r="E537" s="3"/>
       <c r="H537" s="35"/>
     </row>
-    <row r="538" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -9485,7 +9503,7 @@
       <c r="E538" s="3"/>
       <c r="H538" s="35"/>
     </row>
-    <row r="539" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -9493,7 +9511,7 @@
       <c r="E539" s="3"/>
       <c r="H539" s="35"/>
     </row>
-    <row r="540" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -9501,7 +9519,7 @@
       <c r="E540" s="3"/>
       <c r="H540" s="35"/>
     </row>
-    <row r="541" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -9509,7 +9527,7 @@
       <c r="E541" s="3"/>
       <c r="H541" s="35"/>
     </row>
-    <row r="542" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -9517,7 +9535,7 @@
       <c r="E542" s="3"/>
       <c r="H542" s="35"/>
     </row>
-    <row r="543" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -9525,7 +9543,7 @@
       <c r="E543" s="3"/>
       <c r="H543" s="35"/>
     </row>
-    <row r="544" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -9533,7 +9551,7 @@
       <c r="E544" s="3"/>
       <c r="H544" s="35"/>
     </row>
-    <row r="545" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -9541,7 +9559,7 @@
       <c r="E545" s="3"/>
       <c r="H545" s="35"/>
     </row>
-    <row r="546" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -9549,7 +9567,7 @@
       <c r="E546" s="3"/>
       <c r="H546" s="35"/>
     </row>
-    <row r="547" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -9557,7 +9575,7 @@
       <c r="E547" s="3"/>
       <c r="H547" s="35"/>
     </row>
-    <row r="548" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -9565,7 +9583,7 @@
       <c r="E548" s="3"/>
       <c r="H548" s="35"/>
     </row>
-    <row r="549" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -9573,7 +9591,7 @@
       <c r="E549" s="3"/>
       <c r="H549" s="35"/>
     </row>
-    <row r="550" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -9581,7 +9599,7 @@
       <c r="E550" s="3"/>
       <c r="H550" s="35"/>
     </row>
-    <row r="551" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -9589,7 +9607,7 @@
       <c r="E551" s="3"/>
       <c r="H551" s="35"/>
     </row>
-    <row r="552" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -9597,7 +9615,7 @@
       <c r="E552" s="3"/>
       <c r="H552" s="35"/>
     </row>
-    <row r="553" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -9605,7 +9623,7 @@
       <c r="E553" s="3"/>
       <c r="H553" s="35"/>
     </row>
-    <row r="554" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -9613,7 +9631,7 @@
       <c r="E554" s="3"/>
       <c r="H554" s="35"/>
     </row>
-    <row r="555" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -9621,7 +9639,7 @@
       <c r="E555" s="3"/>
       <c r="H555" s="35"/>
     </row>
-    <row r="556" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -9629,7 +9647,7 @@
       <c r="E556" s="3"/>
       <c r="H556" s="35"/>
     </row>
-    <row r="557" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -9637,7 +9655,7 @@
       <c r="E557" s="3"/>
       <c r="H557" s="35"/>
     </row>
-    <row r="558" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -9645,7 +9663,7 @@
       <c r="E558" s="3"/>
       <c r="H558" s="35"/>
     </row>
-    <row r="559" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -9653,7 +9671,7 @@
       <c r="E559" s="3"/>
       <c r="H559" s="35"/>
     </row>
-    <row r="560" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -9661,7 +9679,7 @@
       <c r="E560" s="3"/>
       <c r="H560" s="35"/>
     </row>
-    <row r="561" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -9669,7 +9687,7 @@
       <c r="E561" s="3"/>
       <c r="H561" s="35"/>
     </row>
-    <row r="562" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -9677,7 +9695,7 @@
       <c r="E562" s="3"/>
       <c r="H562" s="35"/>
     </row>
-    <row r="563" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -9685,7 +9703,7 @@
       <c r="E563" s="3"/>
       <c r="H563" s="35"/>
     </row>
-    <row r="564" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -9693,7 +9711,7 @@
       <c r="E564" s="3"/>
       <c r="H564" s="35"/>
     </row>
-    <row r="565" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -9701,7 +9719,7 @@
       <c r="E565" s="3"/>
       <c r="H565" s="35"/>
     </row>
-    <row r="566" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -9709,7 +9727,7 @@
       <c r="E566" s="3"/>
       <c r="H566" s="35"/>
     </row>
-    <row r="567" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -9717,7 +9735,7 @@
       <c r="E567" s="3"/>
       <c r="H567" s="35"/>
     </row>
-    <row r="568" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -9725,7 +9743,7 @@
       <c r="E568" s="3"/>
       <c r="H568" s="35"/>
     </row>
-    <row r="569" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -9733,7 +9751,7 @@
       <c r="E569" s="3"/>
       <c r="H569" s="35"/>
     </row>
-    <row r="570" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -9741,7 +9759,7 @@
       <c r="E570" s="3"/>
       <c r="H570" s="35"/>
     </row>
-    <row r="571" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -9749,7 +9767,7 @@
       <c r="E571" s="3"/>
       <c r="H571" s="35"/>
     </row>
-    <row r="572" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -9757,7 +9775,7 @@
       <c r="E572" s="3"/>
       <c r="H572" s="35"/>
     </row>
-    <row r="573" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -9765,7 +9783,7 @@
       <c r="E573" s="3"/>
       <c r="H573" s="35"/>
     </row>
-    <row r="574" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -9773,7 +9791,7 @@
       <c r="E574" s="3"/>
       <c r="H574" s="35"/>
     </row>
-    <row r="575" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -9781,7 +9799,7 @@
       <c r="E575" s="3"/>
       <c r="H575" s="35"/>
     </row>
-    <row r="576" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -9789,7 +9807,7 @@
       <c r="E576" s="3"/>
       <c r="H576" s="35"/>
     </row>
-    <row r="577" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -9797,7 +9815,7 @@
       <c r="E577" s="3"/>
       <c r="H577" s="35"/>
     </row>
-    <row r="578" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -9805,7 +9823,7 @@
       <c r="E578" s="3"/>
       <c r="H578" s="35"/>
     </row>
-    <row r="579" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -9813,7 +9831,7 @@
       <c r="E579" s="3"/>
       <c r="H579" s="35"/>
     </row>
-    <row r="580" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -9821,7 +9839,7 @@
       <c r="E580" s="3"/>
       <c r="H580" s="35"/>
     </row>
-    <row r="581" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -9829,7 +9847,7 @@
       <c r="E581" s="3"/>
       <c r="H581" s="35"/>
     </row>
-    <row r="582" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -9837,7 +9855,7 @@
       <c r="E582" s="3"/>
       <c r="H582" s="35"/>
     </row>
-    <row r="583" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -9845,7 +9863,7 @@
       <c r="E583" s="3"/>
       <c r="H583" s="35"/>
     </row>
-    <row r="584" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -9853,7 +9871,7 @@
       <c r="E584" s="3"/>
       <c r="H584" s="35"/>
     </row>
-    <row r="585" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -9861,7 +9879,7 @@
       <c r="E585" s="3"/>
       <c r="H585" s="35"/>
     </row>
-    <row r="586" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -9869,7 +9887,7 @@
       <c r="E586" s="3"/>
       <c r="H586" s="35"/>
     </row>
-    <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -9877,7 +9895,7 @@
       <c r="E587" s="3"/>
       <c r="H587" s="35"/>
     </row>
-    <row r="588" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -9885,7 +9903,7 @@
       <c r="E588" s="3"/>
       <c r="H588" s="35"/>
     </row>
-    <row r="589" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -9893,7 +9911,7 @@
       <c r="E589" s="3"/>
       <c r="H589" s="35"/>
     </row>
-    <row r="590" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -9901,7 +9919,7 @@
       <c r="E590" s="3"/>
       <c r="H590" s="35"/>
     </row>
-    <row r="591" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -9909,7 +9927,7 @@
       <c r="E591" s="3"/>
       <c r="H591" s="35"/>
     </row>
-    <row r="592" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -9917,7 +9935,7 @@
       <c r="E592" s="3"/>
       <c r="H592" s="35"/>
     </row>
-    <row r="593" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -9925,7 +9943,7 @@
       <c r="E593" s="3"/>
       <c r="H593" s="35"/>
     </row>
-    <row r="594" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -9933,7 +9951,7 @@
       <c r="E594" s="3"/>
       <c r="H594" s="35"/>
     </row>
-    <row r="595" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -9941,7 +9959,7 @@
       <c r="E595" s="3"/>
       <c r="H595" s="35"/>
     </row>
-    <row r="596" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -9949,7 +9967,7 @@
       <c r="E596" s="3"/>
       <c r="H596" s="35"/>
     </row>
-    <row r="597" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -9957,7 +9975,7 @@
       <c r="E597" s="3"/>
       <c r="H597" s="35"/>
     </row>
-    <row r="598" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -9965,7 +9983,7 @@
       <c r="E598" s="3"/>
       <c r="H598" s="35"/>
     </row>
-    <row r="599" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -9973,7 +9991,7 @@
       <c r="E599" s="3"/>
       <c r="H599" s="35"/>
     </row>
-    <row r="600" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -9981,7 +9999,7 @@
       <c r="E600" s="3"/>
       <c r="H600" s="35"/>
     </row>
-    <row r="601" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -9989,7 +10007,7 @@
       <c r="E601" s="3"/>
       <c r="H601" s="35"/>
     </row>
-    <row r="602" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -9997,7 +10015,7 @@
       <c r="E602" s="3"/>
       <c r="H602" s="35"/>
     </row>
-    <row r="603" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -10005,7 +10023,7 @@
       <c r="E603" s="3"/>
       <c r="H603" s="35"/>
     </row>
-    <row r="604" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -10013,7 +10031,7 @@
       <c r="E604" s="3"/>
       <c r="H604" s="35"/>
     </row>
-    <row r="605" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -10021,7 +10039,7 @@
       <c r="E605" s="3"/>
       <c r="H605" s="35"/>
     </row>
-    <row r="606" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -10029,7 +10047,7 @@
       <c r="E606" s="3"/>
       <c r="H606" s="35"/>
     </row>
-    <row r="607" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -10037,7 +10055,7 @@
       <c r="E607" s="3"/>
       <c r="H607" s="35"/>
     </row>
-    <row r="608" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -10045,7 +10063,7 @@
       <c r="E608" s="3"/>
       <c r="H608" s="35"/>
     </row>
-    <row r="609" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -10053,7 +10071,7 @@
       <c r="E609" s="3"/>
       <c r="H609" s="35"/>
     </row>
-    <row r="610" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -10061,7 +10079,7 @@
       <c r="E610" s="3"/>
       <c r="H610" s="35"/>
     </row>
-    <row r="611" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -10069,7 +10087,7 @@
       <c r="E611" s="3"/>
       <c r="H611" s="35"/>
     </row>
-    <row r="612" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -10077,7 +10095,7 @@
       <c r="E612" s="3"/>
       <c r="H612" s="35"/>
     </row>
-    <row r="613" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -10085,7 +10103,7 @@
       <c r="E613" s="3"/>
       <c r="H613" s="35"/>
     </row>
-    <row r="614" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -10093,7 +10111,7 @@
       <c r="E614" s="3"/>
       <c r="H614" s="35"/>
     </row>
-    <row r="615" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -10101,7 +10119,7 @@
       <c r="E615" s="3"/>
       <c r="H615" s="35"/>
     </row>
-    <row r="616" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -10109,7 +10127,7 @@
       <c r="E616" s="3"/>
       <c r="H616" s="35"/>
     </row>
-    <row r="617" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -10117,7 +10135,7 @@
       <c r="E617" s="3"/>
       <c r="H617" s="35"/>
     </row>
-    <row r="618" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -10125,7 +10143,7 @@
       <c r="E618" s="3"/>
       <c r="H618" s="35"/>
     </row>
-    <row r="619" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -10133,7 +10151,7 @@
       <c r="E619" s="3"/>
       <c r="H619" s="35"/>
     </row>
-    <row r="620" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -10141,7 +10159,7 @@
       <c r="E620" s="3"/>
       <c r="H620" s="35"/>
     </row>
-    <row r="621" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -10149,7 +10167,7 @@
       <c r="E621" s="3"/>
       <c r="H621" s="35"/>
     </row>
-    <row r="622" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -10157,7 +10175,7 @@
       <c r="E622" s="3"/>
       <c r="H622" s="35"/>
     </row>
-    <row r="623" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -10165,7 +10183,7 @@
       <c r="E623" s="3"/>
       <c r="H623" s="35"/>
     </row>
-    <row r="624" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -10173,7 +10191,7 @@
       <c r="E624" s="3"/>
       <c r="H624" s="35"/>
     </row>
-    <row r="625" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -10181,7 +10199,7 @@
       <c r="E625" s="3"/>
       <c r="H625" s="35"/>
     </row>
-    <row r="626" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -10189,7 +10207,7 @@
       <c r="E626" s="3"/>
       <c r="H626" s="35"/>
     </row>
-    <row r="627" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -10197,7 +10215,7 @@
       <c r="E627" s="3"/>
       <c r="H627" s="35"/>
     </row>
-    <row r="628" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -10205,7 +10223,7 @@
       <c r="E628" s="3"/>
       <c r="H628" s="35"/>
     </row>
-    <row r="629" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -10213,7 +10231,7 @@
       <c r="E629" s="3"/>
       <c r="H629" s="35"/>
     </row>
-    <row r="630" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -10221,7 +10239,7 @@
       <c r="E630" s="3"/>
       <c r="H630" s="35"/>
     </row>
-    <row r="631" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -10229,7 +10247,7 @@
       <c r="E631" s="3"/>
       <c r="H631" s="35"/>
     </row>
-    <row r="632" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -10237,7 +10255,7 @@
       <c r="E632" s="3"/>
       <c r="H632" s="35"/>
     </row>
-    <row r="633" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -10245,7 +10263,7 @@
       <c r="E633" s="3"/>
       <c r="H633" s="35"/>
     </row>
-    <row r="634" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -10253,7 +10271,7 @@
       <c r="E634" s="3"/>
       <c r="H634" s="35"/>
     </row>
-    <row r="635" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -10261,7 +10279,7 @@
       <c r="E635" s="3"/>
       <c r="H635" s="35"/>
     </row>
-    <row r="636" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -10269,7 +10287,7 @@
       <c r="E636" s="3"/>
       <c r="H636" s="35"/>
     </row>
-    <row r="637" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -10277,7 +10295,7 @@
       <c r="E637" s="3"/>
       <c r="H637" s="35"/>
     </row>
-    <row r="638" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -10285,7 +10303,7 @@
       <c r="E638" s="3"/>
       <c r="H638" s="35"/>
     </row>
-    <row r="639" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -10293,7 +10311,7 @@
       <c r="E639" s="3"/>
       <c r="H639" s="35"/>
     </row>
-    <row r="640" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -10301,7 +10319,7 @@
       <c r="E640" s="3"/>
       <c r="H640" s="35"/>
     </row>
-    <row r="641" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -10309,7 +10327,7 @@
       <c r="E641" s="3"/>
       <c r="H641" s="35"/>
     </row>
-    <row r="642" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -10317,7 +10335,7 @@
       <c r="E642" s="3"/>
       <c r="H642" s="35"/>
     </row>
-    <row r="643" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -10325,7 +10343,7 @@
       <c r="E643" s="3"/>
       <c r="H643" s="35"/>
     </row>
-    <row r="644" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -10333,7 +10351,7 @@
       <c r="E644" s="3"/>
       <c r="H644" s="35"/>
     </row>
-    <row r="645" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -10341,7 +10359,7 @@
       <c r="E645" s="3"/>
       <c r="H645" s="35"/>
     </row>
-    <row r="646" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -10349,7 +10367,7 @@
       <c r="E646" s="3"/>
       <c r="H646" s="35"/>
     </row>
-    <row r="647" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -10357,7 +10375,7 @@
       <c r="E647" s="3"/>
       <c r="H647" s="35"/>
     </row>
-    <row r="648" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -10365,7 +10383,7 @@
       <c r="E648" s="3"/>
       <c r="H648" s="35"/>
     </row>
-    <row r="649" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -10373,7 +10391,7 @@
       <c r="E649" s="3"/>
       <c r="H649" s="35"/>
     </row>
-    <row r="650" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -10381,7 +10399,7 @@
       <c r="E650" s="3"/>
       <c r="H650" s="35"/>
     </row>
-    <row r="651" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -10389,7 +10407,7 @@
       <c r="E651" s="3"/>
       <c r="H651" s="35"/>
     </row>
-    <row r="652" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -10397,7 +10415,7 @@
       <c r="E652" s="3"/>
       <c r="H652" s="35"/>
     </row>
-    <row r="653" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -10405,7 +10423,7 @@
       <c r="E653" s="3"/>
       <c r="H653" s="35"/>
     </row>
-    <row r="654" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -10413,7 +10431,7 @@
       <c r="E654" s="3"/>
       <c r="H654" s="35"/>
     </row>
-    <row r="655" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -10421,7 +10439,7 @@
       <c r="E655" s="3"/>
       <c r="H655" s="35"/>
     </row>
-    <row r="656" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -10429,7 +10447,7 @@
       <c r="E656" s="3"/>
       <c r="H656" s="35"/>
     </row>
-    <row r="657" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -10437,7 +10455,7 @@
       <c r="E657" s="3"/>
       <c r="H657" s="35"/>
     </row>
-    <row r="658" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -10445,7 +10463,7 @@
       <c r="E658" s="3"/>
       <c r="H658" s="35"/>
     </row>
-    <row r="659" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -10453,7 +10471,7 @@
       <c r="E659" s="3"/>
       <c r="H659" s="35"/>
     </row>
-    <row r="660" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -10461,7 +10479,7 @@
       <c r="E660" s="3"/>
       <c r="H660" s="35"/>
     </row>
-    <row r="661" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -10469,7 +10487,7 @@
       <c r="E661" s="3"/>
       <c r="H661" s="35"/>
     </row>
-    <row r="662" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -10477,7 +10495,7 @@
       <c r="E662" s="3"/>
       <c r="H662" s="35"/>
     </row>
-    <row r="663" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -10485,7 +10503,7 @@
       <c r="E663" s="3"/>
       <c r="H663" s="35"/>
     </row>
-    <row r="664" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -10493,7 +10511,7 @@
       <c r="E664" s="3"/>
       <c r="H664" s="35"/>
     </row>
-    <row r="665" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -10501,7 +10519,7 @@
       <c r="E665" s="3"/>
       <c r="H665" s="35"/>
     </row>
-    <row r="666" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -10509,7 +10527,7 @@
       <c r="E666" s="3"/>
       <c r="H666" s="35"/>
     </row>
-    <row r="667" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -10517,7 +10535,7 @@
       <c r="E667" s="3"/>
       <c r="H667" s="35"/>
     </row>
-    <row r="668" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -10525,7 +10543,7 @@
       <c r="E668" s="3"/>
       <c r="H668" s="35"/>
     </row>
-    <row r="669" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -10533,7 +10551,7 @@
       <c r="E669" s="3"/>
       <c r="H669" s="35"/>
     </row>
-    <row r="670" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -10541,7 +10559,7 @@
       <c r="E670" s="3"/>
       <c r="H670" s="35"/>
     </row>
-    <row r="671" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -10549,7 +10567,7 @@
       <c r="E671" s="3"/>
       <c r="H671" s="35"/>
     </row>
-    <row r="672" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -10557,7 +10575,7 @@
       <c r="E672" s="3"/>
       <c r="H672" s="35"/>
     </row>
-    <row r="673" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -10565,7 +10583,7 @@
       <c r="E673" s="3"/>
       <c r="H673" s="35"/>
     </row>
-    <row r="674" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -10573,7 +10591,7 @@
       <c r="E674" s="3"/>
       <c r="H674" s="35"/>
     </row>
-    <row r="675" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -10581,7 +10599,7 @@
       <c r="E675" s="3"/>
       <c r="H675" s="35"/>
     </row>
-    <row r="676" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -10589,7 +10607,7 @@
       <c r="E676" s="3"/>
       <c r="H676" s="35"/>
     </row>
-    <row r="677" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -10597,7 +10615,7 @@
       <c r="E677" s="3"/>
       <c r="H677" s="35"/>
     </row>
-    <row r="678" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -10605,7 +10623,7 @@
       <c r="E678" s="3"/>
       <c r="H678" s="35"/>
     </row>
-    <row r="679" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -10613,7 +10631,7 @@
       <c r="E679" s="3"/>
       <c r="H679" s="35"/>
     </row>
-    <row r="680" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -10621,7 +10639,7 @@
       <c r="E680" s="3"/>
       <c r="H680" s="35"/>
     </row>
-    <row r="681" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -10629,7 +10647,7 @@
       <c r="E681" s="3"/>
       <c r="H681" s="35"/>
     </row>
-    <row r="682" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -10637,7 +10655,7 @@
       <c r="E682" s="3"/>
       <c r="H682" s="35"/>
     </row>
-    <row r="683" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -10645,7 +10663,7 @@
       <c r="E683" s="3"/>
       <c r="H683" s="35"/>
     </row>
-    <row r="684" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -10653,7 +10671,7 @@
       <c r="E684" s="3"/>
       <c r="H684" s="35"/>
     </row>
-    <row r="685" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -10661,7 +10679,7 @@
       <c r="E685" s="3"/>
       <c r="H685" s="35"/>
     </row>
-    <row r="686" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -10669,7 +10687,7 @@
       <c r="E686" s="3"/>
       <c r="H686" s="35"/>
     </row>
-    <row r="687" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -10677,7 +10695,7 @@
       <c r="E687" s="3"/>
       <c r="H687" s="35"/>
     </row>
-    <row r="688" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -10685,7 +10703,7 @@
       <c r="E688" s="3"/>
       <c r="H688" s="35"/>
     </row>
-    <row r="689" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -10693,7 +10711,7 @@
       <c r="E689" s="3"/>
       <c r="H689" s="35"/>
     </row>
-    <row r="690" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -10701,7 +10719,7 @@
       <c r="E690" s="3"/>
       <c r="H690" s="35"/>
     </row>
-    <row r="691" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -10709,7 +10727,7 @@
       <c r="E691" s="3"/>
       <c r="H691" s="35"/>
     </row>
-    <row r="692" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -10717,7 +10735,7 @@
       <c r="E692" s="3"/>
       <c r="H692" s="35"/>
     </row>
-    <row r="693" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -10725,7 +10743,7 @@
       <c r="E693" s="3"/>
       <c r="H693" s="35"/>
     </row>
-    <row r="694" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -10733,7 +10751,7 @@
       <c r="E694" s="3"/>
       <c r="H694" s="35"/>
     </row>
-    <row r="695" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -10741,7 +10759,7 @@
       <c r="E695" s="3"/>
       <c r="H695" s="35"/>
     </row>
-    <row r="696" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -10749,7 +10767,7 @@
       <c r="E696" s="3"/>
       <c r="H696" s="35"/>
     </row>
-    <row r="697" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -10757,7 +10775,7 @@
       <c r="E697" s="3"/>
       <c r="H697" s="35"/>
     </row>
-    <row r="698" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -10765,7 +10783,7 @@
       <c r="E698" s="3"/>
       <c r="H698" s="35"/>
     </row>
-    <row r="699" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -10773,7 +10791,7 @@
       <c r="E699" s="3"/>
       <c r="H699" s="35"/>
     </row>
-    <row r="700" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -10781,7 +10799,7 @@
       <c r="E700" s="3"/>
       <c r="H700" s="35"/>
     </row>
-    <row r="701" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -10789,7 +10807,7 @@
       <c r="E701" s="3"/>
       <c r="H701" s="35"/>
     </row>
-    <row r="702" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -10797,7 +10815,7 @@
       <c r="E702" s="3"/>
       <c r="H702" s="35"/>
     </row>
-    <row r="703" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -10805,7 +10823,7 @@
       <c r="E703" s="3"/>
       <c r="H703" s="35"/>
     </row>
-    <row r="704" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -10813,7 +10831,7 @@
       <c r="E704" s="3"/>
       <c r="H704" s="35"/>
     </row>
-    <row r="705" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -10821,7 +10839,7 @@
       <c r="E705" s="3"/>
       <c r="H705" s="35"/>
     </row>
-    <row r="706" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -10829,7 +10847,7 @@
       <c r="E706" s="3"/>
       <c r="H706" s="35"/>
     </row>
-    <row r="707" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -10837,7 +10855,7 @@
       <c r="E707" s="3"/>
       <c r="H707" s="35"/>
     </row>
-    <row r="708" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -10845,7 +10863,7 @@
       <c r="E708" s="3"/>
       <c r="H708" s="35"/>
     </row>
-    <row r="709" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -10853,7 +10871,7 @@
       <c r="E709" s="3"/>
       <c r="H709" s="35"/>
     </row>
-    <row r="710" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -10861,7 +10879,7 @@
       <c r="E710" s="3"/>
       <c r="H710" s="35"/>
     </row>
-    <row r="711" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -10869,7 +10887,7 @@
       <c r="E711" s="3"/>
       <c r="H711" s="35"/>
     </row>
-    <row r="712" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -10877,7 +10895,7 @@
       <c r="E712" s="3"/>
       <c r="H712" s="35"/>
     </row>
-    <row r="713" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -10885,7 +10903,7 @@
       <c r="E713" s="3"/>
       <c r="H713" s="35"/>
     </row>
-    <row r="714" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -10893,7 +10911,7 @@
       <c r="E714" s="3"/>
       <c r="H714" s="35"/>
     </row>
-    <row r="715" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -10901,7 +10919,7 @@
       <c r="E715" s="3"/>
       <c r="H715" s="35"/>
     </row>
-    <row r="716" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -10909,7 +10927,7 @@
       <c r="E716" s="3"/>
       <c r="H716" s="35"/>
     </row>
-    <row r="717" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -10917,7 +10935,7 @@
       <c r="E717" s="3"/>
       <c r="H717" s="35"/>
     </row>
-    <row r="718" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -10925,7 +10943,7 @@
       <c r="E718" s="3"/>
       <c r="H718" s="35"/>
     </row>
-    <row r="719" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -10933,7 +10951,7 @@
       <c r="E719" s="3"/>
       <c r="H719" s="35"/>
     </row>
-    <row r="720" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -10941,7 +10959,7 @@
       <c r="E720" s="3"/>
       <c r="H720" s="35"/>
     </row>
-    <row r="721" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -10949,7 +10967,7 @@
       <c r="E721" s="3"/>
       <c r="H721" s="35"/>
     </row>
-    <row r="722" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -10957,7 +10975,7 @@
       <c r="E722" s="3"/>
       <c r="H722" s="35"/>
     </row>
-    <row r="723" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -10965,7 +10983,7 @@
       <c r="E723" s="3"/>
       <c r="H723" s="35"/>
     </row>
-    <row r="724" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -10973,7 +10991,7 @@
       <c r="E724" s="3"/>
       <c r="H724" s="35"/>
     </row>
-    <row r="725" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -10981,7 +10999,7 @@
       <c r="E725" s="3"/>
       <c r="H725" s="35"/>
     </row>
-    <row r="726" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -10989,7 +11007,7 @@
       <c r="E726" s="3"/>
       <c r="H726" s="35"/>
     </row>
-    <row r="727" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -10997,7 +11015,7 @@
       <c r="E727" s="3"/>
       <c r="H727" s="35"/>
     </row>
-    <row r="728" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -11005,7 +11023,7 @@
       <c r="E728" s="3"/>
       <c r="H728" s="35"/>
     </row>
-    <row r="729" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -11013,7 +11031,7 @@
       <c r="E729" s="3"/>
       <c r="H729" s="35"/>
     </row>
-    <row r="730" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -11021,7 +11039,7 @@
       <c r="E730" s="3"/>
       <c r="H730" s="35"/>
     </row>
-    <row r="731" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -11029,7 +11047,7 @@
       <c r="E731" s="3"/>
       <c r="H731" s="35"/>
     </row>
-    <row r="732" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -11037,7 +11055,7 @@
       <c r="E732" s="3"/>
       <c r="H732" s="35"/>
     </row>
-    <row r="733" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -11045,7 +11063,7 @@
       <c r="E733" s="3"/>
       <c r="H733" s="35"/>
     </row>
-    <row r="734" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -11053,7 +11071,7 @@
       <c r="E734" s="3"/>
       <c r="H734" s="35"/>
     </row>
-    <row r="735" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -11061,7 +11079,7 @@
       <c r="E735" s="3"/>
       <c r="H735" s="35"/>
     </row>
-    <row r="736" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -11069,7 +11087,7 @@
       <c r="E736" s="3"/>
       <c r="H736" s="35"/>
     </row>
-    <row r="737" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -11077,7 +11095,7 @@
       <c r="E737" s="3"/>
       <c r="H737" s="35"/>
     </row>
-    <row r="738" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -11085,7 +11103,7 @@
       <c r="E738" s="3"/>
       <c r="H738" s="35"/>
     </row>
-    <row r="739" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -11093,7 +11111,7 @@
       <c r="E739" s="3"/>
       <c r="H739" s="35"/>
     </row>
-    <row r="740" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -11101,7 +11119,7 @@
       <c r="E740" s="3"/>
       <c r="H740" s="35"/>
     </row>
-    <row r="741" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -11109,7 +11127,7 @@
       <c r="E741" s="3"/>
       <c r="H741" s="35"/>
     </row>
-    <row r="742" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -11117,7 +11135,7 @@
       <c r="E742" s="3"/>
       <c r="H742" s="35"/>
     </row>
-    <row r="743" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -11125,7 +11143,7 @@
       <c r="E743" s="3"/>
       <c r="H743" s="35"/>
     </row>
-    <row r="744" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -11133,7 +11151,7 @@
       <c r="E744" s="3"/>
       <c r="H744" s="35"/>
     </row>
-    <row r="745" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -11141,7 +11159,7 @@
       <c r="E745" s="3"/>
       <c r="H745" s="35"/>
     </row>
-    <row r="746" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -11149,7 +11167,7 @@
       <c r="E746" s="3"/>
       <c r="H746" s="35"/>
     </row>
-    <row r="747" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -11157,7 +11175,7 @@
       <c r="E747" s="3"/>
       <c r="H747" s="35"/>
     </row>
-    <row r="748" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -11165,7 +11183,7 @@
       <c r="E748" s="3"/>
       <c r="H748" s="35"/>
     </row>
-    <row r="749" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -11173,7 +11191,7 @@
       <c r="E749" s="3"/>
       <c r="H749" s="35"/>
     </row>
-    <row r="750" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -11181,7 +11199,7 @@
       <c r="E750" s="3"/>
       <c r="H750" s="35"/>
     </row>
-    <row r="751" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -11189,7 +11207,7 @@
       <c r="E751" s="3"/>
       <c r="H751" s="35"/>
     </row>
-    <row r="752" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -11197,7 +11215,7 @@
       <c r="E752" s="3"/>
       <c r="H752" s="35"/>
     </row>
-    <row r="753" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -11205,7 +11223,7 @@
       <c r="E753" s="3"/>
       <c r="H753" s="35"/>
     </row>
-    <row r="754" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -11213,7 +11231,7 @@
       <c r="E754" s="3"/>
       <c r="H754" s="35"/>
     </row>
-    <row r="755" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -11221,7 +11239,7 @@
       <c r="E755" s="3"/>
       <c r="H755" s="35"/>
     </row>
-    <row r="756" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -11229,7 +11247,7 @@
       <c r="E756" s="3"/>
       <c r="H756" s="35"/>
     </row>
-    <row r="757" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -11237,7 +11255,7 @@
       <c r="E757" s="3"/>
       <c r="H757" s="35"/>
     </row>
-    <row r="758" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -11245,7 +11263,7 @@
       <c r="E758" s="3"/>
       <c r="H758" s="35"/>
     </row>
-    <row r="759" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -11253,7 +11271,7 @@
       <c r="E759" s="3"/>
       <c r="H759" s="35"/>
     </row>
-    <row r="760" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -11261,7 +11279,7 @@
       <c r="E760" s="3"/>
       <c r="H760" s="35"/>
     </row>
-    <row r="761" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -11269,7 +11287,7 @@
       <c r="E761" s="3"/>
       <c r="H761" s="35"/>
     </row>
-    <row r="762" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -11277,7 +11295,7 @@
       <c r="E762" s="3"/>
       <c r="H762" s="35"/>
     </row>
-    <row r="763" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -11285,7 +11303,7 @@
       <c r="E763" s="3"/>
       <c r="H763" s="35"/>
     </row>
-    <row r="764" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -11293,7 +11311,7 @@
       <c r="E764" s="3"/>
       <c r="H764" s="35"/>
     </row>
-    <row r="765" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -11301,7 +11319,7 @@
       <c r="E765" s="3"/>
       <c r="H765" s="35"/>
     </row>
-    <row r="766" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -11309,7 +11327,7 @@
       <c r="E766" s="3"/>
       <c r="H766" s="35"/>
     </row>
-    <row r="767" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -11317,7 +11335,7 @@
       <c r="E767" s="3"/>
       <c r="H767" s="35"/>
     </row>
-    <row r="768" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -11325,7 +11343,7 @@
       <c r="E768" s="3"/>
       <c r="H768" s="35"/>
     </row>
-    <row r="769" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -11333,7 +11351,7 @@
       <c r="E769" s="3"/>
       <c r="H769" s="35"/>
     </row>
-    <row r="770" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -11341,7 +11359,7 @@
       <c r="E770" s="3"/>
       <c r="H770" s="35"/>
     </row>
-    <row r="771" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -11349,7 +11367,7 @@
       <c r="E771" s="3"/>
       <c r="H771" s="35"/>
     </row>
-    <row r="772" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -11357,7 +11375,7 @@
       <c r="E772" s="3"/>
       <c r="H772" s="35"/>
     </row>
-    <row r="773" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -11365,7 +11383,7 @@
       <c r="E773" s="3"/>
       <c r="H773" s="35"/>
     </row>
-    <row r="774" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -11373,7 +11391,7 @@
       <c r="E774" s="3"/>
       <c r="H774" s="35"/>
     </row>
-    <row r="775" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -11381,7 +11399,7 @@
       <c r="E775" s="3"/>
       <c r="H775" s="35"/>
     </row>
-    <row r="776" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -11389,7 +11407,7 @@
       <c r="E776" s="3"/>
       <c r="H776" s="35"/>
     </row>
-    <row r="777" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -11397,7 +11415,7 @@
       <c r="E777" s="3"/>
       <c r="H777" s="35"/>
     </row>
-    <row r="778" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -11405,7 +11423,7 @@
       <c r="E778" s="3"/>
       <c r="H778" s="35"/>
     </row>
-    <row r="779" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -11413,7 +11431,7 @@
       <c r="E779" s="3"/>
       <c r="H779" s="35"/>
     </row>
-    <row r="780" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -11421,7 +11439,7 @@
       <c r="E780" s="3"/>
       <c r="H780" s="35"/>
     </row>
-    <row r="781" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -11429,7 +11447,7 @@
       <c r="E781" s="3"/>
       <c r="H781" s="35"/>
     </row>
-    <row r="782" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -11437,7 +11455,7 @@
       <c r="E782" s="3"/>
       <c r="H782" s="35"/>
     </row>
-    <row r="783" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -11445,7 +11463,7 @@
       <c r="E783" s="3"/>
       <c r="H783" s="35"/>
     </row>
-    <row r="784" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -11453,7 +11471,7 @@
       <c r="E784" s="3"/>
       <c r="H784" s="35"/>
     </row>
-    <row r="785" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -11461,7 +11479,7 @@
       <c r="E785" s="3"/>
       <c r="H785" s="35"/>
     </row>
-    <row r="786" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -11469,7 +11487,7 @@
       <c r="E786" s="3"/>
       <c r="H786" s="35"/>
     </row>
-    <row r="787" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -11477,7 +11495,7 @@
       <c r="E787" s="3"/>
       <c r="H787" s="35"/>
     </row>
-    <row r="788" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -11485,7 +11503,7 @@
       <c r="E788" s="3"/>
       <c r="H788" s="35"/>
     </row>
-    <row r="789" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -11493,7 +11511,7 @@
       <c r="E789" s="3"/>
       <c r="H789" s="35"/>
     </row>
-    <row r="790" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -11501,7 +11519,7 @@
       <c r="E790" s="3"/>
       <c r="H790" s="35"/>
     </row>
-    <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -11509,7 +11527,7 @@
       <c r="E791" s="3"/>
       <c r="H791" s="35"/>
     </row>
-    <row r="792" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -11517,7 +11535,7 @@
       <c r="E792" s="3"/>
       <c r="H792" s="35"/>
     </row>
-    <row r="793" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -11525,7 +11543,7 @@
       <c r="E793" s="3"/>
       <c r="H793" s="35"/>
     </row>
-    <row r="794" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -11533,7 +11551,7 @@
       <c r="E794" s="3"/>
       <c r="H794" s="35"/>
     </row>
-    <row r="795" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -11541,7 +11559,7 @@
       <c r="E795" s="3"/>
       <c r="H795" s="35"/>
     </row>
-    <row r="796" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -11549,7 +11567,7 @@
       <c r="E796" s="3"/>
       <c r="H796" s="35"/>
     </row>
-    <row r="797" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -11557,7 +11575,7 @@
       <c r="E797" s="3"/>
       <c r="H797" s="35"/>
     </row>
-    <row r="798" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -11565,7 +11583,7 @@
       <c r="E798" s="3"/>
       <c r="H798" s="35"/>
     </row>
-    <row r="799" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -11573,7 +11591,7 @@
       <c r="E799" s="3"/>
       <c r="H799" s="35"/>
     </row>
-    <row r="800" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -11581,7 +11599,7 @@
       <c r="E800" s="3"/>
       <c r="H800" s="35"/>
     </row>
-    <row r="801" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -11589,7 +11607,7 @@
       <c r="E801" s="3"/>
       <c r="H801" s="35"/>
     </row>
-    <row r="802" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -11597,7 +11615,7 @@
       <c r="E802" s="3"/>
       <c r="H802" s="35"/>
     </row>
-    <row r="803" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -11605,7 +11623,7 @@
       <c r="E803" s="3"/>
       <c r="H803" s="35"/>
     </row>
-    <row r="804" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -11613,7 +11631,7 @@
       <c r="E804" s="3"/>
       <c r="H804" s="35"/>
     </row>
-    <row r="805" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -11621,7 +11639,7 @@
       <c r="E805" s="3"/>
       <c r="H805" s="35"/>
     </row>
-    <row r="806" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -11629,7 +11647,7 @@
       <c r="E806" s="3"/>
       <c r="H806" s="35"/>
     </row>
-    <row r="807" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -11637,7 +11655,7 @@
       <c r="E807" s="3"/>
       <c r="H807" s="35"/>
     </row>
-    <row r="808" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -11645,7 +11663,7 @@
       <c r="E808" s="3"/>
       <c r="H808" s="35"/>
     </row>
-    <row r="809" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -11653,7 +11671,7 @@
       <c r="E809" s="3"/>
       <c r="H809" s="35"/>
     </row>
-    <row r="810" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -11661,7 +11679,7 @@
       <c r="E810" s="3"/>
       <c r="H810" s="35"/>
     </row>
-    <row r="811" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -11669,7 +11687,7 @@
       <c r="E811" s="3"/>
       <c r="H811" s="35"/>
     </row>
-    <row r="812" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -11677,7 +11695,7 @@
       <c r="E812" s="3"/>
       <c r="H812" s="35"/>
     </row>
-    <row r="813" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -11685,7 +11703,7 @@
       <c r="E813" s="3"/>
       <c r="H813" s="35"/>
     </row>
-    <row r="814" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -11693,7 +11711,7 @@
       <c r="E814" s="3"/>
       <c r="H814" s="35"/>
     </row>
-    <row r="815" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -11701,7 +11719,7 @@
       <c r="E815" s="3"/>
       <c r="H815" s="35"/>
     </row>
-    <row r="816" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -11709,55 +11727,55 @@
       <c r="E816" s="3"/>
       <c r="H816" s="35"/>
     </row>
-    <row r="817" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:8" ht="15.75" customHeight="1">
       <c r="C817" s="1"/>
       <c r="D817" s="2"/>
       <c r="E817" s="3"/>
       <c r="H817" s="35"/>
     </row>
-    <row r="818" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:8" ht="15.75" customHeight="1">
       <c r="C818" s="1"/>
       <c r="D818" s="2"/>
       <c r="E818" s="3"/>
       <c r="H818" s="35"/>
     </row>
-    <row r="819" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:8" ht="15.75" customHeight="1">
       <c r="C819" s="1"/>
       <c r="D819" s="2"/>
       <c r="E819" s="3"/>
       <c r="H819" s="35"/>
     </row>
-    <row r="820" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:8" ht="15.75" customHeight="1">
       <c r="C820" s="1"/>
       <c r="D820" s="2"/>
       <c r="E820" s="3"/>
       <c r="H820" s="35"/>
     </row>
-    <row r="821" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:8" ht="15.75" customHeight="1">
       <c r="C821" s="1"/>
       <c r="D821" s="2"/>
       <c r="E821" s="3"/>
       <c r="H821" s="35"/>
     </row>
-    <row r="822" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:8" ht="15.75" customHeight="1">
       <c r="C822" s="1"/>
       <c r="D822" s="2"/>
       <c r="E822" s="3"/>
       <c r="H822" s="35"/>
     </row>
-    <row r="823" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:8" ht="15.75" customHeight="1">
       <c r="C823" s="1"/>
       <c r="D823" s="2"/>
       <c r="E823" s="3"/>
       <c r="H823" s="35"/>
     </row>
-    <row r="824" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:8" ht="15.75" customHeight="1">
       <c r="C824" s="1"/>
       <c r="D824" s="2"/>
       <c r="E824" s="3"/>
       <c r="H824" s="35"/>
     </row>
-    <row r="825" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:8" ht="15.75" customHeight="1">
       <c r="C825" s="1"/>
       <c r="D825" s="2"/>
       <c r="E825" s="3"/>
@@ -11777,14 +11795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC742C3F-311B-419F-9658-1AB4C336C8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -11799,7 +11817,7 @@
     <col min="20" max="20" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="49.5" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="25" t="s">
@@ -11814,7 +11832,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
@@ -11827,7 +11845,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -11859,7 +11877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="36"/>
       <c r="B5" s="37" t="s">
         <v>362</v>
@@ -11870,7 +11888,7 @@
       <c r="S5" s="36"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15">
       <c r="B6" s="38" t="s">
         <v>363</v>
       </c>
@@ -11878,7 +11896,7 @@
       <c r="K6" s="40"/>
       <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15">
       <c r="B7" s="38" t="s">
         <v>364</v>
       </c>
@@ -11886,7 +11904,7 @@
       <c r="K7" s="40"/>
       <c r="O7" s="43"/>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15">
       <c r="B8" s="38" t="s">
         <v>365</v>
       </c>
@@ -11894,17 +11912,17 @@
       <c r="K8" s="40"/>
       <c r="O8" s="43"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15">
       <c r="B10" s="37" t="s">
         <v>366</v>
       </c>
       <c r="K10" s="40"/>
       <c r="O10" s="43"/>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15">
       <c r="B11" s="38" t="s">
         <v>367</v>
       </c>
@@ -11918,6 +11936,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Army HQs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="565">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -1754,6 +1753,30 @@
   </si>
   <si>
     <t xml:space="preserve">Target in "Country as candidate for air attack" </t>
+  </si>
+  <si>
+    <t>Apatite Veichle Factory</t>
+  </si>
+  <si>
+    <t>Military vehicle factory. Produce SA-15 (2x production lines)</t>
+  </si>
+  <si>
+    <t>Apatite SAM Factory</t>
+  </si>
+  <si>
+    <t>Apatite Radar Factory</t>
+  </si>
+  <si>
+    <t>SAM factory. Produce SA-11 TEL (2x production lines)</t>
+  </si>
+  <si>
+    <t>Radar factory for SAMs (3 production lines)</t>
+  </si>
+  <si>
+    <t>Apatite West Vehicle Factory</t>
+  </si>
+  <si>
+    <t>Military vehicle factory (2x production lines)</t>
   </si>
 </sst>
 </file>
@@ -2318,15 +2341,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,6 +2361,15 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,7 +2408,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2420,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2417,7 +2440,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2446,7 +2469,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2507,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,9 +2735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L825"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2727,31 +2750,31 @@
     <col min="8" max="8" width="6.75" customWidth="1"/>
     <col min="9" max="9" width="52.625" customWidth="1"/>
     <col min="10" max="10" width="35" style="50" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="70" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="67" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="67" customWidth="1"/>
     <col min="13" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="74" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
       <c r="F2" s="26"/>
@@ -2790,10 +2813,10 @@
       <c r="J3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="73" t="s">
         <v>556</v>
       </c>
     </row>
@@ -2819,7 +2842,7 @@
       <c r="J4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="71" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2846,7 +2869,7 @@
       <c r="J5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2873,7 +2896,7 @@
       <c r="J6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2900,7 +2923,7 @@
       <c r="J7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2927,7 +2950,7 @@
       <c r="J8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2958,7 +2981,7 @@
       <c r="J9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -2989,7 +3012,7 @@
       <c r="J10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -3432,7 +3455,7 @@
       <c r="J28" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -3459,7 +3482,7 @@
       <c r="J29" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="70" t="s">
         <v>554</v>
       </c>
     </row>
@@ -3486,6 +3509,9 @@
       <c r="J30" s="50" t="s">
         <v>136</v>
       </c>
+      <c r="K30" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A31" s="30" t="s">
@@ -3510,8 +3536,8 @@
       <c r="J31" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" ht="14.25">
       <c r="A32" s="28" t="s">
@@ -3560,8 +3586,8 @@
       <c r="J33" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" s="49" customFormat="1" ht="14.25">
       <c r="A34" s="44" t="s">
@@ -3586,8 +3612,8 @@
       <c r="J34" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A35" s="30" t="s">
@@ -3612,8 +3638,8 @@
       <c r="J35" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" ht="14.25">
       <c r="A36" s="28" t="s">
@@ -3662,8 +3688,8 @@
       <c r="J37" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="14.25">
       <c r="A38" s="28" t="s">
@@ -3712,8 +3738,8 @@
       <c r="J39" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
       <c r="A40" s="28" t="s">
@@ -3762,8 +3788,8 @@
       <c r="J41" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:12" ht="14.25">
       <c r="A42" s="28" t="s">
@@ -3812,8 +3838,8 @@
       <c r="J43" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
     </row>
     <row r="44" spans="1:12" ht="14.25">
       <c r="A44" s="28" t="s">
@@ -3862,8 +3888,8 @@
       <c r="J45" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
     </row>
     <row r="46" spans="1:12" ht="14.25">
       <c r="A46" s="28" t="s">
@@ -3914,8 +3940,8 @@
       <c r="J47" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" ht="14.25">
       <c r="A48" s="28" t="s">
@@ -3968,8 +3994,10 @@
       <c r="J49" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="K49" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" ht="14.25">
       <c r="A50" s="28" t="s">
@@ -4022,8 +4050,8 @@
       <c r="J51" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
     </row>
     <row r="52" spans="1:12" ht="14.25">
       <c r="A52" s="28" t="s">
@@ -4256,7 +4284,7 @@
       <c r="J60" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="K60" s="75" t="s">
+      <c r="K60" s="72" t="s">
         <v>554</v>
       </c>
     </row>
@@ -4311,7 +4339,7 @@
       <c r="J62" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="K62" s="75" t="s">
+      <c r="K62" s="72" t="s">
         <v>554</v>
       </c>
     </row>
@@ -4367,7 +4395,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="28" t="s">
         <v>222</v>
       </c>
@@ -4393,7 +4421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="28" t="s">
         <v>223</v>
       </c>
@@ -4419,7 +4447,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="28" t="s">
         <v>224</v>
       </c>
@@ -4443,7 +4471,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="28" t="s">
         <v>225</v>
       </c>
@@ -4467,7 +4495,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="28" t="s">
         <v>226</v>
       </c>
@@ -4493,7 +4521,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="28" t="s">
         <v>227</v>
       </c>
@@ -4519,7 +4547,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="28" t="s">
         <v>228</v>
       </c>
@@ -4545,7 +4573,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="28" t="s">
         <v>229</v>
       </c>
@@ -4571,7 +4599,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="28" t="s">
         <v>230</v>
       </c>
@@ -4596,63 +4624,103 @@
       <c r="J73" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="K73" s="73" t="s">
+      <c r="K73" s="70" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="28" t="s">
         <v>231</v>
       </c>
       <c r="B74" s="28"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="D74" s="10"/>
       <c r="E74" s="5"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="52"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I74" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="K74" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L74" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B75" s="30"/>
-      <c r="C75" s="57"/>
+      <c r="C75" s="57" t="s">
+        <v>559</v>
+      </c>
       <c r="D75" s="58"/>
       <c r="E75" s="59"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="60"/>
-      <c r="I75" s="53"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I75" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L75" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="28" t="s">
         <v>233</v>
       </c>
       <c r="B76" s="28"/>
-      <c r="C76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>560</v>
+      </c>
       <c r="D76" s="10"/>
       <c r="E76" s="5"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I76" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="K76" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L76" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="28" t="s">
         <v>234</v>
       </c>
       <c r="B77" s="30"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>563</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="34"/>
-      <c r="I77" s="53"/>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I77" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L77" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="28" t="s">
         <v>235</v>
       </c>
@@ -4665,7 +4733,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="28" t="s">
         <v>236</v>
       </c>
@@ -4678,7 +4746,7 @@
       <c r="H79" s="60"/>
       <c r="I79" s="53"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="28" t="s">
         <v>237</v>
       </c>
@@ -11833,11 +11901,11 @@
       <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
       <c r="F2" s="26"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="566">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -1777,6 +1777,9 @@
   </si>
   <si>
     <t>Military vehicle factory (2x production lines)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67° 34.1905' N, 33° 22.0444' </t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2411,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2423,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2440,7 +2443,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2469,7 +2472,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2510,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D79" sqref="D79"/>
+      <selection pane="topRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4643,6 +4646,9 @@
       <c r="H74" s="11"/>
       <c r="I74" s="52" t="s">
         <v>558</v>
+      </c>
+      <c r="J74" s="50" t="s">
+        <v>565</v>
       </c>
       <c r="K74" s="70" t="s">
         <v>554</v>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="566">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -2411,7 +2411,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2423,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2443,7 +2443,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2472,7 +2472,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2510,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,9 +2738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A74" sqref="A74"/>
+      <selection pane="topRight" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4261,6 +4261,9 @@
       <c r="J59" s="65" t="s">
         <v>406</v>
       </c>
+      <c r="K59" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="28" t="s">
@@ -4315,6 +4318,9 @@
       </c>
       <c r="J61" s="65" t="s">
         <v>413</v>
+      </c>
+      <c r="K61" s="70" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -77,12 +77,113 @@
         </r>
       </text>
     </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Neck: Will be deleted, but here for SA so we know what targets have target folders for execution
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neck: Coordinate seem to be on a soccer field in DCS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neck: No structure that can be targeted at that location?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neck: Is this correct? Did not look like a power station in DCS?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neck: Is this correct? Did not look like a power relay in DCS?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="566">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -1779,7 +1880,7 @@
     <t>Military vehicle factory (2x production lines)</t>
   </si>
   <si>
-    <t xml:space="preserve">67° 34.1905' N, 33° 22.0444' </t>
+    <t>Target folder produced?</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2512,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2524,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2443,7 +2544,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2472,7 +2573,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2611,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,11 +2837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L825"/>
+  <dimension ref="A1:M825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L54" sqref="L54"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2752,13 +2853,14 @@
     <col min="5" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="6.75" customWidth="1"/>
     <col min="9" max="9" width="52.625" customWidth="1"/>
-    <col min="10" max="10" width="35" style="50" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="67" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="67" customWidth="1"/>
-    <col min="13" max="27" width="10" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="50" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="67" customWidth="1"/>
+    <col min="12" max="12" width="37.25" style="67" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.5" customHeight="1">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="76" t="s">
@@ -2772,7 +2874,7 @@
       <c r="I1" s="76"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="74" t="s">
         <v>553</v>
       </c>
@@ -2785,7 +2887,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -2822,8 +2924,11 @@
       <c r="L3" s="73" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25">
+      <c r="M3" s="73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -2849,7 +2954,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25">
+    <row r="5" spans="1:13" ht="14.25">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -2876,7 +2981,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25">
+    <row r="6" spans="1:13" ht="14.25">
       <c r="A6" s="28" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +3008,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25">
+    <row r="7" spans="1:13" ht="14.25">
       <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +3035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25">
+    <row r="8" spans="1:13" ht="14.25">
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
@@ -2957,7 +3062,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25">
+    <row r="9" spans="1:13" ht="14.25">
       <c r="A9" s="30" t="s">
         <v>36</v>
       </c>
@@ -2988,7 +3093,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25">
+    <row r="10" spans="1:13" ht="14.25">
       <c r="A10" s="28" t="s">
         <v>42</v>
       </c>
@@ -3019,7 +3124,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25">
+    <row r="11" spans="1:13" ht="14.25">
       <c r="A11" s="30" t="s">
         <v>46</v>
       </c>
@@ -3047,7 +3152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25">
+    <row r="12" spans="1:13" ht="14.25">
       <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
@@ -3075,7 +3180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25">
+    <row r="13" spans="1:13" ht="14.25">
       <c r="A13" s="30" t="s">
         <v>52</v>
       </c>
@@ -3099,7 +3204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25">
+    <row r="14" spans="1:13" ht="14.25">
       <c r="A14" s="28" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25">
+    <row r="15" spans="1:13" ht="14.25">
       <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
@@ -3147,7 +3252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25">
+    <row r="16" spans="1:13" ht="14.25">
       <c r="A16" s="28" t="s">
         <v>66</v>
       </c>
@@ -3290,6 +3395,9 @@
       <c r="J21" s="50" t="s">
         <v>93</v>
       </c>
+      <c r="K21" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25">
       <c r="A22" s="28" t="s">
@@ -3314,6 +3422,9 @@
       <c r="J22" s="50" t="s">
         <v>98</v>
       </c>
+      <c r="K22" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25">
       <c r="A23" s="30" t="s">
@@ -3539,7 +3650,9 @@
       <c r="J31" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K31" s="68"/>
+      <c r="K31" s="70" t="s">
+        <v>554</v>
+      </c>
       <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" ht="14.25">
@@ -3565,6 +3678,9 @@
       <c r="J32" s="50" t="s">
         <v>144</v>
       </c>
+      <c r="K32" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A33" s="30" t="s">
@@ -3943,7 +4059,9 @@
       <c r="J47" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="K47" s="68"/>
+      <c r="K47" s="70" t="s">
+        <v>554</v>
+      </c>
       <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" ht="14.25">
@@ -3971,6 +4089,9 @@
       <c r="J48" s="50" t="s">
         <v>373</v>
       </c>
+      <c r="K48" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="49" spans="1:12" s="62" customFormat="1" ht="14.25">
       <c r="A49" s="28" t="s">
@@ -4081,6 +4202,9 @@
       <c r="J52" s="50" t="s">
         <v>387</v>
       </c>
+      <c r="K52" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="14.25">
       <c r="A53" s="28" t="s">
@@ -4106,6 +4230,9 @@
       </c>
       <c r="J53" s="50" t="s">
         <v>389</v>
+      </c>
+      <c r="K53" s="70" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
@@ -4209,6 +4336,9 @@
       <c r="J57" s="50" t="s">
         <v>401</v>
       </c>
+      <c r="K57" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="28" t="s">
@@ -4234,6 +4364,9 @@
       </c>
       <c r="J58" s="50" t="s">
         <v>403</v>
+      </c>
+      <c r="K58" s="70" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
@@ -4652,9 +4785,6 @@
       <c r="H74" s="11"/>
       <c r="I74" s="52" t="s">
         <v>558</v>
-      </c>
-      <c r="J74" s="50" t="s">
-        <v>565</v>
       </c>
       <c r="K74" s="70" t="s">
         <v>554</v>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -92,6 +92,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neck: The coordinate is not on a specific building</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0">
       <text>
         <r>
@@ -183,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="570">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -1881,6 +1895,18 @@
   </si>
   <si>
     <t>Target folder produced?</t>
+  </si>
+  <si>
+    <t>N 67 34.190 E 033 22.043</t>
+  </si>
+  <si>
+    <t>N 67 34.984 E 033 23.011</t>
+  </si>
+  <si>
+    <t>N 67 34.969 E 033 23.368</t>
+  </si>
+  <si>
+    <t>N 67 32.741 E 033 44.174</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2078,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,6 +2119,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -2287,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2475,6 +2513,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2512,7 +2557,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2569,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2544,7 +2589,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2573,7 +2618,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2656,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3203,6 +3248,9 @@
       <c r="J13" s="50" t="s">
         <v>55</v>
       </c>
+      <c r="K13" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.25">
       <c r="A14" s="28" t="s">
@@ -3211,7 +3259,7 @@
       <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="77" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="10"/>
@@ -3227,6 +3275,9 @@
       <c r="J14" s="50" t="s">
         <v>60</v>
       </c>
+      <c r="K14" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.25">
       <c r="A15" s="30" t="s">
@@ -3251,6 +3302,9 @@
       <c r="J15" s="50" t="s">
         <v>65</v>
       </c>
+      <c r="K15" s="70" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.25">
       <c r="A16" s="28" t="s">
@@ -3379,7 +3433,7 @@
       <c r="B21" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="78" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="7"/>
@@ -3607,7 +3661,7 @@
       <c r="B30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="77" t="s">
         <v>134</v>
       </c>
       <c r="D30" s="10"/>
@@ -4041,7 +4095,7 @@
       <c r="B47" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="77" t="s">
         <v>369</v>
       </c>
       <c r="D47" s="58" t="s">
@@ -4071,7 +4125,7 @@
       <c r="B48" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="79" t="s">
         <v>374</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -4786,6 +4840,9 @@
       <c r="I74" s="52" t="s">
         <v>558</v>
       </c>
+      <c r="J74" s="50" t="s">
+        <v>566</v>
+      </c>
       <c r="K74" s="70" t="s">
         <v>554</v>
       </c>
@@ -4809,6 +4866,9 @@
       <c r="I75" s="53" t="s">
         <v>561</v>
       </c>
+      <c r="J75" s="50" t="s">
+        <v>567</v>
+      </c>
       <c r="K75" s="70" t="s">
         <v>554</v>
       </c>
@@ -4832,6 +4892,9 @@
       <c r="I76" s="52" t="s">
         <v>562</v>
       </c>
+      <c r="J76" s="50" t="s">
+        <v>568</v>
+      </c>
       <c r="K76" s="70" t="s">
         <v>554</v>
       </c>
@@ -4854,6 +4917,9 @@
       <c r="H77" s="34"/>
       <c r="I77" s="52" t="s">
         <v>564</v>
+      </c>
+      <c r="J77" s="50" t="s">
+        <v>569</v>
       </c>
       <c r="K77" s="70" t="s">
         <v>554</v>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="696">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -3405,6 +3405,31 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3414,71 +3439,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3519,14 +3481,77 @@
     <xf numFmtId="0" fontId="29" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3537,31 +3562,6 @@
     <xf numFmtId="0" fontId="27" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -3600,7 +3600,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC3B029-0E15-780F-5F6C-F4C89D73339B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,7 +3612,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3632,7 +3632,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3704,7 +3704,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3749,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +3794,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{936A892A-9C6A-4256-9681-2089DBB6820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +3832,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3529DAF3-7791-4091-B9E6-ACAC5B7DA205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3880,7 +3880,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +3933,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +3986,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4084,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4137,7 +4137,7 @@
         <xdr:cNvPr id="3" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4190,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4284,7 +4284,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4337,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4432,7 +4432,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4490,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,7 +4543,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,7 +4635,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,16 +4911,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B84" sqref="B84"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="162" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="118" customWidth="1"/>
     <col min="4" max="6" width="7.125" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
     <col min="8" max="8" width="52.625" customWidth="1"/>
@@ -4933,23 +4933,23 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="121" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="119" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="17"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -4963,7 +4963,7 @@
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="112" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -5001,7 +5001,7 @@
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C4" s="110">
         <v>3</v>
       </c>
       <c r="D4" s="9"/>
@@ -5026,7 +5026,7 @@
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="157">
+      <c r="C5" s="113">
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
@@ -5052,7 +5052,7 @@
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="110">
         <v>3</v>
       </c>
       <c r="D6" s="4"/>
@@ -5078,7 +5078,7 @@
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="113">
         <v>3</v>
       </c>
       <c r="D7" s="6"/>
@@ -5104,7 +5104,7 @@
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="110">
         <v>3</v>
       </c>
       <c r="D8" s="4"/>
@@ -5130,7 +5130,7 @@
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="157">
+      <c r="C9" s="113">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -5158,7 +5158,7 @@
       <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="158">
+      <c r="C10" s="114">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5186,7 +5186,7 @@
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="157">
+      <c r="C11" s="113">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -5211,7 +5211,7 @@
       <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="158">
+      <c r="C12" s="114">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5236,7 +5236,7 @@
       <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="113">
         <v>6</v>
       </c>
       <c r="D13" s="6"/>
@@ -5262,7 +5262,7 @@
       <c r="B14" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="158"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -5286,7 +5286,7 @@
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="157">
+      <c r="C15" s="113">
         <v>11</v>
       </c>
       <c r="D15" s="6"/>
@@ -5312,7 +5312,7 @@
       <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="158">
+      <c r="C16" s="114">
         <v>11</v>
       </c>
       <c r="D16" s="4"/>
@@ -5335,7 +5335,7 @@
       <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="157">
+      <c r="C17" s="113">
         <v>11</v>
       </c>
       <c r="D17" s="6"/>
@@ -5358,7 +5358,7 @@
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5379,7 +5379,7 @@
       <c r="B19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="157"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5400,7 +5400,7 @@
       <c r="B20" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="158"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -5424,7 +5424,7 @@
       <c r="B21" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="157"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5448,7 +5448,7 @@
       <c r="B22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="158"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -5472,7 +5472,7 @@
       <c r="B23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="157"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5493,7 +5493,7 @@
       <c r="B24" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="C24" s="158">
+      <c r="C24" s="114">
         <v>1</v>
       </c>
       <c r="D24" s="4"/>
@@ -5519,7 +5519,7 @@
       <c r="B25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="157">
+      <c r="C25" s="113">
         <v>6</v>
       </c>
       <c r="D25" s="6"/>
@@ -5534,6 +5534,9 @@
       <c r="I25" s="44" t="s">
         <v>107</v>
       </c>
+      <c r="J25" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="24" t="s">
@@ -5542,8 +5545,8 @@
       <c r="B26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="158">
-        <v>6</v>
+      <c r="C26" s="114">
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="7"/>
@@ -5568,7 +5571,7 @@
       <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="157"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5592,7 +5595,7 @@
       <c r="B28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="158"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="4"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -5616,7 +5619,7 @@
       <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="157"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5640,7 +5643,7 @@
       <c r="B30" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="158"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="4"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -5664,7 +5667,7 @@
       <c r="B31" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="159"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="52"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -5689,7 +5692,7 @@
       <c r="B32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="158"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5713,7 +5716,7 @@
       <c r="B33" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="159"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="52"/>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -5738,7 +5741,7 @@
       <c r="B34" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="160"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="41"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -5761,7 +5764,7 @@
       <c r="B35" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="159"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="52"/>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -5784,7 +5787,7 @@
       <c r="B36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="158"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -5805,7 +5808,7 @@
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="159"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="52"/>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -5828,7 +5831,7 @@
       <c r="B38" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="158"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -5849,7 +5852,7 @@
       <c r="B39" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="159"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="52"/>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
@@ -5872,7 +5875,7 @@
       <c r="B40" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="158"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -5893,7 +5896,7 @@
       <c r="B41" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="159"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="52"/>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
@@ -5916,7 +5919,7 @@
       <c r="B42" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="158"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -5937,7 +5940,7 @@
       <c r="B43" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="159"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="52"/>
       <c r="E43" s="51"/>
       <c r="F43" s="51"/>
@@ -5960,7 +5963,7 @@
       <c r="B44" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="158"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -5981,7 +5984,7 @@
       <c r="B45" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="159"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="52"/>
       <c r="E45" s="51"/>
       <c r="F45" s="51"/>
@@ -6004,7 +6007,7 @@
       <c r="B46" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="158"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -6025,7 +6028,7 @@
       <c r="B47" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="C47" s="159"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="52"/>
       <c r="E47" s="51"/>
       <c r="F47" s="51"/>
@@ -6050,7 +6053,7 @@
       <c r="B48" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="C48" s="158"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -6074,7 +6077,7 @@
       <c r="B49" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="C49" s="159"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="52"/>
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
@@ -6099,7 +6102,7 @@
       <c r="B50" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C50" s="158">
+      <c r="C50" s="114">
         <v>10</v>
       </c>
       <c r="D50" s="4"/>
@@ -6125,7 +6128,7 @@
       <c r="B51" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="C51" s="159"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="52"/>
       <c r="E51" s="51"/>
       <c r="F51" s="51"/>
@@ -6138,7 +6141,9 @@
       <c r="I51" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="J51" s="61"/>
+      <c r="J51" s="63" t="s">
+        <v>539</v>
+      </c>
       <c r="K51" s="61"/>
     </row>
     <row r="52" spans="1:11" ht="14.25">
@@ -6148,7 +6153,7 @@
       <c r="B52" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C52" s="158"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="4"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -6172,7 +6177,7 @@
       <c r="B53" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C53" s="157"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -6196,7 +6201,9 @@
       <c r="B54" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="158"/>
+      <c r="C54" s="114">
+        <v>6</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -6209,6 +6216,9 @@
       <c r="I54" s="44" t="s">
         <v>382</v>
       </c>
+      <c r="J54" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="24" t="s">
@@ -6217,7 +6227,9 @@
       <c r="B55" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="159"/>
+      <c r="C55" s="115">
+        <v>10</v>
+      </c>
       <c r="D55" s="52"/>
       <c r="E55" s="51"/>
       <c r="F55" s="51"/>
@@ -6230,6 +6242,9 @@
       <c r="I55" s="44" t="s">
         <v>385</v>
       </c>
+      <c r="J55" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="24" t="s">
@@ -6238,7 +6253,9 @@
       <c r="B56" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C56" s="158"/>
+      <c r="C56" s="114">
+        <v>8</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -6251,6 +6268,9 @@
       <c r="I56" s="44" t="s">
         <v>388</v>
       </c>
+      <c r="J56" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="24" t="s">
@@ -6259,7 +6279,7 @@
       <c r="B57" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C57" s="157">
+      <c r="C57" s="113">
         <v>10</v>
       </c>
       <c r="D57" s="6"/>
@@ -6285,7 +6305,7 @@
       <c r="B58" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C58" s="158"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="4"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -6309,7 +6329,7 @@
       <c r="B59" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="C59" s="159">
+      <c r="C59" s="115">
         <v>10</v>
       </c>
       <c r="D59" s="52"/>
@@ -6335,7 +6355,7 @@
       <c r="B60" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C60" s="158"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="4"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -6359,7 +6379,7 @@
       <c r="B61" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C61" s="157">
+      <c r="C61" s="113">
         <v>10</v>
       </c>
       <c r="D61" s="6"/>
@@ -6385,7 +6405,7 @@
       <c r="B62" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="158"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="4"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -6409,7 +6429,7 @@
       <c r="B63" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="C63" s="159"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="52"/>
       <c r="E63" s="51"/>
       <c r="F63" s="51"/>
@@ -6433,7 +6453,9 @@
       <c r="B64" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C64" s="158"/>
+      <c r="C64" s="114">
+        <v>2</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -6446,6 +6468,9 @@
       <c r="I64" s="58" t="s">
         <v>412</v>
       </c>
+      <c r="J64" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="24" t="s">
@@ -6454,7 +6479,7 @@
       <c r="B65" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C65" s="157"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="6"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -6475,7 +6500,7 @@
       <c r="B66" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C66" s="158"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="4"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -6496,7 +6521,7 @@
       <c r="B67" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="C67" s="159"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="52"/>
       <c r="E67" s="51"/>
       <c r="F67" s="51"/>
@@ -6517,7 +6542,7 @@
       <c r="B68" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C68" s="158"/>
+      <c r="C68" s="114"/>
       <c r="D68" s="4"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -6538,7 +6563,7 @@
       <c r="B69" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C69" s="157"/>
+      <c r="C69" s="113"/>
       <c r="D69" s="6"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -6559,7 +6584,7 @@
       <c r="B70" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C70" s="158"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="4"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -6580,7 +6605,9 @@
       <c r="B71" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="C71" s="159"/>
+      <c r="C71" s="115">
+        <v>2</v>
+      </c>
       <c r="D71" s="52"/>
       <c r="E71" s="51"/>
       <c r="F71" s="51"/>
@@ -6593,6 +6620,9 @@
       <c r="I71" s="58" t="s">
         <v>426</v>
       </c>
+      <c r="J71" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="24" t="s">
@@ -6601,7 +6631,9 @@
       <c r="B72" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C72" s="158"/>
+      <c r="C72" s="114">
+        <v>2</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -6614,6 +6646,9 @@
       <c r="I72" s="58" t="s">
         <v>428</v>
       </c>
+      <c r="J72" s="63" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="24" t="s">
@@ -6622,7 +6657,9 @@
       <c r="B73" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C73" s="157"/>
+      <c r="C73" s="113">
+        <v>2</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -6646,7 +6683,7 @@
       <c r="B74" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C74" s="158">
+      <c r="C74" s="114">
         <v>9</v>
       </c>
       <c r="D74" s="4"/>
@@ -6673,7 +6710,7 @@
       <c r="B75" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="C75" s="159">
+      <c r="C75" s="115">
         <v>9</v>
       </c>
       <c r="D75" s="52"/>
@@ -6700,7 +6737,7 @@
       <c r="B76" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C76" s="158">
+      <c r="C76" s="114">
         <v>9</v>
       </c>
       <c r="D76" s="4"/>
@@ -6727,7 +6764,7 @@
       <c r="B77" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C77" s="157">
+      <c r="C77" s="113">
         <v>9</v>
       </c>
       <c r="D77" s="6"/>
@@ -6752,7 +6789,7 @@
         <v>229</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="158"/>
+      <c r="C78" s="114"/>
       <c r="D78" s="4"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -6764,7 +6801,7 @@
         <v>230</v>
       </c>
       <c r="B79" s="51"/>
-      <c r="C79" s="159"/>
+      <c r="C79" s="115"/>
       <c r="D79" s="52"/>
       <c r="E79" s="51"/>
       <c r="F79" s="51"/>
@@ -6776,7 +6813,7 @@
         <v>231</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="158"/>
+      <c r="C80" s="114"/>
       <c r="D80" s="4"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -6788,7 +6825,7 @@
         <v>232</v>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="157"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="6"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -6800,7 +6837,7 @@
         <v>233</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="158"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="4"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -6812,7 +6849,7 @@
         <v>234</v>
       </c>
       <c r="B83" s="51"/>
-      <c r="C83" s="159"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="52"/>
       <c r="E83" s="51"/>
       <c r="F83" s="51"/>
@@ -6824,7 +6861,7 @@
         <v>235</v>
       </c>
       <c r="B84" s="7"/>
-      <c r="C84" s="158"/>
+      <c r="C84" s="114"/>
       <c r="D84" s="4"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -6836,7 +6873,7 @@
         <v>236</v>
       </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="157"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="6"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -6848,7 +6885,7 @@
         <v>237</v>
       </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="158"/>
+      <c r="C86" s="114"/>
       <c r="D86" s="4"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -6860,7 +6897,7 @@
         <v>238</v>
       </c>
       <c r="B87" s="51"/>
-      <c r="C87" s="159"/>
+      <c r="C87" s="115"/>
       <c r="D87" s="52"/>
       <c r="E87" s="51"/>
       <c r="F87" s="51"/>
@@ -6872,7 +6909,7 @@
         <v>239</v>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="158"/>
+      <c r="C88" s="114"/>
       <c r="D88" s="4"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -6884,7 +6921,7 @@
         <v>240</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="157"/>
+      <c r="C89" s="113"/>
       <c r="D89" s="6"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -6896,7 +6933,7 @@
         <v>241</v>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="158"/>
+      <c r="C90" s="114"/>
       <c r="D90" s="4"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -6908,7 +6945,7 @@
         <v>242</v>
       </c>
       <c r="B91" s="51"/>
-      <c r="C91" s="159"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="52"/>
       <c r="E91" s="51"/>
       <c r="F91" s="51"/>
@@ -6920,7 +6957,7 @@
         <v>243</v>
       </c>
       <c r="B92" s="7"/>
-      <c r="C92" s="158"/>
+      <c r="C92" s="114"/>
       <c r="D92" s="4"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -6932,7 +6969,7 @@
         <v>244</v>
       </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="157"/>
+      <c r="C93" s="113"/>
       <c r="D93" s="6"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -6944,7 +6981,7 @@
         <v>245</v>
       </c>
       <c r="B94" s="7"/>
-      <c r="C94" s="158"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="4"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -6956,7 +6993,7 @@
         <v>246</v>
       </c>
       <c r="B95" s="51"/>
-      <c r="C95" s="159"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="52"/>
       <c r="E95" s="51"/>
       <c r="F95" s="51"/>
@@ -6968,7 +7005,7 @@
         <v>247</v>
       </c>
       <c r="B96" s="7"/>
-      <c r="C96" s="158"/>
+      <c r="C96" s="114"/>
       <c r="D96" s="4"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -6980,7 +7017,7 @@
         <v>248</v>
       </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="157"/>
+      <c r="C97" s="113"/>
       <c r="D97" s="6"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -6992,7 +7029,7 @@
         <v>249</v>
       </c>
       <c r="B98" s="7"/>
-      <c r="C98" s="158"/>
+      <c r="C98" s="114"/>
       <c r="D98" s="4"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -7004,7 +7041,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="51"/>
-      <c r="C99" s="159"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="52"/>
       <c r="E99" s="51"/>
       <c r="F99" s="51"/>
@@ -7016,7 +7053,7 @@
         <v>251</v>
       </c>
       <c r="B100" s="7"/>
-      <c r="C100" s="158"/>
+      <c r="C100" s="114"/>
       <c r="D100" s="4"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -7028,7 +7065,7 @@
         <v>252</v>
       </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="157"/>
+      <c r="C101" s="113"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -7040,7 +7077,7 @@
         <v>253</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="158"/>
+      <c r="C102" s="114"/>
       <c r="D102" s="4"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -7052,7 +7089,7 @@
         <v>254</v>
       </c>
       <c r="B103" s="51"/>
-      <c r="C103" s="159"/>
+      <c r="C103" s="115"/>
       <c r="D103" s="52"/>
       <c r="E103" s="51"/>
       <c r="F103" s="51"/>
@@ -7064,7 +7101,7 @@
         <v>255</v>
       </c>
       <c r="B104" s="7"/>
-      <c r="C104" s="158"/>
+      <c r="C104" s="114"/>
       <c r="D104" s="4"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -7076,7 +7113,7 @@
         <v>256</v>
       </c>
       <c r="B105" s="5"/>
-      <c r="C105" s="157"/>
+      <c r="C105" s="113"/>
       <c r="D105" s="6"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7088,7 +7125,7 @@
         <v>257</v>
       </c>
       <c r="B106" s="7"/>
-      <c r="C106" s="158"/>
+      <c r="C106" s="114"/>
       <c r="D106" s="4"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -7100,7 +7137,7 @@
         <v>258</v>
       </c>
       <c r="B107" s="51"/>
-      <c r="C107" s="159"/>
+      <c r="C107" s="115"/>
       <c r="D107" s="52"/>
       <c r="E107" s="51"/>
       <c r="F107" s="51"/>
@@ -7112,7 +7149,7 @@
         <v>259</v>
       </c>
       <c r="B108" s="7"/>
-      <c r="C108" s="158"/>
+      <c r="C108" s="114"/>
       <c r="D108" s="4"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -7124,7 +7161,7 @@
         <v>260</v>
       </c>
       <c r="B109" s="5"/>
-      <c r="C109" s="157"/>
+      <c r="C109" s="113"/>
       <c r="D109" s="6"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -7136,7 +7173,7 @@
         <v>261</v>
       </c>
       <c r="B110" s="7"/>
-      <c r="C110" s="158"/>
+      <c r="C110" s="114"/>
       <c r="D110" s="4"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -7148,7 +7185,7 @@
         <v>262</v>
       </c>
       <c r="B111" s="51"/>
-      <c r="C111" s="159"/>
+      <c r="C111" s="115"/>
       <c r="D111" s="52"/>
       <c r="E111" s="51"/>
       <c r="F111" s="51"/>
@@ -7160,7 +7197,7 @@
         <v>263</v>
       </c>
       <c r="B112" s="7"/>
-      <c r="C112" s="158"/>
+      <c r="C112" s="114"/>
       <c r="D112" s="4"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -7172,7 +7209,7 @@
         <v>264</v>
       </c>
       <c r="B113" s="5"/>
-      <c r="C113" s="157"/>
+      <c r="C113" s="113"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -7184,7 +7221,7 @@
         <v>265</v>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="158"/>
+      <c r="C114" s="114"/>
       <c r="D114" s="4"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -7196,7 +7233,7 @@
         <v>266</v>
       </c>
       <c r="B115" s="51"/>
-      <c r="C115" s="159"/>
+      <c r="C115" s="115"/>
       <c r="D115" s="52"/>
       <c r="E115" s="51"/>
       <c r="F115" s="51"/>
@@ -7208,7 +7245,7 @@
         <v>267</v>
       </c>
       <c r="B116" s="7"/>
-      <c r="C116" s="158"/>
+      <c r="C116" s="114"/>
       <c r="D116" s="4"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -7220,7 +7257,7 @@
         <v>268</v>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="157"/>
+      <c r="C117" s="113"/>
       <c r="D117" s="6"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -7232,7 +7269,7 @@
         <v>269</v>
       </c>
       <c r="B118" s="7"/>
-      <c r="C118" s="158"/>
+      <c r="C118" s="114"/>
       <c r="D118" s="4"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -7244,7 +7281,7 @@
         <v>270</v>
       </c>
       <c r="B119" s="51"/>
-      <c r="C119" s="159"/>
+      <c r="C119" s="115"/>
       <c r="D119" s="52"/>
       <c r="E119" s="51"/>
       <c r="F119" s="51"/>
@@ -7256,7 +7293,7 @@
         <v>271</v>
       </c>
       <c r="B120" s="7"/>
-      <c r="C120" s="158"/>
+      <c r="C120" s="114"/>
       <c r="D120" s="4"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -7268,7 +7305,7 @@
         <v>272</v>
       </c>
       <c r="B121" s="5"/>
-      <c r="C121" s="157"/>
+      <c r="C121" s="113"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -7280,7 +7317,7 @@
         <v>273</v>
       </c>
       <c r="B122" s="7"/>
-      <c r="C122" s="158"/>
+      <c r="C122" s="114"/>
       <c r="D122" s="4"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -7292,7 +7329,7 @@
         <v>274</v>
       </c>
       <c r="B123" s="51"/>
-      <c r="C123" s="159"/>
+      <c r="C123" s="115"/>
       <c r="D123" s="52"/>
       <c r="E123" s="51"/>
       <c r="F123" s="51"/>
@@ -7304,7 +7341,7 @@
         <v>275</v>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="158"/>
+      <c r="C124" s="114"/>
       <c r="D124" s="4"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -7316,7 +7353,7 @@
         <v>276</v>
       </c>
       <c r="B125" s="5"/>
-      <c r="C125" s="157"/>
+      <c r="C125" s="113"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -7328,7 +7365,7 @@
         <v>277</v>
       </c>
       <c r="B126" s="7"/>
-      <c r="C126" s="158"/>
+      <c r="C126" s="114"/>
       <c r="D126" s="4"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -7340,7 +7377,7 @@
         <v>278</v>
       </c>
       <c r="B127" s="51"/>
-      <c r="C127" s="159"/>
+      <c r="C127" s="115"/>
       <c r="D127" s="52"/>
       <c r="E127" s="51"/>
       <c r="F127" s="51"/>
@@ -7352,7 +7389,7 @@
         <v>279</v>
       </c>
       <c r="B128" s="7"/>
-      <c r="C128" s="158"/>
+      <c r="C128" s="114"/>
       <c r="D128" s="4"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -7364,7 +7401,7 @@
         <v>280</v>
       </c>
       <c r="B129" s="51"/>
-      <c r="C129" s="159"/>
+      <c r="C129" s="115"/>
       <c r="D129" s="52"/>
       <c r="E129" s="51"/>
       <c r="F129" s="51"/>
@@ -7376,7 +7413,7 @@
         <v>281</v>
       </c>
       <c r="B130" s="7"/>
-      <c r="C130" s="158"/>
+      <c r="C130" s="114"/>
       <c r="D130" s="4"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -7388,7 +7425,7 @@
         <v>282</v>
       </c>
       <c r="B131" s="51"/>
-      <c r="C131" s="159"/>
+      <c r="C131" s="115"/>
       <c r="D131" s="52"/>
       <c r="E131" s="51"/>
       <c r="F131" s="51"/>
@@ -7400,7 +7437,7 @@
         <v>283</v>
       </c>
       <c r="B132" s="7"/>
-      <c r="C132" s="158"/>
+      <c r="C132" s="114"/>
       <c r="D132" s="4"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -7412,7 +7449,7 @@
         <v>284</v>
       </c>
       <c r="B133" s="51"/>
-      <c r="C133" s="159"/>
+      <c r="C133" s="115"/>
       <c r="D133" s="52"/>
       <c r="E133" s="51"/>
       <c r="F133" s="51"/>
@@ -7424,7 +7461,7 @@
         <v>285</v>
       </c>
       <c r="B134" s="7"/>
-      <c r="C134" s="158"/>
+      <c r="C134" s="114"/>
       <c r="D134" s="4"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -7436,7 +7473,7 @@
         <v>286</v>
       </c>
       <c r="B135" s="51"/>
-      <c r="C135" s="159"/>
+      <c r="C135" s="115"/>
       <c r="D135" s="52"/>
       <c r="E135" s="51"/>
       <c r="F135" s="51"/>
@@ -7448,7 +7485,7 @@
         <v>287</v>
       </c>
       <c r="B136" s="7"/>
-      <c r="C136" s="158"/>
+      <c r="C136" s="114"/>
       <c r="D136" s="4"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -7460,7 +7497,7 @@
         <v>288</v>
       </c>
       <c r="B137" s="51"/>
-      <c r="C137" s="159"/>
+      <c r="C137" s="115"/>
       <c r="D137" s="52"/>
       <c r="E137" s="51"/>
       <c r="F137" s="51"/>
@@ -7472,7 +7509,7 @@
         <v>289</v>
       </c>
       <c r="B138" s="7"/>
-      <c r="C138" s="158"/>
+      <c r="C138" s="114"/>
       <c r="D138" s="4"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -7484,7 +7521,7 @@
         <v>290</v>
       </c>
       <c r="B139" s="51"/>
-      <c r="C139" s="159"/>
+      <c r="C139" s="115"/>
       <c r="D139" s="52"/>
       <c r="E139" s="51"/>
       <c r="F139" s="51"/>
@@ -7496,7 +7533,7 @@
         <v>291</v>
       </c>
       <c r="B140" s="7"/>
-      <c r="C140" s="158"/>
+      <c r="C140" s="114"/>
       <c r="D140" s="4"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -7508,7 +7545,7 @@
         <v>292</v>
       </c>
       <c r="B141" s="51"/>
-      <c r="C141" s="159"/>
+      <c r="C141" s="115"/>
       <c r="D141" s="52"/>
       <c r="E141" s="51"/>
       <c r="F141" s="51"/>
@@ -7520,7 +7557,7 @@
         <v>293</v>
       </c>
       <c r="B142" s="7"/>
-      <c r="C142" s="158"/>
+      <c r="C142" s="114"/>
       <c r="D142" s="4"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -7532,7 +7569,7 @@
         <v>294</v>
       </c>
       <c r="B143" s="51"/>
-      <c r="C143" s="159"/>
+      <c r="C143" s="115"/>
       <c r="D143" s="52"/>
       <c r="E143" s="51"/>
       <c r="F143" s="51"/>
@@ -7544,7 +7581,7 @@
         <v>295</v>
       </c>
       <c r="B144" s="7"/>
-      <c r="C144" s="158"/>
+      <c r="C144" s="114"/>
       <c r="D144" s="4"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -7556,7 +7593,7 @@
         <v>296</v>
       </c>
       <c r="B145" s="51"/>
-      <c r="C145" s="159"/>
+      <c r="C145" s="115"/>
       <c r="D145" s="52"/>
       <c r="E145" s="51"/>
       <c r="F145" s="51"/>
@@ -7568,7 +7605,7 @@
         <v>297</v>
       </c>
       <c r="B146" s="7"/>
-      <c r="C146" s="158"/>
+      <c r="C146" s="114"/>
       <c r="D146" s="4"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -7580,7 +7617,7 @@
         <v>298</v>
       </c>
       <c r="B147" s="51"/>
-      <c r="C147" s="159"/>
+      <c r="C147" s="115"/>
       <c r="D147" s="52"/>
       <c r="E147" s="51"/>
       <c r="F147" s="51"/>
@@ -7592,7 +7629,7 @@
         <v>299</v>
       </c>
       <c r="B148" s="7"/>
-      <c r="C148" s="158"/>
+      <c r="C148" s="114"/>
       <c r="D148" s="4"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -7604,7 +7641,7 @@
         <v>300</v>
       </c>
       <c r="B149" s="51"/>
-      <c r="C149" s="159"/>
+      <c r="C149" s="115"/>
       <c r="D149" s="52"/>
       <c r="E149" s="51"/>
       <c r="F149" s="51"/>
@@ -7616,7 +7653,7 @@
         <v>301</v>
       </c>
       <c r="B150" s="7"/>
-      <c r="C150" s="158"/>
+      <c r="C150" s="114"/>
       <c r="D150" s="4"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -7628,7 +7665,7 @@
         <v>302</v>
       </c>
       <c r="B151" s="51"/>
-      <c r="C151" s="159"/>
+      <c r="C151" s="115"/>
       <c r="D151" s="52"/>
       <c r="E151" s="51"/>
       <c r="F151" s="51"/>
@@ -7640,7 +7677,7 @@
         <v>303</v>
       </c>
       <c r="B152" s="7"/>
-      <c r="C152" s="158"/>
+      <c r="C152" s="114"/>
       <c r="D152" s="4"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -7652,7 +7689,7 @@
         <v>304</v>
       </c>
       <c r="B153" s="51"/>
-      <c r="C153" s="159"/>
+      <c r="C153" s="115"/>
       <c r="D153" s="52"/>
       <c r="E153" s="51"/>
       <c r="F153" s="51"/>
@@ -7664,7 +7701,7 @@
         <v>305</v>
       </c>
       <c r="B154" s="7"/>
-      <c r="C154" s="158"/>
+      <c r="C154" s="114"/>
       <c r="D154" s="4"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -7676,7 +7713,7 @@
         <v>306</v>
       </c>
       <c r="B155" s="51"/>
-      <c r="C155" s="159"/>
+      <c r="C155" s="115"/>
       <c r="D155" s="52"/>
       <c r="E155" s="51"/>
       <c r="F155" s="51"/>
@@ -7688,7 +7725,7 @@
         <v>307</v>
       </c>
       <c r="B156" s="7"/>
-      <c r="C156" s="158"/>
+      <c r="C156" s="114"/>
       <c r="D156" s="4"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -7700,7 +7737,7 @@
         <v>308</v>
       </c>
       <c r="B157" s="51"/>
-      <c r="C157" s="159"/>
+      <c r="C157" s="115"/>
       <c r="D157" s="52"/>
       <c r="E157" s="51"/>
       <c r="F157" s="51"/>
@@ -7712,7 +7749,7 @@
         <v>309</v>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="158"/>
+      <c r="C158" s="114"/>
       <c r="D158" s="4"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -7724,7 +7761,7 @@
         <v>310</v>
       </c>
       <c r="B159" s="51"/>
-      <c r="C159" s="159"/>
+      <c r="C159" s="115"/>
       <c r="D159" s="52"/>
       <c r="E159" s="51"/>
       <c r="F159" s="51"/>
@@ -7736,7 +7773,7 @@
         <v>311</v>
       </c>
       <c r="B160" s="7"/>
-      <c r="C160" s="158"/>
+      <c r="C160" s="114"/>
       <c r="D160" s="4"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -7748,7 +7785,7 @@
         <v>312</v>
       </c>
       <c r="B161" s="51"/>
-      <c r="C161" s="159"/>
+      <c r="C161" s="115"/>
       <c r="D161" s="52"/>
       <c r="E161" s="51"/>
       <c r="F161" s="51"/>
@@ -7760,7 +7797,7 @@
         <v>313</v>
       </c>
       <c r="B162" s="7"/>
-      <c r="C162" s="158"/>
+      <c r="C162" s="114"/>
       <c r="D162" s="4"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -7772,7 +7809,7 @@
         <v>314</v>
       </c>
       <c r="B163" s="51"/>
-      <c r="C163" s="159"/>
+      <c r="C163" s="115"/>
       <c r="D163" s="52"/>
       <c r="E163" s="51"/>
       <c r="F163" s="51"/>
@@ -7784,7 +7821,7 @@
         <v>315</v>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="158"/>
+      <c r="C164" s="114"/>
       <c r="D164" s="4"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -7796,7 +7833,7 @@
         <v>316</v>
       </c>
       <c r="B165" s="51"/>
-      <c r="C165" s="159"/>
+      <c r="C165" s="115"/>
       <c r="D165" s="52"/>
       <c r="E165" s="51"/>
       <c r="F165" s="51"/>
@@ -7808,7 +7845,7 @@
         <v>317</v>
       </c>
       <c r="B166" s="7"/>
-      <c r="C166" s="158"/>
+      <c r="C166" s="114"/>
       <c r="D166" s="4"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -7820,7 +7857,7 @@
         <v>318</v>
       </c>
       <c r="B167" s="51"/>
-      <c r="C167" s="159"/>
+      <c r="C167" s="115"/>
       <c r="D167" s="52"/>
       <c r="E167" s="51"/>
       <c r="F167" s="51"/>
@@ -7832,7 +7869,7 @@
         <v>319</v>
       </c>
       <c r="B168" s="7"/>
-      <c r="C168" s="158"/>
+      <c r="C168" s="114"/>
       <c r="D168" s="4"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -7844,7 +7881,7 @@
         <v>320</v>
       </c>
       <c r="B169" s="51"/>
-      <c r="C169" s="159"/>
+      <c r="C169" s="115"/>
       <c r="D169" s="52"/>
       <c r="E169" s="51"/>
       <c r="F169" s="51"/>
@@ -7856,7 +7893,7 @@
         <v>321</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="158"/>
+      <c r="C170" s="114"/>
       <c r="D170" s="4"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -7868,7 +7905,7 @@
         <v>322</v>
       </c>
       <c r="B171" s="51"/>
-      <c r="C171" s="159"/>
+      <c r="C171" s="115"/>
       <c r="D171" s="52"/>
       <c r="E171" s="51"/>
       <c r="F171" s="51"/>
@@ -7880,7 +7917,7 @@
         <v>323</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="158"/>
+      <c r="C172" s="114"/>
       <c r="D172" s="4"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -7892,7 +7929,7 @@
         <v>324</v>
       </c>
       <c r="B173" s="51"/>
-      <c r="C173" s="159"/>
+      <c r="C173" s="115"/>
       <c r="D173" s="52"/>
       <c r="E173" s="51"/>
       <c r="F173" s="51"/>
@@ -7904,7 +7941,7 @@
         <v>325</v>
       </c>
       <c r="B174" s="7"/>
-      <c r="C174" s="158"/>
+      <c r="C174" s="114"/>
       <c r="D174" s="4"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -7916,7 +7953,7 @@
         <v>326</v>
       </c>
       <c r="B175" s="51"/>
-      <c r="C175" s="159"/>
+      <c r="C175" s="115"/>
       <c r="D175" s="52"/>
       <c r="E175" s="51"/>
       <c r="F175" s="51"/>
@@ -7928,7 +7965,7 @@
         <v>327</v>
       </c>
       <c r="B176" s="7"/>
-      <c r="C176" s="158"/>
+      <c r="C176" s="114"/>
       <c r="D176" s="4"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -7940,7 +7977,7 @@
         <v>328</v>
       </c>
       <c r="B177" s="51"/>
-      <c r="C177" s="159"/>
+      <c r="C177" s="115"/>
       <c r="D177" s="52"/>
       <c r="E177" s="51"/>
       <c r="F177" s="51"/>
@@ -7952,7 +7989,7 @@
         <v>329</v>
       </c>
       <c r="B178" s="7"/>
-      <c r="C178" s="158"/>
+      <c r="C178" s="114"/>
       <c r="D178" s="4"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -7964,7 +8001,7 @@
         <v>330</v>
       </c>
       <c r="B179" s="51"/>
-      <c r="C179" s="159"/>
+      <c r="C179" s="115"/>
       <c r="D179" s="52"/>
       <c r="E179" s="51"/>
       <c r="F179" s="51"/>
@@ -7976,7 +8013,7 @@
         <v>331</v>
       </c>
       <c r="B180" s="7"/>
-      <c r="C180" s="158"/>
+      <c r="C180" s="114"/>
       <c r="D180" s="4"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -7988,7 +8025,7 @@
         <v>332</v>
       </c>
       <c r="B181" s="51"/>
-      <c r="C181" s="159"/>
+      <c r="C181" s="115"/>
       <c r="D181" s="52"/>
       <c r="E181" s="51"/>
       <c r="F181" s="51"/>
@@ -8000,7 +8037,7 @@
         <v>333</v>
       </c>
       <c r="B182" s="7"/>
-      <c r="C182" s="158"/>
+      <c r="C182" s="114"/>
       <c r="D182" s="4"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -8012,7 +8049,7 @@
         <v>334</v>
       </c>
       <c r="B183" s="51"/>
-      <c r="C183" s="159"/>
+      <c r="C183" s="115"/>
       <c r="D183" s="52"/>
       <c r="E183" s="51"/>
       <c r="F183" s="51"/>
@@ -8024,7 +8061,7 @@
         <v>335</v>
       </c>
       <c r="B184" s="7"/>
-      <c r="C184" s="158"/>
+      <c r="C184" s="114"/>
       <c r="D184" s="4"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -8036,7 +8073,7 @@
         <v>336</v>
       </c>
       <c r="B185" s="51"/>
-      <c r="C185" s="159"/>
+      <c r="C185" s="115"/>
       <c r="D185" s="52"/>
       <c r="E185" s="51"/>
       <c r="F185" s="51"/>
@@ -8048,7 +8085,7 @@
         <v>337</v>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="158"/>
+      <c r="C186" s="114"/>
       <c r="D186" s="4"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -8060,7 +8097,7 @@
         <v>338</v>
       </c>
       <c r="B187" s="51"/>
-      <c r="C187" s="159"/>
+      <c r="C187" s="115"/>
       <c r="D187" s="52"/>
       <c r="E187" s="51"/>
       <c r="F187" s="51"/>
@@ -8072,7 +8109,7 @@
         <v>339</v>
       </c>
       <c r="B188" s="7"/>
-      <c r="C188" s="158"/>
+      <c r="C188" s="114"/>
       <c r="D188" s="4"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -8084,7 +8121,7 @@
         <v>340</v>
       </c>
       <c r="B189" s="51"/>
-      <c r="C189" s="159"/>
+      <c r="C189" s="115"/>
       <c r="D189" s="52"/>
       <c r="E189" s="51"/>
       <c r="F189" s="51"/>
@@ -8096,7 +8133,7 @@
         <v>341</v>
       </c>
       <c r="B190" s="7"/>
-      <c r="C190" s="158"/>
+      <c r="C190" s="114"/>
       <c r="D190" s="4"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -8108,7 +8145,7 @@
         <v>342</v>
       </c>
       <c r="B191" s="51"/>
-      <c r="C191" s="159"/>
+      <c r="C191" s="115"/>
       <c r="D191" s="52"/>
       <c r="E191" s="51"/>
       <c r="F191" s="51"/>
@@ -8120,7 +8157,7 @@
         <v>343</v>
       </c>
       <c r="B192" s="7"/>
-      <c r="C192" s="158"/>
+      <c r="C192" s="114"/>
       <c r="D192" s="4"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -8132,7 +8169,7 @@
         <v>344</v>
       </c>
       <c r="B193" s="51"/>
-      <c r="C193" s="159"/>
+      <c r="C193" s="115"/>
       <c r="D193" s="52"/>
       <c r="E193" s="51"/>
       <c r="F193" s="51"/>
@@ -8144,7 +8181,7 @@
         <v>345</v>
       </c>
       <c r="B194" s="7"/>
-      <c r="C194" s="158"/>
+      <c r="C194" s="114"/>
       <c r="D194" s="4"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -8156,7 +8193,7 @@
         <v>346</v>
       </c>
       <c r="B195" s="51"/>
-      <c r="C195" s="159"/>
+      <c r="C195" s="115"/>
       <c r="D195" s="52"/>
       <c r="E195" s="51"/>
       <c r="F195" s="51"/>
@@ -8168,7 +8205,7 @@
         <v>347</v>
       </c>
       <c r="B196" s="7"/>
-      <c r="C196" s="158"/>
+      <c r="C196" s="114"/>
       <c r="D196" s="4"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -8180,7 +8217,7 @@
         <v>348</v>
       </c>
       <c r="B197" s="51"/>
-      <c r="C197" s="159"/>
+      <c r="C197" s="115"/>
       <c r="D197" s="52"/>
       <c r="E197" s="51"/>
       <c r="F197" s="51"/>
@@ -8192,7 +8229,7 @@
         <v>349</v>
       </c>
       <c r="B198" s="7"/>
-      <c r="C198" s="158"/>
+      <c r="C198" s="114"/>
       <c r="D198" s="4"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -8204,7 +8241,7 @@
         <v>350</v>
       </c>
       <c r="B199" s="51"/>
-      <c r="C199" s="159"/>
+      <c r="C199" s="115"/>
       <c r="D199" s="52"/>
       <c r="E199" s="51"/>
       <c r="F199" s="51"/>
@@ -8216,7 +8253,7 @@
         <v>351</v>
       </c>
       <c r="B200" s="7"/>
-      <c r="C200" s="158"/>
+      <c r="C200" s="114"/>
       <c r="D200" s="4"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -8228,7 +8265,7 @@
         <v>352</v>
       </c>
       <c r="B201" s="51"/>
-      <c r="C201" s="159"/>
+      <c r="C201" s="115"/>
       <c r="D201" s="52"/>
       <c r="E201" s="51"/>
       <c r="F201" s="51"/>
@@ -8240,7 +8277,7 @@
         <v>353</v>
       </c>
       <c r="B202" s="7"/>
-      <c r="C202" s="158"/>
+      <c r="C202" s="114"/>
       <c r="D202" s="4"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -8252,7 +8289,7 @@
         <v>354</v>
       </c>
       <c r="B203" s="51"/>
-      <c r="C203" s="159"/>
+      <c r="C203" s="115"/>
       <c r="D203" s="52"/>
       <c r="E203" s="51"/>
       <c r="F203" s="51"/>
@@ -8266,7 +8303,7 @@
       <c r="B204" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C204" s="157" t="s">
+      <c r="C204" s="113" t="s">
         <v>410</v>
       </c>
       <c r="D204" s="6"/>
@@ -8289,7 +8326,7 @@
       <c r="B205" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="C205" s="158" t="s">
+      <c r="C205" s="114" t="s">
         <v>410</v>
       </c>
       <c r="D205" s="4"/>
@@ -8312,7 +8349,7 @@
       <c r="B206" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C206" s="157" t="s">
+      <c r="C206" s="113" t="s">
         <v>410</v>
       </c>
       <c r="D206" s="6"/>
@@ -8333,7 +8370,7 @@
         <v>434</v>
       </c>
       <c r="B207" s="7"/>
-      <c r="C207" s="158"/>
+      <c r="C207" s="114"/>
       <c r="D207" s="4"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -8345,7 +8382,7 @@
         <v>435</v>
       </c>
       <c r="B208" s="51"/>
-      <c r="C208" s="159"/>
+      <c r="C208" s="115"/>
       <c r="D208" s="52"/>
       <c r="E208" s="51"/>
       <c r="F208" s="51"/>
@@ -8357,7 +8394,7 @@
         <v>436</v>
       </c>
       <c r="B209" s="7"/>
-      <c r="C209" s="158"/>
+      <c r="C209" s="114"/>
       <c r="D209" s="4"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -8369,7 +8406,7 @@
         <v>437</v>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="157"/>
+      <c r="C210" s="113"/>
       <c r="D210" s="6"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -8381,7 +8418,7 @@
         <v>438</v>
       </c>
       <c r="B211" s="7"/>
-      <c r="C211" s="158"/>
+      <c r="C211" s="114"/>
       <c r="D211" s="4"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -8393,7 +8430,7 @@
         <v>439</v>
       </c>
       <c r="B212" s="51"/>
-      <c r="C212" s="159"/>
+      <c r="C212" s="115"/>
       <c r="D212" s="52"/>
       <c r="E212" s="51"/>
       <c r="F212" s="51"/>
@@ -8405,7 +8442,7 @@
         <v>440</v>
       </c>
       <c r="B213" s="7"/>
-      <c r="C213" s="158"/>
+      <c r="C213" s="114"/>
       <c r="D213" s="4"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -8417,7 +8454,7 @@
         <v>441</v>
       </c>
       <c r="B214" s="5"/>
-      <c r="C214" s="157"/>
+      <c r="C214" s="113"/>
       <c r="D214" s="6"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -8429,7 +8466,7 @@
         <v>442</v>
       </c>
       <c r="B215" s="7"/>
-      <c r="C215" s="158"/>
+      <c r="C215" s="114"/>
       <c r="D215" s="4"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
@@ -8441,7 +8478,7 @@
         <v>443</v>
       </c>
       <c r="B216" s="51"/>
-      <c r="C216" s="159"/>
+      <c r="C216" s="115"/>
       <c r="D216" s="52"/>
       <c r="E216" s="51"/>
       <c r="F216" s="51"/>
@@ -8453,7 +8490,7 @@
         <v>444</v>
       </c>
       <c r="B217" s="7"/>
-      <c r="C217" s="158"/>
+      <c r="C217" s="114"/>
       <c r="D217" s="4"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
@@ -8465,7 +8502,7 @@
         <v>445</v>
       </c>
       <c r="B218" s="5"/>
-      <c r="C218" s="157"/>
+      <c r="C218" s="113"/>
       <c r="D218" s="6"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -8477,7 +8514,7 @@
         <v>446</v>
       </c>
       <c r="B219" s="7"/>
-      <c r="C219" s="158"/>
+      <c r="C219" s="114"/>
       <c r="D219" s="4"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
@@ -8489,7 +8526,7 @@
         <v>447</v>
       </c>
       <c r="B220" s="51"/>
-      <c r="C220" s="159"/>
+      <c r="C220" s="115"/>
       <c r="D220" s="52"/>
       <c r="E220" s="51"/>
       <c r="F220" s="51"/>
@@ -8501,7 +8538,7 @@
         <v>448</v>
       </c>
       <c r="B221" s="7"/>
-      <c r="C221" s="158"/>
+      <c r="C221" s="114"/>
       <c r="D221" s="4"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -8513,7 +8550,7 @@
         <v>449</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="157"/>
+      <c r="C222" s="113"/>
       <c r="D222" s="6"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -8525,7 +8562,7 @@
         <v>450</v>
       </c>
       <c r="B223" s="7"/>
-      <c r="C223" s="158"/>
+      <c r="C223" s="114"/>
       <c r="D223" s="4"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -8537,7 +8574,7 @@
         <v>451</v>
       </c>
       <c r="B224" s="51"/>
-      <c r="C224" s="159"/>
+      <c r="C224" s="115"/>
       <c r="D224" s="52"/>
       <c r="E224" s="51"/>
       <c r="F224" s="51"/>
@@ -8549,7 +8586,7 @@
         <v>452</v>
       </c>
       <c r="B225" s="7"/>
-      <c r="C225" s="158"/>
+      <c r="C225" s="114"/>
       <c r="D225" s="4"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
@@ -8561,7 +8598,7 @@
         <v>453</v>
       </c>
       <c r="B226" s="5"/>
-      <c r="C226" s="157"/>
+      <c r="C226" s="113"/>
       <c r="D226" s="6"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -8573,7 +8610,7 @@
         <v>454</v>
       </c>
       <c r="B227" s="7"/>
-      <c r="C227" s="158"/>
+      <c r="C227" s="114"/>
       <c r="D227" s="4"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -8585,7 +8622,7 @@
         <v>455</v>
       </c>
       <c r="B228" s="51"/>
-      <c r="C228" s="159"/>
+      <c r="C228" s="115"/>
       <c r="D228" s="52"/>
       <c r="E228" s="51"/>
       <c r="F228" s="51"/>
@@ -8597,7 +8634,7 @@
         <v>456</v>
       </c>
       <c r="B229" s="7"/>
-      <c r="C229" s="158"/>
+      <c r="C229" s="114"/>
       <c r="D229" s="4"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
@@ -8609,7 +8646,7 @@
         <v>457</v>
       </c>
       <c r="B230" s="5"/>
-      <c r="C230" s="157"/>
+      <c r="C230" s="113"/>
       <c r="D230" s="6"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -8621,7 +8658,7 @@
         <v>458</v>
       </c>
       <c r="B231" s="7"/>
-      <c r="C231" s="158"/>
+      <c r="C231" s="114"/>
       <c r="D231" s="4"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -8633,7 +8670,7 @@
         <v>459</v>
       </c>
       <c r="B232" s="51"/>
-      <c r="C232" s="159"/>
+      <c r="C232" s="115"/>
       <c r="D232" s="52"/>
       <c r="E232" s="51"/>
       <c r="F232" s="51"/>
@@ -8645,7 +8682,7 @@
         <v>460</v>
       </c>
       <c r="B233" s="7"/>
-      <c r="C233" s="158"/>
+      <c r="C233" s="114"/>
       <c r="D233" s="4"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
@@ -8657,7 +8694,7 @@
         <v>461</v>
       </c>
       <c r="B234" s="51"/>
-      <c r="C234" s="159"/>
+      <c r="C234" s="115"/>
       <c r="D234" s="52"/>
       <c r="E234" s="51"/>
       <c r="F234" s="51"/>
@@ -8669,7 +8706,7 @@
         <v>462</v>
       </c>
       <c r="B235" s="7"/>
-      <c r="C235" s="158"/>
+      <c r="C235" s="114"/>
       <c r="D235" s="4"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
@@ -8681,7 +8718,7 @@
         <v>463</v>
       </c>
       <c r="B236" s="51"/>
-      <c r="C236" s="159"/>
+      <c r="C236" s="115"/>
       <c r="D236" s="52"/>
       <c r="E236" s="51"/>
       <c r="F236" s="51"/>
@@ -8693,7 +8730,7 @@
         <v>464</v>
       </c>
       <c r="B237" s="7"/>
-      <c r="C237" s="158"/>
+      <c r="C237" s="114"/>
       <c r="D237" s="4"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
@@ -8705,7 +8742,7 @@
         <v>465</v>
       </c>
       <c r="B238" s="51"/>
-      <c r="C238" s="159"/>
+      <c r="C238" s="115"/>
       <c r="D238" s="52"/>
       <c r="E238" s="51"/>
       <c r="F238" s="51"/>
@@ -8717,7 +8754,7 @@
         <v>466</v>
       </c>
       <c r="B239" s="7"/>
-      <c r="C239" s="158"/>
+      <c r="C239" s="114"/>
       <c r="D239" s="4"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
@@ -8729,7 +8766,7 @@
         <v>467</v>
       </c>
       <c r="B240" s="51"/>
-      <c r="C240" s="159"/>
+      <c r="C240" s="115"/>
       <c r="D240" s="52"/>
       <c r="E240" s="51"/>
       <c r="F240" s="51"/>
@@ -8741,7 +8778,7 @@
         <v>468</v>
       </c>
       <c r="B241" s="7"/>
-      <c r="C241" s="158"/>
+      <c r="C241" s="114"/>
       <c r="D241" s="4"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
@@ -8753,7 +8790,7 @@
         <v>469</v>
       </c>
       <c r="B242" s="51"/>
-      <c r="C242" s="159"/>
+      <c r="C242" s="115"/>
       <c r="D242" s="52"/>
       <c r="E242" s="51"/>
       <c r="F242" s="51"/>
@@ -8765,7 +8802,7 @@
         <v>470</v>
       </c>
       <c r="B243" s="7"/>
-      <c r="C243" s="158"/>
+      <c r="C243" s="114"/>
       <c r="D243" s="4"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -8777,7 +8814,7 @@
         <v>471</v>
       </c>
       <c r="B244" s="51"/>
-      <c r="C244" s="159"/>
+      <c r="C244" s="115"/>
       <c r="D244" s="52"/>
       <c r="E244" s="51"/>
       <c r="F244" s="51"/>
@@ -8789,7 +8826,7 @@
         <v>472</v>
       </c>
       <c r="B245" s="7"/>
-      <c r="C245" s="158"/>
+      <c r="C245" s="114"/>
       <c r="D245" s="4"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -8801,7 +8838,7 @@
         <v>473</v>
       </c>
       <c r="B246" s="51"/>
-      <c r="C246" s="159"/>
+      <c r="C246" s="115"/>
       <c r="D246" s="52"/>
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
@@ -8813,7 +8850,7 @@
         <v>474</v>
       </c>
       <c r="B247" s="7"/>
-      <c r="C247" s="158"/>
+      <c r="C247" s="114"/>
       <c r="D247" s="4"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -8825,7 +8862,7 @@
         <v>475</v>
       </c>
       <c r="B248" s="51"/>
-      <c r="C248" s="159"/>
+      <c r="C248" s="115"/>
       <c r="D248" s="52"/>
       <c r="E248" s="51"/>
       <c r="F248" s="51"/>
@@ -8837,7 +8874,7 @@
         <v>476</v>
       </c>
       <c r="B249" s="7"/>
-      <c r="C249" s="158"/>
+      <c r="C249" s="114"/>
       <c r="D249" s="4"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -8849,7 +8886,7 @@
         <v>477</v>
       </c>
       <c r="B250" s="51"/>
-      <c r="C250" s="159"/>
+      <c r="C250" s="115"/>
       <c r="D250" s="52"/>
       <c r="E250" s="51"/>
       <c r="F250" s="51"/>
@@ -8861,7 +8898,7 @@
         <v>478</v>
       </c>
       <c r="B251" s="7"/>
-      <c r="C251" s="158"/>
+      <c r="C251" s="114"/>
       <c r="D251" s="4"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -8873,7 +8910,7 @@
         <v>479</v>
       </c>
       <c r="B252" s="51"/>
-      <c r="C252" s="159"/>
+      <c r="C252" s="115"/>
       <c r="D252" s="52"/>
       <c r="E252" s="51"/>
       <c r="F252" s="51"/>
@@ -8885,7 +8922,7 @@
         <v>480</v>
       </c>
       <c r="B253" s="7"/>
-      <c r="C253" s="158"/>
+      <c r="C253" s="114"/>
       <c r="D253" s="4"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -8897,7 +8934,7 @@
         <v>481</v>
       </c>
       <c r="B254" s="51"/>
-      <c r="C254" s="159"/>
+      <c r="C254" s="115"/>
       <c r="D254" s="52"/>
       <c r="E254" s="51"/>
       <c r="F254" s="51"/>
@@ -8909,7 +8946,7 @@
         <v>482</v>
       </c>
       <c r="B255" s="7"/>
-      <c r="C255" s="158"/>
+      <c r="C255" s="114"/>
       <c r="D255" s="4"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -8921,7 +8958,7 @@
         <v>483</v>
       </c>
       <c r="B256" s="51"/>
-      <c r="C256" s="159"/>
+      <c r="C256" s="115"/>
       <c r="D256" s="52"/>
       <c r="E256" s="51"/>
       <c r="F256" s="51"/>
@@ -8933,7 +8970,7 @@
         <v>484</v>
       </c>
       <c r="B257" s="7"/>
-      <c r="C257" s="158"/>
+      <c r="C257" s="114"/>
       <c r="D257" s="4"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
@@ -8945,7 +8982,7 @@
         <v>485</v>
       </c>
       <c r="B258" s="51"/>
-      <c r="C258" s="159"/>
+      <c r="C258" s="115"/>
       <c r="D258" s="52"/>
       <c r="E258" s="51"/>
       <c r="F258" s="51"/>
@@ -8957,7 +8994,7 @@
         <v>486</v>
       </c>
       <c r="B259" s="7"/>
-      <c r="C259" s="158"/>
+      <c r="C259" s="114"/>
       <c r="D259" s="4"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
@@ -8969,7 +9006,7 @@
         <v>487</v>
       </c>
       <c r="B260" s="51"/>
-      <c r="C260" s="159"/>
+      <c r="C260" s="115"/>
       <c r="D260" s="52"/>
       <c r="E260" s="51"/>
       <c r="F260" s="51"/>
@@ -8981,7 +9018,7 @@
         <v>488</v>
       </c>
       <c r="B261" s="7"/>
-      <c r="C261" s="158"/>
+      <c r="C261" s="114"/>
       <c r="D261" s="4"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
@@ -8993,7 +9030,7 @@
         <v>489</v>
       </c>
       <c r="B262" s="51"/>
-      <c r="C262" s="159"/>
+      <c r="C262" s="115"/>
       <c r="D262" s="52"/>
       <c r="E262" s="51"/>
       <c r="F262" s="51"/>
@@ -9005,7 +9042,7 @@
         <v>490</v>
       </c>
       <c r="B263" s="7"/>
-      <c r="C263" s="158"/>
+      <c r="C263" s="114"/>
       <c r="D263" s="4"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
@@ -9017,7 +9054,7 @@
         <v>491</v>
       </c>
       <c r="B264" s="51"/>
-      <c r="C264" s="159"/>
+      <c r="C264" s="115"/>
       <c r="D264" s="52"/>
       <c r="E264" s="51"/>
       <c r="F264" s="51"/>
@@ -9029,7 +9066,7 @@
         <v>492</v>
       </c>
       <c r="B265" s="7"/>
-      <c r="C265" s="158"/>
+      <c r="C265" s="114"/>
       <c r="D265" s="4"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
@@ -9041,7 +9078,7 @@
         <v>493</v>
       </c>
       <c r="B266" s="51"/>
-      <c r="C266" s="159"/>
+      <c r="C266" s="115"/>
       <c r="D266" s="52"/>
       <c r="E266" s="51"/>
       <c r="F266" s="51"/>
@@ -9053,7 +9090,7 @@
         <v>494</v>
       </c>
       <c r="B267" s="7"/>
-      <c r="C267" s="158"/>
+      <c r="C267" s="114"/>
       <c r="D267" s="4"/>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
@@ -9065,7 +9102,7 @@
         <v>495</v>
       </c>
       <c r="B268" s="51"/>
-      <c r="C268" s="159"/>
+      <c r="C268" s="115"/>
       <c r="D268" s="52"/>
       <c r="E268" s="51"/>
       <c r="F268" s="51"/>
@@ -9077,7 +9114,7 @@
         <v>496</v>
       </c>
       <c r="B269" s="7"/>
-      <c r="C269" s="158"/>
+      <c r="C269" s="114"/>
       <c r="D269" s="4"/>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
@@ -9089,7 +9126,7 @@
         <v>497</v>
       </c>
       <c r="B270" s="51"/>
-      <c r="C270" s="159"/>
+      <c r="C270" s="115"/>
       <c r="D270" s="52"/>
       <c r="E270" s="51"/>
       <c r="F270" s="51"/>
@@ -9101,7 +9138,7 @@
         <v>498</v>
       </c>
       <c r="B271" s="7"/>
-      <c r="C271" s="158"/>
+      <c r="C271" s="114"/>
       <c r="D271" s="4"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
@@ -9113,7 +9150,7 @@
         <v>499</v>
       </c>
       <c r="B272" s="51"/>
-      <c r="C272" s="159"/>
+      <c r="C272" s="115"/>
       <c r="D272" s="52"/>
       <c r="E272" s="51"/>
       <c r="F272" s="51"/>
@@ -9125,7 +9162,7 @@
         <v>500</v>
       </c>
       <c r="B273" s="7"/>
-      <c r="C273" s="158"/>
+      <c r="C273" s="114"/>
       <c r="D273" s="4"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
@@ -9137,7 +9174,7 @@
         <v>501</v>
       </c>
       <c r="B274" s="51"/>
-      <c r="C274" s="159"/>
+      <c r="C274" s="115"/>
       <c r="D274" s="52"/>
       <c r="E274" s="51"/>
       <c r="F274" s="51"/>
@@ -9149,7 +9186,7 @@
         <v>502</v>
       </c>
       <c r="B275" s="7"/>
-      <c r="C275" s="158"/>
+      <c r="C275" s="114"/>
       <c r="D275" s="4"/>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
@@ -9161,7 +9198,7 @@
         <v>503</v>
       </c>
       <c r="B276" s="51"/>
-      <c r="C276" s="159"/>
+      <c r="C276" s="115"/>
       <c r="D276" s="52"/>
       <c r="E276" s="51"/>
       <c r="F276" s="51"/>
@@ -9173,7 +9210,7 @@
         <v>504</v>
       </c>
       <c r="B277" s="7"/>
-      <c r="C277" s="158"/>
+      <c r="C277" s="114"/>
       <c r="D277" s="4"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
@@ -9185,7 +9222,7 @@
         <v>505</v>
       </c>
       <c r="B278" s="51"/>
-      <c r="C278" s="159"/>
+      <c r="C278" s="115"/>
       <c r="D278" s="52"/>
       <c r="E278" s="51"/>
       <c r="F278" s="51"/>
@@ -9197,7 +9234,7 @@
         <v>506</v>
       </c>
       <c r="B279" s="7"/>
-      <c r="C279" s="158"/>
+      <c r="C279" s="114"/>
       <c r="D279" s="4"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
@@ -9209,7 +9246,7 @@
         <v>507</v>
       </c>
       <c r="B280" s="51"/>
-      <c r="C280" s="159"/>
+      <c r="C280" s="115"/>
       <c r="D280" s="52"/>
       <c r="E280" s="51"/>
       <c r="F280" s="51"/>
@@ -9221,7 +9258,7 @@
         <v>508</v>
       </c>
       <c r="B281" s="7"/>
-      <c r="C281" s="158"/>
+      <c r="C281" s="114"/>
       <c r="D281" s="4"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -9233,7 +9270,7 @@
         <v>509</v>
       </c>
       <c r="B282" s="51"/>
-      <c r="C282" s="159"/>
+      <c r="C282" s="115"/>
       <c r="D282" s="52"/>
       <c r="E282" s="51"/>
       <c r="F282" s="51"/>
@@ -9245,7 +9282,7 @@
         <v>510</v>
       </c>
       <c r="B283" s="7"/>
-      <c r="C283" s="158"/>
+      <c r="C283" s="114"/>
       <c r="D283" s="4"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -9257,7 +9294,7 @@
         <v>511</v>
       </c>
       <c r="B284" s="51"/>
-      <c r="C284" s="159"/>
+      <c r="C284" s="115"/>
       <c r="D284" s="52"/>
       <c r="E284" s="51"/>
       <c r="F284" s="51"/>
@@ -9269,7 +9306,7 @@
         <v>512</v>
       </c>
       <c r="B285" s="7"/>
-      <c r="C285" s="158"/>
+      <c r="C285" s="114"/>
       <c r="D285" s="4"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
@@ -9281,7 +9318,7 @@
         <v>513</v>
       </c>
       <c r="B286" s="51"/>
-      <c r="C286" s="159"/>
+      <c r="C286" s="115"/>
       <c r="D286" s="52"/>
       <c r="E286" s="51"/>
       <c r="F286" s="51"/>
@@ -9293,7 +9330,7 @@
         <v>514</v>
       </c>
       <c r="B287" s="7"/>
-      <c r="C287" s="158"/>
+      <c r="C287" s="114"/>
       <c r="D287" s="4"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
@@ -9305,7 +9342,7 @@
         <v>515</v>
       </c>
       <c r="B288" s="51"/>
-      <c r="C288" s="159"/>
+      <c r="C288" s="115"/>
       <c r="D288" s="52"/>
       <c r="E288" s="51"/>
       <c r="F288" s="51"/>
@@ -9317,7 +9354,7 @@
         <v>516</v>
       </c>
       <c r="B289" s="7"/>
-      <c r="C289" s="158"/>
+      <c r="C289" s="114"/>
       <c r="D289" s="4"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
@@ -9329,7 +9366,7 @@
         <v>517</v>
       </c>
       <c r="B290" s="51"/>
-      <c r="C290" s="159"/>
+      <c r="C290" s="115"/>
       <c r="D290" s="52"/>
       <c r="E290" s="51"/>
       <c r="F290" s="51"/>
@@ -9341,7 +9378,7 @@
         <v>518</v>
       </c>
       <c r="B291" s="7"/>
-      <c r="C291" s="158"/>
+      <c r="C291" s="114"/>
       <c r="D291" s="4"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
@@ -9353,7 +9390,7 @@
         <v>519</v>
       </c>
       <c r="B292" s="51"/>
-      <c r="C292" s="159"/>
+      <c r="C292" s="115"/>
       <c r="D292" s="52"/>
       <c r="E292" s="51"/>
       <c r="F292" s="51"/>
@@ -9365,7 +9402,7 @@
         <v>520</v>
       </c>
       <c r="B293" s="7"/>
-      <c r="C293" s="158"/>
+      <c r="C293" s="114"/>
       <c r="D293" s="4"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -9377,7 +9414,7 @@
         <v>521</v>
       </c>
       <c r="B294" s="51"/>
-      <c r="C294" s="159"/>
+      <c r="C294" s="115"/>
       <c r="D294" s="52"/>
       <c r="E294" s="51"/>
       <c r="F294" s="51"/>
@@ -9389,7 +9426,7 @@
         <v>522</v>
       </c>
       <c r="B295" s="7"/>
-      <c r="C295" s="158"/>
+      <c r="C295" s="114"/>
       <c r="D295" s="4"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -9401,7 +9438,7 @@
         <v>523</v>
       </c>
       <c r="B296" s="51"/>
-      <c r="C296" s="159"/>
+      <c r="C296" s="115"/>
       <c r="D296" s="52"/>
       <c r="E296" s="51"/>
       <c r="F296" s="51"/>
@@ -9413,7 +9450,7 @@
         <v>524</v>
       </c>
       <c r="B297" s="7"/>
-      <c r="C297" s="158"/>
+      <c r="C297" s="114"/>
       <c r="D297" s="4"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
@@ -9425,7 +9462,7 @@
         <v>525</v>
       </c>
       <c r="B298" s="51"/>
-      <c r="C298" s="159"/>
+      <c r="C298" s="115"/>
       <c r="D298" s="52"/>
       <c r="E298" s="51"/>
       <c r="F298" s="51"/>
@@ -9437,7 +9474,7 @@
         <v>526</v>
       </c>
       <c r="B299" s="7"/>
-      <c r="C299" s="158"/>
+      <c r="C299" s="114"/>
       <c r="D299" s="4"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
@@ -9449,7 +9486,7 @@
         <v>527</v>
       </c>
       <c r="B300" s="51"/>
-      <c r="C300" s="159"/>
+      <c r="C300" s="115"/>
       <c r="D300" s="52"/>
       <c r="E300" s="51"/>
       <c r="F300" s="51"/>
@@ -9461,7 +9498,7 @@
         <v>528</v>
       </c>
       <c r="B301" s="7"/>
-      <c r="C301" s="158"/>
+      <c r="C301" s="114"/>
       <c r="D301" s="4"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
@@ -9473,7 +9510,7 @@
         <v>529</v>
       </c>
       <c r="B302" s="51"/>
-      <c r="C302" s="159"/>
+      <c r="C302" s="115"/>
       <c r="D302" s="52"/>
       <c r="E302" s="51"/>
       <c r="F302" s="51"/>
@@ -9485,7 +9522,7 @@
         <v>530</v>
       </c>
       <c r="B303" s="7"/>
-      <c r="C303" s="158"/>
+      <c r="C303" s="114"/>
       <c r="D303" s="4"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
@@ -9495,3645 +9532,3645 @@
     <row r="304" spans="1:8" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
-      <c r="C304" s="161"/>
+      <c r="C304" s="117"/>
       <c r="D304" s="2"/>
       <c r="G304" s="30"/>
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
-      <c r="C305" s="161"/>
+      <c r="C305" s="117"/>
       <c r="D305" s="2"/>
       <c r="G305" s="30"/>
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
-      <c r="C306" s="161"/>
+      <c r="C306" s="117"/>
       <c r="D306" s="2"/>
       <c r="G306" s="30"/>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
-      <c r="C307" s="161"/>
+      <c r="C307" s="117"/>
       <c r="D307" s="2"/>
       <c r="G307" s="30"/>
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
-      <c r="C308" s="161"/>
+      <c r="C308" s="117"/>
       <c r="D308" s="2"/>
       <c r="G308" s="30"/>
     </row>
     <row r="309" spans="1:7" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
-      <c r="C309" s="161"/>
+      <c r="C309" s="117"/>
       <c r="D309" s="2"/>
       <c r="G309" s="30"/>
     </row>
     <row r="310" spans="1:7" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
-      <c r="C310" s="161"/>
+      <c r="C310" s="117"/>
       <c r="D310" s="2"/>
       <c r="G310" s="30"/>
     </row>
     <row r="311" spans="1:7" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
-      <c r="C311" s="161"/>
+      <c r="C311" s="117"/>
       <c r="D311" s="2"/>
       <c r="G311" s="30"/>
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
-      <c r="C312" s="161"/>
+      <c r="C312" s="117"/>
       <c r="D312" s="2"/>
       <c r="G312" s="30"/>
     </row>
     <row r="313" spans="1:7" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
-      <c r="C313" s="161"/>
+      <c r="C313" s="117"/>
       <c r="D313" s="2"/>
       <c r="G313" s="30"/>
     </row>
     <row r="314" spans="1:7" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
-      <c r="C314" s="161"/>
+      <c r="C314" s="117"/>
       <c r="D314" s="2"/>
       <c r="G314" s="30"/>
     </row>
     <row r="315" spans="1:7" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
-      <c r="C315" s="161"/>
+      <c r="C315" s="117"/>
       <c r="D315" s="2"/>
       <c r="G315" s="30"/>
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
-      <c r="C316" s="161"/>
+      <c r="C316" s="117"/>
       <c r="D316" s="2"/>
       <c r="G316" s="30"/>
     </row>
     <row r="317" spans="1:7" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
-      <c r="C317" s="161"/>
+      <c r="C317" s="117"/>
       <c r="D317" s="2"/>
       <c r="G317" s="30"/>
     </row>
     <row r="318" spans="1:7" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
-      <c r="C318" s="161"/>
+      <c r="C318" s="117"/>
       <c r="D318" s="2"/>
       <c r="G318" s="30"/>
     </row>
     <row r="319" spans="1:7" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
-      <c r="C319" s="161"/>
+      <c r="C319" s="117"/>
       <c r="D319" s="2"/>
       <c r="G319" s="30"/>
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
-      <c r="C320" s="161"/>
+      <c r="C320" s="117"/>
       <c r="D320" s="2"/>
       <c r="G320" s="30"/>
     </row>
     <row r="321" spans="1:7" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
-      <c r="C321" s="161"/>
+      <c r="C321" s="117"/>
       <c r="D321" s="2"/>
       <c r="G321" s="30"/>
     </row>
     <row r="322" spans="1:7" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
-      <c r="C322" s="161"/>
+      <c r="C322" s="117"/>
       <c r="D322" s="2"/>
       <c r="G322" s="30"/>
     </row>
     <row r="323" spans="1:7" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
-      <c r="C323" s="161"/>
+      <c r="C323" s="117"/>
       <c r="D323" s="2"/>
       <c r="G323" s="30"/>
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
-      <c r="C324" s="161"/>
+      <c r="C324" s="117"/>
       <c r="D324" s="2"/>
       <c r="G324" s="30"/>
     </row>
     <row r="325" spans="1:7" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
-      <c r="C325" s="161"/>
+      <c r="C325" s="117"/>
       <c r="D325" s="2"/>
       <c r="G325" s="30"/>
     </row>
     <row r="326" spans="1:7" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
-      <c r="C326" s="161"/>
+      <c r="C326" s="117"/>
       <c r="D326" s="2"/>
       <c r="G326" s="30"/>
     </row>
     <row r="327" spans="1:7" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
-      <c r="C327" s="161"/>
+      <c r="C327" s="117"/>
       <c r="D327" s="2"/>
       <c r="G327" s="30"/>
     </row>
     <row r="328" spans="1:7" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
-      <c r="C328" s="161"/>
+      <c r="C328" s="117"/>
       <c r="D328" s="2"/>
       <c r="G328" s="30"/>
     </row>
     <row r="329" spans="1:7" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
-      <c r="C329" s="161"/>
+      <c r="C329" s="117"/>
       <c r="D329" s="2"/>
       <c r="G329" s="30"/>
     </row>
     <row r="330" spans="1:7" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
-      <c r="C330" s="161"/>
+      <c r="C330" s="117"/>
       <c r="D330" s="2"/>
       <c r="G330" s="30"/>
     </row>
     <row r="331" spans="1:7" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
-      <c r="C331" s="161"/>
+      <c r="C331" s="117"/>
       <c r="D331" s="2"/>
       <c r="G331" s="30"/>
     </row>
     <row r="332" spans="1:7" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
-      <c r="C332" s="161"/>
+      <c r="C332" s="117"/>
       <c r="D332" s="2"/>
       <c r="G332" s="30"/>
     </row>
     <row r="333" spans="1:7" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
-      <c r="C333" s="161"/>
+      <c r="C333" s="117"/>
       <c r="D333" s="2"/>
       <c r="G333" s="30"/>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
-      <c r="C334" s="161"/>
+      <c r="C334" s="117"/>
       <c r="D334" s="2"/>
       <c r="G334" s="30"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
-      <c r="C335" s="161"/>
+      <c r="C335" s="117"/>
       <c r="D335" s="2"/>
       <c r="G335" s="30"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
-      <c r="C336" s="161"/>
+      <c r="C336" s="117"/>
       <c r="D336" s="2"/>
       <c r="G336" s="30"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
-      <c r="C337" s="161"/>
+      <c r="C337" s="117"/>
       <c r="D337" s="2"/>
       <c r="G337" s="30"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
-      <c r="C338" s="161"/>
+      <c r="C338" s="117"/>
       <c r="D338" s="2"/>
       <c r="G338" s="30"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
-      <c r="C339" s="161"/>
+      <c r="C339" s="117"/>
       <c r="D339" s="2"/>
       <c r="G339" s="30"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
-      <c r="C340" s="161"/>
+      <c r="C340" s="117"/>
       <c r="D340" s="2"/>
       <c r="G340" s="30"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
-      <c r="C341" s="161"/>
+      <c r="C341" s="117"/>
       <c r="D341" s="2"/>
       <c r="G341" s="30"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
-      <c r="C342" s="161"/>
+      <c r="C342" s="117"/>
       <c r="D342" s="2"/>
       <c r="G342" s="30"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
-      <c r="C343" s="161"/>
+      <c r="C343" s="117"/>
       <c r="D343" s="2"/>
       <c r="G343" s="30"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
-      <c r="C344" s="161"/>
+      <c r="C344" s="117"/>
       <c r="D344" s="2"/>
       <c r="G344" s="30"/>
     </row>
     <row r="345" spans="1:7" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
-      <c r="C345" s="161"/>
+      <c r="C345" s="117"/>
       <c r="D345" s="2"/>
       <c r="G345" s="30"/>
     </row>
     <row r="346" spans="1:7" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
-      <c r="C346" s="161"/>
+      <c r="C346" s="117"/>
       <c r="D346" s="2"/>
       <c r="G346" s="30"/>
     </row>
     <row r="347" spans="1:7" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
-      <c r="C347" s="161"/>
+      <c r="C347" s="117"/>
       <c r="D347" s="2"/>
       <c r="G347" s="30"/>
     </row>
     <row r="348" spans="1:7" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
-      <c r="C348" s="161"/>
+      <c r="C348" s="117"/>
       <c r="D348" s="2"/>
       <c r="G348" s="30"/>
     </row>
     <row r="349" spans="1:7" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
-      <c r="C349" s="161"/>
+      <c r="C349" s="117"/>
       <c r="D349" s="2"/>
       <c r="G349" s="30"/>
     </row>
     <row r="350" spans="1:7" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
-      <c r="C350" s="161"/>
+      <c r="C350" s="117"/>
       <c r="D350" s="2"/>
       <c r="G350" s="30"/>
     </row>
     <row r="351" spans="1:7" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
-      <c r="C351" s="161"/>
+      <c r="C351" s="117"/>
       <c r="D351" s="2"/>
       <c r="G351" s="30"/>
     </row>
     <row r="352" spans="1:7" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
-      <c r="C352" s="161"/>
+      <c r="C352" s="117"/>
       <c r="D352" s="2"/>
       <c r="G352" s="30"/>
     </row>
     <row r="353" spans="1:7" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
-      <c r="C353" s="161"/>
+      <c r="C353" s="117"/>
       <c r="D353" s="2"/>
       <c r="G353" s="30"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
-      <c r="C354" s="161"/>
+      <c r="C354" s="117"/>
       <c r="D354" s="2"/>
       <c r="G354" s="30"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
-      <c r="C355" s="161"/>
+      <c r="C355" s="117"/>
       <c r="D355" s="2"/>
       <c r="G355" s="30"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
-      <c r="C356" s="161"/>
+      <c r="C356" s="117"/>
       <c r="D356" s="2"/>
       <c r="G356" s="30"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
-      <c r="C357" s="161"/>
+      <c r="C357" s="117"/>
       <c r="D357" s="2"/>
       <c r="G357" s="30"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
-      <c r="C358" s="161"/>
+      <c r="C358" s="117"/>
       <c r="D358" s="2"/>
       <c r="G358" s="30"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
-      <c r="C359" s="161"/>
+      <c r="C359" s="117"/>
       <c r="D359" s="2"/>
       <c r="G359" s="30"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
-      <c r="C360" s="161"/>
+      <c r="C360" s="117"/>
       <c r="D360" s="2"/>
       <c r="G360" s="30"/>
     </row>
     <row r="361" spans="1:7" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
-      <c r="C361" s="161"/>
+      <c r="C361" s="117"/>
       <c r="D361" s="2"/>
       <c r="G361" s="30"/>
     </row>
     <row r="362" spans="1:7" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
-      <c r="C362" s="161"/>
+      <c r="C362" s="117"/>
       <c r="D362" s="2"/>
       <c r="G362" s="30"/>
     </row>
     <row r="363" spans="1:7" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
-      <c r="C363" s="161"/>
+      <c r="C363" s="117"/>
       <c r="D363" s="2"/>
       <c r="G363" s="30"/>
     </row>
     <row r="364" spans="1:7" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
-      <c r="C364" s="161"/>
+      <c r="C364" s="117"/>
       <c r="D364" s="2"/>
       <c r="G364" s="30"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
-      <c r="C365" s="161"/>
+      <c r="C365" s="117"/>
       <c r="D365" s="2"/>
       <c r="G365" s="30"/>
     </row>
     <row r="366" spans="1:7" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
-      <c r="C366" s="161"/>
+      <c r="C366" s="117"/>
       <c r="D366" s="2"/>
       <c r="G366" s="30"/>
     </row>
     <row r="367" spans="1:7" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
-      <c r="C367" s="161"/>
+      <c r="C367" s="117"/>
       <c r="D367" s="2"/>
       <c r="G367" s="30"/>
     </row>
     <row r="368" spans="1:7" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
-      <c r="C368" s="161"/>
+      <c r="C368" s="117"/>
       <c r="D368" s="2"/>
       <c r="G368" s="30"/>
     </row>
     <row r="369" spans="1:7" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
-      <c r="C369" s="161"/>
+      <c r="C369" s="117"/>
       <c r="D369" s="2"/>
       <c r="G369" s="30"/>
     </row>
     <row r="370" spans="1:7" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
-      <c r="C370" s="161"/>
+      <c r="C370" s="117"/>
       <c r="D370" s="2"/>
       <c r="G370" s="30"/>
     </row>
     <row r="371" spans="1:7" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
-      <c r="C371" s="161"/>
+      <c r="C371" s="117"/>
       <c r="D371" s="2"/>
       <c r="G371" s="30"/>
     </row>
     <row r="372" spans="1:7" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
-      <c r="C372" s="161"/>
+      <c r="C372" s="117"/>
       <c r="D372" s="2"/>
       <c r="G372" s="30"/>
     </row>
     <row r="373" spans="1:7" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
-      <c r="C373" s="161"/>
+      <c r="C373" s="117"/>
       <c r="D373" s="2"/>
       <c r="G373" s="30"/>
     </row>
     <row r="374" spans="1:7" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
-      <c r="C374" s="161"/>
+      <c r="C374" s="117"/>
       <c r="D374" s="2"/>
       <c r="G374" s="30"/>
     </row>
     <row r="375" spans="1:7" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
-      <c r="C375" s="161"/>
+      <c r="C375" s="117"/>
       <c r="D375" s="2"/>
       <c r="G375" s="30"/>
     </row>
     <row r="376" spans="1:7" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
-      <c r="C376" s="161"/>
+      <c r="C376" s="117"/>
       <c r="D376" s="2"/>
       <c r="G376" s="30"/>
     </row>
     <row r="377" spans="1:7" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
-      <c r="C377" s="161"/>
+      <c r="C377" s="117"/>
       <c r="D377" s="2"/>
       <c r="G377" s="30"/>
     </row>
     <row r="378" spans="1:7" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
-      <c r="C378" s="161"/>
+      <c r="C378" s="117"/>
       <c r="D378" s="2"/>
       <c r="G378" s="30"/>
     </row>
     <row r="379" spans="1:7" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
-      <c r="C379" s="161"/>
+      <c r="C379" s="117"/>
       <c r="D379" s="2"/>
       <c r="G379" s="30"/>
     </row>
     <row r="380" spans="1:7" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
-      <c r="C380" s="161"/>
+      <c r="C380" s="117"/>
       <c r="D380" s="2"/>
       <c r="G380" s="30"/>
     </row>
     <row r="381" spans="1:7" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
-      <c r="C381" s="161"/>
+      <c r="C381" s="117"/>
       <c r="D381" s="2"/>
       <c r="G381" s="30"/>
     </row>
     <row r="382" spans="1:7" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
-      <c r="C382" s="161"/>
+      <c r="C382" s="117"/>
       <c r="D382" s="2"/>
       <c r="G382" s="30"/>
     </row>
     <row r="383" spans="1:7" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
-      <c r="C383" s="161"/>
+      <c r="C383" s="117"/>
       <c r="D383" s="2"/>
       <c r="G383" s="30"/>
     </row>
     <row r="384" spans="1:7" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
-      <c r="C384" s="161"/>
+      <c r="C384" s="117"/>
       <c r="D384" s="2"/>
       <c r="G384" s="30"/>
     </row>
     <row r="385" spans="1:7" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
-      <c r="C385" s="161"/>
+      <c r="C385" s="117"/>
       <c r="D385" s="2"/>
       <c r="G385" s="30"/>
     </row>
     <row r="386" spans="1:7" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
-      <c r="C386" s="161"/>
+      <c r="C386" s="117"/>
       <c r="D386" s="2"/>
       <c r="G386" s="30"/>
     </row>
     <row r="387" spans="1:7" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
-      <c r="C387" s="161"/>
+      <c r="C387" s="117"/>
       <c r="D387" s="2"/>
       <c r="G387" s="30"/>
     </row>
     <row r="388" spans="1:7" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
-      <c r="C388" s="161"/>
+      <c r="C388" s="117"/>
       <c r="D388" s="2"/>
       <c r="G388" s="30"/>
     </row>
     <row r="389" spans="1:7" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
-      <c r="C389" s="161"/>
+      <c r="C389" s="117"/>
       <c r="D389" s="2"/>
       <c r="G389" s="30"/>
     </row>
     <row r="390" spans="1:7" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
-      <c r="C390" s="161"/>
+      <c r="C390" s="117"/>
       <c r="D390" s="2"/>
       <c r="G390" s="30"/>
     </row>
     <row r="391" spans="1:7" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
-      <c r="C391" s="161"/>
+      <c r="C391" s="117"/>
       <c r="D391" s="2"/>
       <c r="G391" s="30"/>
     </row>
     <row r="392" spans="1:7" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
-      <c r="C392" s="161"/>
+      <c r="C392" s="117"/>
       <c r="D392" s="2"/>
       <c r="G392" s="30"/>
     </row>
     <row r="393" spans="1:7" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
-      <c r="C393" s="161"/>
+      <c r="C393" s="117"/>
       <c r="D393" s="2"/>
       <c r="G393" s="30"/>
     </row>
     <row r="394" spans="1:7" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
-      <c r="C394" s="161"/>
+      <c r="C394" s="117"/>
       <c r="D394" s="2"/>
       <c r="G394" s="30"/>
     </row>
     <row r="395" spans="1:7" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
-      <c r="C395" s="161"/>
+      <c r="C395" s="117"/>
       <c r="D395" s="2"/>
       <c r="G395" s="30"/>
     </row>
     <row r="396" spans="1:7" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
-      <c r="C396" s="161"/>
+      <c r="C396" s="117"/>
       <c r="D396" s="2"/>
       <c r="G396" s="30"/>
     </row>
     <row r="397" spans="1:7" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
-      <c r="C397" s="161"/>
+      <c r="C397" s="117"/>
       <c r="D397" s="2"/>
       <c r="G397" s="30"/>
     </row>
     <row r="398" spans="1:7" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
-      <c r="C398" s="161"/>
+      <c r="C398" s="117"/>
       <c r="D398" s="2"/>
       <c r="G398" s="30"/>
     </row>
     <row r="399" spans="1:7" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
-      <c r="C399" s="161"/>
+      <c r="C399" s="117"/>
       <c r="D399" s="2"/>
       <c r="G399" s="30"/>
     </row>
     <row r="400" spans="1:7" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
-      <c r="C400" s="161"/>
+      <c r="C400" s="117"/>
       <c r="D400" s="2"/>
       <c r="G400" s="30"/>
     </row>
     <row r="401" spans="1:7" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
-      <c r="C401" s="161"/>
+      <c r="C401" s="117"/>
       <c r="D401" s="2"/>
       <c r="G401" s="30"/>
     </row>
     <row r="402" spans="1:7" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
-      <c r="C402" s="161"/>
+      <c r="C402" s="117"/>
       <c r="D402" s="2"/>
       <c r="G402" s="30"/>
     </row>
     <row r="403" spans="1:7" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
-      <c r="C403" s="161"/>
+      <c r="C403" s="117"/>
       <c r="D403" s="2"/>
       <c r="G403" s="30"/>
     </row>
     <row r="404" spans="1:7" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
-      <c r="C404" s="161"/>
+      <c r="C404" s="117"/>
       <c r="D404" s="2"/>
       <c r="G404" s="30"/>
     </row>
     <row r="405" spans="1:7" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
-      <c r="C405" s="161"/>
+      <c r="C405" s="117"/>
       <c r="D405" s="2"/>
       <c r="G405" s="30"/>
     </row>
     <row r="406" spans="1:7" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
-      <c r="C406" s="161"/>
+      <c r="C406" s="117"/>
       <c r="D406" s="2"/>
       <c r="G406" s="30"/>
     </row>
     <row r="407" spans="1:7" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
-      <c r="C407" s="161"/>
+      <c r="C407" s="117"/>
       <c r="D407" s="2"/>
       <c r="G407" s="30"/>
     </row>
     <row r="408" spans="1:7" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
-      <c r="C408" s="161"/>
+      <c r="C408" s="117"/>
       <c r="D408" s="2"/>
       <c r="G408" s="30"/>
     </row>
     <row r="409" spans="1:7" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
-      <c r="C409" s="161"/>
+      <c r="C409" s="117"/>
       <c r="D409" s="2"/>
       <c r="G409" s="30"/>
     </row>
     <row r="410" spans="1:7" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
-      <c r="C410" s="161"/>
+      <c r="C410" s="117"/>
       <c r="D410" s="2"/>
       <c r="G410" s="30"/>
     </row>
     <row r="411" spans="1:7" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
-      <c r="C411" s="161"/>
+      <c r="C411" s="117"/>
       <c r="D411" s="2"/>
       <c r="G411" s="30"/>
     </row>
     <row r="412" spans="1:7" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
-      <c r="C412" s="161"/>
+      <c r="C412" s="117"/>
       <c r="D412" s="2"/>
       <c r="G412" s="30"/>
     </row>
     <row r="413" spans="1:7" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
-      <c r="C413" s="161"/>
+      <c r="C413" s="117"/>
       <c r="D413" s="2"/>
       <c r="G413" s="30"/>
     </row>
     <row r="414" spans="1:7" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
-      <c r="C414" s="161"/>
+      <c r="C414" s="117"/>
       <c r="D414" s="2"/>
       <c r="G414" s="30"/>
     </row>
     <row r="415" spans="1:7" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
-      <c r="C415" s="161"/>
+      <c r="C415" s="117"/>
       <c r="D415" s="2"/>
       <c r="G415" s="30"/>
     </row>
     <row r="416" spans="1:7" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
-      <c r="C416" s="161"/>
+      <c r="C416" s="117"/>
       <c r="D416" s="2"/>
       <c r="G416" s="30"/>
     </row>
     <row r="417" spans="1:7" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
-      <c r="C417" s="161"/>
+      <c r="C417" s="117"/>
       <c r="D417" s="2"/>
       <c r="G417" s="30"/>
     </row>
     <row r="418" spans="1:7" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
-      <c r="C418" s="161"/>
+      <c r="C418" s="117"/>
       <c r="D418" s="2"/>
       <c r="G418" s="30"/>
     </row>
     <row r="419" spans="1:7" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
-      <c r="C419" s="161"/>
+      <c r="C419" s="117"/>
       <c r="D419" s="2"/>
       <c r="G419" s="30"/>
     </row>
     <row r="420" spans="1:7" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
-      <c r="C420" s="161"/>
+      <c r="C420" s="117"/>
       <c r="D420" s="2"/>
       <c r="G420" s="30"/>
     </row>
     <row r="421" spans="1:7" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
-      <c r="C421" s="161"/>
+      <c r="C421" s="117"/>
       <c r="D421" s="2"/>
       <c r="G421" s="30"/>
     </row>
     <row r="422" spans="1:7" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
-      <c r="C422" s="161"/>
+      <c r="C422" s="117"/>
       <c r="D422" s="2"/>
       <c r="G422" s="30"/>
     </row>
     <row r="423" spans="1:7" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
-      <c r="C423" s="161"/>
+      <c r="C423" s="117"/>
       <c r="D423" s="2"/>
       <c r="G423" s="30"/>
     </row>
     <row r="424" spans="1:7" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
-      <c r="C424" s="161"/>
+      <c r="C424" s="117"/>
       <c r="D424" s="2"/>
       <c r="G424" s="30"/>
     </row>
     <row r="425" spans="1:7" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
-      <c r="C425" s="161"/>
+      <c r="C425" s="117"/>
       <c r="D425" s="2"/>
       <c r="G425" s="30"/>
     </row>
     <row r="426" spans="1:7" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
-      <c r="C426" s="161"/>
+      <c r="C426" s="117"/>
       <c r="D426" s="2"/>
       <c r="G426" s="30"/>
     </row>
     <row r="427" spans="1:7" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
-      <c r="C427" s="161"/>
+      <c r="C427" s="117"/>
       <c r="D427" s="2"/>
       <c r="G427" s="30"/>
     </row>
     <row r="428" spans="1:7" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
-      <c r="C428" s="161"/>
+      <c r="C428" s="117"/>
       <c r="D428" s="2"/>
       <c r="G428" s="30"/>
     </row>
     <row r="429" spans="1:7" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
-      <c r="C429" s="161"/>
+      <c r="C429" s="117"/>
       <c r="D429" s="2"/>
       <c r="G429" s="30"/>
     </row>
     <row r="430" spans="1:7" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
-      <c r="C430" s="161"/>
+      <c r="C430" s="117"/>
       <c r="D430" s="2"/>
       <c r="G430" s="30"/>
     </row>
     <row r="431" spans="1:7" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
-      <c r="C431" s="161"/>
+      <c r="C431" s="117"/>
       <c r="D431" s="2"/>
       <c r="G431" s="30"/>
     </row>
     <row r="432" spans="1:7" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
-      <c r="C432" s="161"/>
+      <c r="C432" s="117"/>
       <c r="D432" s="2"/>
       <c r="G432" s="30"/>
     </row>
     <row r="433" spans="1:7" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
-      <c r="C433" s="161"/>
+      <c r="C433" s="117"/>
       <c r="D433" s="2"/>
       <c r="G433" s="30"/>
     </row>
     <row r="434" spans="1:7" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
-      <c r="C434" s="161"/>
+      <c r="C434" s="117"/>
       <c r="D434" s="2"/>
       <c r="G434" s="30"/>
     </row>
     <row r="435" spans="1:7" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
-      <c r="C435" s="161"/>
+      <c r="C435" s="117"/>
       <c r="D435" s="2"/>
       <c r="G435" s="30"/>
     </row>
     <row r="436" spans="1:7" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
-      <c r="C436" s="161"/>
+      <c r="C436" s="117"/>
       <c r="D436" s="2"/>
       <c r="G436" s="30"/>
     </row>
     <row r="437" spans="1:7" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
-      <c r="C437" s="161"/>
+      <c r="C437" s="117"/>
       <c r="D437" s="2"/>
       <c r="G437" s="30"/>
     </row>
     <row r="438" spans="1:7" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
-      <c r="C438" s="161"/>
+      <c r="C438" s="117"/>
       <c r="D438" s="2"/>
       <c r="G438" s="30"/>
     </row>
     <row r="439" spans="1:7" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
-      <c r="C439" s="161"/>
+      <c r="C439" s="117"/>
       <c r="D439" s="2"/>
       <c r="G439" s="30"/>
     </row>
     <row r="440" spans="1:7" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
-      <c r="C440" s="161"/>
+      <c r="C440" s="117"/>
       <c r="D440" s="2"/>
       <c r="G440" s="30"/>
     </row>
     <row r="441" spans="1:7" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
-      <c r="C441" s="161"/>
+      <c r="C441" s="117"/>
       <c r="D441" s="2"/>
       <c r="G441" s="30"/>
     </row>
     <row r="442" spans="1:7" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
-      <c r="C442" s="161"/>
+      <c r="C442" s="117"/>
       <c r="D442" s="2"/>
       <c r="G442" s="30"/>
     </row>
     <row r="443" spans="1:7" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
-      <c r="C443" s="161"/>
+      <c r="C443" s="117"/>
       <c r="D443" s="2"/>
       <c r="G443" s="30"/>
     </row>
     <row r="444" spans="1:7" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
-      <c r="C444" s="161"/>
+      <c r="C444" s="117"/>
       <c r="D444" s="2"/>
       <c r="G444" s="30"/>
     </row>
     <row r="445" spans="1:7" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
-      <c r="C445" s="161"/>
+      <c r="C445" s="117"/>
       <c r="D445" s="2"/>
       <c r="G445" s="30"/>
     </row>
     <row r="446" spans="1:7" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
-      <c r="C446" s="161"/>
+      <c r="C446" s="117"/>
       <c r="D446" s="2"/>
       <c r="G446" s="30"/>
     </row>
     <row r="447" spans="1:7" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
-      <c r="C447" s="161"/>
+      <c r="C447" s="117"/>
       <c r="D447" s="2"/>
       <c r="G447" s="30"/>
     </row>
     <row r="448" spans="1:7" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
-      <c r="C448" s="161"/>
+      <c r="C448" s="117"/>
       <c r="D448" s="2"/>
       <c r="G448" s="30"/>
     </row>
     <row r="449" spans="1:7" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
-      <c r="C449" s="161"/>
+      <c r="C449" s="117"/>
       <c r="D449" s="2"/>
       <c r="G449" s="30"/>
     </row>
     <row r="450" spans="1:7" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
-      <c r="C450" s="161"/>
+      <c r="C450" s="117"/>
       <c r="D450" s="2"/>
       <c r="G450" s="30"/>
     </row>
     <row r="451" spans="1:7" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
-      <c r="C451" s="161"/>
+      <c r="C451" s="117"/>
       <c r="D451" s="2"/>
       <c r="G451" s="30"/>
     </row>
     <row r="452" spans="1:7" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
-      <c r="C452" s="161"/>
+      <c r="C452" s="117"/>
       <c r="D452" s="2"/>
       <c r="G452" s="30"/>
     </row>
     <row r="453" spans="1:7" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
-      <c r="C453" s="161"/>
+      <c r="C453" s="117"/>
       <c r="D453" s="2"/>
       <c r="G453" s="30"/>
     </row>
     <row r="454" spans="1:7" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
-      <c r="C454" s="161"/>
+      <c r="C454" s="117"/>
       <c r="D454" s="2"/>
       <c r="G454" s="30"/>
     </row>
     <row r="455" spans="1:7" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
-      <c r="C455" s="161"/>
+      <c r="C455" s="117"/>
       <c r="D455" s="2"/>
       <c r="G455" s="30"/>
     </row>
     <row r="456" spans="1:7" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
-      <c r="C456" s="161"/>
+      <c r="C456" s="117"/>
       <c r="D456" s="2"/>
       <c r="G456" s="30"/>
     </row>
     <row r="457" spans="1:7" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
-      <c r="C457" s="161"/>
+      <c r="C457" s="117"/>
       <c r="D457" s="2"/>
       <c r="G457" s="30"/>
     </row>
     <row r="458" spans="1:7" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
-      <c r="C458" s="161"/>
+      <c r="C458" s="117"/>
       <c r="D458" s="2"/>
       <c r="G458" s="30"/>
     </row>
     <row r="459" spans="1:7" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
-      <c r="C459" s="161"/>
+      <c r="C459" s="117"/>
       <c r="D459" s="2"/>
       <c r="G459" s="30"/>
     </row>
     <row r="460" spans="1:7" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
-      <c r="C460" s="161"/>
+      <c r="C460" s="117"/>
       <c r="D460" s="2"/>
       <c r="G460" s="30"/>
     </row>
     <row r="461" spans="1:7" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
-      <c r="C461" s="161"/>
+      <c r="C461" s="117"/>
       <c r="D461" s="2"/>
       <c r="G461" s="30"/>
     </row>
     <row r="462" spans="1:7" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
-      <c r="C462" s="161"/>
+      <c r="C462" s="117"/>
       <c r="D462" s="2"/>
       <c r="G462" s="30"/>
     </row>
     <row r="463" spans="1:7" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
-      <c r="C463" s="161"/>
+      <c r="C463" s="117"/>
       <c r="D463" s="2"/>
       <c r="G463" s="30"/>
     </row>
     <row r="464" spans="1:7" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
-      <c r="C464" s="161"/>
+      <c r="C464" s="117"/>
       <c r="D464" s="2"/>
       <c r="G464" s="30"/>
     </row>
     <row r="465" spans="1:7" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
-      <c r="C465" s="161"/>
+      <c r="C465" s="117"/>
       <c r="D465" s="2"/>
       <c r="G465" s="30"/>
     </row>
     <row r="466" spans="1:7" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
-      <c r="C466" s="161"/>
+      <c r="C466" s="117"/>
       <c r="D466" s="2"/>
       <c r="G466" s="30"/>
     </row>
     <row r="467" spans="1:7" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
-      <c r="C467" s="161"/>
+      <c r="C467" s="117"/>
       <c r="D467" s="2"/>
       <c r="G467" s="30"/>
     </row>
     <row r="468" spans="1:7" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
-      <c r="C468" s="161"/>
+      <c r="C468" s="117"/>
       <c r="D468" s="2"/>
       <c r="G468" s="30"/>
     </row>
     <row r="469" spans="1:7" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
-      <c r="C469" s="161"/>
+      <c r="C469" s="117"/>
       <c r="D469" s="2"/>
       <c r="G469" s="30"/>
     </row>
     <row r="470" spans="1:7" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
-      <c r="C470" s="161"/>
+      <c r="C470" s="117"/>
       <c r="D470" s="2"/>
       <c r="G470" s="30"/>
     </row>
     <row r="471" spans="1:7" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
-      <c r="C471" s="161"/>
+      <c r="C471" s="117"/>
       <c r="D471" s="2"/>
       <c r="G471" s="30"/>
     </row>
     <row r="472" spans="1:7" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
-      <c r="C472" s="161"/>
+      <c r="C472" s="117"/>
       <c r="D472" s="2"/>
       <c r="G472" s="30"/>
     </row>
     <row r="473" spans="1:7" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
-      <c r="C473" s="161"/>
+      <c r="C473" s="117"/>
       <c r="D473" s="2"/>
       <c r="G473" s="30"/>
     </row>
     <row r="474" spans="1:7" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
-      <c r="C474" s="161"/>
+      <c r="C474" s="117"/>
       <c r="D474" s="2"/>
       <c r="G474" s="30"/>
     </row>
     <row r="475" spans="1:7" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
-      <c r="C475" s="161"/>
+      <c r="C475" s="117"/>
       <c r="D475" s="2"/>
       <c r="G475" s="30"/>
     </row>
     <row r="476" spans="1:7" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
-      <c r="C476" s="161"/>
+      <c r="C476" s="117"/>
       <c r="D476" s="2"/>
       <c r="G476" s="30"/>
     </row>
     <row r="477" spans="1:7" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
-      <c r="C477" s="161"/>
+      <c r="C477" s="117"/>
       <c r="D477" s="2"/>
       <c r="G477" s="30"/>
     </row>
     <row r="478" spans="1:7" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
-      <c r="C478" s="161"/>
+      <c r="C478" s="117"/>
       <c r="D478" s="2"/>
       <c r="G478" s="30"/>
     </row>
     <row r="479" spans="1:7" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
-      <c r="C479" s="161"/>
+      <c r="C479" s="117"/>
       <c r="D479" s="2"/>
       <c r="G479" s="30"/>
     </row>
     <row r="480" spans="1:7" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
-      <c r="C480" s="161"/>
+      <c r="C480" s="117"/>
       <c r="D480" s="2"/>
       <c r="G480" s="30"/>
     </row>
     <row r="481" spans="1:7" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
-      <c r="C481" s="161"/>
+      <c r="C481" s="117"/>
       <c r="D481" s="2"/>
       <c r="G481" s="30"/>
     </row>
     <row r="482" spans="1:7" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
-      <c r="C482" s="161"/>
+      <c r="C482" s="117"/>
       <c r="D482" s="2"/>
       <c r="G482" s="30"/>
     </row>
     <row r="483" spans="1:7" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
-      <c r="C483" s="161"/>
+      <c r="C483" s="117"/>
       <c r="D483" s="2"/>
       <c r="G483" s="30"/>
     </row>
     <row r="484" spans="1:7" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
-      <c r="C484" s="161"/>
+      <c r="C484" s="117"/>
       <c r="D484" s="2"/>
       <c r="G484" s="30"/>
     </row>
     <row r="485" spans="1:7" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
-      <c r="C485" s="161"/>
+      <c r="C485" s="117"/>
       <c r="D485" s="2"/>
       <c r="G485" s="30"/>
     </row>
     <row r="486" spans="1:7" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
-      <c r="C486" s="161"/>
+      <c r="C486" s="117"/>
       <c r="D486" s="2"/>
       <c r="G486" s="30"/>
     </row>
     <row r="487" spans="1:7" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
-      <c r="C487" s="161"/>
+      <c r="C487" s="117"/>
       <c r="D487" s="2"/>
       <c r="G487" s="30"/>
     </row>
     <row r="488" spans="1:7" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
-      <c r="C488" s="161"/>
+      <c r="C488" s="117"/>
       <c r="D488" s="2"/>
       <c r="G488" s="30"/>
     </row>
     <row r="489" spans="1:7" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
-      <c r="C489" s="161"/>
+      <c r="C489" s="117"/>
       <c r="D489" s="2"/>
       <c r="G489" s="30"/>
     </row>
     <row r="490" spans="1:7" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
-      <c r="C490" s="161"/>
+      <c r="C490" s="117"/>
       <c r="D490" s="2"/>
       <c r="G490" s="30"/>
     </row>
     <row r="491" spans="1:7" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
-      <c r="C491" s="161"/>
+      <c r="C491" s="117"/>
       <c r="D491" s="2"/>
       <c r="G491" s="30"/>
     </row>
     <row r="492" spans="1:7" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
-      <c r="C492" s="161"/>
+      <c r="C492" s="117"/>
       <c r="D492" s="2"/>
       <c r="G492" s="30"/>
     </row>
     <row r="493" spans="1:7" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
-      <c r="C493" s="161"/>
+      <c r="C493" s="117"/>
       <c r="D493" s="2"/>
       <c r="G493" s="30"/>
     </row>
     <row r="494" spans="1:7" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
-      <c r="C494" s="161"/>
+      <c r="C494" s="117"/>
       <c r="D494" s="2"/>
       <c r="G494" s="30"/>
     </row>
     <row r="495" spans="1:7" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
-      <c r="C495" s="161"/>
+      <c r="C495" s="117"/>
       <c r="D495" s="2"/>
       <c r="G495" s="30"/>
     </row>
     <row r="496" spans="1:7" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
-      <c r="C496" s="161"/>
+      <c r="C496" s="117"/>
       <c r="D496" s="2"/>
       <c r="G496" s="30"/>
     </row>
     <row r="497" spans="1:7" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
-      <c r="C497" s="161"/>
+      <c r="C497" s="117"/>
       <c r="D497" s="2"/>
       <c r="G497" s="30"/>
     </row>
     <row r="498" spans="1:7" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
-      <c r="C498" s="161"/>
+      <c r="C498" s="117"/>
       <c r="D498" s="2"/>
       <c r="G498" s="30"/>
     </row>
     <row r="499" spans="1:7" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
-      <c r="C499" s="161"/>
+      <c r="C499" s="117"/>
       <c r="D499" s="2"/>
       <c r="G499" s="30"/>
     </row>
     <row r="500" spans="1:7" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
-      <c r="C500" s="161"/>
+      <c r="C500" s="117"/>
       <c r="D500" s="2"/>
       <c r="G500" s="30"/>
     </row>
     <row r="501" spans="1:7" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
-      <c r="C501" s="161"/>
+      <c r="C501" s="117"/>
       <c r="D501" s="2"/>
       <c r="G501" s="30"/>
     </row>
     <row r="502" spans="1:7" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
-      <c r="C502" s="161"/>
+      <c r="C502" s="117"/>
       <c r="D502" s="2"/>
       <c r="G502" s="30"/>
     </row>
     <row r="503" spans="1:7" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
-      <c r="C503" s="161"/>
+      <c r="C503" s="117"/>
       <c r="D503" s="2"/>
       <c r="G503" s="30"/>
     </row>
     <row r="504" spans="1:7" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
-      <c r="C504" s="161"/>
+      <c r="C504" s="117"/>
       <c r="D504" s="2"/>
       <c r="G504" s="30"/>
     </row>
     <row r="505" spans="1:7" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
-      <c r="C505" s="161"/>
+      <c r="C505" s="117"/>
       <c r="D505" s="2"/>
       <c r="G505" s="30"/>
     </row>
     <row r="506" spans="1:7" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
-      <c r="C506" s="161"/>
+      <c r="C506" s="117"/>
       <c r="D506" s="2"/>
       <c r="G506" s="30"/>
     </row>
     <row r="507" spans="1:7" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
-      <c r="C507" s="161"/>
+      <c r="C507" s="117"/>
       <c r="D507" s="2"/>
       <c r="G507" s="30"/>
     </row>
     <row r="508" spans="1:7" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
-      <c r="C508" s="161"/>
+      <c r="C508" s="117"/>
       <c r="D508" s="2"/>
       <c r="G508" s="30"/>
     </row>
     <row r="509" spans="1:7" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
-      <c r="C509" s="161"/>
+      <c r="C509" s="117"/>
       <c r="D509" s="2"/>
       <c r="G509" s="30"/>
     </row>
     <row r="510" spans="1:7" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
-      <c r="C510" s="161"/>
+      <c r="C510" s="117"/>
       <c r="D510" s="2"/>
       <c r="G510" s="30"/>
     </row>
     <row r="511" spans="1:7" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
-      <c r="C511" s="161"/>
+      <c r="C511" s="117"/>
       <c r="D511" s="2"/>
       <c r="G511" s="30"/>
     </row>
     <row r="512" spans="1:7" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
-      <c r="C512" s="161"/>
+      <c r="C512" s="117"/>
       <c r="D512" s="2"/>
       <c r="G512" s="30"/>
     </row>
     <row r="513" spans="1:7" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
-      <c r="C513" s="161"/>
+      <c r="C513" s="117"/>
       <c r="D513" s="2"/>
       <c r="G513" s="30"/>
     </row>
     <row r="514" spans="1:7" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
-      <c r="C514" s="161"/>
+      <c r="C514" s="117"/>
       <c r="D514" s="2"/>
       <c r="G514" s="30"/>
     </row>
     <row r="515" spans="1:7" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
-      <c r="C515" s="161"/>
+      <c r="C515" s="117"/>
       <c r="D515" s="2"/>
       <c r="G515" s="30"/>
     </row>
     <row r="516" spans="1:7" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
-      <c r="C516" s="161"/>
+      <c r="C516" s="117"/>
       <c r="D516" s="2"/>
       <c r="G516" s="30"/>
     </row>
     <row r="517" spans="1:7" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
-      <c r="C517" s="161"/>
+      <c r="C517" s="117"/>
       <c r="D517" s="2"/>
       <c r="G517" s="30"/>
     </row>
     <row r="518" spans="1:7" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
-      <c r="C518" s="161"/>
+      <c r="C518" s="117"/>
       <c r="D518" s="2"/>
       <c r="G518" s="30"/>
     </row>
     <row r="519" spans="1:7" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
-      <c r="C519" s="161"/>
+      <c r="C519" s="117"/>
       <c r="D519" s="2"/>
       <c r="G519" s="30"/>
     </row>
     <row r="520" spans="1:7" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
-      <c r="C520" s="161"/>
+      <c r="C520" s="117"/>
       <c r="D520" s="2"/>
       <c r="G520" s="30"/>
     </row>
     <row r="521" spans="1:7" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
-      <c r="C521" s="161"/>
+      <c r="C521" s="117"/>
       <c r="D521" s="2"/>
       <c r="G521" s="30"/>
     </row>
     <row r="522" spans="1:7" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
-      <c r="C522" s="161"/>
+      <c r="C522" s="117"/>
       <c r="D522" s="2"/>
       <c r="G522" s="30"/>
     </row>
     <row r="523" spans="1:7" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
-      <c r="C523" s="161"/>
+      <c r="C523" s="117"/>
       <c r="D523" s="2"/>
       <c r="G523" s="30"/>
     </row>
     <row r="524" spans="1:7" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
-      <c r="C524" s="161"/>
+      <c r="C524" s="117"/>
       <c r="D524" s="2"/>
       <c r="G524" s="30"/>
     </row>
     <row r="525" spans="1:7" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
-      <c r="C525" s="161"/>
+      <c r="C525" s="117"/>
       <c r="D525" s="2"/>
       <c r="G525" s="30"/>
     </row>
     <row r="526" spans="1:7" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
-      <c r="C526" s="161"/>
+      <c r="C526" s="117"/>
       <c r="D526" s="2"/>
       <c r="G526" s="30"/>
     </row>
     <row r="527" spans="1:7" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
-      <c r="C527" s="161"/>
+      <c r="C527" s="117"/>
       <c r="D527" s="2"/>
       <c r="G527" s="30"/>
     </row>
     <row r="528" spans="1:7" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
-      <c r="C528" s="161"/>
+      <c r="C528" s="117"/>
       <c r="D528" s="2"/>
       <c r="G528" s="30"/>
     </row>
     <row r="529" spans="1:7" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
-      <c r="C529" s="161"/>
+      <c r="C529" s="117"/>
       <c r="D529" s="2"/>
       <c r="G529" s="30"/>
     </row>
     <row r="530" spans="1:7" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
-      <c r="C530" s="161"/>
+      <c r="C530" s="117"/>
       <c r="D530" s="2"/>
       <c r="G530" s="30"/>
     </row>
     <row r="531" spans="1:7" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
-      <c r="C531" s="161"/>
+      <c r="C531" s="117"/>
       <c r="D531" s="2"/>
       <c r="G531" s="30"/>
     </row>
     <row r="532" spans="1:7" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
-      <c r="C532" s="161"/>
+      <c r="C532" s="117"/>
       <c r="D532" s="2"/>
       <c r="G532" s="30"/>
     </row>
     <row r="533" spans="1:7" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
-      <c r="C533" s="161"/>
+      <c r="C533" s="117"/>
       <c r="D533" s="2"/>
       <c r="G533" s="30"/>
     </row>
     <row r="534" spans="1:7" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
-      <c r="C534" s="161"/>
+      <c r="C534" s="117"/>
       <c r="D534" s="2"/>
       <c r="G534" s="30"/>
     </row>
     <row r="535" spans="1:7" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
-      <c r="C535" s="161"/>
+      <c r="C535" s="117"/>
       <c r="D535" s="2"/>
       <c r="G535" s="30"/>
     </row>
     <row r="536" spans="1:7" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
-      <c r="C536" s="161"/>
+      <c r="C536" s="117"/>
       <c r="D536" s="2"/>
       <c r="G536" s="30"/>
     </row>
     <row r="537" spans="1:7" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
-      <c r="C537" s="161"/>
+      <c r="C537" s="117"/>
       <c r="D537" s="2"/>
       <c r="G537" s="30"/>
     </row>
     <row r="538" spans="1:7" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
-      <c r="C538" s="161"/>
+      <c r="C538" s="117"/>
       <c r="D538" s="2"/>
       <c r="G538" s="30"/>
     </row>
     <row r="539" spans="1:7" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
-      <c r="C539" s="161"/>
+      <c r="C539" s="117"/>
       <c r="D539" s="2"/>
       <c r="G539" s="30"/>
     </row>
     <row r="540" spans="1:7" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
-      <c r="C540" s="161"/>
+      <c r="C540" s="117"/>
       <c r="D540" s="2"/>
       <c r="G540" s="30"/>
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
-      <c r="C541" s="161"/>
+      <c r="C541" s="117"/>
       <c r="D541" s="2"/>
       <c r="G541" s="30"/>
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
-      <c r="C542" s="161"/>
+      <c r="C542" s="117"/>
       <c r="D542" s="2"/>
       <c r="G542" s="30"/>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
-      <c r="C543" s="161"/>
+      <c r="C543" s="117"/>
       <c r="D543" s="2"/>
       <c r="G543" s="30"/>
     </row>
     <row r="544" spans="1:7" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
-      <c r="C544" s="161"/>
+      <c r="C544" s="117"/>
       <c r="D544" s="2"/>
       <c r="G544" s="30"/>
     </row>
     <row r="545" spans="1:7" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
-      <c r="C545" s="161"/>
+      <c r="C545" s="117"/>
       <c r="D545" s="2"/>
       <c r="G545" s="30"/>
     </row>
     <row r="546" spans="1:7" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
-      <c r="C546" s="161"/>
+      <c r="C546" s="117"/>
       <c r="D546" s="2"/>
       <c r="G546" s="30"/>
     </row>
     <row r="547" spans="1:7" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
-      <c r="C547" s="161"/>
+      <c r="C547" s="117"/>
       <c r="D547" s="2"/>
       <c r="G547" s="30"/>
     </row>
     <row r="548" spans="1:7" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
-      <c r="C548" s="161"/>
+      <c r="C548" s="117"/>
       <c r="D548" s="2"/>
       <c r="G548" s="30"/>
     </row>
     <row r="549" spans="1:7" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
-      <c r="C549" s="161"/>
+      <c r="C549" s="117"/>
       <c r="D549" s="2"/>
       <c r="G549" s="30"/>
     </row>
     <row r="550" spans="1:7" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
-      <c r="C550" s="161"/>
+      <c r="C550" s="117"/>
       <c r="D550" s="2"/>
       <c r="G550" s="30"/>
     </row>
     <row r="551" spans="1:7" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
-      <c r="C551" s="161"/>
+      <c r="C551" s="117"/>
       <c r="D551" s="2"/>
       <c r="G551" s="30"/>
     </row>
     <row r="552" spans="1:7" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
-      <c r="C552" s="161"/>
+      <c r="C552" s="117"/>
       <c r="D552" s="2"/>
       <c r="G552" s="30"/>
     </row>
     <row r="553" spans="1:7" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
-      <c r="C553" s="161"/>
+      <c r="C553" s="117"/>
       <c r="D553" s="2"/>
       <c r="G553" s="30"/>
     </row>
     <row r="554" spans="1:7" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
-      <c r="C554" s="161"/>
+      <c r="C554" s="117"/>
       <c r="D554" s="2"/>
       <c r="G554" s="30"/>
     </row>
     <row r="555" spans="1:7" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
-      <c r="C555" s="161"/>
+      <c r="C555" s="117"/>
       <c r="D555" s="2"/>
       <c r="G555" s="30"/>
     </row>
     <row r="556" spans="1:7" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
-      <c r="C556" s="161"/>
+      <c r="C556" s="117"/>
       <c r="D556" s="2"/>
       <c r="G556" s="30"/>
     </row>
     <row r="557" spans="1:7" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
-      <c r="C557" s="161"/>
+      <c r="C557" s="117"/>
       <c r="D557" s="2"/>
       <c r="G557" s="30"/>
     </row>
     <row r="558" spans="1:7" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
-      <c r="C558" s="161"/>
+      <c r="C558" s="117"/>
       <c r="D558" s="2"/>
       <c r="G558" s="30"/>
     </row>
     <row r="559" spans="1:7" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
-      <c r="C559" s="161"/>
+      <c r="C559" s="117"/>
       <c r="D559" s="2"/>
       <c r="G559" s="30"/>
     </row>
     <row r="560" spans="1:7" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
-      <c r="C560" s="161"/>
+      <c r="C560" s="117"/>
       <c r="D560" s="2"/>
       <c r="G560" s="30"/>
     </row>
     <row r="561" spans="1:7" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
-      <c r="C561" s="161"/>
+      <c r="C561" s="117"/>
       <c r="D561" s="2"/>
       <c r="G561" s="30"/>
     </row>
     <row r="562" spans="1:7" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
-      <c r="C562" s="161"/>
+      <c r="C562" s="117"/>
       <c r="D562" s="2"/>
       <c r="G562" s="30"/>
     </row>
     <row r="563" spans="1:7" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
-      <c r="C563" s="161"/>
+      <c r="C563" s="117"/>
       <c r="D563" s="2"/>
       <c r="G563" s="30"/>
     </row>
     <row r="564" spans="1:7" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
-      <c r="C564" s="161"/>
+      <c r="C564" s="117"/>
       <c r="D564" s="2"/>
       <c r="G564" s="30"/>
     </row>
     <row r="565" spans="1:7" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
-      <c r="C565" s="161"/>
+      <c r="C565" s="117"/>
       <c r="D565" s="2"/>
       <c r="G565" s="30"/>
     </row>
     <row r="566" spans="1:7" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
-      <c r="C566" s="161"/>
+      <c r="C566" s="117"/>
       <c r="D566" s="2"/>
       <c r="G566" s="30"/>
     </row>
     <row r="567" spans="1:7" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
-      <c r="C567" s="161"/>
+      <c r="C567" s="117"/>
       <c r="D567" s="2"/>
       <c r="G567" s="30"/>
     </row>
     <row r="568" spans="1:7" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
-      <c r="C568" s="161"/>
+      <c r="C568" s="117"/>
       <c r="D568" s="2"/>
       <c r="G568" s="30"/>
     </row>
     <row r="569" spans="1:7" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
-      <c r="C569" s="161"/>
+      <c r="C569" s="117"/>
       <c r="D569" s="2"/>
       <c r="G569" s="30"/>
     </row>
     <row r="570" spans="1:7" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
-      <c r="C570" s="161"/>
+      <c r="C570" s="117"/>
       <c r="D570" s="2"/>
       <c r="G570" s="30"/>
     </row>
     <row r="571" spans="1:7" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
-      <c r="C571" s="161"/>
+      <c r="C571" s="117"/>
       <c r="D571" s="2"/>
       <c r="G571" s="30"/>
     </row>
     <row r="572" spans="1:7" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
-      <c r="C572" s="161"/>
+      <c r="C572" s="117"/>
       <c r="D572" s="2"/>
       <c r="G572" s="30"/>
     </row>
     <row r="573" spans="1:7" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
-      <c r="C573" s="161"/>
+      <c r="C573" s="117"/>
       <c r="D573" s="2"/>
       <c r="G573" s="30"/>
     </row>
     <row r="574" spans="1:7" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
-      <c r="C574" s="161"/>
+      <c r="C574" s="117"/>
       <c r="D574" s="2"/>
       <c r="G574" s="30"/>
     </row>
     <row r="575" spans="1:7" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
-      <c r="C575" s="161"/>
+      <c r="C575" s="117"/>
       <c r="D575" s="2"/>
       <c r="G575" s="30"/>
     </row>
     <row r="576" spans="1:7" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
-      <c r="C576" s="161"/>
+      <c r="C576" s="117"/>
       <c r="D576" s="2"/>
       <c r="G576" s="30"/>
     </row>
     <row r="577" spans="1:7" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
-      <c r="C577" s="161"/>
+      <c r="C577" s="117"/>
       <c r="D577" s="2"/>
       <c r="G577" s="30"/>
     </row>
     <row r="578" spans="1:7" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
-      <c r="C578" s="161"/>
+      <c r="C578" s="117"/>
       <c r="D578" s="2"/>
       <c r="G578" s="30"/>
     </row>
     <row r="579" spans="1:7" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
-      <c r="C579" s="161"/>
+      <c r="C579" s="117"/>
       <c r="D579" s="2"/>
       <c r="G579" s="30"/>
     </row>
     <row r="580" spans="1:7" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
-      <c r="C580" s="161"/>
+      <c r="C580" s="117"/>
       <c r="D580" s="2"/>
       <c r="G580" s="30"/>
     </row>
     <row r="581" spans="1:7" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
-      <c r="C581" s="161"/>
+      <c r="C581" s="117"/>
       <c r="D581" s="2"/>
       <c r="G581" s="30"/>
     </row>
     <row r="582" spans="1:7" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
-      <c r="C582" s="161"/>
+      <c r="C582" s="117"/>
       <c r="D582" s="2"/>
       <c r="G582" s="30"/>
     </row>
     <row r="583" spans="1:7" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
-      <c r="C583" s="161"/>
+      <c r="C583" s="117"/>
       <c r="D583" s="2"/>
       <c r="G583" s="30"/>
     </row>
     <row r="584" spans="1:7" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
-      <c r="C584" s="161"/>
+      <c r="C584" s="117"/>
       <c r="D584" s="2"/>
       <c r="G584" s="30"/>
     </row>
     <row r="585" spans="1:7" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
-      <c r="C585" s="161"/>
+      <c r="C585" s="117"/>
       <c r="D585" s="2"/>
       <c r="G585" s="30"/>
     </row>
     <row r="586" spans="1:7" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
-      <c r="C586" s="161"/>
+      <c r="C586" s="117"/>
       <c r="D586" s="2"/>
       <c r="G586" s="30"/>
     </row>
     <row r="587" spans="1:7" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
-      <c r="C587" s="161"/>
+      <c r="C587" s="117"/>
       <c r="D587" s="2"/>
       <c r="G587" s="30"/>
     </row>
     <row r="588" spans="1:7" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
-      <c r="C588" s="161"/>
+      <c r="C588" s="117"/>
       <c r="D588" s="2"/>
       <c r="G588" s="30"/>
     </row>
     <row r="589" spans="1:7" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
-      <c r="C589" s="161"/>
+      <c r="C589" s="117"/>
       <c r="D589" s="2"/>
       <c r="G589" s="30"/>
     </row>
     <row r="590" spans="1:7" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
-      <c r="C590" s="161"/>
+      <c r="C590" s="117"/>
       <c r="D590" s="2"/>
       <c r="G590" s="30"/>
     </row>
     <row r="591" spans="1:7" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
-      <c r="C591" s="161"/>
+      <c r="C591" s="117"/>
       <c r="D591" s="2"/>
       <c r="G591" s="30"/>
     </row>
     <row r="592" spans="1:7" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
-      <c r="C592" s="161"/>
+      <c r="C592" s="117"/>
       <c r="D592" s="2"/>
       <c r="G592" s="30"/>
     </row>
     <row r="593" spans="1:7" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
-      <c r="C593" s="161"/>
+      <c r="C593" s="117"/>
       <c r="D593" s="2"/>
       <c r="G593" s="30"/>
     </row>
     <row r="594" spans="1:7" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
-      <c r="C594" s="161"/>
+      <c r="C594" s="117"/>
       <c r="D594" s="2"/>
       <c r="G594" s="30"/>
     </row>
     <row r="595" spans="1:7" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
-      <c r="C595" s="161"/>
+      <c r="C595" s="117"/>
       <c r="D595" s="2"/>
       <c r="G595" s="30"/>
     </row>
     <row r="596" spans="1:7" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
-      <c r="C596" s="161"/>
+      <c r="C596" s="117"/>
       <c r="D596" s="2"/>
       <c r="G596" s="30"/>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
-      <c r="C597" s="161"/>
+      <c r="C597" s="117"/>
       <c r="D597" s="2"/>
       <c r="G597" s="30"/>
     </row>
     <row r="598" spans="1:7" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
-      <c r="C598" s="161"/>
+      <c r="C598" s="117"/>
       <c r="D598" s="2"/>
       <c r="G598" s="30"/>
     </row>
     <row r="599" spans="1:7" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
-      <c r="C599" s="161"/>
+      <c r="C599" s="117"/>
       <c r="D599" s="2"/>
       <c r="G599" s="30"/>
     </row>
     <row r="600" spans="1:7" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
-      <c r="C600" s="161"/>
+      <c r="C600" s="117"/>
       <c r="D600" s="2"/>
       <c r="G600" s="30"/>
     </row>
     <row r="601" spans="1:7" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
-      <c r="C601" s="161"/>
+      <c r="C601" s="117"/>
       <c r="D601" s="2"/>
       <c r="G601" s="30"/>
     </row>
     <row r="602" spans="1:7" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
-      <c r="C602" s="161"/>
+      <c r="C602" s="117"/>
       <c r="D602" s="2"/>
       <c r="G602" s="30"/>
     </row>
     <row r="603" spans="1:7" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
-      <c r="C603" s="161"/>
+      <c r="C603" s="117"/>
       <c r="D603" s="2"/>
       <c r="G603" s="30"/>
     </row>
     <row r="604" spans="1:7" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
-      <c r="C604" s="161"/>
+      <c r="C604" s="117"/>
       <c r="D604" s="2"/>
       <c r="G604" s="30"/>
     </row>
     <row r="605" spans="1:7" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
-      <c r="C605" s="161"/>
+      <c r="C605" s="117"/>
       <c r="D605" s="2"/>
       <c r="G605" s="30"/>
     </row>
     <row r="606" spans="1:7" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
-      <c r="C606" s="161"/>
+      <c r="C606" s="117"/>
       <c r="D606" s="2"/>
       <c r="G606" s="30"/>
     </row>
     <row r="607" spans="1:7" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
-      <c r="C607" s="161"/>
+      <c r="C607" s="117"/>
       <c r="D607" s="2"/>
       <c r="G607" s="30"/>
     </row>
     <row r="608" spans="1:7" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
-      <c r="C608" s="161"/>
+      <c r="C608" s="117"/>
       <c r="D608" s="2"/>
       <c r="G608" s="30"/>
     </row>
     <row r="609" spans="1:7" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
-      <c r="C609" s="161"/>
+      <c r="C609" s="117"/>
       <c r="D609" s="2"/>
       <c r="G609" s="30"/>
     </row>
     <row r="610" spans="1:7" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
-      <c r="C610" s="161"/>
+      <c r="C610" s="117"/>
       <c r="D610" s="2"/>
       <c r="G610" s="30"/>
     </row>
     <row r="611" spans="1:7" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
-      <c r="C611" s="161"/>
+      <c r="C611" s="117"/>
       <c r="D611" s="2"/>
       <c r="G611" s="30"/>
     </row>
     <row r="612" spans="1:7" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
-      <c r="C612" s="161"/>
+      <c r="C612" s="117"/>
       <c r="D612" s="2"/>
       <c r="G612" s="30"/>
     </row>
     <row r="613" spans="1:7" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
-      <c r="C613" s="161"/>
+      <c r="C613" s="117"/>
       <c r="D613" s="2"/>
       <c r="G613" s="30"/>
     </row>
     <row r="614" spans="1:7" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
-      <c r="C614" s="161"/>
+      <c r="C614" s="117"/>
       <c r="D614" s="2"/>
       <c r="G614" s="30"/>
     </row>
     <row r="615" spans="1:7" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
-      <c r="C615" s="161"/>
+      <c r="C615" s="117"/>
       <c r="D615" s="2"/>
       <c r="G615" s="30"/>
     </row>
     <row r="616" spans="1:7" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
-      <c r="C616" s="161"/>
+      <c r="C616" s="117"/>
       <c r="D616" s="2"/>
       <c r="G616" s="30"/>
     </row>
     <row r="617" spans="1:7" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
-      <c r="C617" s="161"/>
+      <c r="C617" s="117"/>
       <c r="D617" s="2"/>
       <c r="G617" s="30"/>
     </row>
     <row r="618" spans="1:7" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
-      <c r="C618" s="161"/>
+      <c r="C618" s="117"/>
       <c r="D618" s="2"/>
       <c r="G618" s="30"/>
     </row>
     <row r="619" spans="1:7" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
-      <c r="C619" s="161"/>
+      <c r="C619" s="117"/>
       <c r="D619" s="2"/>
       <c r="G619" s="30"/>
     </row>
     <row r="620" spans="1:7" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
-      <c r="C620" s="161"/>
+      <c r="C620" s="117"/>
       <c r="D620" s="2"/>
       <c r="G620" s="30"/>
     </row>
     <row r="621" spans="1:7" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
-      <c r="C621" s="161"/>
+      <c r="C621" s="117"/>
       <c r="D621" s="2"/>
       <c r="G621" s="30"/>
     </row>
     <row r="622" spans="1:7" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
-      <c r="C622" s="161"/>
+      <c r="C622" s="117"/>
       <c r="D622" s="2"/>
       <c r="G622" s="30"/>
     </row>
     <row r="623" spans="1:7" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
-      <c r="C623" s="161"/>
+      <c r="C623" s="117"/>
       <c r="D623" s="2"/>
       <c r="G623" s="30"/>
     </row>
     <row r="624" spans="1:7" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
-      <c r="C624" s="161"/>
+      <c r="C624" s="117"/>
       <c r="D624" s="2"/>
       <c r="G624" s="30"/>
     </row>
     <row r="625" spans="1:7" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
-      <c r="C625" s="161"/>
+      <c r="C625" s="117"/>
       <c r="D625" s="2"/>
       <c r="G625" s="30"/>
     </row>
     <row r="626" spans="1:7" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
-      <c r="C626" s="161"/>
+      <c r="C626" s="117"/>
       <c r="D626" s="2"/>
       <c r="G626" s="30"/>
     </row>
     <row r="627" spans="1:7" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
-      <c r="C627" s="161"/>
+      <c r="C627" s="117"/>
       <c r="D627" s="2"/>
       <c r="G627" s="30"/>
     </row>
     <row r="628" spans="1:7" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
-      <c r="C628" s="161"/>
+      <c r="C628" s="117"/>
       <c r="D628" s="2"/>
       <c r="G628" s="30"/>
     </row>
     <row r="629" spans="1:7" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
-      <c r="C629" s="161"/>
+      <c r="C629" s="117"/>
       <c r="D629" s="2"/>
       <c r="G629" s="30"/>
     </row>
     <row r="630" spans="1:7" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
-      <c r="C630" s="161"/>
+      <c r="C630" s="117"/>
       <c r="D630" s="2"/>
       <c r="G630" s="30"/>
     </row>
     <row r="631" spans="1:7" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
-      <c r="C631" s="161"/>
+      <c r="C631" s="117"/>
       <c r="D631" s="2"/>
       <c r="G631" s="30"/>
     </row>
     <row r="632" spans="1:7" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
-      <c r="C632" s="161"/>
+      <c r="C632" s="117"/>
       <c r="D632" s="2"/>
       <c r="G632" s="30"/>
     </row>
     <row r="633" spans="1:7" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
-      <c r="C633" s="161"/>
+      <c r="C633" s="117"/>
       <c r="D633" s="2"/>
       <c r="G633" s="30"/>
     </row>
     <row r="634" spans="1:7" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
-      <c r="C634" s="161"/>
+      <c r="C634" s="117"/>
       <c r="D634" s="2"/>
       <c r="G634" s="30"/>
     </row>
     <row r="635" spans="1:7" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
-      <c r="C635" s="161"/>
+      <c r="C635" s="117"/>
       <c r="D635" s="2"/>
       <c r="G635" s="30"/>
     </row>
     <row r="636" spans="1:7" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
-      <c r="C636" s="161"/>
+      <c r="C636" s="117"/>
       <c r="D636" s="2"/>
       <c r="G636" s="30"/>
     </row>
     <row r="637" spans="1:7" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
-      <c r="C637" s="161"/>
+      <c r="C637" s="117"/>
       <c r="D637" s="2"/>
       <c r="G637" s="30"/>
     </row>
     <row r="638" spans="1:7" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
-      <c r="C638" s="161"/>
+      <c r="C638" s="117"/>
       <c r="D638" s="2"/>
       <c r="G638" s="30"/>
     </row>
     <row r="639" spans="1:7" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
-      <c r="C639" s="161"/>
+      <c r="C639" s="117"/>
       <c r="D639" s="2"/>
       <c r="G639" s="30"/>
     </row>
     <row r="640" spans="1:7" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
-      <c r="C640" s="161"/>
+      <c r="C640" s="117"/>
       <c r="D640" s="2"/>
       <c r="G640" s="30"/>
     </row>
     <row r="641" spans="1:7" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
-      <c r="C641" s="161"/>
+      <c r="C641" s="117"/>
       <c r="D641" s="2"/>
       <c r="G641" s="30"/>
     </row>
     <row r="642" spans="1:7" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
-      <c r="C642" s="161"/>
+      <c r="C642" s="117"/>
       <c r="D642" s="2"/>
       <c r="G642" s="30"/>
     </row>
     <row r="643" spans="1:7" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
-      <c r="C643" s="161"/>
+      <c r="C643" s="117"/>
       <c r="D643" s="2"/>
       <c r="G643" s="30"/>
     </row>
     <row r="644" spans="1:7" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
-      <c r="C644" s="161"/>
+      <c r="C644" s="117"/>
       <c r="D644" s="2"/>
       <c r="G644" s="30"/>
     </row>
     <row r="645" spans="1:7" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
-      <c r="C645" s="161"/>
+      <c r="C645" s="117"/>
       <c r="D645" s="2"/>
       <c r="G645" s="30"/>
     </row>
     <row r="646" spans="1:7" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
-      <c r="C646" s="161"/>
+      <c r="C646" s="117"/>
       <c r="D646" s="2"/>
       <c r="G646" s="30"/>
     </row>
     <row r="647" spans="1:7" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
-      <c r="C647" s="161"/>
+      <c r="C647" s="117"/>
       <c r="D647" s="2"/>
       <c r="G647" s="30"/>
     </row>
     <row r="648" spans="1:7" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
-      <c r="C648" s="161"/>
+      <c r="C648" s="117"/>
       <c r="D648" s="2"/>
       <c r="G648" s="30"/>
     </row>
     <row r="649" spans="1:7" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
-      <c r="C649" s="161"/>
+      <c r="C649" s="117"/>
       <c r="D649" s="2"/>
       <c r="G649" s="30"/>
     </row>
     <row r="650" spans="1:7" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
-      <c r="C650" s="161"/>
+      <c r="C650" s="117"/>
       <c r="D650" s="2"/>
       <c r="G650" s="30"/>
     </row>
     <row r="651" spans="1:7" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
-      <c r="C651" s="161"/>
+      <c r="C651" s="117"/>
       <c r="D651" s="2"/>
       <c r="G651" s="30"/>
     </row>
     <row r="652" spans="1:7" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
-      <c r="C652" s="161"/>
+      <c r="C652" s="117"/>
       <c r="D652" s="2"/>
       <c r="G652" s="30"/>
     </row>
     <row r="653" spans="1:7" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
-      <c r="C653" s="161"/>
+      <c r="C653" s="117"/>
       <c r="D653" s="2"/>
       <c r="G653" s="30"/>
     </row>
     <row r="654" spans="1:7" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
-      <c r="C654" s="161"/>
+      <c r="C654" s="117"/>
       <c r="D654" s="2"/>
       <c r="G654" s="30"/>
     </row>
     <row r="655" spans="1:7" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
-      <c r="C655" s="161"/>
+      <c r="C655" s="117"/>
       <c r="D655" s="2"/>
       <c r="G655" s="30"/>
     </row>
     <row r="656" spans="1:7" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
-      <c r="C656" s="161"/>
+      <c r="C656" s="117"/>
       <c r="D656" s="2"/>
       <c r="G656" s="30"/>
     </row>
     <row r="657" spans="1:7" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
-      <c r="C657" s="161"/>
+      <c r="C657" s="117"/>
       <c r="D657" s="2"/>
       <c r="G657" s="30"/>
     </row>
     <row r="658" spans="1:7" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
-      <c r="C658" s="161"/>
+      <c r="C658" s="117"/>
       <c r="D658" s="2"/>
       <c r="G658" s="30"/>
     </row>
     <row r="659" spans="1:7" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
-      <c r="C659" s="161"/>
+      <c r="C659" s="117"/>
       <c r="D659" s="2"/>
       <c r="G659" s="30"/>
     </row>
     <row r="660" spans="1:7" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
-      <c r="C660" s="161"/>
+      <c r="C660" s="117"/>
       <c r="D660" s="2"/>
       <c r="G660" s="30"/>
     </row>
     <row r="661" spans="1:7" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
-      <c r="C661" s="161"/>
+      <c r="C661" s="117"/>
       <c r="D661" s="2"/>
       <c r="G661" s="30"/>
     </row>
     <row r="662" spans="1:7" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
-      <c r="C662" s="161"/>
+      <c r="C662" s="117"/>
       <c r="D662" s="2"/>
       <c r="G662" s="30"/>
     </row>
     <row r="663" spans="1:7" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
-      <c r="C663" s="161"/>
+      <c r="C663" s="117"/>
       <c r="D663" s="2"/>
       <c r="G663" s="30"/>
     </row>
     <row r="664" spans="1:7" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
-      <c r="C664" s="161"/>
+      <c r="C664" s="117"/>
       <c r="D664" s="2"/>
       <c r="G664" s="30"/>
     </row>
     <row r="665" spans="1:7" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
-      <c r="C665" s="161"/>
+      <c r="C665" s="117"/>
       <c r="D665" s="2"/>
       <c r="G665" s="30"/>
     </row>
     <row r="666" spans="1:7" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
-      <c r="C666" s="161"/>
+      <c r="C666" s="117"/>
       <c r="D666" s="2"/>
       <c r="G666" s="30"/>
     </row>
     <row r="667" spans="1:7" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
-      <c r="C667" s="161"/>
+      <c r="C667" s="117"/>
       <c r="D667" s="2"/>
       <c r="G667" s="30"/>
     </row>
     <row r="668" spans="1:7" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
-      <c r="C668" s="161"/>
+      <c r="C668" s="117"/>
       <c r="D668" s="2"/>
       <c r="G668" s="30"/>
     </row>
     <row r="669" spans="1:7" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
-      <c r="C669" s="161"/>
+      <c r="C669" s="117"/>
       <c r="D669" s="2"/>
       <c r="G669" s="30"/>
     </row>
     <row r="670" spans="1:7" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
-      <c r="C670" s="161"/>
+      <c r="C670" s="117"/>
       <c r="D670" s="2"/>
       <c r="G670" s="30"/>
     </row>
     <row r="671" spans="1:7" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
-      <c r="C671" s="161"/>
+      <c r="C671" s="117"/>
       <c r="D671" s="2"/>
       <c r="G671" s="30"/>
     </row>
     <row r="672" spans="1:7" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
-      <c r="C672" s="161"/>
+      <c r="C672" s="117"/>
       <c r="D672" s="2"/>
       <c r="G672" s="30"/>
     </row>
     <row r="673" spans="1:7" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
-      <c r="C673" s="161"/>
+      <c r="C673" s="117"/>
       <c r="D673" s="2"/>
       <c r="G673" s="30"/>
     </row>
     <row r="674" spans="1:7" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
-      <c r="C674" s="161"/>
+      <c r="C674" s="117"/>
       <c r="D674" s="2"/>
       <c r="G674" s="30"/>
     </row>
     <row r="675" spans="1:7" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
-      <c r="C675" s="161"/>
+      <c r="C675" s="117"/>
       <c r="D675" s="2"/>
       <c r="G675" s="30"/>
     </row>
     <row r="676" spans="1:7" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
-      <c r="C676" s="161"/>
+      <c r="C676" s="117"/>
       <c r="D676" s="2"/>
       <c r="G676" s="30"/>
     </row>
     <row r="677" spans="1:7" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
-      <c r="C677" s="161"/>
+      <c r="C677" s="117"/>
       <c r="D677" s="2"/>
       <c r="G677" s="30"/>
     </row>
     <row r="678" spans="1:7" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
-      <c r="C678" s="161"/>
+      <c r="C678" s="117"/>
       <c r="D678" s="2"/>
       <c r="G678" s="30"/>
     </row>
     <row r="679" spans="1:7" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
-      <c r="C679" s="161"/>
+      <c r="C679" s="117"/>
       <c r="D679" s="2"/>
       <c r="G679" s="30"/>
     </row>
     <row r="680" spans="1:7" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
-      <c r="C680" s="161"/>
+      <c r="C680" s="117"/>
       <c r="D680" s="2"/>
       <c r="G680" s="30"/>
     </row>
     <row r="681" spans="1:7" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="C681" s="161"/>
+      <c r="C681" s="117"/>
       <c r="D681" s="2"/>
       <c r="G681" s="30"/>
     </row>
     <row r="682" spans="1:7" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="C682" s="161"/>
+      <c r="C682" s="117"/>
       <c r="D682" s="2"/>
       <c r="G682" s="30"/>
     </row>
     <row r="683" spans="1:7" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="C683" s="161"/>
+      <c r="C683" s="117"/>
       <c r="D683" s="2"/>
       <c r="G683" s="30"/>
     </row>
     <row r="684" spans="1:7" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
-      <c r="C684" s="161"/>
+      <c r="C684" s="117"/>
       <c r="D684" s="2"/>
       <c r="G684" s="30"/>
     </row>
     <row r="685" spans="1:7" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
-      <c r="C685" s="161"/>
+      <c r="C685" s="117"/>
       <c r="D685" s="2"/>
       <c r="G685" s="30"/>
     </row>
     <row r="686" spans="1:7" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
-      <c r="C686" s="161"/>
+      <c r="C686" s="117"/>
       <c r="D686" s="2"/>
       <c r="G686" s="30"/>
     </row>
     <row r="687" spans="1:7" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
-      <c r="C687" s="161"/>
+      <c r="C687" s="117"/>
       <c r="D687" s="2"/>
       <c r="G687" s="30"/>
     </row>
     <row r="688" spans="1:7" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
-      <c r="C688" s="161"/>
+      <c r="C688" s="117"/>
       <c r="D688" s="2"/>
       <c r="G688" s="30"/>
     </row>
     <row r="689" spans="1:7" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
-      <c r="C689" s="161"/>
+      <c r="C689" s="117"/>
       <c r="D689" s="2"/>
       <c r="G689" s="30"/>
     </row>
     <row r="690" spans="1:7" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
-      <c r="C690" s="161"/>
+      <c r="C690" s="117"/>
       <c r="D690" s="2"/>
       <c r="G690" s="30"/>
     </row>
     <row r="691" spans="1:7" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
-      <c r="C691" s="161"/>
+      <c r="C691" s="117"/>
       <c r="D691" s="2"/>
       <c r="G691" s="30"/>
     </row>
     <row r="692" spans="1:7" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
-      <c r="C692" s="161"/>
+      <c r="C692" s="117"/>
       <c r="D692" s="2"/>
       <c r="G692" s="30"/>
     </row>
     <row r="693" spans="1:7" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
-      <c r="C693" s="161"/>
+      <c r="C693" s="117"/>
       <c r="D693" s="2"/>
       <c r="G693" s="30"/>
     </row>
     <row r="694" spans="1:7" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
-      <c r="C694" s="161"/>
+      <c r="C694" s="117"/>
       <c r="D694" s="2"/>
       <c r="G694" s="30"/>
     </row>
     <row r="695" spans="1:7" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
-      <c r="C695" s="161"/>
+      <c r="C695" s="117"/>
       <c r="D695" s="2"/>
       <c r="G695" s="30"/>
     </row>
     <row r="696" spans="1:7" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
-      <c r="C696" s="161"/>
+      <c r="C696" s="117"/>
       <c r="D696" s="2"/>
       <c r="G696" s="30"/>
     </row>
     <row r="697" spans="1:7" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
-      <c r="C697" s="161"/>
+      <c r="C697" s="117"/>
       <c r="D697" s="2"/>
       <c r="G697" s="30"/>
     </row>
     <row r="698" spans="1:7" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
-      <c r="C698" s="161"/>
+      <c r="C698" s="117"/>
       <c r="D698" s="2"/>
       <c r="G698" s="30"/>
     </row>
     <row r="699" spans="1:7" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
-      <c r="C699" s="161"/>
+      <c r="C699" s="117"/>
       <c r="D699" s="2"/>
       <c r="G699" s="30"/>
     </row>
     <row r="700" spans="1:7" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
-      <c r="C700" s="161"/>
+      <c r="C700" s="117"/>
       <c r="D700" s="2"/>
       <c r="G700" s="30"/>
     </row>
     <row r="701" spans="1:7" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
-      <c r="C701" s="161"/>
+      <c r="C701" s="117"/>
       <c r="D701" s="2"/>
       <c r="G701" s="30"/>
     </row>
     <row r="702" spans="1:7" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
-      <c r="C702" s="161"/>
+      <c r="C702" s="117"/>
       <c r="D702" s="2"/>
       <c r="G702" s="30"/>
     </row>
     <row r="703" spans="1:7" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
-      <c r="C703" s="161"/>
+      <c r="C703" s="117"/>
       <c r="D703" s="2"/>
       <c r="G703" s="30"/>
     </row>
     <row r="704" spans="1:7" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
-      <c r="C704" s="161"/>
+      <c r="C704" s="117"/>
       <c r="D704" s="2"/>
       <c r="G704" s="30"/>
     </row>
     <row r="705" spans="1:7" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
-      <c r="C705" s="161"/>
+      <c r="C705" s="117"/>
       <c r="D705" s="2"/>
       <c r="G705" s="30"/>
     </row>
     <row r="706" spans="1:7" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
-      <c r="C706" s="161"/>
+      <c r="C706" s="117"/>
       <c r="D706" s="2"/>
       <c r="G706" s="30"/>
     </row>
     <row r="707" spans="1:7" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
-      <c r="C707" s="161"/>
+      <c r="C707" s="117"/>
       <c r="D707" s="2"/>
       <c r="G707" s="30"/>
     </row>
     <row r="708" spans="1:7" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
-      <c r="C708" s="161"/>
+      <c r="C708" s="117"/>
       <c r="D708" s="2"/>
       <c r="G708" s="30"/>
     </row>
     <row r="709" spans="1:7" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
-      <c r="C709" s="161"/>
+      <c r="C709" s="117"/>
       <c r="D709" s="2"/>
       <c r="G709" s="30"/>
     </row>
     <row r="710" spans="1:7" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
-      <c r="C710" s="161"/>
+      <c r="C710" s="117"/>
       <c r="D710" s="2"/>
       <c r="G710" s="30"/>
     </row>
     <row r="711" spans="1:7" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
-      <c r="C711" s="161"/>
+      <c r="C711" s="117"/>
       <c r="D711" s="2"/>
       <c r="G711" s="30"/>
     </row>
     <row r="712" spans="1:7" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
-      <c r="C712" s="161"/>
+      <c r="C712" s="117"/>
       <c r="D712" s="2"/>
       <c r="G712" s="30"/>
     </row>
     <row r="713" spans="1:7" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
-      <c r="C713" s="161"/>
+      <c r="C713" s="117"/>
       <c r="D713" s="2"/>
       <c r="G713" s="30"/>
     </row>
     <row r="714" spans="1:7" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
-      <c r="C714" s="161"/>
+      <c r="C714" s="117"/>
       <c r="D714" s="2"/>
       <c r="G714" s="30"/>
     </row>
     <row r="715" spans="1:7" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
-      <c r="C715" s="161"/>
+      <c r="C715" s="117"/>
       <c r="D715" s="2"/>
       <c r="G715" s="30"/>
     </row>
     <row r="716" spans="1:7" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
-      <c r="C716" s="161"/>
+      <c r="C716" s="117"/>
       <c r="D716" s="2"/>
       <c r="G716" s="30"/>
     </row>
     <row r="717" spans="1:7" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
-      <c r="C717" s="161"/>
+      <c r="C717" s="117"/>
       <c r="D717" s="2"/>
       <c r="G717" s="30"/>
     </row>
     <row r="718" spans="1:7" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
-      <c r="C718" s="161"/>
+      <c r="C718" s="117"/>
       <c r="D718" s="2"/>
       <c r="G718" s="30"/>
     </row>
     <row r="719" spans="1:7" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
-      <c r="C719" s="161"/>
+      <c r="C719" s="117"/>
       <c r="D719" s="2"/>
       <c r="G719" s="30"/>
     </row>
     <row r="720" spans="1:7" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
-      <c r="C720" s="161"/>
+      <c r="C720" s="117"/>
       <c r="D720" s="2"/>
       <c r="G720" s="30"/>
     </row>
     <row r="721" spans="1:7" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
-      <c r="C721" s="161"/>
+      <c r="C721" s="117"/>
       <c r="D721" s="2"/>
       <c r="G721" s="30"/>
     </row>
     <row r="722" spans="1:7" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
-      <c r="C722" s="161"/>
+      <c r="C722" s="117"/>
       <c r="D722" s="2"/>
       <c r="G722" s="30"/>
     </row>
     <row r="723" spans="1:7" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
-      <c r="C723" s="161"/>
+      <c r="C723" s="117"/>
       <c r="D723" s="2"/>
       <c r="G723" s="30"/>
     </row>
     <row r="724" spans="1:7" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
-      <c r="C724" s="161"/>
+      <c r="C724" s="117"/>
       <c r="D724" s="2"/>
       <c r="G724" s="30"/>
     </row>
     <row r="725" spans="1:7" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
-      <c r="C725" s="161"/>
+      <c r="C725" s="117"/>
       <c r="D725" s="2"/>
       <c r="G725" s="30"/>
     </row>
     <row r="726" spans="1:7" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
-      <c r="C726" s="161"/>
+      <c r="C726" s="117"/>
       <c r="D726" s="2"/>
       <c r="G726" s="30"/>
     </row>
     <row r="727" spans="1:7" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
-      <c r="C727" s="161"/>
+      <c r="C727" s="117"/>
       <c r="D727" s="2"/>
       <c r="G727" s="30"/>
     </row>
     <row r="728" spans="1:7" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
-      <c r="C728" s="161"/>
+      <c r="C728" s="117"/>
       <c r="D728" s="2"/>
       <c r="G728" s="30"/>
     </row>
     <row r="729" spans="1:7" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
-      <c r="C729" s="161"/>
+      <c r="C729" s="117"/>
       <c r="D729" s="2"/>
       <c r="G729" s="30"/>
     </row>
     <row r="730" spans="1:7" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
-      <c r="C730" s="161"/>
+      <c r="C730" s="117"/>
       <c r="D730" s="2"/>
       <c r="G730" s="30"/>
     </row>
     <row r="731" spans="1:7" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
-      <c r="C731" s="161"/>
+      <c r="C731" s="117"/>
       <c r="D731" s="2"/>
       <c r="G731" s="30"/>
     </row>
     <row r="732" spans="1:7" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
-      <c r="C732" s="161"/>
+      <c r="C732" s="117"/>
       <c r="D732" s="2"/>
       <c r="G732" s="30"/>
     </row>
     <row r="733" spans="1:7" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
-      <c r="C733" s="161"/>
+      <c r="C733" s="117"/>
       <c r="D733" s="2"/>
       <c r="G733" s="30"/>
     </row>
     <row r="734" spans="1:7" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
-      <c r="C734" s="161"/>
+      <c r="C734" s="117"/>
       <c r="D734" s="2"/>
       <c r="G734" s="30"/>
     </row>
     <row r="735" spans="1:7" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
-      <c r="C735" s="161"/>
+      <c r="C735" s="117"/>
       <c r="D735" s="2"/>
       <c r="G735" s="30"/>
     </row>
     <row r="736" spans="1:7" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
-      <c r="C736" s="161"/>
+      <c r="C736" s="117"/>
       <c r="D736" s="2"/>
       <c r="G736" s="30"/>
     </row>
     <row r="737" spans="1:7" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
-      <c r="C737" s="161"/>
+      <c r="C737" s="117"/>
       <c r="D737" s="2"/>
       <c r="G737" s="30"/>
     </row>
     <row r="738" spans="1:7" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
-      <c r="C738" s="161"/>
+      <c r="C738" s="117"/>
       <c r="D738" s="2"/>
       <c r="G738" s="30"/>
     </row>
     <row r="739" spans="1:7" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
-      <c r="C739" s="161"/>
+      <c r="C739" s="117"/>
       <c r="D739" s="2"/>
       <c r="G739" s="30"/>
     </row>
     <row r="740" spans="1:7" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
-      <c r="C740" s="161"/>
+      <c r="C740" s="117"/>
       <c r="D740" s="2"/>
       <c r="G740" s="30"/>
     </row>
     <row r="741" spans="1:7" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
-      <c r="C741" s="161"/>
+      <c r="C741" s="117"/>
       <c r="D741" s="2"/>
       <c r="G741" s="30"/>
     </row>
     <row r="742" spans="1:7" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
-      <c r="C742" s="161"/>
+      <c r="C742" s="117"/>
       <c r="D742" s="2"/>
       <c r="G742" s="30"/>
     </row>
     <row r="743" spans="1:7" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
-      <c r="C743" s="161"/>
+      <c r="C743" s="117"/>
       <c r="D743" s="2"/>
       <c r="G743" s="30"/>
     </row>
     <row r="744" spans="1:7" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
-      <c r="C744" s="161"/>
+      <c r="C744" s="117"/>
       <c r="D744" s="2"/>
       <c r="G744" s="30"/>
     </row>
     <row r="745" spans="1:7" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
-      <c r="C745" s="161"/>
+      <c r="C745" s="117"/>
       <c r="D745" s="2"/>
       <c r="G745" s="30"/>
     </row>
     <row r="746" spans="1:7" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
-      <c r="C746" s="161"/>
+      <c r="C746" s="117"/>
       <c r="D746" s="2"/>
       <c r="G746" s="30"/>
     </row>
     <row r="747" spans="1:7" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
-      <c r="C747" s="161"/>
+      <c r="C747" s="117"/>
       <c r="D747" s="2"/>
       <c r="G747" s="30"/>
     </row>
     <row r="748" spans="1:7" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
-      <c r="C748" s="161"/>
+      <c r="C748" s="117"/>
       <c r="D748" s="2"/>
       <c r="G748" s="30"/>
     </row>
     <row r="749" spans="1:7" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
-      <c r="C749" s="161"/>
+      <c r="C749" s="117"/>
       <c r="D749" s="2"/>
       <c r="G749" s="30"/>
     </row>
     <row r="750" spans="1:7" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
-      <c r="C750" s="161"/>
+      <c r="C750" s="117"/>
       <c r="D750" s="2"/>
       <c r="G750" s="30"/>
     </row>
     <row r="751" spans="1:7" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
-      <c r="C751" s="161"/>
+      <c r="C751" s="117"/>
       <c r="D751" s="2"/>
       <c r="G751" s="30"/>
     </row>
     <row r="752" spans="1:7" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
-      <c r="C752" s="161"/>
+      <c r="C752" s="117"/>
       <c r="D752" s="2"/>
       <c r="G752" s="30"/>
     </row>
     <row r="753" spans="1:7" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
-      <c r="C753" s="161"/>
+      <c r="C753" s="117"/>
       <c r="D753" s="2"/>
       <c r="G753" s="30"/>
     </row>
     <row r="754" spans="1:7" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
-      <c r="C754" s="161"/>
+      <c r="C754" s="117"/>
       <c r="D754" s="2"/>
       <c r="G754" s="30"/>
     </row>
     <row r="755" spans="1:7" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
-      <c r="C755" s="161"/>
+      <c r="C755" s="117"/>
       <c r="D755" s="2"/>
       <c r="G755" s="30"/>
     </row>
     <row r="756" spans="1:7" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
-      <c r="C756" s="161"/>
+      <c r="C756" s="117"/>
       <c r="D756" s="2"/>
       <c r="G756" s="30"/>
     </row>
     <row r="757" spans="1:7" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
-      <c r="C757" s="161"/>
+      <c r="C757" s="117"/>
       <c r="D757" s="2"/>
       <c r="G757" s="30"/>
     </row>
     <row r="758" spans="1:7" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
-      <c r="C758" s="161"/>
+      <c r="C758" s="117"/>
       <c r="D758" s="2"/>
       <c r="G758" s="30"/>
     </row>
     <row r="759" spans="1:7" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
-      <c r="C759" s="161"/>
+      <c r="C759" s="117"/>
       <c r="D759" s="2"/>
       <c r="G759" s="30"/>
     </row>
     <row r="760" spans="1:7" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
-      <c r="C760" s="161"/>
+      <c r="C760" s="117"/>
       <c r="D760" s="2"/>
       <c r="G760" s="30"/>
     </row>
     <row r="761" spans="1:7" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
-      <c r="C761" s="161"/>
+      <c r="C761" s="117"/>
       <c r="D761" s="2"/>
       <c r="G761" s="30"/>
     </row>
     <row r="762" spans="1:7" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
-      <c r="C762" s="161"/>
+      <c r="C762" s="117"/>
       <c r="D762" s="2"/>
       <c r="G762" s="30"/>
     </row>
     <row r="763" spans="1:7" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
-      <c r="C763" s="161"/>
+      <c r="C763" s="117"/>
       <c r="D763" s="2"/>
       <c r="G763" s="30"/>
     </row>
     <row r="764" spans="1:7" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
-      <c r="C764" s="161"/>
+      <c r="C764" s="117"/>
       <c r="D764" s="2"/>
       <c r="G764" s="30"/>
     </row>
     <row r="765" spans="1:7" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
-      <c r="C765" s="161"/>
+      <c r="C765" s="117"/>
       <c r="D765" s="2"/>
       <c r="G765" s="30"/>
     </row>
     <row r="766" spans="1:7" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
-      <c r="C766" s="161"/>
+      <c r="C766" s="117"/>
       <c r="D766" s="2"/>
       <c r="G766" s="30"/>
     </row>
     <row r="767" spans="1:7" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
-      <c r="C767" s="161"/>
+      <c r="C767" s="117"/>
       <c r="D767" s="2"/>
       <c r="G767" s="30"/>
     </row>
     <row r="768" spans="1:7" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
-      <c r="C768" s="161"/>
+      <c r="C768" s="117"/>
       <c r="D768" s="2"/>
       <c r="G768" s="30"/>
     </row>
     <row r="769" spans="1:7" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
-      <c r="C769" s="161"/>
+      <c r="C769" s="117"/>
       <c r="D769" s="2"/>
       <c r="G769" s="30"/>
     </row>
     <row r="770" spans="1:7" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
-      <c r="C770" s="161"/>
+      <c r="C770" s="117"/>
       <c r="D770" s="2"/>
       <c r="G770" s="30"/>
     </row>
     <row r="771" spans="1:7" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
-      <c r="C771" s="161"/>
+      <c r="C771" s="117"/>
       <c r="D771" s="2"/>
       <c r="G771" s="30"/>
     </row>
     <row r="772" spans="1:7" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
-      <c r="C772" s="161"/>
+      <c r="C772" s="117"/>
       <c r="D772" s="2"/>
       <c r="G772" s="30"/>
     </row>
     <row r="773" spans="1:7" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
-      <c r="C773" s="161"/>
+      <c r="C773" s="117"/>
       <c r="D773" s="2"/>
       <c r="G773" s="30"/>
     </row>
     <row r="774" spans="1:7" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
-      <c r="C774" s="161"/>
+      <c r="C774" s="117"/>
       <c r="D774" s="2"/>
       <c r="G774" s="30"/>
     </row>
     <row r="775" spans="1:7" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
-      <c r="C775" s="161"/>
+      <c r="C775" s="117"/>
       <c r="D775" s="2"/>
       <c r="G775" s="30"/>
     </row>
     <row r="776" spans="1:7" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
-      <c r="C776" s="161"/>
+      <c r="C776" s="117"/>
       <c r="D776" s="2"/>
       <c r="G776" s="30"/>
     </row>
     <row r="777" spans="1:7" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
-      <c r="C777" s="161"/>
+      <c r="C777" s="117"/>
       <c r="D777" s="2"/>
       <c r="G777" s="30"/>
     </row>
     <row r="778" spans="1:7" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
-      <c r="C778" s="161"/>
+      <c r="C778" s="117"/>
       <c r="D778" s="2"/>
       <c r="G778" s="30"/>
     </row>
     <row r="779" spans="1:7" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
-      <c r="C779" s="161"/>
+      <c r="C779" s="117"/>
       <c r="D779" s="2"/>
       <c r="G779" s="30"/>
     </row>
     <row r="780" spans="1:7" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
-      <c r="C780" s="161"/>
+      <c r="C780" s="117"/>
       <c r="D780" s="2"/>
       <c r="G780" s="30"/>
     </row>
     <row r="781" spans="1:7" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
-      <c r="C781" s="161"/>
+      <c r="C781" s="117"/>
       <c r="D781" s="2"/>
       <c r="G781" s="30"/>
     </row>
     <row r="782" spans="1:7" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
-      <c r="C782" s="161"/>
+      <c r="C782" s="117"/>
       <c r="D782" s="2"/>
       <c r="G782" s="30"/>
     </row>
     <row r="783" spans="1:7" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
-      <c r="C783" s="161"/>
+      <c r="C783" s="117"/>
       <c r="D783" s="2"/>
       <c r="G783" s="30"/>
     </row>
     <row r="784" spans="1:7" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
-      <c r="C784" s="161"/>
+      <c r="C784" s="117"/>
       <c r="D784" s="2"/>
       <c r="G784" s="30"/>
     </row>
     <row r="785" spans="1:7" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
-      <c r="C785" s="161"/>
+      <c r="C785" s="117"/>
       <c r="D785" s="2"/>
       <c r="G785" s="30"/>
     </row>
     <row r="786" spans="1:7" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
-      <c r="C786" s="161"/>
+      <c r="C786" s="117"/>
       <c r="D786" s="2"/>
       <c r="G786" s="30"/>
     </row>
     <row r="787" spans="1:7" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
-      <c r="C787" s="161"/>
+      <c r="C787" s="117"/>
       <c r="D787" s="2"/>
       <c r="G787" s="30"/>
     </row>
     <row r="788" spans="1:7" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
-      <c r="C788" s="161"/>
+      <c r="C788" s="117"/>
       <c r="D788" s="2"/>
       <c r="G788" s="30"/>
     </row>
     <row r="789" spans="1:7" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
-      <c r="C789" s="161"/>
+      <c r="C789" s="117"/>
       <c r="D789" s="2"/>
       <c r="G789" s="30"/>
     </row>
     <row r="790" spans="1:7" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
-      <c r="C790" s="161"/>
+      <c r="C790" s="117"/>
       <c r="D790" s="2"/>
       <c r="G790" s="30"/>
     </row>
     <row r="791" spans="1:7" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
-      <c r="C791" s="161"/>
+      <c r="C791" s="117"/>
       <c r="D791" s="2"/>
       <c r="G791" s="30"/>
     </row>
     <row r="792" spans="1:7" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
-      <c r="C792" s="161"/>
+      <c r="C792" s="117"/>
       <c r="D792" s="2"/>
       <c r="G792" s="30"/>
     </row>
     <row r="793" spans="1:7" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
-      <c r="C793" s="161"/>
+      <c r="C793" s="117"/>
       <c r="D793" s="2"/>
       <c r="G793" s="30"/>
     </row>
     <row r="794" spans="1:7" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
-      <c r="C794" s="161"/>
+      <c r="C794" s="117"/>
       <c r="D794" s="2"/>
       <c r="G794" s="30"/>
     </row>
     <row r="795" spans="1:7" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
-      <c r="C795" s="161"/>
+      <c r="C795" s="117"/>
       <c r="D795" s="2"/>
       <c r="G795" s="30"/>
     </row>
     <row r="796" spans="1:7" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
-      <c r="C796" s="161"/>
+      <c r="C796" s="117"/>
       <c r="D796" s="2"/>
       <c r="G796" s="30"/>
     </row>
     <row r="797" spans="1:7" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
-      <c r="C797" s="161"/>
+      <c r="C797" s="117"/>
       <c r="D797" s="2"/>
       <c r="G797" s="30"/>
     </row>
     <row r="798" spans="1:7" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
-      <c r="C798" s="161"/>
+      <c r="C798" s="117"/>
       <c r="D798" s="2"/>
       <c r="G798" s="30"/>
     </row>
     <row r="799" spans="1:7" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
-      <c r="C799" s="161"/>
+      <c r="C799" s="117"/>
       <c r="D799" s="2"/>
       <c r="G799" s="30"/>
     </row>
     <row r="800" spans="1:7" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
-      <c r="C800" s="161"/>
+      <c r="C800" s="117"/>
       <c r="D800" s="2"/>
       <c r="G800" s="30"/>
     </row>
     <row r="801" spans="1:7" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
-      <c r="C801" s="161"/>
+      <c r="C801" s="117"/>
       <c r="D801" s="2"/>
       <c r="G801" s="30"/>
     </row>
     <row r="802" spans="1:7" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
-      <c r="C802" s="161"/>
+      <c r="C802" s="117"/>
       <c r="D802" s="2"/>
       <c r="G802" s="30"/>
     </row>
     <row r="803" spans="1:7" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
-      <c r="C803" s="161"/>
+      <c r="C803" s="117"/>
       <c r="D803" s="2"/>
       <c r="G803" s="30"/>
     </row>
     <row r="804" spans="1:7" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
-      <c r="C804" s="161"/>
+      <c r="C804" s="117"/>
       <c r="D804" s="2"/>
       <c r="G804" s="30"/>
     </row>
     <row r="805" spans="1:7" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
-      <c r="C805" s="161"/>
+      <c r="C805" s="117"/>
       <c r="D805" s="2"/>
       <c r="G805" s="30"/>
     </row>
     <row r="806" spans="1:7" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
-      <c r="C806" s="161"/>
+      <c r="C806" s="117"/>
       <c r="D806" s="2"/>
       <c r="G806" s="30"/>
     </row>
     <row r="807" spans="1:7" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
-      <c r="C807" s="161"/>
+      <c r="C807" s="117"/>
       <c r="D807" s="2"/>
       <c r="G807" s="30"/>
     </row>
     <row r="808" spans="1:7" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
-      <c r="C808" s="161"/>
+      <c r="C808" s="117"/>
       <c r="D808" s="2"/>
       <c r="G808" s="30"/>
     </row>
     <row r="809" spans="1:7" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
-      <c r="C809" s="161"/>
+      <c r="C809" s="117"/>
       <c r="D809" s="2"/>
       <c r="G809" s="30"/>
     </row>
     <row r="810" spans="1:7" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
-      <c r="C810" s="161"/>
+      <c r="C810" s="117"/>
       <c r="D810" s="2"/>
       <c r="G810" s="30"/>
     </row>
     <row r="811" spans="1:7" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
-      <c r="C811" s="161"/>
+      <c r="C811" s="117"/>
       <c r="D811" s="2"/>
       <c r="G811" s="30"/>
     </row>
     <row r="812" spans="1:7" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
-      <c r="C812" s="161"/>
+      <c r="C812" s="117"/>
       <c r="D812" s="2"/>
       <c r="G812" s="30"/>
     </row>
     <row r="813" spans="1:7" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
-      <c r="C813" s="161"/>
+      <c r="C813" s="117"/>
       <c r="D813" s="2"/>
       <c r="G813" s="30"/>
     </row>
     <row r="814" spans="1:7" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
-      <c r="C814" s="161"/>
+      <c r="C814" s="117"/>
       <c r="D814" s="2"/>
       <c r="G814" s="30"/>
     </row>
     <row r="815" spans="1:7" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
-      <c r="C815" s="161"/>
+      <c r="C815" s="117"/>
       <c r="D815" s="2"/>
       <c r="G815" s="30"/>
     </row>
     <row r="816" spans="1:7" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
-      <c r="C816" s="161"/>
+      <c r="C816" s="117"/>
       <c r="D816" s="2"/>
       <c r="G816" s="30"/>
     </row>
     <row r="817" spans="2:7" ht="15.75" customHeight="1">
       <c r="B817" s="1"/>
-      <c r="C817" s="161"/>
+      <c r="C817" s="117"/>
       <c r="D817" s="2"/>
       <c r="G817" s="30"/>
     </row>
     <row r="818" spans="2:7" ht="15.75" customHeight="1">
       <c r="B818" s="1"/>
-      <c r="C818" s="161"/>
+      <c r="C818" s="117"/>
       <c r="D818" s="2"/>
       <c r="G818" s="30"/>
     </row>
     <row r="819" spans="2:7" ht="15.75" customHeight="1">
       <c r="B819" s="1"/>
-      <c r="C819" s="161"/>
+      <c r="C819" s="117"/>
       <c r="D819" s="2"/>
       <c r="G819" s="30"/>
     </row>
     <row r="820" spans="2:7" ht="15.75" customHeight="1">
       <c r="B820" s="1"/>
-      <c r="C820" s="161"/>
+      <c r="C820" s="117"/>
       <c r="D820" s="2"/>
       <c r="G820" s="30"/>
     </row>
     <row r="821" spans="2:7" ht="15.75" customHeight="1">
       <c r="B821" s="1"/>
-      <c r="C821" s="161"/>
+      <c r="C821" s="117"/>
       <c r="D821" s="2"/>
       <c r="G821" s="30"/>
     </row>
     <row r="822" spans="2:7" ht="15.75" customHeight="1">
       <c r="B822" s="1"/>
-      <c r="C822" s="161"/>
+      <c r="C822" s="117"/>
       <c r="D822" s="2"/>
       <c r="G822" s="30"/>
     </row>
     <row r="823" spans="2:7" ht="15.75" customHeight="1">
       <c r="B823" s="1"/>
-      <c r="C823" s="161"/>
+      <c r="C823" s="117"/>
       <c r="D823" s="2"/>
       <c r="G823" s="30"/>
     </row>
     <row r="824" spans="2:7" ht="15.75" customHeight="1">
       <c r="B824" s="1"/>
-      <c r="C824" s="161"/>
+      <c r="C824" s="117"/>
       <c r="D824" s="2"/>
       <c r="G824" s="30"/>
     </row>
     <row r="825" spans="2:7" ht="15.75" customHeight="1">
       <c r="B825" s="1"/>
-      <c r="C825" s="161"/>
+      <c r="C825" s="117"/>
       <c r="D825" s="2"/>
       <c r="G825" s="30"/>
     </row>
@@ -13171,50 +13208,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="123" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="126" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="97" t="s">
         <v>693</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="128" t="s">
         <v>649</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131" t="s">
         <v>650</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="133" t="s">
         <v>651</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="147"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="98" t="s">
@@ -13276,15 +13313,15 @@
       <c r="I6" s="103" t="s">
         <v>637</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="122" t="s">
         <v>664</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="101">
@@ -13314,15 +13351,15 @@
       <c r="I7" s="103" t="s">
         <v>634</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="122" t="s">
         <v>672</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="101">
@@ -13430,17 +13467,17 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="136" t="s">
         <v>680</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="98" t="s">
@@ -13455,15 +13492,15 @@
       <c r="D16" s="99" t="s">
         <v>632</v>
       </c>
-      <c r="E16" s="133" t="s">
+      <c r="E16" s="139" t="s">
         <v>681</v>
       </c>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133" t="s">
+      <c r="F16" s="139"/>
+      <c r="G16" s="139" t="s">
         <v>682</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="107">
@@ -13478,15 +13515,15 @@
       <c r="D17" s="102" t="s">
         <v>640</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="141" t="s">
         <v>684</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="125" t="s">
+      <c r="F17" s="142"/>
+      <c r="G17" s="141" t="s">
         <v>685</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="144"/>
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="107">
@@ -13501,15 +13538,15 @@
       <c r="D18" s="102" t="s">
         <v>640</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="141" t="s">
         <v>684</v>
       </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="125" t="s">
+      <c r="F18" s="142"/>
+      <c r="G18" s="141" t="s">
         <v>687</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="107">
@@ -13524,15 +13561,15 @@
       <c r="D19" s="102" t="s">
         <v>643</v>
       </c>
-      <c r="E19" s="125" t="s">
+      <c r="E19" s="141" t="s">
         <v>689</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="125" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="141" t="s">
         <v>690</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
       <c r="K19" t="s">
         <v>691</v>
       </c>
@@ -13544,11 +13581,11 @@
       <c r="B20" s="92"/>
       <c r="C20" s="92"/>
       <c r="D20" s="92"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="107">
@@ -13557,11 +13594,11 @@
       <c r="B21" s="92"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
       <c r="K21" t="s">
         <v>692</v>
       </c>
@@ -13573,11 +13610,11 @@
       <c r="B22" s="92"/>
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="107">
@@ -13586,11 +13623,11 @@
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="92"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="107">
@@ -13599,11 +13636,11 @@
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="107">
@@ -13612,11 +13649,11 @@
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="109">
@@ -13625,44 +13662,44 @@
       <c r="B26" s="105"/>
       <c r="C26" s="105"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13708,11 +13745,11 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="22"/>
@@ -13830,10 +13867,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="157" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="148"/>
+      <c r="C2" s="157"/>
       <c r="O2" t="s">
         <v>556</v>
       </c>
@@ -14073,56 +14110,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="157" t="s">
         <v>588</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="159" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="159"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="75" t="s">
         <v>591</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="158" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="150"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="75" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="158" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="158" t="s">
         <v>595</v>
       </c>
-      <c r="C7" s="150"/>
+      <c r="C7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="158" t="s">
         <v>597</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14155,11 +14192,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="160" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
       <c r="J2" t="s">
         <v>556</v>
       </c>
@@ -14337,11 +14374,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="159" t="s">
         <v>631</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="74" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D81C8-2645-473C-9191-B41724D6484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C60C2C1-A6D4-4B40-BCF9-C0641299DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="757">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -3640,6 +3640,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3649,71 +3656,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3754,6 +3698,69 @@
     <xf numFmtId="0" fontId="29" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3771,13 +3778,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5140,9 +5140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A95" sqref="A95:B95"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5162,22 +5162,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="120" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="118" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="107"/>
       <c r="D2" s="17"/>
       <c r="E2" s="22"/>
@@ -5247,6 +5247,9 @@
       <c r="J4" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K4" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -5273,6 +5276,9 @@
       <c r="J5" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K5" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
@@ -5299,6 +5305,9 @@
       <c r="J6" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K6" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
@@ -5325,6 +5334,9 @@
       <c r="J7" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K7" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
@@ -5351,6 +5363,9 @@
       <c r="J8" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K8" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -5379,6 +5394,9 @@
       <c r="J9" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K9" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
@@ -5407,6 +5425,9 @@
       <c r="J10" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K10" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -5432,6 +5453,9 @@
       <c r="I11" s="44" t="s">
         <v>47</v>
       </c>
+      <c r="K11" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -5456,6 +5480,9 @@
       </c>
       <c r="I12" s="44" t="s">
         <v>50</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -5481,6 +5508,9 @@
         <v>53</v>
       </c>
       <c r="J13" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K13" s="63" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6254,7 +6284,7 @@
       <c r="A47" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="159" t="s">
+      <c r="B47" s="115" t="s">
         <v>688</v>
       </c>
       <c r="C47" s="111">
@@ -6275,13 +6305,15 @@
       <c r="J47" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="K47" s="61"/>
+      <c r="K47" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="116" t="s">
         <v>686</v>
       </c>
       <c r="C48" s="110">
@@ -6302,6 +6334,9 @@
       <c r="J48" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K48" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="49" spans="1:11" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -6328,7 +6363,9 @@
       <c r="J49" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="K49" s="61"/>
+      <c r="K49" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
@@ -6355,6 +6392,9 @@
       <c r="J50" s="64" t="s">
         <v>529</v>
       </c>
+      <c r="K50" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="51" spans="1:11" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
@@ -6381,7 +6421,9 @@
       <c r="J51" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="K51" s="61"/>
+      <c r="K51" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
@@ -6408,6 +6450,9 @@
       <c r="J52" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K52" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
@@ -6434,6 +6479,9 @@
       <c r="J53" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K53" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
@@ -6460,6 +6508,9 @@
       <c r="J54" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K54" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
@@ -6486,6 +6537,9 @@
       <c r="J55" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K55" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
@@ -6512,6 +6566,9 @@
       <c r="J56" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K56" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
@@ -6538,6 +6595,9 @@
       <c r="J57" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K57" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
@@ -6564,6 +6624,9 @@
       <c r="J58" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K58" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
@@ -6590,6 +6653,9 @@
       <c r="J59" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K59" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
@@ -6616,6 +6682,9 @@
       <c r="J60" s="64" t="s">
         <v>529</v>
       </c>
+      <c r="K60" s="64" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
@@ -6642,6 +6711,9 @@
       <c r="J61" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K61" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
@@ -6668,6 +6740,9 @@
       <c r="J62" s="64" t="s">
         <v>529</v>
       </c>
+      <c r="K62" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
@@ -6694,6 +6769,9 @@
       <c r="J63" s="64" t="s">
         <v>529</v>
       </c>
+      <c r="K63" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
@@ -6718,6 +6796,9 @@
         <v>402</v>
       </c>
       <c r="J64" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K64" s="63" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6872,6 +6953,9 @@
       <c r="J71" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K71" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
@@ -6898,6 +6982,9 @@
       <c r="J72" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K72" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
@@ -6922,6 +7009,9 @@
         <v>420</v>
       </c>
       <c r="J73" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K73" s="63" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7058,6 +7148,9 @@
       <c r="J78" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K78" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
@@ -7084,6 +7177,9 @@
       <c r="J79" s="63" t="s">
         <v>529</v>
       </c>
+      <c r="K79" s="63" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
@@ -7110,8 +7206,11 @@
       <c r="J80" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K80" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>231</v>
       </c>
@@ -7136,8 +7235,11 @@
       <c r="J81" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>232</v>
       </c>
@@ -7162,8 +7264,11 @@
       <c r="J82" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>233</v>
       </c>
@@ -7188,8 +7293,11 @@
       <c r="J83" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>234</v>
       </c>
@@ -7214,8 +7322,11 @@
       <c r="J84" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K84" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>235</v>
       </c>
@@ -7240,8 +7351,11 @@
       <c r="J85" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>236</v>
       </c>
@@ -7266,8 +7380,11 @@
       <c r="J86" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>237</v>
       </c>
@@ -7292,8 +7409,11 @@
       <c r="J87" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>238</v>
       </c>
@@ -7318,8 +7438,11 @@
       <c r="J88" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>239</v>
       </c>
@@ -7344,8 +7467,11 @@
       <c r="J89" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
         <v>240</v>
       </c>
@@ -7370,8 +7496,11 @@
       <c r="J90" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K90" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
         <v>241</v>
       </c>
@@ -7396,8 +7525,11 @@
       <c r="J91" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K91" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
         <v>242</v>
       </c>
@@ -7422,12 +7554,15 @@
       <c r="J92" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K92" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B93" s="161" t="s">
+      <c r="B93" s="117" t="s">
         <v>748</v>
       </c>
       <c r="C93" s="111">
@@ -7448,8 +7583,11 @@
       <c r="J93" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K93" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>244</v>
       </c>
@@ -7474,8 +7612,11 @@
       <c r="J94" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K94" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
         <v>245</v>
       </c>
@@ -7500,8 +7641,11 @@
       <c r="J95" s="63" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K95" s="63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
         <v>246</v>
       </c>
@@ -13735,50 +13879,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="122" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="142"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="125" t="s">
         <v>638</v>
       </c>
-      <c r="B2" s="144"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="93" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="127" t="s">
         <v>639</v>
       </c>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="130" t="s">
         <v>640</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="132" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="152"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
@@ -13840,15 +13984,15 @@
       <c r="I6" s="99" t="s">
         <v>627</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="121" t="s">
         <v>654</v>
       </c>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="97">
@@ -13878,15 +14022,15 @@
       <c r="I7" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="121" t="s">
         <v>662</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="97">
@@ -14042,15 +14186,15 @@
       <c r="D17" s="98" t="s">
         <v>630</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="140" t="s">
         <v>674</v>
       </c>
-      <c r="F17" s="131"/>
-      <c r="G17" s="130" t="s">
+      <c r="F17" s="141"/>
+      <c r="G17" s="140" t="s">
         <v>675</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="103">
@@ -14065,15 +14209,15 @@
       <c r="D18" s="98" t="s">
         <v>630</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="140" t="s">
         <v>674</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="130" t="s">
+      <c r="F18" s="141"/>
+      <c r="G18" s="140" t="s">
         <v>677</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="103">
@@ -14088,15 +14232,15 @@
       <c r="D19" s="98" t="s">
         <v>633</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="140" t="s">
         <v>679</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="130" t="s">
+      <c r="F19" s="141"/>
+      <c r="G19" s="140" t="s">
         <v>680</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="K19" t="s">
         <v>681</v>
       </c>
@@ -14108,11 +14252,11 @@
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="103">
@@ -14121,11 +14265,11 @@
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
       <c r="K21" t="s">
         <v>682</v>
       </c>
@@ -14137,11 +14281,11 @@
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="103">
@@ -14150,11 +14294,11 @@
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="103">
@@ -14163,11 +14307,11 @@
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
       <c r="D24" s="88"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="103">
@@ -14176,11 +14320,11 @@
       <c r="B25" s="104"/>
       <c r="C25" s="104"/>
       <c r="D25" s="104"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="151"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105">
@@ -14189,44 +14333,44 @@
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14272,11 +14416,11 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="22"/>
@@ -14394,10 +14538,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="156" t="s">
         <v>545</v>
       </c>
-      <c r="C2" s="153"/>
+      <c r="C2" s="156"/>
       <c r="O2" t="s">
         <v>546</v>
       </c>
@@ -14637,56 +14781,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="156" t="s">
         <v>578</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>579</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="158" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="155"/>
+      <c r="C4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
         <v>581</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="157" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="157"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73" t="s">
         <v>583</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="157" t="s">
         <v>584</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="157"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="157" t="s">
         <v>585</v>
       </c>
-      <c r="C7" s="154"/>
+      <c r="C7" s="157"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="73" t="s">
         <v>586</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="157" t="s">
         <v>587</v>
       </c>
-      <c r="C8" s="154"/>
+      <c r="C8" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14719,11 +14863,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
       <c r="J2" t="s">
         <v>546</v>
       </c>
@@ -14901,11 +15045,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="158" t="s">
         <v>621</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="784">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -2396,6 +2396,15 @@
   </si>
   <si>
     <t>Dark green with a v means the DPIs are also visible as triggerzones (for use in tgt folder)</t>
+  </si>
+  <si>
+    <t>Target folder in production</t>
+  </si>
+  <si>
+    <t>Jonde</t>
+  </si>
+  <si>
+    <t>Varzat</t>
   </si>
 </sst>
 </file>
@@ -3256,7 +3265,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3693,6 +3702,12 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3705,6 +3720,75 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3741,75 +3825,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3834,11 +3849,8 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3878,7 +3890,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3902,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3910,7 +3922,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3939,7 +3951,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +4000,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,7 +4045,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4090,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,7 +4128,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4176,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4229,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4270,7 +4282,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,7 +4380,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4433,7 @@
         <xdr:cNvPr id="3" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4486,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4568,7 +4580,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,7 +4633,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4728,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4786,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,7 +4839,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,7 +4931,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,7 +4984,7 @@
         <xdr:cNvPr id="5" name="Bilde 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5199,11 +5211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J825"/>
+  <dimension ref="A1:K825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I33" sqref="I33"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5216,21 +5230,22 @@
     <col min="6" max="6" width="25.5" style="43" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="55" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="47.375" style="55" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="24" width="10" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A1" s="176" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
       <c r="H1" s="160" t="s">
         <v>722</v>
       </c>
@@ -5240,24 +5255,26 @@
       <c r="J1" s="160" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="35.25" thickBot="1">
-      <c r="A2" s="172" t="s">
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" ht="35.25" thickBot="1">
+      <c r="A2" s="174" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="173"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
       <c r="E2" s="106"/>
       <c r="F2" s="106"/>
       <c r="G2" s="107"/>
-      <c r="H2" s="220" t="s">
+      <c r="H2" s="173" t="s">
         <v>780</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="108" t="s">
         <v>2</v>
       </c>
@@ -5288,8 +5305,11 @@
       <c r="J3" s="161" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+      <c r="K3" s="221" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
@@ -5316,8 +5336,9 @@
         <v>494</v>
       </c>
       <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="126" t="s">
         <v>17</v>
       </c>
@@ -5344,8 +5365,11 @@
         <v>494</v>
       </c>
       <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
+      <c r="K5" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -5372,8 +5396,11 @@
         <v>494</v>
       </c>
       <c r="J6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.25">
+      <c r="K6" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="126" t="s">
         <v>26</v>
       </c>
@@ -5400,8 +5427,11 @@
         <v>494</v>
       </c>
       <c r="J7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+      <c r="K7" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="24" t="s">
         <v>31</v>
       </c>
@@ -5428,8 +5458,9 @@
         <v>494</v>
       </c>
       <c r="J8" s="61"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25">
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="126" t="s">
         <v>35</v>
       </c>
@@ -5458,8 +5489,9 @@
         <v>494</v>
       </c>
       <c r="J9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25">
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
@@ -5488,8 +5520,9 @@
         <v>494</v>
       </c>
       <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.25">
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="126" t="s">
         <v>45</v>
       </c>
@@ -5516,8 +5549,9 @@
         <v>494</v>
       </c>
       <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="24" t="s">
         <v>48</v>
       </c>
@@ -5544,8 +5578,9 @@
         <v>494</v>
       </c>
       <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25">
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="126" t="s">
         <v>51</v>
       </c>
@@ -5572,8 +5607,9 @@
         <v>494</v>
       </c>
       <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
+      <c r="K13" s="61"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="24" t="s">
         <v>54</v>
       </c>
@@ -5598,8 +5634,11 @@
         <v>494</v>
       </c>
       <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25">
+      <c r="K14" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="126" t="s">
         <v>56</v>
       </c>
@@ -5626,8 +5665,11 @@
         <v>494</v>
       </c>
       <c r="J15" s="61"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25">
+      <c r="K15" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="24" t="s">
         <v>57</v>
       </c>
@@ -5654,8 +5696,11 @@
         <v>494</v>
       </c>
       <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.25">
+      <c r="K16" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="126" t="s">
         <v>58</v>
       </c>
@@ -5682,8 +5727,11 @@
         <v>494</v>
       </c>
       <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.25">
+      <c r="K17" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="24" t="s">
         <v>59</v>
       </c>
@@ -5705,8 +5753,9 @@
         <v>494</v>
       </c>
       <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25">
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="126" t="s">
         <v>61</v>
       </c>
@@ -5733,8 +5782,9 @@
         <v>494</v>
       </c>
       <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25">
+      <c r="K19" s="61"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" s="24" t="s">
         <v>62</v>
       </c>
@@ -5756,12 +5806,13 @@
         <v>494</v>
       </c>
       <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.25">
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="172" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="134">
@@ -5780,8 +5831,9 @@
         <v>494</v>
       </c>
       <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.25">
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" s="24" t="s">
         <v>66</v>
       </c>
@@ -5803,8 +5855,9 @@
         <v>494</v>
       </c>
       <c r="J22" s="61"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25">
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="126" t="s">
         <v>67</v>
       </c>
@@ -5831,8 +5884,9 @@
         <v>494</v>
       </c>
       <c r="J23" s="61"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25">
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="24" t="s">
         <v>70</v>
       </c>
@@ -5859,8 +5913,9 @@
         <v>494</v>
       </c>
       <c r="J24" s="61"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.25">
+      <c r="K24" s="61"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="126" t="s">
         <v>73</v>
       </c>
@@ -5885,8 +5940,9 @@
       </c>
       <c r="I25" s="60"/>
       <c r="J25" s="61"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.25">
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="24" t="s">
         <v>77</v>
       </c>
@@ -5906,8 +5962,9 @@
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="61"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25">
+      <c r="K26" s="61"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="126" t="s">
         <v>79</v>
       </c>
@@ -5930,8 +5987,9 @@
       </c>
       <c r="I27" s="60"/>
       <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.25">
+      <c r="K27" s="61"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="24" t="s">
         <v>84</v>
       </c>
@@ -5954,8 +6012,9 @@
       </c>
       <c r="I28" s="60"/>
       <c r="J28" s="61"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.25">
+      <c r="K28" s="61"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="126" t="s">
         <v>89</v>
       </c>
@@ -5978,8 +6037,9 @@
       </c>
       <c r="I29" s="60"/>
       <c r="J29" s="61"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.25">
+      <c r="K29" s="61"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" s="24" t="s">
         <v>94</v>
       </c>
@@ -6002,8 +6062,9 @@
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="61"/>
-    </row>
-    <row r="31" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K30" s="61"/>
+    </row>
+    <row r="31" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A31" s="126" t="s">
         <v>98</v>
       </c>
@@ -6026,8 +6087,9 @@
       </c>
       <c r="I31" s="166"/>
       <c r="J31" s="167"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.25">
+      <c r="K31" s="167"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="24" t="s">
         <v>103</v>
       </c>
@@ -6050,8 +6112,9 @@
       </c>
       <c r="I32" s="60"/>
       <c r="J32" s="61"/>
-    </row>
-    <row r="33" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K32" s="61"/>
+    </row>
+    <row r="33" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A33" s="126" t="s">
         <v>106</v>
       </c>
@@ -6074,8 +6137,9 @@
       </c>
       <c r="I33" s="166"/>
       <c r="J33" s="167"/>
-    </row>
-    <row r="34" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="K33" s="167"/>
+    </row>
+    <row r="34" spans="1:11" s="42" customFormat="1" ht="14.25">
       <c r="A34" s="38" t="s">
         <v>111</v>
       </c>
@@ -6096,8 +6160,9 @@
       <c r="H34" s="168"/>
       <c r="I34" s="168"/>
       <c r="J34" s="169"/>
-    </row>
-    <row r="35" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K34" s="169"/>
+    </row>
+    <row r="35" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A35" s="126" t="s">
         <v>116</v>
       </c>
@@ -6118,8 +6183,9 @@
       <c r="H35" s="166"/>
       <c r="I35" s="166"/>
       <c r="J35" s="167"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.25">
+      <c r="K35" s="167"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="24" t="s">
         <v>120</v>
       </c>
@@ -6140,8 +6206,9 @@
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
       <c r="J36" s="61"/>
-    </row>
-    <row r="37" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K36" s="61"/>
+    </row>
+    <row r="37" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A37" s="126" t="s">
         <v>124</v>
       </c>
@@ -6162,8 +6229,9 @@
       <c r="H37" s="166"/>
       <c r="I37" s="166"/>
       <c r="J37" s="167"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25">
+      <c r="K37" s="167"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25">
       <c r="A38" s="24" t="s">
         <v>128</v>
       </c>
@@ -6184,8 +6252,9 @@
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
       <c r="J38" s="61"/>
-    </row>
-    <row r="39" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K38" s="61"/>
+    </row>
+    <row r="39" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A39" s="126" t="s">
         <v>132</v>
       </c>
@@ -6206,8 +6275,9 @@
       <c r="H39" s="166"/>
       <c r="I39" s="166"/>
       <c r="J39" s="167"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25">
+      <c r="K39" s="167"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="24" t="s">
         <v>136</v>
       </c>
@@ -6228,8 +6298,9 @@
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
       <c r="J40" s="61"/>
-    </row>
-    <row r="41" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K40" s="61"/>
+    </row>
+    <row r="41" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A41" s="126" t="s">
         <v>140</v>
       </c>
@@ -6250,8 +6321,9 @@
       <c r="H41" s="166"/>
       <c r="I41" s="166"/>
       <c r="J41" s="167"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25">
+      <c r="K41" s="167"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="24" t="s">
         <v>144</v>
       </c>
@@ -6272,8 +6344,9 @@
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
       <c r="J42" s="61"/>
-    </row>
-    <row r="43" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K42" s="61"/>
+    </row>
+    <row r="43" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A43" s="126" t="s">
         <v>148</v>
       </c>
@@ -6294,8 +6367,9 @@
       <c r="H43" s="166"/>
       <c r="I43" s="166"/>
       <c r="J43" s="167"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25">
+      <c r="K43" s="167"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.25">
       <c r="A44" s="24" t="s">
         <v>152</v>
       </c>
@@ -6316,8 +6390,9 @@
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
       <c r="J44" s="61"/>
-    </row>
-    <row r="45" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K44" s="61"/>
+    </row>
+    <row r="45" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A45" s="126" t="s">
         <v>156</v>
       </c>
@@ -6338,8 +6413,9 @@
       <c r="H45" s="166"/>
       <c r="I45" s="166"/>
       <c r="J45" s="167"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25">
+      <c r="K45" s="167"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="24" t="s">
         <v>160</v>
       </c>
@@ -6360,8 +6436,9 @@
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
       <c r="J46" s="61"/>
-    </row>
-    <row r="47" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K46" s="61"/>
+    </row>
+    <row r="47" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A47" s="126" t="s">
         <v>164</v>
       </c>
@@ -6388,8 +6465,9 @@
         <v>494</v>
       </c>
       <c r="J47" s="167"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25">
+      <c r="K47" s="167"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="24" t="s">
         <v>165</v>
       </c>
@@ -6416,8 +6494,9 @@
         <v>494</v>
       </c>
       <c r="J48" s="61"/>
-    </row>
-    <row r="49" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K48" s="61"/>
+    </row>
+    <row r="49" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A49" s="126" t="s">
         <v>166</v>
       </c>
@@ -6444,8 +6523,9 @@
         <v>494</v>
       </c>
       <c r="J49" s="167"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25">
+      <c r="K49" s="167"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.25">
       <c r="A50" s="24" t="s">
         <v>167</v>
       </c>
@@ -6472,8 +6552,9 @@
         <v>494</v>
       </c>
       <c r="J50" s="61"/>
-    </row>
-    <row r="51" spans="1:10" s="50" customFormat="1" ht="14.25">
+      <c r="K50" s="61"/>
+    </row>
+    <row r="51" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A51" s="126" t="s">
         <v>168</v>
       </c>
@@ -6500,8 +6581,9 @@
         <v>494</v>
       </c>
       <c r="J51" s="167"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25">
+      <c r="K51" s="167"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="24" t="s">
         <v>169</v>
       </c>
@@ -6528,8 +6610,9 @@
         <v>494</v>
       </c>
       <c r="J52" s="61"/>
-    </row>
-    <row r="53" spans="1:10" ht="14.25">
+      <c r="K52" s="61"/>
+    </row>
+    <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="126" t="s">
         <v>170</v>
       </c>
@@ -6556,8 +6639,9 @@
         <v>494</v>
       </c>
       <c r="J53" s="61"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K53" s="61"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="24" t="s">
         <v>171</v>
       </c>
@@ -6584,8 +6668,9 @@
         <v>494</v>
       </c>
       <c r="J54" s="61"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K54" s="61"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="126" t="s">
         <v>172</v>
       </c>
@@ -6612,8 +6697,9 @@
         <v>494</v>
       </c>
       <c r="J55" s="61"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K55" s="61"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="24" t="s">
         <v>173</v>
       </c>
@@ -6640,8 +6726,9 @@
         <v>494</v>
       </c>
       <c r="J56" s="61"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K56" s="61"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="126" t="s">
         <v>174</v>
       </c>
@@ -6668,8 +6755,9 @@
         <v>494</v>
       </c>
       <c r="J57" s="61"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K57" s="61"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="24" t="s">
         <v>175</v>
       </c>
@@ -6696,8 +6784,9 @@
         <v>494</v>
       </c>
       <c r="J58" s="61"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K58" s="61"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="126" t="s">
         <v>176</v>
       </c>
@@ -6724,8 +6813,9 @@
         <v>494</v>
       </c>
       <c r="J59" s="61"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K59" s="61"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="24" t="s">
         <v>177</v>
       </c>
@@ -6752,8 +6842,9 @@
         <v>494</v>
       </c>
       <c r="J60" s="61"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K60" s="61"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="126" t="s">
         <v>178</v>
       </c>
@@ -6780,8 +6871,9 @@
         <v>494</v>
       </c>
       <c r="J61" s="61"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K61" s="61"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="24" t="s">
         <v>179</v>
       </c>
@@ -6808,8 +6900,9 @@
         <v>494</v>
       </c>
       <c r="J62" s="61"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K62" s="61"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="126" t="s">
         <v>180</v>
       </c>
@@ -6836,8 +6929,9 @@
         <v>494</v>
       </c>
       <c r="J63" s="61"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K63" s="61"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="24" t="s">
         <v>181</v>
       </c>
@@ -6864,8 +6958,9 @@
         <v>494</v>
       </c>
       <c r="J64" s="61"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K64" s="61"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="126" t="s">
         <v>182</v>
       </c>
@@ -6886,8 +6981,9 @@
       <c r="H65" s="60"/>
       <c r="I65" s="60"/>
       <c r="J65" s="61"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K65" s="61"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="114" t="s">
         <v>183</v>
       </c>
@@ -6908,8 +7004,9 @@
       <c r="H66" s="60"/>
       <c r="I66" s="60"/>
       <c r="J66" s="61"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K66" s="61"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="126" t="s">
         <v>184</v>
       </c>
@@ -6930,8 +7027,9 @@
       <c r="H67" s="60"/>
       <c r="I67" s="60"/>
       <c r="J67" s="61"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K67" s="61"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="24" t="s">
         <v>185</v>
       </c>
@@ -6952,8 +7050,9 @@
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
       <c r="J68" s="61"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K68" s="61"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="126" t="s">
         <v>186</v>
       </c>
@@ -6974,8 +7073,9 @@
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
       <c r="J69" s="61"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K69" s="61"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>187</v>
       </c>
@@ -6996,8 +7096,9 @@
       <c r="H70" s="60"/>
       <c r="I70" s="60"/>
       <c r="J70" s="61"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K70" s="61"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="126" t="s">
         <v>188</v>
       </c>
@@ -7024,8 +7125,9 @@
         <v>494</v>
       </c>
       <c r="J71" s="61"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K71" s="61"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="24" t="s">
         <v>189</v>
       </c>
@@ -7052,8 +7154,9 @@
         <v>494</v>
       </c>
       <c r="J72" s="61"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K72" s="61"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="126" t="s">
         <v>190</v>
       </c>
@@ -7080,8 +7183,9 @@
         <v>494</v>
       </c>
       <c r="J73" s="61"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K73" s="61"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="24" t="s">
         <v>191</v>
       </c>
@@ -7106,8 +7210,9 @@
         <v>494</v>
       </c>
       <c r="J74" s="61"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K74" s="61"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="126" t="s">
         <v>192</v>
       </c>
@@ -7132,8 +7237,9 @@
         <v>494</v>
       </c>
       <c r="J75" s="61"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K75" s="61"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="24" t="s">
         <v>193</v>
       </c>
@@ -7160,8 +7266,9 @@
         <v>494</v>
       </c>
       <c r="J76" s="61"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K76" s="61"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="126" t="s">
         <v>194</v>
       </c>
@@ -7186,8 +7293,9 @@
         <v>494</v>
       </c>
       <c r="J77" s="61"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K77" s="61"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="24" t="s">
         <v>195</v>
       </c>
@@ -7214,8 +7322,9 @@
         <v>494</v>
       </c>
       <c r="J78" s="61"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K78" s="61"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="126" t="s">
         <v>196</v>
       </c>
@@ -7242,8 +7351,9 @@
         <v>494</v>
       </c>
       <c r="J79" s="61"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K79" s="61"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="24" t="s">
         <v>197</v>
       </c>
@@ -7270,8 +7380,9 @@
         <v>494</v>
       </c>
       <c r="J80" s="61"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K80" s="61"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="126" t="s">
         <v>198</v>
       </c>
@@ -7298,8 +7409,9 @@
         <v>494</v>
       </c>
       <c r="J81" s="61"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K81" s="61"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="24" t="s">
         <v>199</v>
       </c>
@@ -7326,8 +7438,9 @@
         <v>494</v>
       </c>
       <c r="J82" s="61"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K82" s="61"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="126" t="s">
         <v>200</v>
       </c>
@@ -7354,8 +7467,9 @@
         <v>494</v>
       </c>
       <c r="J83" s="61"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K83" s="61"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="24" t="s">
         <v>201</v>
       </c>
@@ -7382,8 +7496,9 @@
         <v>494</v>
       </c>
       <c r="J84" s="61"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K84" s="61"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="126" t="s">
         <v>202</v>
       </c>
@@ -7410,8 +7525,9 @@
         <v>494</v>
       </c>
       <c r="J85" s="61"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K85" s="61"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="24" t="s">
         <v>203</v>
       </c>
@@ -7438,8 +7554,9 @@
         <v>494</v>
       </c>
       <c r="J86" s="61"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K86" s="61"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="126" t="s">
         <v>204</v>
       </c>
@@ -7466,8 +7583,9 @@
         <v>494</v>
       </c>
       <c r="J87" s="61"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K87" s="61"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="24" t="s">
         <v>205</v>
       </c>
@@ -7494,8 +7612,9 @@
         <v>494</v>
       </c>
       <c r="J88" s="61"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K88" s="61"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="126" t="s">
         <v>206</v>
       </c>
@@ -7522,8 +7641,9 @@
         <v>494</v>
       </c>
       <c r="J89" s="61"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K89" s="61"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="24" t="s">
         <v>207</v>
       </c>
@@ -7550,8 +7670,9 @@
         <v>494</v>
       </c>
       <c r="J90" s="61"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K90" s="61"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="126" t="s">
         <v>208</v>
       </c>
@@ -7578,8 +7699,9 @@
         <v>494</v>
       </c>
       <c r="J91" s="61"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K91" s="61"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="24" t="s">
         <v>209</v>
       </c>
@@ -7606,8 +7728,9 @@
         <v>494</v>
       </c>
       <c r="J92" s="61"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K92" s="61"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="126" t="s">
         <v>210</v>
       </c>
@@ -7634,8 +7757,9 @@
         <v>494</v>
       </c>
       <c r="J93" s="61"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K93" s="61"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="24" t="s">
         <v>211</v>
       </c>
@@ -7662,8 +7786,9 @@
         <v>494</v>
       </c>
       <c r="J94" s="61"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K94" s="61"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="126" t="s">
         <v>212</v>
       </c>
@@ -7690,8 +7815,9 @@
         <v>494</v>
       </c>
       <c r="J95" s="61"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K95" s="61"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="24" t="s">
         <v>213</v>
       </c>
@@ -7712,8 +7838,9 @@
         <v>494</v>
       </c>
       <c r="J96" s="61"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K96" s="61"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="126" t="s">
         <v>214</v>
       </c>
@@ -7734,8 +7861,11 @@
         <v>494</v>
       </c>
       <c r="J97" s="61"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K97" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="24" t="s">
         <v>215</v>
       </c>
@@ -7758,8 +7888,9 @@
         <v>494</v>
       </c>
       <c r="J98" s="61"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K98" s="61"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="126" t="s">
         <v>216</v>
       </c>
@@ -7779,9 +7910,14 @@
       <c r="I99" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="J99" s="61"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J99" s="162" t="s">
+        <v>734</v>
+      </c>
+      <c r="K99" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="24" t="s">
         <v>217</v>
       </c>
@@ -7804,8 +7940,11 @@
         <v>494</v>
       </c>
       <c r="J100" s="61"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K100" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="126" t="s">
         <v>218</v>
       </c>
@@ -7828,8 +7967,11 @@
         <v>494</v>
       </c>
       <c r="J101" s="61"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K101" s="61" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="24" t="s">
         <v>219</v>
       </c>
@@ -7852,8 +7994,11 @@
         <v>494</v>
       </c>
       <c r="J102" s="61"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K102" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="24" t="s">
         <v>220</v>
       </c>
@@ -7866,8 +8011,9 @@
       <c r="H103" s="60"/>
       <c r="I103" s="60"/>
       <c r="J103" s="61"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K103" s="61"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="24" t="s">
         <v>221</v>
       </c>
@@ -7880,8 +8026,9 @@
       <c r="H104" s="60"/>
       <c r="I104" s="60"/>
       <c r="J104" s="61"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K104" s="61"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="24" t="s">
         <v>222</v>
       </c>
@@ -7894,8 +8041,9 @@
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
       <c r="J105" s="61"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K105" s="61"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="24" t="s">
         <v>223</v>
       </c>
@@ -7908,8 +8056,9 @@
       <c r="H106" s="60"/>
       <c r="I106" s="60"/>
       <c r="J106" s="61"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K106" s="61"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="24" t="s">
         <v>224</v>
       </c>
@@ -7922,8 +8071,9 @@
       <c r="H107" s="60"/>
       <c r="I107" s="60"/>
       <c r="J107" s="61"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K107" s="61"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="24" t="s">
         <v>225</v>
       </c>
@@ -7936,8 +8086,9 @@
       <c r="H108" s="60"/>
       <c r="I108" s="60"/>
       <c r="J108" s="61"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K108" s="61"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="24" t="s">
         <v>226</v>
       </c>
@@ -7950,8 +8101,9 @@
       <c r="H109" s="60"/>
       <c r="I109" s="60"/>
       <c r="J109" s="61"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K109" s="61"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="24" t="s">
         <v>227</v>
       </c>
@@ -7964,8 +8116,9 @@
       <c r="H110" s="60"/>
       <c r="I110" s="60"/>
       <c r="J110" s="61"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K110" s="61"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="24" t="s">
         <v>228</v>
       </c>
@@ -7978,8 +8131,9 @@
       <c r="H111" s="60"/>
       <c r="I111" s="60"/>
       <c r="J111" s="61"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K111" s="61"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="24" t="s">
         <v>229</v>
       </c>
@@ -7992,8 +8146,9 @@
       <c r="H112" s="60"/>
       <c r="I112" s="60"/>
       <c r="J112" s="61"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K112" s="61"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="24" t="s">
         <v>230</v>
       </c>
@@ -8006,8 +8161,9 @@
       <c r="H113" s="60"/>
       <c r="I113" s="60"/>
       <c r="J113" s="61"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K113" s="61"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="24" t="s">
         <v>231</v>
       </c>
@@ -8020,8 +8176,9 @@
       <c r="H114" s="60"/>
       <c r="I114" s="60"/>
       <c r="J114" s="61"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K114" s="61"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="24" t="s">
         <v>232</v>
       </c>
@@ -8034,8 +8191,9 @@
       <c r="H115" s="60"/>
       <c r="I115" s="60"/>
       <c r="J115" s="61"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K115" s="61"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="24" t="s">
         <v>233</v>
       </c>
@@ -8048,8 +8206,9 @@
       <c r="H116" s="60"/>
       <c r="I116" s="60"/>
       <c r="J116" s="61"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K116" s="61"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="24" t="s">
         <v>234</v>
       </c>
@@ -8062,8 +8221,9 @@
       <c r="H117" s="60"/>
       <c r="I117" s="60"/>
       <c r="J117" s="61"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K117" s="61"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="24" t="s">
         <v>235</v>
       </c>
@@ -8076,8 +8236,9 @@
       <c r="H118" s="60"/>
       <c r="I118" s="60"/>
       <c r="J118" s="61"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K118" s="61"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="24" t="s">
         <v>236</v>
       </c>
@@ -8090,8 +8251,9 @@
       <c r="H119" s="60"/>
       <c r="I119" s="60"/>
       <c r="J119" s="61"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K119" s="61"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="24" t="s">
         <v>237</v>
       </c>
@@ -8104,8 +8266,9 @@
       <c r="H120" s="60"/>
       <c r="I120" s="60"/>
       <c r="J120" s="61"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K120" s="61"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="24" t="s">
         <v>238</v>
       </c>
@@ -8118,8 +8281,9 @@
       <c r="H121" s="60"/>
       <c r="I121" s="60"/>
       <c r="J121" s="61"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K121" s="61"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="24" t="s">
         <v>239</v>
       </c>
@@ -8132,8 +8296,9 @@
       <c r="H122" s="60"/>
       <c r="I122" s="60"/>
       <c r="J122" s="61"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K122" s="61"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="24" t="s">
         <v>240</v>
       </c>
@@ -8146,8 +8311,9 @@
       <c r="H123" s="60"/>
       <c r="I123" s="60"/>
       <c r="J123" s="61"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K123" s="61"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="24" t="s">
         <v>241</v>
       </c>
@@ -8160,8 +8326,9 @@
       <c r="H124" s="60"/>
       <c r="I124" s="60"/>
       <c r="J124" s="61"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K124" s="61"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="24" t="s">
         <v>242</v>
       </c>
@@ -8174,8 +8341,9 @@
       <c r="H125" s="60"/>
       <c r="I125" s="60"/>
       <c r="J125" s="61"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K125" s="61"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="24" t="s">
         <v>243</v>
       </c>
@@ -8188,8 +8356,9 @@
       <c r="H126" s="60"/>
       <c r="I126" s="60"/>
       <c r="J126" s="61"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K126" s="61"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="24" t="s">
         <v>244</v>
       </c>
@@ -8202,8 +8371,9 @@
       <c r="H127" s="60"/>
       <c r="I127" s="60"/>
       <c r="J127" s="61"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K127" s="61"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="24" t="s">
         <v>245</v>
       </c>
@@ -8216,8 +8386,9 @@
       <c r="H128" s="60"/>
       <c r="I128" s="60"/>
       <c r="J128" s="61"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K128" s="61"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="24" t="s">
         <v>246</v>
       </c>
@@ -8230,8 +8401,9 @@
       <c r="H129" s="60"/>
       <c r="I129" s="60"/>
       <c r="J129" s="61"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K129" s="61"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="24" t="s">
         <v>247</v>
       </c>
@@ -8244,8 +8416,9 @@
       <c r="H130" s="60"/>
       <c r="I130" s="60"/>
       <c r="J130" s="61"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K130" s="61"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="24" t="s">
         <v>248</v>
       </c>
@@ -8258,8 +8431,9 @@
       <c r="H131" s="60"/>
       <c r="I131" s="60"/>
       <c r="J131" s="61"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K131" s="61"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="24" t="s">
         <v>249</v>
       </c>
@@ -8272,8 +8446,9 @@
       <c r="H132" s="60"/>
       <c r="I132" s="60"/>
       <c r="J132" s="61"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K132" s="61"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="24" t="s">
         <v>250</v>
       </c>
@@ -8286,8 +8461,9 @@
       <c r="H133" s="60"/>
       <c r="I133" s="60"/>
       <c r="J133" s="61"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K133" s="61"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="24" t="s">
         <v>251</v>
       </c>
@@ -8300,8 +8476,9 @@
       <c r="H134" s="60"/>
       <c r="I134" s="60"/>
       <c r="J134" s="61"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K134" s="61"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="24" t="s">
         <v>252</v>
       </c>
@@ -8314,8 +8491,9 @@
       <c r="H135" s="60"/>
       <c r="I135" s="60"/>
       <c r="J135" s="61"/>
-    </row>
-    <row r="136" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K135" s="61"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="24" t="s">
         <v>253</v>
       </c>
@@ -8328,8 +8506,9 @@
       <c r="H136" s="60"/>
       <c r="I136" s="60"/>
       <c r="J136" s="61"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K136" s="61"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="24" t="s">
         <v>254</v>
       </c>
@@ -8342,8 +8521,9 @@
       <c r="H137" s="60"/>
       <c r="I137" s="60"/>
       <c r="J137" s="61"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K137" s="61"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="24" t="s">
         <v>255</v>
       </c>
@@ -8356,8 +8536,9 @@
       <c r="H138" s="60"/>
       <c r="I138" s="60"/>
       <c r="J138" s="61"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K138" s="61"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="24" t="s">
         <v>256</v>
       </c>
@@ -8370,8 +8551,9 @@
       <c r="H139" s="60"/>
       <c r="I139" s="60"/>
       <c r="J139" s="61"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K139" s="61"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="24" t="s">
         <v>257</v>
       </c>
@@ -8384,8 +8566,9 @@
       <c r="H140" s="60"/>
       <c r="I140" s="60"/>
       <c r="J140" s="61"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K140" s="61"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="24" t="s">
         <v>258</v>
       </c>
@@ -8398,8 +8581,9 @@
       <c r="H141" s="60"/>
       <c r="I141" s="60"/>
       <c r="J141" s="61"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K141" s="61"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="24" t="s">
         <v>259</v>
       </c>
@@ -8412,8 +8596,9 @@
       <c r="H142" s="60"/>
       <c r="I142" s="60"/>
       <c r="J142" s="61"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K142" s="61"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="24" t="s">
         <v>260</v>
       </c>
@@ -8426,8 +8611,9 @@
       <c r="H143" s="60"/>
       <c r="I143" s="60"/>
       <c r="J143" s="61"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K143" s="61"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="24" t="s">
         <v>261</v>
       </c>
@@ -8440,8 +8626,9 @@
       <c r="H144" s="60"/>
       <c r="I144" s="60"/>
       <c r="J144" s="61"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K144" s="61"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="24" t="s">
         <v>262</v>
       </c>
@@ -8454,8 +8641,9 @@
       <c r="H145" s="60"/>
       <c r="I145" s="60"/>
       <c r="J145" s="61"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K145" s="61"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="24" t="s">
         <v>263</v>
       </c>
@@ -8468,8 +8656,9 @@
       <c r="H146" s="60"/>
       <c r="I146" s="60"/>
       <c r="J146" s="61"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K146" s="61"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="24" t="s">
         <v>264</v>
       </c>
@@ -8482,8 +8671,9 @@
       <c r="H147" s="60"/>
       <c r="I147" s="60"/>
       <c r="J147" s="61"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K147" s="61"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="24" t="s">
         <v>265</v>
       </c>
@@ -8496,8 +8686,9 @@
       <c r="H148" s="60"/>
       <c r="I148" s="60"/>
       <c r="J148" s="61"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K148" s="61"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="24" t="s">
         <v>266</v>
       </c>
@@ -8510,8 +8701,9 @@
       <c r="H149" s="60"/>
       <c r="I149" s="60"/>
       <c r="J149" s="61"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K149" s="61"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="24" t="s">
         <v>267</v>
       </c>
@@ -8524,8 +8716,9 @@
       <c r="H150" s="60"/>
       <c r="I150" s="60"/>
       <c r="J150" s="61"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K150" s="61"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="24" t="s">
         <v>268</v>
       </c>
@@ -8538,8 +8731,9 @@
       <c r="H151" s="60"/>
       <c r="I151" s="60"/>
       <c r="J151" s="61"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K151" s="61"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="24" t="s">
         <v>269</v>
       </c>
@@ -8552,8 +8746,9 @@
       <c r="H152" s="60"/>
       <c r="I152" s="60"/>
       <c r="J152" s="61"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K152" s="61"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="24" t="s">
         <v>270</v>
       </c>
@@ -8566,8 +8761,9 @@
       <c r="H153" s="60"/>
       <c r="I153" s="60"/>
       <c r="J153" s="61"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K153" s="61"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="24" t="s">
         <v>271</v>
       </c>
@@ -8580,8 +8776,9 @@
       <c r="H154" s="60"/>
       <c r="I154" s="60"/>
       <c r="J154" s="61"/>
-    </row>
-    <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K154" s="61"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="24" t="s">
         <v>272</v>
       </c>
@@ -8594,8 +8791,9 @@
       <c r="H155" s="60"/>
       <c r="I155" s="60"/>
       <c r="J155" s="61"/>
-    </row>
-    <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K155" s="61"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="24" t="s">
         <v>273</v>
       </c>
@@ -8608,8 +8806,9 @@
       <c r="H156" s="60"/>
       <c r="I156" s="60"/>
       <c r="J156" s="61"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K156" s="61"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="24" t="s">
         <v>274</v>
       </c>
@@ -8622,8 +8821,9 @@
       <c r="H157" s="60"/>
       <c r="I157" s="60"/>
       <c r="J157" s="61"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K157" s="61"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="24" t="s">
         <v>275</v>
       </c>
@@ -8636,8 +8836,9 @@
       <c r="H158" s="60"/>
       <c r="I158" s="60"/>
       <c r="J158" s="61"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K158" s="61"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="24" t="s">
         <v>276</v>
       </c>
@@ -8650,8 +8851,9 @@
       <c r="H159" s="60"/>
       <c r="I159" s="60"/>
       <c r="J159" s="61"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K159" s="61"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="24" t="s">
         <v>277</v>
       </c>
@@ -8664,8 +8866,9 @@
       <c r="H160" s="60"/>
       <c r="I160" s="60"/>
       <c r="J160" s="61"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K160" s="61"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="24" t="s">
         <v>278</v>
       </c>
@@ -8678,8 +8881,9 @@
       <c r="H161" s="60"/>
       <c r="I161" s="60"/>
       <c r="J161" s="61"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K161" s="61"/>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="24" t="s">
         <v>279</v>
       </c>
@@ -8692,8 +8896,9 @@
       <c r="H162" s="60"/>
       <c r="I162" s="60"/>
       <c r="J162" s="61"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K162" s="61"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="24" t="s">
         <v>280</v>
       </c>
@@ -8706,8 +8911,9 @@
       <c r="H163" s="60"/>
       <c r="I163" s="60"/>
       <c r="J163" s="61"/>
-    </row>
-    <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K163" s="61"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="24" t="s">
         <v>281</v>
       </c>
@@ -8720,8 +8926,9 @@
       <c r="H164" s="60"/>
       <c r="I164" s="60"/>
       <c r="J164" s="61"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K164" s="61"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="24" t="s">
         <v>282</v>
       </c>
@@ -8734,8 +8941,9 @@
       <c r="H165" s="60"/>
       <c r="I165" s="60"/>
       <c r="J165" s="61"/>
-    </row>
-    <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K165" s="61"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="24" t="s">
         <v>283</v>
       </c>
@@ -8748,8 +8956,9 @@
       <c r="H166" s="60"/>
       <c r="I166" s="60"/>
       <c r="J166" s="61"/>
-    </row>
-    <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K166" s="61"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="24" t="s">
         <v>284</v>
       </c>
@@ -8762,8 +8971,9 @@
       <c r="H167" s="60"/>
       <c r="I167" s="60"/>
       <c r="J167" s="61"/>
-    </row>
-    <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K167" s="61"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="24" t="s">
         <v>285</v>
       </c>
@@ -8776,8 +8986,9 @@
       <c r="H168" s="60"/>
       <c r="I168" s="60"/>
       <c r="J168" s="61"/>
-    </row>
-    <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K168" s="61"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="24" t="s">
         <v>286</v>
       </c>
@@ -8790,8 +9001,9 @@
       <c r="H169" s="60"/>
       <c r="I169" s="60"/>
       <c r="J169" s="61"/>
-    </row>
-    <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K169" s="61"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="24" t="s">
         <v>287</v>
       </c>
@@ -8804,8 +9016,9 @@
       <c r="H170" s="60"/>
       <c r="I170" s="60"/>
       <c r="J170" s="61"/>
-    </row>
-    <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K170" s="61"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="24" t="s">
         <v>288</v>
       </c>
@@ -8818,8 +9031,9 @@
       <c r="H171" s="60"/>
       <c r="I171" s="60"/>
       <c r="J171" s="61"/>
-    </row>
-    <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K171" s="61"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="24" t="s">
         <v>289</v>
       </c>
@@ -8832,8 +9046,9 @@
       <c r="H172" s="60"/>
       <c r="I172" s="60"/>
       <c r="J172" s="61"/>
-    </row>
-    <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K172" s="61"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="24" t="s">
         <v>290</v>
       </c>
@@ -8846,8 +9061,9 @@
       <c r="H173" s="60"/>
       <c r="I173" s="60"/>
       <c r="J173" s="61"/>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K173" s="61"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="24" t="s">
         <v>291</v>
       </c>
@@ -8860,8 +9076,9 @@
       <c r="H174" s="60"/>
       <c r="I174" s="60"/>
       <c r="J174" s="61"/>
-    </row>
-    <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K174" s="61"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="24" t="s">
         <v>292</v>
       </c>
@@ -8874,8 +9091,9 @@
       <c r="H175" s="60"/>
       <c r="I175" s="60"/>
       <c r="J175" s="61"/>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K175" s="61"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="24" t="s">
         <v>293</v>
       </c>
@@ -8888,8 +9106,9 @@
       <c r="H176" s="60"/>
       <c r="I176" s="60"/>
       <c r="J176" s="61"/>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K176" s="61"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="24" t="s">
         <v>294</v>
       </c>
@@ -8902,8 +9121,9 @@
       <c r="H177" s="60"/>
       <c r="I177" s="60"/>
       <c r="J177" s="61"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K177" s="61"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="24" t="s">
         <v>295</v>
       </c>
@@ -8916,8 +9136,9 @@
       <c r="H178" s="60"/>
       <c r="I178" s="60"/>
       <c r="J178" s="61"/>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K178" s="61"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="24" t="s">
         <v>296</v>
       </c>
@@ -8930,8 +9151,9 @@
       <c r="H179" s="60"/>
       <c r="I179" s="60"/>
       <c r="J179" s="61"/>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K179" s="61"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="24" t="s">
         <v>297</v>
       </c>
@@ -8944,8 +9166,9 @@
       <c r="H180" s="60"/>
       <c r="I180" s="60"/>
       <c r="J180" s="61"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K180" s="61"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="24" t="s">
         <v>298</v>
       </c>
@@ -8958,8 +9181,9 @@
       <c r="H181" s="60"/>
       <c r="I181" s="60"/>
       <c r="J181" s="61"/>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K181" s="61"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="24" t="s">
         <v>299</v>
       </c>
@@ -8972,8 +9196,9 @@
       <c r="H182" s="60"/>
       <c r="I182" s="60"/>
       <c r="J182" s="61"/>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K182" s="61"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="24" t="s">
         <v>300</v>
       </c>
@@ -8986,8 +9211,9 @@
       <c r="H183" s="60"/>
       <c r="I183" s="60"/>
       <c r="J183" s="61"/>
-    </row>
-    <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K183" s="61"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="24" t="s">
         <v>301</v>
       </c>
@@ -9000,8 +9226,9 @@
       <c r="H184" s="60"/>
       <c r="I184" s="60"/>
       <c r="J184" s="61"/>
-    </row>
-    <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K184" s="61"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="24" t="s">
         <v>302</v>
       </c>
@@ -9014,8 +9241,9 @@
       <c r="H185" s="60"/>
       <c r="I185" s="60"/>
       <c r="J185" s="61"/>
-    </row>
-    <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K185" s="61"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="24" t="s">
         <v>303</v>
       </c>
@@ -9028,8 +9256,9 @@
       <c r="H186" s="60"/>
       <c r="I186" s="60"/>
       <c r="J186" s="61"/>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K186" s="61"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="24" t="s">
         <v>304</v>
       </c>
@@ -9042,8 +9271,9 @@
       <c r="H187" s="60"/>
       <c r="I187" s="60"/>
       <c r="J187" s="61"/>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K187" s="61"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="24" t="s">
         <v>305</v>
       </c>
@@ -9056,8 +9286,9 @@
       <c r="H188" s="60"/>
       <c r="I188" s="60"/>
       <c r="J188" s="61"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K188" s="61"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="24" t="s">
         <v>306</v>
       </c>
@@ -9070,8 +9301,9 @@
       <c r="H189" s="60"/>
       <c r="I189" s="60"/>
       <c r="J189" s="61"/>
-    </row>
-    <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K189" s="61"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="24" t="s">
         <v>307</v>
       </c>
@@ -9084,8 +9316,9 @@
       <c r="H190" s="60"/>
       <c r="I190" s="60"/>
       <c r="J190" s="61"/>
-    </row>
-    <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K190" s="61"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="24" t="s">
         <v>308</v>
       </c>
@@ -9098,8 +9331,9 @@
       <c r="H191" s="60"/>
       <c r="I191" s="60"/>
       <c r="J191" s="61"/>
-    </row>
-    <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K191" s="61"/>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="24" t="s">
         <v>309</v>
       </c>
@@ -9112,8 +9346,9 @@
       <c r="H192" s="60"/>
       <c r="I192" s="60"/>
       <c r="J192" s="61"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K192" s="61"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="24" t="s">
         <v>310</v>
       </c>
@@ -9126,8 +9361,9 @@
       <c r="H193" s="60"/>
       <c r="I193" s="60"/>
       <c r="J193" s="61"/>
-    </row>
-    <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K193" s="61"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="24" t="s">
         <v>311</v>
       </c>
@@ -9140,8 +9376,9 @@
       <c r="H194" s="60"/>
       <c r="I194" s="60"/>
       <c r="J194" s="61"/>
-    </row>
-    <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K194" s="61"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="24" t="s">
         <v>312</v>
       </c>
@@ -9154,8 +9391,9 @@
       <c r="H195" s="60"/>
       <c r="I195" s="60"/>
       <c r="J195" s="61"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K195" s="61"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="24" t="s">
         <v>313</v>
       </c>
@@ -9168,8 +9406,9 @@
       <c r="H196" s="60"/>
       <c r="I196" s="60"/>
       <c r="J196" s="61"/>
-    </row>
-    <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K196" s="61"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="24" t="s">
         <v>314</v>
       </c>
@@ -9182,8 +9421,9 @@
       <c r="H197" s="60"/>
       <c r="I197" s="60"/>
       <c r="J197" s="61"/>
-    </row>
-    <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K197" s="61"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="24" t="s">
         <v>315</v>
       </c>
@@ -9196,8 +9436,9 @@
       <c r="H198" s="60"/>
       <c r="I198" s="60"/>
       <c r="J198" s="61"/>
-    </row>
-    <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K198" s="61"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="24" t="s">
         <v>316</v>
       </c>
@@ -9210,8 +9451,9 @@
       <c r="H199" s="60"/>
       <c r="I199" s="60"/>
       <c r="J199" s="61"/>
-    </row>
-    <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K199" s="61"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="24" t="s">
         <v>317</v>
       </c>
@@ -9224,8 +9466,9 @@
       <c r="H200" s="60"/>
       <c r="I200" s="60"/>
       <c r="J200" s="61"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K200" s="61"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="24" t="s">
         <v>318</v>
       </c>
@@ -9238,8 +9481,9 @@
       <c r="H201" s="60"/>
       <c r="I201" s="60"/>
       <c r="J201" s="61"/>
-    </row>
-    <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K201" s="61"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="24" t="s">
         <v>319</v>
       </c>
@@ -9252,8 +9496,9 @@
       <c r="H202" s="60"/>
       <c r="I202" s="60"/>
       <c r="J202" s="61"/>
-    </row>
-    <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+      <c r="K202" s="61"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="24" t="s">
         <v>320</v>
       </c>
@@ -9266,8 +9511,9 @@
       <c r="H203" s="60"/>
       <c r="I203" s="60"/>
       <c r="J203" s="61"/>
-    </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K203" s="61"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1">
       <c r="A204" s="126" t="s">
         <v>220</v>
       </c>
@@ -9290,8 +9536,11 @@
         <v>494</v>
       </c>
       <c r="J204" s="61"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K204" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1">
       <c r="A205" s="114" t="s">
         <v>221</v>
       </c>
@@ -9314,8 +9563,11 @@
         <v>494</v>
       </c>
       <c r="J205" s="61"/>
-    </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K205" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1">
       <c r="A206" s="126" t="s">
         <v>222</v>
       </c>
@@ -9338,8 +9590,11 @@
         <v>494</v>
       </c>
       <c r="J206" s="61"/>
-    </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K206" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1">
       <c r="A207" s="114" t="s">
         <v>223</v>
       </c>
@@ -9362,8 +9617,11 @@
         <v>494</v>
       </c>
       <c r="J207" s="61"/>
-    </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K207" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1">
       <c r="A208" s="126" t="s">
         <v>224</v>
       </c>
@@ -9386,8 +9644,11 @@
         <v>494</v>
       </c>
       <c r="J208" s="61"/>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K208" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" customHeight="1">
       <c r="A209" s="114" t="s">
         <v>225</v>
       </c>
@@ -9410,8 +9671,11 @@
         <v>494</v>
       </c>
       <c r="J209" s="61"/>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K209" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" customHeight="1">
       <c r="A210" s="126" t="s">
         <v>226</v>
       </c>
@@ -9434,8 +9698,11 @@
         <v>494</v>
       </c>
       <c r="J210" s="61"/>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K210" s="61" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" customHeight="1">
       <c r="A211" s="114" t="s">
         <v>227</v>
       </c>
@@ -9448,8 +9715,9 @@
       <c r="H211" s="60"/>
       <c r="I211" s="60"/>
       <c r="J211" s="61"/>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K211" s="61"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" customHeight="1">
       <c r="A212" s="126" t="s">
         <v>228</v>
       </c>
@@ -9462,8 +9730,9 @@
       <c r="H212" s="60"/>
       <c r="I212" s="60"/>
       <c r="J212" s="61"/>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K212" s="61"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" customHeight="1">
       <c r="A213" s="114" t="s">
         <v>229</v>
       </c>
@@ -9476,8 +9745,9 @@
       <c r="H213" s="60"/>
       <c r="I213" s="60"/>
       <c r="J213" s="61"/>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K213" s="61"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" customHeight="1">
       <c r="A214" s="126" t="s">
         <v>230</v>
       </c>
@@ -9490,8 +9760,9 @@
       <c r="H214" s="60"/>
       <c r="I214" s="60"/>
       <c r="J214" s="61"/>
-    </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K214" s="61"/>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="114" t="s">
         <v>231</v>
       </c>
@@ -9502,7 +9773,7 @@
       <c r="F215" s="61"/>
       <c r="G215" s="61"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1">
+    <row r="216" spans="1:11" ht="15.75" customHeight="1">
       <c r="A216" s="114" t="s">
         <v>232</v>
       </c>
@@ -9513,7 +9784,7 @@
       <c r="F216" s="61"/>
       <c r="G216" s="61"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1">
+    <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="114" t="s">
         <v>233</v>
       </c>
@@ -9524,7 +9795,7 @@
       <c r="F217" s="61"/>
       <c r="G217" s="61"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1">
+    <row r="218" spans="1:11" ht="15.75" customHeight="1">
       <c r="A218" s="114" t="s">
         <v>234</v>
       </c>
@@ -9535,7 +9806,7 @@
       <c r="F218" s="61"/>
       <c r="G218" s="61"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1">
+    <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="114" t="s">
         <v>235</v>
       </c>
@@ -9546,7 +9817,7 @@
       <c r="F219" s="61"/>
       <c r="G219" s="61"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1">
+    <row r="220" spans="1:11" ht="15.75" customHeight="1">
       <c r="A220" s="114" t="s">
         <v>236</v>
       </c>
@@ -9557,7 +9828,7 @@
       <c r="F220" s="61"/>
       <c r="G220" s="61"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1">
+    <row r="221" spans="1:11" ht="15.75" customHeight="1">
       <c r="A221" s="114" t="s">
         <v>237</v>
       </c>
@@ -9568,7 +9839,7 @@
       <c r="F221" s="61"/>
       <c r="G221" s="61"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1">
+    <row r="222" spans="1:11" ht="15.75" customHeight="1">
       <c r="A222" s="114" t="s">
         <v>238</v>
       </c>
@@ -9579,7 +9850,7 @@
       <c r="F222" s="61"/>
       <c r="G222" s="61"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1">
+    <row r="223" spans="1:11" ht="15.75" customHeight="1">
       <c r="A223" s="114" t="s">
         <v>239</v>
       </c>
@@ -9590,7 +9861,7 @@
       <c r="F223" s="61"/>
       <c r="G223" s="61"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1">
+    <row r="224" spans="1:11" ht="15.75" customHeight="1">
       <c r="A224" s="114" t="s">
         <v>240</v>
       </c>
@@ -14191,50 +14462,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="179" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="182" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="202"/>
+      <c r="B2" s="183"/>
       <c r="C2" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="203" t="s">
+      <c r="D2" s="184" t="s">
         <v>603</v>
       </c>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="206" t="s">
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187" t="s">
         <v>604</v>
       </c>
-      <c r="I2" s="207"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="189" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="210"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="84" t="s">
@@ -14296,15 +14567,15 @@
       <c r="I6" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="192" t="s">
+      <c r="K6" s="178" t="s">
         <v>618</v>
       </c>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="87">
@@ -14334,15 +14605,15 @@
       <c r="I7" s="89" t="s">
         <v>588</v>
       </c>
-      <c r="K7" s="192" t="s">
+      <c r="K7" s="178" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="87">
@@ -14450,17 +14721,17 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="192" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="195"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="84" t="s">
@@ -14475,15 +14746,15 @@
       <c r="D16" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="196" t="s">
+      <c r="E16" s="195" t="s">
         <v>635</v>
       </c>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196" t="s">
+      <c r="F16" s="195"/>
+      <c r="G16" s="195" t="s">
         <v>636</v>
       </c>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="93">
@@ -14498,15 +14769,15 @@
       <c r="D17" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E17" s="188" t="s">
+      <c r="E17" s="197" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="188" t="s">
+      <c r="F17" s="198"/>
+      <c r="G17" s="197" t="s">
         <v>639</v>
       </c>
-      <c r="H17" s="190"/>
-      <c r="I17" s="191"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="93">
@@ -14521,15 +14792,15 @@
       <c r="D18" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="197" t="s">
         <v>638</v>
       </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="188" t="s">
+      <c r="F18" s="198"/>
+      <c r="G18" s="197" t="s">
         <v>641</v>
       </c>
-      <c r="H18" s="190"/>
-      <c r="I18" s="191"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="93">
@@ -14544,15 +14815,15 @@
       <c r="D19" s="88" t="s">
         <v>597</v>
       </c>
-      <c r="E19" s="188" t="s">
+      <c r="E19" s="197" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="189"/>
-      <c r="G19" s="188" t="s">
+      <c r="F19" s="198"/>
+      <c r="G19" s="197" t="s">
         <v>644</v>
       </c>
-      <c r="H19" s="190"/>
-      <c r="I19" s="191"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="200"/>
       <c r="K19" t="s">
         <v>645</v>
       </c>
@@ -14564,11 +14835,11 @@
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="179"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="204"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="93">
@@ -14577,11 +14848,11 @@
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="204"/>
       <c r="K21" t="s">
         <v>646</v>
       </c>
@@ -14593,11 +14864,11 @@
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="179"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="204"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="93">
@@ -14606,11 +14877,11 @@
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="93">
@@ -14619,11 +14890,11 @@
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="179"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="204"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="93">
@@ -14632,11 +14903,11 @@
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="183"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="95">
@@ -14645,44 +14916,44 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14728,11 +14999,11 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="22"/>
@@ -14850,10 +15121,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="215" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="213"/>
+      <c r="C2" s="215"/>
       <c r="O2" t="s">
         <v>510</v>
       </c>
@@ -15093,56 +15364,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="215" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="217" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="215"/>
+      <c r="C4" s="217"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="C5" s="214"/>
+      <c r="C5" s="216"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="216" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="214"/>
+      <c r="C6" s="216"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="214"/>
+      <c r="C7" s="216"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="216" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="214"/>
+      <c r="C8" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15175,11 +15446,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="218" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="220"/>
       <c r="J2" t="s">
         <v>510</v>
       </c>
@@ -15357,11 +15628,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="217" t="s">
         <v>585</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="62" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="785">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -2405,6 +2405,9 @@
   </si>
   <si>
     <t>Varzat</t>
+  </si>
+  <si>
+    <t>Lefty</t>
   </si>
 </sst>
 </file>
@@ -3265,7 +3268,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3708,6 +3711,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3720,9 +3726,72 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3762,69 +3831,6 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3849,9 +3855,7 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -3890,7 +3894,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3902,7 +3906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3922,7 +3926,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3951,7 +3955,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +4004,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,7 +4049,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,7 +4094,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4132,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4180,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4229,7 +4233,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4286,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4380,7 +4384,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4437,7 @@
         <xdr:cNvPr id="3" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4486,7 +4490,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4584,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4633,7 +4637,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,7 +4732,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4790,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4839,7 +4843,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4931,7 +4935,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4984,7 +4988,7 @@
         <xdr:cNvPr id="5" name="Bilde 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5221,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5237,15 +5241,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
       <c r="H1" s="160" t="s">
         <v>722</v>
       </c>
@@ -5258,10 +5262,10 @@
       <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" thickBot="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="175"/>
+      <c r="B2" s="176"/>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
       <c r="E2" s="106"/>
@@ -5305,7 +5309,7 @@
       <c r="J3" s="161" t="s">
         <v>505</v>
       </c>
-      <c r="K3" s="221" t="s">
+      <c r="K3" s="174" t="s">
         <v>781</v>
       </c>
     </row>
@@ -6813,7 +6817,9 @@
         <v>494</v>
       </c>
       <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
+      <c r="K59" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="24" t="s">
@@ -6871,7 +6877,9 @@
         <v>494</v>
       </c>
       <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
+      <c r="K61" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="24" t="s">
@@ -7124,7 +7132,7 @@
       <c r="I71" s="163" t="s">
         <v>494</v>
       </c>
-      <c r="J71" s="61"/>
+      <c r="J71" s="222"/>
       <c r="K71" s="61"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
@@ -7210,7 +7218,9 @@
         <v>494</v>
       </c>
       <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
+      <c r="K74" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="126" t="s">
@@ -7237,7 +7247,9 @@
         <v>494</v>
       </c>
       <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
+      <c r="K75" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="24" t="s">
@@ -7266,7 +7278,9 @@
         <v>494</v>
       </c>
       <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
+      <c r="K76" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="126" t="s">
@@ -7728,7 +7742,9 @@
         <v>494</v>
       </c>
       <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
+      <c r="K92" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="126" t="s">
@@ -7786,7 +7802,9 @@
         <v>494</v>
       </c>
       <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
+      <c r="K94" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="126" t="s">
@@ -7814,8 +7832,10 @@
       <c r="I95" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="J95" s="61"/>
-      <c r="K95" s="61"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="61" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="24" t="s">
@@ -14462,50 +14482,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="201" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="204" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="183"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="206" t="s">
         <v>603</v>
       </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="209" t="s">
         <v>604</v>
       </c>
-      <c r="I2" s="188"/>
+      <c r="I2" s="210"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="211" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="191"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="213"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="84" t="s">
@@ -14567,15 +14587,15 @@
       <c r="I6" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="195" t="s">
         <v>618</v>
       </c>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="87">
@@ -14605,15 +14625,15 @@
       <c r="I7" s="89" t="s">
         <v>588</v>
       </c>
-      <c r="K7" s="178" t="s">
+      <c r="K7" s="195" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="195"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="87">
@@ -14721,17 +14741,17 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="196" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="84" t="s">
@@ -14746,15 +14766,15 @@
       <c r="D16" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195" t="s">
+      <c r="F16" s="199"/>
+      <c r="G16" s="199" t="s">
         <v>636</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="200"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="93">
@@ -14769,15 +14789,15 @@
       <c r="D17" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E17" s="197" t="s">
+      <c r="E17" s="191" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="198"/>
-      <c r="G17" s="197" t="s">
+      <c r="F17" s="192"/>
+      <c r="G17" s="191" t="s">
         <v>639</v>
       </c>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="194"/>
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="93">
@@ -14792,15 +14812,15 @@
       <c r="D18" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E18" s="197" t="s">
+      <c r="E18" s="191" t="s">
         <v>638</v>
       </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="197" t="s">
+      <c r="F18" s="192"/>
+      <c r="G18" s="191" t="s">
         <v>641</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="93">
@@ -14815,15 +14835,15 @@
       <c r="D19" s="88" t="s">
         <v>597</v>
       </c>
-      <c r="E19" s="197" t="s">
+      <c r="E19" s="191" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="197" t="s">
+      <c r="F19" s="192"/>
+      <c r="G19" s="191" t="s">
         <v>644</v>
       </c>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
       <c r="K19" t="s">
         <v>645</v>
       </c>
@@ -14835,11 +14855,11 @@
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="204"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="182"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="93">
@@ -14848,11 +14868,11 @@
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="204"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
       <c r="K21" t="s">
         <v>646</v>
       </c>
@@ -14864,11 +14884,11 @@
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="204"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="182"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="93">
@@ -14877,11 +14897,11 @@
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="182"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="93">
@@ -14890,11 +14910,11 @@
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="204"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="93">
@@ -14903,11 +14923,11 @@
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="208"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="95">
@@ -14916,44 +14936,44 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="212"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14999,11 +15019,11 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="22"/>
@@ -15121,10 +15141,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="216" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="216"/>
       <c r="O2" t="s">
         <v>510</v>
       </c>
@@ -15364,56 +15384,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="216" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="217"/>
+      <c r="C4" s="218"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="217" t="s">
         <v>546</v>
       </c>
-      <c r="C5" s="216"/>
+      <c r="C5" s="217"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="217" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="216"/>
+      <c r="C6" s="217"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="217" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="216"/>
+      <c r="C7" s="217"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="217" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15446,11 +15466,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="219" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
       <c r="J2" t="s">
         <v>510</v>
       </c>
@@ -15628,11 +15648,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="218" t="s">
         <v>585</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="62" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="806">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -2317,9 +2317,6 @@
     <t>Building for the General Staff meetings</t>
   </si>
   <si>
-    <t>N68 51.315 E033 00.870</t>
-  </si>
-  <si>
     <t>Ministry of Foreign Affairs</t>
   </si>
   <si>
@@ -2341,9 +2338,6 @@
     <t>Handles security and counter-intelligence</t>
   </si>
   <si>
-    <t>N68 57.182 E033.448</t>
-  </si>
-  <si>
     <t>185ft</t>
   </si>
   <si>
@@ -2408,6 +2402,75 @@
   </si>
   <si>
     <t>Lefty</t>
+  </si>
+  <si>
+    <t>N 68 03.688 E 039 27.365</t>
+  </si>
+  <si>
+    <t>N 67 59.857 E 035 02.102</t>
+  </si>
+  <si>
+    <t>512ft</t>
+  </si>
+  <si>
+    <t>N 68 09.529 E 033 11.712</t>
+  </si>
+  <si>
+    <t>597ft</t>
+  </si>
+  <si>
+    <t>N 68 57.182 E 033 03.448</t>
+  </si>
+  <si>
+    <t>N 68 58.003 E 033 04.101</t>
+  </si>
+  <si>
+    <t>82ft</t>
+  </si>
+  <si>
+    <t>N 68 57.984 E 033 04.035</t>
+  </si>
+  <si>
+    <t>N 68 58.148 E 033 04.890</t>
+  </si>
+  <si>
+    <t>106ft</t>
+  </si>
+  <si>
+    <t>N 68 51.315 E 033 00.869</t>
+  </si>
+  <si>
+    <t>N 68 48.603 E 032 46.608</t>
+  </si>
+  <si>
+    <t>103ft</t>
+  </si>
+  <si>
+    <t>N 67 36.659 E 033 24.039</t>
+  </si>
+  <si>
+    <t>N 67 36.713 E 033 24.218</t>
+  </si>
+  <si>
+    <t>525ft</t>
+  </si>
+  <si>
+    <t>522ft</t>
+  </si>
+  <si>
+    <t>N 68 08.670 E 033 26.052</t>
+  </si>
+  <si>
+    <t>673ft</t>
+  </si>
+  <si>
+    <t>N 68 07.981 E 033 13.529</t>
+  </si>
+  <si>
+    <t>728ft</t>
+  </si>
+  <si>
+    <t>N 69 31.375 E 031 14.113</t>
   </si>
 </sst>
 </file>
@@ -3726,6 +3789,75 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3762,75 +3894,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3855,7 +3918,7 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -3894,7 +3957,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +3969,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3926,7 +3989,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3955,7 +4018,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4067,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4049,7 +4112,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,7 +4157,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4195,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,7 +4243,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4296,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4286,7 +4349,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4384,7 +4447,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4500,7 @@
         <xdr:cNvPr id="3" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4553,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4647,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4700,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,7 +4795,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4853,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4906,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +4998,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,7 +5051,7 @@
         <xdr:cNvPr id="5" name="Bilde 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,10 +5281,10 @@
   <dimension ref="A1:K825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5272,7 +5335,7 @@
       <c r="F2" s="106"/>
       <c r="G2" s="107"/>
       <c r="H2" s="173" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
@@ -5310,7 +5373,7 @@
         <v>505</v>
       </c>
       <c r="K3" s="174" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25">
@@ -5370,7 +5433,7 @@
       </c>
       <c r="J5" s="61"/>
       <c r="K5" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25">
@@ -5401,7 +5464,7 @@
       </c>
       <c r="J6" s="61"/>
       <c r="K6" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25">
@@ -5432,7 +5495,7 @@
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25">
@@ -5618,15 +5681,15 @@
         <v>54</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="4"/>
       <c r="E14" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="G14" s="152" t="s">
         <v>55</v>
@@ -5639,7 +5702,7 @@
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25">
@@ -5647,17 +5710,17 @@
         <v>56</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C15" s="134">
         <v>11</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="130" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F15" s="131" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G15" s="151" t="s">
         <v>126</v>
@@ -5670,7 +5733,7 @@
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25">
@@ -5678,20 +5741,20 @@
         <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C16" s="98">
         <v>11</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G16" s="152" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H16" s="165" t="s">
         <v>734</v>
@@ -5701,7 +5764,7 @@
       </c>
       <c r="J16" s="61"/>
       <c r="K16" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25">
@@ -5709,20 +5772,20 @@
         <v>58</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C17" s="134">
         <v>11</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="130" t="s">
+        <v>760</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>788</v>
+      </c>
+      <c r="G17" s="151" t="s">
         <v>761</v>
-      </c>
-      <c r="F17" s="131" t="s">
-        <v>762</v>
-      </c>
-      <c r="G17" s="151" t="s">
-        <v>763</v>
       </c>
       <c r="H17" s="165" t="s">
         <v>734</v>
@@ -5732,7 +5795,7 @@
       </c>
       <c r="J17" s="61"/>
       <c r="K17" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25">
@@ -5740,7 +5803,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C18" s="98">
         <v>1</v>
@@ -5749,7 +5812,12 @@
       <c r="E18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="152"/>
+      <c r="F18" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="G18" s="152" t="s">
+        <v>787</v>
+      </c>
       <c r="H18" s="165" t="s">
         <v>734</v>
       </c>
@@ -5764,20 +5832,20 @@
         <v>61</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C19" s="134">
         <v>6</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="130" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F19" s="131" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G19" s="151" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H19" s="165" t="s">
         <v>734</v>
@@ -5802,7 +5870,12 @@
       <c r="E20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="152"/>
+      <c r="F20" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="G20" s="152" t="s">
+        <v>785</v>
+      </c>
       <c r="H20" s="165" t="s">
         <v>734</v>
       </c>
@@ -5824,10 +5897,14 @@
       </c>
       <c r="D21" s="135"/>
       <c r="E21" s="130" t="s">
-        <v>778</v>
-      </c>
-      <c r="F21" s="131"/>
-      <c r="G21" s="151"/>
+        <v>776</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>805</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>785</v>
+      </c>
       <c r="H21" s="165" t="s">
         <v>734</v>
       </c>
@@ -5849,9 +5926,14 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="45" t="s">
-        <v>777</v>
-      </c>
-      <c r="G22" s="152"/>
+        <v>775</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="G22" s="152" t="s">
+        <v>804</v>
+      </c>
       <c r="H22" s="165" t="s">
         <v>734</v>
       </c>
@@ -5951,7 +6033,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C26" s="98">
         <v>2</v>
@@ -5959,6 +6041,9 @@
       <c r="D26" s="4"/>
       <c r="E26" s="45" t="s">
         <v>78</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>783</v>
       </c>
       <c r="G26" s="152"/>
       <c r="H26" s="164" t="s">
@@ -6818,7 +6903,7 @@
       </c>
       <c r="J59" s="61"/>
       <c r="K59" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
@@ -6878,7 +6963,7 @@
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
@@ -7219,7 +7304,7 @@
       </c>
       <c r="J74" s="61"/>
       <c r="K74" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
@@ -7248,7 +7333,7 @@
       </c>
       <c r="J75" s="61"/>
       <c r="K75" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
@@ -7266,10 +7351,10 @@
         <v>502</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G76" s="152" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H76" s="171" t="s">
         <v>734</v>
@@ -7279,7 +7364,7 @@
       </c>
       <c r="J76" s="61"/>
       <c r="K76" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
@@ -7321,7 +7406,7 @@
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F78" s="43" t="s">
         <v>674</v>
@@ -7743,7 +7828,7 @@
       </c>
       <c r="J92" s="61"/>
       <c r="K92" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
@@ -7803,7 +7888,7 @@
       </c>
       <c r="J94" s="61"/>
       <c r="K94" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
@@ -7834,7 +7919,7 @@
       </c>
       <c r="J95" s="222"/>
       <c r="K95" s="61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
@@ -7851,8 +7936,8 @@
       <c r="E96" s="41"/>
       <c r="F96" s="61"/>
       <c r="G96" s="152"/>
-      <c r="H96" s="162" t="s">
-        <v>494</v>
+      <c r="H96" s="171" t="s">
+        <v>734</v>
       </c>
       <c r="I96" s="162" t="s">
         <v>494</v>
@@ -7872,8 +7957,12 @@
       </c>
       <c r="D97" s="135"/>
       <c r="E97" s="132"/>
-      <c r="F97" s="139"/>
-      <c r="G97" s="151"/>
+      <c r="F97" s="139" t="s">
+        <v>797</v>
+      </c>
+      <c r="G97" s="151" t="s">
+        <v>800</v>
+      </c>
       <c r="H97" s="171" t="s">
         <v>734</v>
       </c>
@@ -7882,7 +7971,7 @@
       </c>
       <c r="J97" s="61"/>
       <c r="K97" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
@@ -7897,10 +7986,14 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="41" t="s">
-        <v>776</v>
-      </c>
-      <c r="F98" s="61"/>
-      <c r="G98" s="152"/>
+        <v>774</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>798</v>
+      </c>
+      <c r="G98" s="152" t="s">
+        <v>799</v>
+      </c>
       <c r="H98" s="171" t="s">
         <v>734</v>
       </c>
@@ -7924,8 +8017,8 @@
       <c r="E99" s="132"/>
       <c r="F99" s="139"/>
       <c r="G99" s="130"/>
-      <c r="H99" s="162" t="s">
-        <v>494</v>
+      <c r="H99" s="171" t="s">
+        <v>734</v>
       </c>
       <c r="I99" s="162" t="s">
         <v>494</v>
@@ -7934,7 +8027,7 @@
         <v>734</v>
       </c>
       <c r="K99" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
@@ -7961,7 +8054,7 @@
       </c>
       <c r="J100" s="61"/>
       <c r="K100" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
@@ -7988,7 +8081,7 @@
       </c>
       <c r="J101" s="61"/>
       <c r="K101" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
@@ -8015,7 +8108,7 @@
       </c>
       <c r="J102" s="61"/>
       <c r="K102" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1">
@@ -9557,7 +9650,7 @@
       </c>
       <c r="J204" s="61"/>
       <c r="K204" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1">
@@ -9584,7 +9677,7 @@
       </c>
       <c r="J205" s="61"/>
       <c r="K205" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1">
@@ -9601,8 +9694,12 @@
       <c r="E206" s="133" t="s">
         <v>743</v>
       </c>
-      <c r="F206" s="133"/>
-      <c r="G206" s="157"/>
+      <c r="F206" s="133" t="s">
+        <v>801</v>
+      </c>
+      <c r="G206" s="157" t="s">
+        <v>802</v>
+      </c>
       <c r="H206" s="171" t="s">
         <v>734</v>
       </c>
@@ -9611,7 +9708,7 @@
       </c>
       <c r="J206" s="61"/>
       <c r="K206" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1">
@@ -9628,8 +9725,12 @@
       <c r="E207" s="145" t="s">
         <v>745</v>
       </c>
-      <c r="F207" s="145"/>
-      <c r="G207" s="158"/>
+      <c r="F207" s="145" t="s">
+        <v>795</v>
+      </c>
+      <c r="G207" s="158" t="s">
+        <v>796</v>
+      </c>
       <c r="H207" s="171" t="s">
         <v>734</v>
       </c>
@@ -9638,7 +9739,7 @@
       </c>
       <c r="J207" s="61"/>
       <c r="K207" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1">
@@ -9655,8 +9756,12 @@
       <c r="E208" s="147" t="s">
         <v>750</v>
       </c>
-      <c r="F208" s="147"/>
-      <c r="G208" s="159"/>
+      <c r="F208" s="147" t="s">
+        <v>789</v>
+      </c>
+      <c r="G208" s="159" t="s">
+        <v>790</v>
+      </c>
       <c r="H208" s="171" t="s">
         <v>734</v>
       </c>
@@ -9665,7 +9770,7 @@
       </c>
       <c r="J208" s="61"/>
       <c r="K208" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1">
@@ -9682,8 +9787,12 @@
       <c r="E209" s="145" t="s">
         <v>749</v>
       </c>
-      <c r="F209" s="145"/>
-      <c r="G209" s="158"/>
+      <c r="F209" s="145" t="s">
+        <v>791</v>
+      </c>
+      <c r="G209" s="158" t="s">
+        <v>790</v>
+      </c>
       <c r="H209" s="171" t="s">
         <v>734</v>
       </c>
@@ -9692,7 +9801,7 @@
       </c>
       <c r="J209" s="61"/>
       <c r="K209" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1">
@@ -9709,8 +9818,12 @@
       <c r="E210" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="F210" s="147"/>
-      <c r="G210" s="159"/>
+      <c r="F210" s="147" t="s">
+        <v>792</v>
+      </c>
+      <c r="G210" s="159" t="s">
+        <v>793</v>
+      </c>
       <c r="H210" s="171" t="s">
         <v>734</v>
       </c>
@@ -9719,7 +9832,7 @@
       </c>
       <c r="J210" s="61"/>
       <c r="K210" s="61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1">
@@ -14482,50 +14595,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="180" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="183" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="184"/>
       <c r="C2" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="185" t="s">
         <v>603</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209" t="s">
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="188" t="s">
         <v>604</v>
       </c>
-      <c r="I2" s="210"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="190" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="213"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="84" t="s">
@@ -14587,15 +14700,15 @@
       <c r="I6" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="195" t="s">
+      <c r="K6" s="179" t="s">
         <v>618</v>
       </c>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="87">
@@ -14625,15 +14738,15 @@
       <c r="I7" s="89" t="s">
         <v>588</v>
       </c>
-      <c r="K7" s="195" t="s">
+      <c r="K7" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="195"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="87">
@@ -14741,17 +14854,17 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="193" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="84" t="s">
@@ -14766,15 +14879,15 @@
       <c r="D16" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="196" t="s">
         <v>635</v>
       </c>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199" t="s">
+      <c r="F16" s="196"/>
+      <c r="G16" s="196" t="s">
         <v>636</v>
       </c>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="93">
@@ -14789,15 +14902,15 @@
       <c r="D17" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E17" s="191" t="s">
+      <c r="E17" s="198" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="192"/>
-      <c r="G17" s="191" t="s">
+      <c r="F17" s="199"/>
+      <c r="G17" s="198" t="s">
         <v>639</v>
       </c>
-      <c r="H17" s="193"/>
-      <c r="I17" s="194"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="201"/>
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="93">
@@ -14812,15 +14925,15 @@
       <c r="D18" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E18" s="191" t="s">
+      <c r="E18" s="198" t="s">
         <v>638</v>
       </c>
-      <c r="F18" s="192"/>
-      <c r="G18" s="191" t="s">
+      <c r="F18" s="199"/>
+      <c r="G18" s="198" t="s">
         <v>641</v>
       </c>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="93">
@@ -14835,15 +14948,15 @@
       <c r="D19" s="88" t="s">
         <v>597</v>
       </c>
-      <c r="E19" s="191" t="s">
+      <c r="E19" s="198" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="192"/>
-      <c r="G19" s="191" t="s">
+      <c r="F19" s="199"/>
+      <c r="G19" s="198" t="s">
         <v>644</v>
       </c>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201"/>
       <c r="K19" t="s">
         <v>645</v>
       </c>
@@ -14855,11 +14968,11 @@
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="182"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="93">
@@ -14868,11 +14981,11 @@
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="182"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="205"/>
       <c r="K21" t="s">
         <v>646</v>
       </c>
@@ -14884,11 +14997,11 @@
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="182"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="205"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="93">
@@ -14897,11 +15010,11 @@
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="182"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="93">
@@ -14910,11 +15023,11 @@
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="182"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="205"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="93">
@@ -14923,11 +15036,11 @@
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="209"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="95">
@@ -14936,44 +15049,44 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="190"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="818">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -2471,6 +2471,42 @@
   </si>
   <si>
     <t>N 69 31.375 E 031 14.113</t>
+  </si>
+  <si>
+    <t>N 69 04.518 E 033 21.135</t>
+  </si>
+  <si>
+    <t>121ft</t>
+  </si>
+  <si>
+    <t>N 69 03.507 E 033 23.756</t>
+  </si>
+  <si>
+    <t>151ft</t>
+  </si>
+  <si>
+    <t>N 69 03.636 E 033 26.450</t>
+  </si>
+  <si>
+    <t>N 69 03.428 E 033 22.989</t>
+  </si>
+  <si>
+    <t>138ft</t>
+  </si>
+  <si>
+    <t>N 68 07.059 E 033 17.674</t>
+  </si>
+  <si>
+    <t>554ft</t>
+  </si>
+  <si>
+    <t>N 67 23.210 E 032 30.369</t>
+  </si>
+  <si>
+    <t>433ft</t>
+  </si>
+  <si>
+    <t>N 67 22.758 E 032 29.667</t>
   </si>
 </sst>
 </file>
@@ -3777,6 +3813,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3789,9 +3826,72 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3831,69 +3931,6 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3918,7 +3955,6 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -3957,7 +3993,7 @@
         <xdr:cNvPr id="4" name="Bilde 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +4005,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3989,7 +4025,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4018,7 +4054,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4103,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +4148,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4157,7 +4193,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,7 +4231,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,7 +4279,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,7 +4332,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4349,7 +4385,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4447,7 +4483,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4500,7 +4536,7 @@
         <xdr:cNvPr id="3" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4553,7 +4589,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4683,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4700,7 +4736,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,7 +4831,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4889,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4906,7 +4942,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +5034,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5051,7 +5087,7 @@
         <xdr:cNvPr id="5" name="Bilde 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5281,10 +5317,10 @@
   <dimension ref="A1:K825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5304,15 +5340,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="178" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
       <c r="H1" s="160" t="s">
         <v>722</v>
       </c>
@@ -5325,10 +5361,10 @@
       <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" thickBot="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="176" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="176"/>
+      <c r="B2" s="177"/>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
       <c r="E2" s="106"/>
@@ -7217,7 +7253,7 @@
       <c r="I71" s="163" t="s">
         <v>494</v>
       </c>
-      <c r="J71" s="222"/>
+      <c r="J71" s="175"/>
       <c r="K71" s="61"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
@@ -7917,7 +7953,7 @@
       <c r="I95" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="J95" s="222"/>
+      <c r="J95" s="175"/>
       <c r="K95" s="61" t="s">
         <v>782</v>
       </c>
@@ -7934,8 +7970,12 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="152"/>
+      <c r="F96" s="61" t="s">
+        <v>808</v>
+      </c>
+      <c r="G96" s="152" t="s">
+        <v>809</v>
+      </c>
       <c r="H96" s="171" t="s">
         <v>734</v>
       </c>
@@ -8015,8 +8055,12 @@
       </c>
       <c r="D99" s="129"/>
       <c r="E99" s="132"/>
-      <c r="F99" s="139"/>
-      <c r="G99" s="130"/>
+      <c r="F99" s="139" t="s">
+        <v>806</v>
+      </c>
+      <c r="G99" s="130" t="s">
+        <v>807</v>
+      </c>
       <c r="H99" s="171" t="s">
         <v>734</v>
       </c>
@@ -8044,8 +8088,12 @@
       <c r="E100" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="F100" s="61"/>
-      <c r="G100" s="152"/>
+      <c r="F100" s="61" t="s">
+        <v>813</v>
+      </c>
+      <c r="G100" s="152" t="s">
+        <v>814</v>
+      </c>
       <c r="H100" s="171" t="s">
         <v>734</v>
       </c>
@@ -8071,8 +8119,12 @@
       <c r="E101" s="132" t="s">
         <v>726</v>
       </c>
-      <c r="F101" s="139"/>
-      <c r="G101" s="151"/>
+      <c r="F101" s="139" t="s">
+        <v>817</v>
+      </c>
+      <c r="G101" s="151" t="s">
+        <v>816</v>
+      </c>
       <c r="H101" s="171" t="s">
         <v>734</v>
       </c>
@@ -8098,8 +8150,12 @@
       <c r="E102" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="F102" s="61"/>
-      <c r="G102" s="152"/>
+      <c r="F102" s="61" t="s">
+        <v>815</v>
+      </c>
+      <c r="G102" s="152" t="s">
+        <v>158</v>
+      </c>
       <c r="H102" s="171" t="s">
         <v>734</v>
       </c>
@@ -9640,8 +9696,12 @@
       <c r="E204" s="140" t="s">
         <v>730</v>
       </c>
-      <c r="F204" s="139"/>
-      <c r="G204" s="155"/>
+      <c r="F204" s="139" t="s">
+        <v>811</v>
+      </c>
+      <c r="G204" s="155" t="s">
+        <v>812</v>
+      </c>
       <c r="H204" s="171" t="s">
         <v>734</v>
       </c>
@@ -9667,8 +9727,12 @@
       <c r="E205" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="F205" s="7"/>
-      <c r="G205" s="156"/>
+      <c r="F205" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="G205" s="156" t="s">
+        <v>809</v>
+      </c>
       <c r="H205" s="171" t="s">
         <v>734</v>
       </c>
@@ -14595,50 +14659,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="202" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="182"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="204"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="205" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="83" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="D2" s="207" t="s">
         <v>603</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="188" t="s">
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="210" t="s">
         <v>604</v>
       </c>
-      <c r="I2" s="189"/>
+      <c r="I2" s="211"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="212" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="192"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="214"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="84" t="s">
@@ -14700,15 +14764,15 @@
       <c r="I6" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="179" t="s">
+      <c r="K6" s="196" t="s">
         <v>618</v>
       </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="87">
@@ -14738,15 +14802,15 @@
       <c r="I7" s="89" t="s">
         <v>588</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="196" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="196"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="87">
@@ -14854,17 +14918,17 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="197" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="195"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="84" t="s">
@@ -14879,15 +14943,15 @@
       <c r="D16" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="196" t="s">
+      <c r="E16" s="200" t="s">
         <v>635</v>
       </c>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196" t="s">
+      <c r="F16" s="200"/>
+      <c r="G16" s="200" t="s">
         <v>636</v>
       </c>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="93">
@@ -14902,15 +14966,15 @@
       <c r="D17" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E17" s="198" t="s">
+      <c r="E17" s="192" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="199"/>
-      <c r="G17" s="198" t="s">
+      <c r="F17" s="193"/>
+      <c r="G17" s="192" t="s">
         <v>639</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="201"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="93">
@@ -14925,15 +14989,15 @@
       <c r="D18" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="E18" s="198" t="s">
+      <c r="E18" s="192" t="s">
         <v>638</v>
       </c>
-      <c r="F18" s="199"/>
-      <c r="G18" s="198" t="s">
+      <c r="F18" s="193"/>
+      <c r="G18" s="192" t="s">
         <v>641</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="93">
@@ -14948,15 +15012,15 @@
       <c r="D19" s="88" t="s">
         <v>597</v>
       </c>
-      <c r="E19" s="198" t="s">
+      <c r="E19" s="192" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="199"/>
-      <c r="G19" s="198" t="s">
+      <c r="F19" s="193"/>
+      <c r="G19" s="192" t="s">
         <v>644</v>
       </c>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
       <c r="K19" t="s">
         <v>645</v>
       </c>
@@ -14968,11 +15032,11 @@
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="205"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="183"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="93">
@@ -14981,11 +15045,11 @@
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="205"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="183"/>
       <c r="K21" t="s">
         <v>646</v>
       </c>
@@ -14997,11 +15061,11 @@
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="205"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="183"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="93">
@@ -15010,11 +15074,11 @@
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="183"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="93">
@@ -15023,11 +15087,11 @@
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="205"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="183"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="93">
@@ -15036,11 +15100,11 @@
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="209"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="95">
@@ -15049,44 +15113,44 @@
       <c r="B26" s="91"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="213"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15132,11 +15196,11 @@
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="22"/>
@@ -15254,10 +15318,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="217" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="216"/>
+      <c r="C2" s="217"/>
       <c r="O2" t="s">
         <v>510</v>
       </c>
@@ -15497,56 +15561,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="219" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="218"/>
+      <c r="C4" s="219"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="C5" s="217"/>
+      <c r="C5" s="218"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="218" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="217"/>
+      <c r="C6" s="218"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="218" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="218"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="218" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="217"/>
+      <c r="C8" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15579,11 +15643,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="220" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="222"/>
       <c r="J2" t="s">
         <v>510</v>
       </c>
@@ -15761,11 +15825,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="219" t="s">
         <v>585</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="62" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="819">
   <si>
     <t xml:space="preserve">OPERATION ARCTIC THUNDER </t>
   </si>
@@ -328,9 +328,6 @@
     <t>SRNTGT028</t>
   </si>
   <si>
-    <t>Apatity Reactor 1</t>
-  </si>
-  <si>
     <t>914ft</t>
   </si>
   <si>
@@ -343,25 +340,10 @@
     <t>SRNTGT029</t>
   </si>
   <si>
-    <t>Apatity Reactor 2</t>
-  </si>
-  <si>
     <t>N 67 32.819 E 033 43.871</t>
   </si>
   <si>
     <t>SRNTGT030</t>
-  </si>
-  <si>
-    <t>Kilp Yavr Air Defence Academy</t>
-  </si>
-  <si>
-    <t>738ft</t>
-  </si>
-  <si>
-    <t>Air Defence Testing and Training Area With Fortified Positions</t>
-  </si>
-  <si>
-    <t>N 69 05.198 E 032 28.729</t>
   </si>
   <si>
     <t>SRNTGT031</t>
@@ -2507,6 +2489,27 @@
   </si>
   <si>
     <t>N 67 22.758 E 032 29.667</t>
+  </si>
+  <si>
+    <t>Olenogorsk West Air Defense Academy</t>
+  </si>
+  <si>
+    <t>School for Notian Air Defense personel</t>
+  </si>
+  <si>
+    <t>Notian SAM test and training site</t>
+  </si>
+  <si>
+    <t>Field location for testing and training SAM units. Training area for SRNTGT030</t>
+  </si>
+  <si>
+    <t>248ft</t>
+  </si>
+  <si>
+    <t>Apatity Powerplant 1</t>
+  </si>
+  <si>
+    <t>Apatity Powerplant 2</t>
   </si>
 </sst>
 </file>
@@ -5317,10 +5320,10 @@
   <dimension ref="A1:K825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5341,7 +5344,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1">
       <c r="A1" s="178" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B1" s="179"/>
       <c r="C1" s="179"/>
@@ -5350,19 +5353,19 @@
       <c r="F1" s="179"/>
       <c r="G1" s="179"/>
       <c r="H1" s="160" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="I1" s="160" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J1" s="160" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" thickBot="1">
       <c r="A2" s="176" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B2" s="177"/>
       <c r="C2" s="104"/>
@@ -5371,7 +5374,7 @@
       <c r="F2" s="106"/>
       <c r="G2" s="107"/>
       <c r="H2" s="173" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="61"/>
@@ -5400,16 +5403,16 @@
         <v>9</v>
       </c>
       <c r="H3" s="161" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I3" s="161" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J3" s="161" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K3" s="174" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25">
@@ -5433,10 +5436,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I4" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
@@ -5462,14 +5465,14 @@
         <v>19</v>
       </c>
       <c r="H5" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I5" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J5" s="61"/>
       <c r="K5" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25">
@@ -5493,14 +5496,14 @@
         <v>23</v>
       </c>
       <c r="H6" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I6" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J6" s="61"/>
       <c r="K6" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25">
@@ -5524,14 +5527,14 @@
         <v>29</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I7" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25">
@@ -5555,10 +5558,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I8" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
@@ -5586,10 +5589,10 @@
         <v>38</v>
       </c>
       <c r="H9" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I9" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
@@ -5617,10 +5620,10 @@
         <v>38</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I10" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
@@ -5649,7 +5652,7 @@
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -5678,7 +5681,7 @@
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -5695,7 +5698,7 @@
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="130" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F13" s="131" t="s">
         <v>53</v>
@@ -5704,10 +5707,10 @@
         <v>38</v>
       </c>
       <c r="H13" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I13" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -5717,28 +5720,28 @@
         <v>54</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="4"/>
       <c r="E14" s="45" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G14" s="152" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I14" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25">
@@ -5746,30 +5749,30 @@
         <v>56</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C15" s="134">
         <v>11</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="130" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F15" s="131" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G15" s="151" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H15" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I15" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25">
@@ -5777,30 +5780,30 @@
         <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C16" s="98">
         <v>11</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="45" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G16" s="152" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H16" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J16" s="61"/>
       <c r="K16" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25">
@@ -5808,30 +5811,30 @@
         <v>58</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C17" s="134">
         <v>11</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="130" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F17" s="131" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G17" s="151" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H17" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I17" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J17" s="61"/>
       <c r="K17" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25">
@@ -5839,7 +5842,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C18" s="98">
         <v>1</v>
@@ -5849,16 +5852,16 @@
         <v>60</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G18" s="152" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H18" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I18" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -5868,26 +5871,26 @@
         <v>61</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C19" s="134">
         <v>6</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="130" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F19" s="131" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G19" s="151" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H19" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I19" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
@@ -5907,16 +5910,16 @@
         <v>60</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G20" s="152" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H20" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I20" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
@@ -5933,19 +5936,19 @@
       </c>
       <c r="D21" s="135"/>
       <c r="E21" s="130" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F21" s="131" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H21" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I21" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J21" s="61"/>
       <c r="K21" s="61"/>
@@ -5955,26 +5958,26 @@
         <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C22" s="98">
         <v>6</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="45" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="G22" s="152" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="H22" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I22" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
@@ -5984,14 +5987,14 @@
         <v>67</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C23" s="134">
         <v>6</v>
       </c>
       <c r="D23" s="135"/>
       <c r="E23" s="141" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F23" s="131" t="s">
         <v>69</v>
@@ -6000,10 +6003,10 @@
         <v>68</v>
       </c>
       <c r="H23" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I23" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
@@ -6013,14 +6016,14 @@
         <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C24" s="98">
         <v>1</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="45" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>72</v>
@@ -6029,10 +6032,10 @@
         <v>71</v>
       </c>
       <c r="H24" s="165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I24" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
@@ -6058,7 +6061,7 @@
         <v>75</v>
       </c>
       <c r="H25" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I25" s="60"/>
       <c r="J25" s="61"/>
@@ -6069,7 +6072,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C26" s="98">
         <v>2</v>
@@ -6079,11 +6082,13 @@
         <v>78</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="G26" s="152"/>
+        <v>777</v>
+      </c>
+      <c r="G26" s="152" t="s">
+        <v>816</v>
+      </c>
       <c r="H26" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="61"/>
@@ -6108,7 +6113,7 @@
         <v>81</v>
       </c>
       <c r="H27" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I27" s="60"/>
       <c r="J27" s="61"/>
@@ -6133,7 +6138,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I28" s="60"/>
       <c r="J28" s="61"/>
@@ -6158,7 +6163,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I29" s="60"/>
       <c r="J29" s="61"/>
@@ -6183,7 +6188,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="61"/>
@@ -6194,93 +6199,97 @@
         <v>98</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>99</v>
+        <v>817</v>
       </c>
       <c r="C31" s="128"/>
       <c r="D31" s="129"/>
       <c r="E31" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="131" t="s">
-        <v>102</v>
-      </c>
       <c r="G31" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="162" t="s">
-        <v>494</v>
-      </c>
-      <c r="I31" s="166"/>
+        <v>99</v>
+      </c>
+      <c r="H31" s="165" t="s">
+        <v>728</v>
+      </c>
+      <c r="I31" s="162" t="s">
+        <v>488</v>
+      </c>
       <c r="J31" s="167"/>
       <c r="K31" s="167"/>
     </row>
     <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>818</v>
       </c>
       <c r="C32" s="98"/>
       <c r="D32" s="4"/>
       <c r="E32" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="162" t="s">
-        <v>494</v>
-      </c>
-      <c r="I32" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="H32" s="165" t="s">
+        <v>728</v>
+      </c>
+      <c r="I32" s="162" t="s">
+        <v>488</v>
+      </c>
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A33" s="126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="128"/>
+        <v>812</v>
+      </c>
+      <c r="C33" s="128">
+        <v>4</v>
+      </c>
       <c r="D33" s="129"/>
       <c r="E33" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="131" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="164" t="s">
-        <v>494</v>
-      </c>
-      <c r="I33" s="166"/>
+        <v>813</v>
+      </c>
+      <c r="F33" s="131"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="165" t="s">
+        <v>728</v>
+      </c>
+      <c r="I33" s="162" t="s">
+        <v>488</v>
+      </c>
       <c r="J33" s="167"/>
       <c r="K33" s="167"/>
     </row>
     <row r="34" spans="1:11" s="42" customFormat="1" ht="14.25">
       <c r="A34" s="38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="40"/>
       <c r="E34" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H34" s="168"/>
       <c r="I34" s="168"/>
@@ -6289,21 +6298,21 @@
     </row>
     <row r="35" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A35" s="126" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C35" s="128"/>
       <c r="D35" s="129"/>
       <c r="E35" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F35" s="131" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G35" s="130" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H35" s="166"/>
       <c r="I35" s="166"/>
@@ -6312,21 +6321,21 @@
     </row>
     <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="4"/>
       <c r="E36" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G36" s="152" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
@@ -6335,21 +6344,21 @@
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A37" s="126" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B37" s="127" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C37" s="128"/>
       <c r="D37" s="129"/>
       <c r="E37" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F37" s="131" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G37" s="130" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H37" s="166"/>
       <c r="I37" s="166"/>
@@ -6358,21 +6367,21 @@
     </row>
     <row r="38" spans="1:11" ht="14.25">
       <c r="A38" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C38" s="98"/>
       <c r="D38" s="4"/>
       <c r="E38" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G38" s="152" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
@@ -6381,21 +6390,21 @@
     </row>
     <row r="39" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A39" s="126" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B39" s="127" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C39" s="128"/>
       <c r="D39" s="129"/>
       <c r="E39" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F39" s="131" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G39" s="130" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H39" s="166"/>
       <c r="I39" s="166"/>
@@ -6404,21 +6413,21 @@
     </row>
     <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C40" s="98"/>
       <c r="D40" s="4"/>
       <c r="E40" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G40" s="152" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
@@ -6427,21 +6436,21 @@
     </row>
     <row r="41" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A41" s="126" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B41" s="127" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C41" s="128"/>
       <c r="D41" s="129"/>
       <c r="E41" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F41" s="131" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G41" s="130" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H41" s="166"/>
       <c r="I41" s="166"/>
@@ -6450,21 +6459,21 @@
     </row>
     <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C42" s="98"/>
       <c r="D42" s="4"/>
       <c r="E42" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G42" s="152" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
@@ -6473,21 +6482,21 @@
     </row>
     <row r="43" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A43" s="126" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B43" s="127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C43" s="128"/>
       <c r="D43" s="129"/>
       <c r="E43" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F43" s="131" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G43" s="130" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H43" s="166"/>
       <c r="I43" s="166"/>
@@ -6496,21 +6505,21 @@
     </row>
     <row r="44" spans="1:11" ht="14.25">
       <c r="A44" s="24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C44" s="98"/>
       <c r="D44" s="4"/>
       <c r="E44" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G44" s="152" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
@@ -6519,21 +6528,21 @@
     </row>
     <row r="45" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A45" s="126" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B45" s="127" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C45" s="128"/>
       <c r="D45" s="129"/>
       <c r="E45" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F45" s="131" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G45" s="130" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H45" s="166"/>
       <c r="I45" s="166"/>
@@ -6542,21 +6551,21 @@
     </row>
     <row r="46" spans="1:11" ht="14.25">
       <c r="A46" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C46" s="98"/>
       <c r="D46" s="4"/>
       <c r="E46" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G46" s="152" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
@@ -6565,544 +6574,544 @@
     </row>
     <row r="47" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A47" s="126" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C47" s="128">
         <v>13</v>
       </c>
       <c r="D47" s="129"/>
       <c r="E47" s="130" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F47" s="131" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G47" s="130" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H47" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I47" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J47" s="167"/>
       <c r="K47" s="167"/>
     </row>
     <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C48" s="98">
         <v>13</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="45" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G48" s="152">
         <v>614</v>
       </c>
       <c r="H48" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I48" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J48" s="61"/>
       <c r="K48" s="61"/>
     </row>
     <row r="49" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A49" s="126" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B49" s="127" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C49" s="128">
         <v>10</v>
       </c>
       <c r="D49" s="129"/>
       <c r="E49" s="130" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F49" s="131" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G49" s="130">
         <v>564</v>
       </c>
       <c r="H49" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I49" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J49" s="167"/>
       <c r="K49" s="167"/>
     </row>
     <row r="50" spans="1:11" ht="14.25">
       <c r="A50" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C50" s="98">
         <v>14</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G50" s="152">
         <v>414</v>
       </c>
       <c r="H50" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I50" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J50" s="61"/>
       <c r="K50" s="61"/>
     </row>
     <row r="51" spans="1:11" s="50" customFormat="1" ht="14.25">
       <c r="A51" s="126" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B51" s="127" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C51" s="128" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D51" s="129"/>
       <c r="E51" s="130" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F51" s="131" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G51" s="130">
         <v>149</v>
       </c>
       <c r="H51" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I51" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J51" s="167"/>
       <c r="K51" s="167"/>
     </row>
     <row r="52" spans="1:11" ht="14.25">
       <c r="A52" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C52" s="98">
         <v>7</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="45" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G52" s="152">
         <v>14</v>
       </c>
       <c r="H52" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I52" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J52" s="61"/>
       <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11" ht="14.25">
       <c r="A53" s="126" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C53" s="134">
         <v>7</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="130" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F53" s="131" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G53" s="151">
         <v>385</v>
       </c>
       <c r="H53" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I53" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J53" s="61"/>
       <c r="K53" s="61"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C54" s="98">
         <v>6</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G54" s="152">
         <v>356</v>
       </c>
       <c r="H54" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I54" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J54" s="61"/>
       <c r="K54" s="61"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="126" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B55" s="127" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C55" s="128">
         <v>14</v>
       </c>
       <c r="D55" s="129"/>
       <c r="E55" s="130" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F55" s="131" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G55" s="130">
         <v>29</v>
       </c>
-      <c r="H55" s="162" t="s">
-        <v>494</v>
-      </c>
-      <c r="I55" s="170" t="s">
-        <v>494</v>
+      <c r="H55" s="171" t="s">
+        <v>728</v>
+      </c>
+      <c r="I55" s="162" t="s">
+        <v>488</v>
       </c>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C56" s="98">
         <v>8</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="45" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G56" s="152">
         <v>58</v>
       </c>
       <c r="H56" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I56" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J56" s="61"/>
       <c r="K56" s="61"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="126" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C57" s="134">
         <v>14</v>
       </c>
       <c r="D57" s="135"/>
       <c r="E57" s="130" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F57" s="131" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G57" s="151">
         <v>89</v>
       </c>
       <c r="H57" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I57" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J57" s="61"/>
       <c r="K57" s="61"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="45" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G58" s="152">
         <v>250</v>
       </c>
       <c r="H58" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I58" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J58" s="61"/>
       <c r="K58" s="61"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="126" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B59" s="127" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C59" s="128">
         <v>14</v>
       </c>
       <c r="D59" s="129"/>
       <c r="E59" s="130" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F59" s="136" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G59" s="130">
         <v>421</v>
       </c>
       <c r="H59" s="171" t="s">
-        <v>734</v>
-      </c>
-      <c r="I59" s="170" t="s">
-        <v>494</v>
+        <v>728</v>
+      </c>
+      <c r="I59" s="162" t="s">
+        <v>488</v>
       </c>
       <c r="J59" s="61"/>
       <c r="K59" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C60" s="98">
         <v>10</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="45" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G60" s="152">
         <v>539</v>
       </c>
       <c r="H60" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I60" s="170" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J60" s="61"/>
       <c r="K60" s="61"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="126" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C61" s="134">
         <v>14</v>
       </c>
       <c r="D61" s="135"/>
       <c r="E61" s="130" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F61" s="136" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G61" s="151">
         <v>440</v>
       </c>
       <c r="H61" s="171" t="s">
-        <v>734</v>
-      </c>
-      <c r="I61" s="163" t="s">
-        <v>494</v>
+        <v>728</v>
+      </c>
+      <c r="I61" s="162" t="s">
+        <v>488</v>
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="61" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.25">
       <c r="A62" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C62" s="98">
         <v>10</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="45" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G62" s="152">
         <v>525</v>
       </c>
       <c r="H62" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I62" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J62" s="61"/>
       <c r="K62" s="61"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="126" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B63" s="127" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C63" s="128">
         <v>3</v>
       </c>
       <c r="D63" s="129"/>
       <c r="E63" s="130" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F63" s="136" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G63" s="130">
         <v>77</v>
       </c>
       <c r="H63" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I63" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J63" s="61"/>
       <c r="K63" s="61"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C64" s="98">
         <v>2</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="45" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G64" s="152">
         <v>134</v>
       </c>
       <c r="H64" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I64" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J64" s="61"/>
       <c r="K64" s="61"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="126" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C65" s="134"/>
       <c r="D65" s="135"/>
       <c r="E65" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F65" s="136" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G65" s="151">
         <v>581</v>
@@ -7114,18 +7123,18 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="114" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C66" s="116"/>
       <c r="D66" s="117"/>
       <c r="E66" s="118" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F66" s="119" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G66" s="118">
         <v>463</v>
@@ -7137,18 +7146,18 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="126" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B67" s="127" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C67" s="128"/>
       <c r="D67" s="129"/>
       <c r="E67" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F67" s="136" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G67" s="130">
         <v>555</v>
@@ -7160,18 +7169,18 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C68" s="98"/>
       <c r="D68" s="4"/>
       <c r="E68" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F68" s="53" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G68" s="152">
         <v>364</v>
@@ -7183,18 +7192,18 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="126" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C69" s="134"/>
       <c r="D69" s="135"/>
       <c r="E69" s="130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F69" s="136" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G69" s="151">
         <v>269</v>
@@ -7206,18 +7215,18 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C70" s="98"/>
       <c r="D70" s="4"/>
       <c r="E70" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F70" s="53" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G70" s="152">
         <v>89</v>
@@ -7229,741 +7238,741 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="126" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B71" s="127" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C71" s="128">
         <v>2</v>
       </c>
       <c r="D71" s="129"/>
       <c r="E71" s="130" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F71" s="136" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G71" s="130">
         <v>281</v>
       </c>
       <c r="H71" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I71" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J71" s="175"/>
       <c r="K71" s="61"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C72" s="98">
         <v>2</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="45" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F72" s="53" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G72" s="152">
         <v>483</v>
       </c>
       <c r="H72" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I72" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J72" s="61"/>
       <c r="K72" s="61"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="126" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C73" s="134">
         <v>2</v>
       </c>
       <c r="D73" s="135"/>
       <c r="E73" s="130" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F73" s="136" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G73" s="151">
         <v>531</v>
       </c>
       <c r="H73" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I73" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J73" s="61"/>
       <c r="K73" s="61"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C74" s="98">
         <v>9</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="45" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G74" s="152"/>
       <c r="H74" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I74" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J74" s="61"/>
       <c r="K74" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="126" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B75" s="127" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C75" s="128">
         <v>9</v>
       </c>
       <c r="D75" s="129"/>
       <c r="E75" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="F75" s="131" t="s">
         <v>501</v>
-      </c>
-      <c r="F75" s="131" t="s">
-        <v>507</v>
       </c>
       <c r="G75" s="130"/>
       <c r="H75" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I75" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J75" s="61"/>
       <c r="K75" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C76" s="98">
         <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="45" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="G76" s="152" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H76" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I76" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J76" s="61"/>
       <c r="K76" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="126" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C77" s="134">
         <v>9</v>
       </c>
       <c r="D77" s="135"/>
       <c r="E77" s="130" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F77" s="131" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G77" s="151"/>
       <c r="H77" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I77" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J77" s="61"/>
       <c r="K77" s="61"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C78" s="98">
         <v>14</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="45" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G78" s="152">
         <v>335</v>
       </c>
       <c r="H78" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I78" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J78" s="61"/>
       <c r="K78" s="61"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="126" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B79" s="127" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C79" s="128">
         <v>10</v>
       </c>
       <c r="D79" s="129"/>
       <c r="E79" s="130" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F79" s="131" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G79" s="130">
         <v>16</v>
       </c>
       <c r="H79" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I79" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J79" s="61"/>
       <c r="K79" s="61"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C80" s="98">
         <v>10</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="45" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G80" s="152">
         <v>10</v>
       </c>
       <c r="H80" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I80" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J80" s="61"/>
       <c r="K80" s="61"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="126" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C81" s="134">
         <v>10</v>
       </c>
       <c r="D81" s="135"/>
       <c r="E81" s="130" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F81" s="131" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G81" s="151">
         <v>538</v>
       </c>
       <c r="H81" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I81" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J81" s="61"/>
       <c r="K81" s="61"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C82" s="98">
         <v>10</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="45" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G82" s="152">
         <v>455</v>
       </c>
       <c r="H82" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I82" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J82" s="61"/>
       <c r="K82" s="61"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="126" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B83" s="127" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C83" s="128">
         <v>14</v>
       </c>
       <c r="D83" s="129"/>
       <c r="E83" s="127" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F83" s="131" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G83" s="130">
         <v>517</v>
       </c>
       <c r="H83" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I83" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J83" s="61"/>
       <c r="K83" s="61"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C84" s="98" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F84" s="43" t="s">
         <v>669</v>
-      </c>
-      <c r="F84" s="43" t="s">
-        <v>675</v>
       </c>
       <c r="G84" s="152">
         <v>228</v>
       </c>
       <c r="H84" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I84" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J84" s="61"/>
       <c r="K84" s="61"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="126" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C85" s="134">
         <v>10</v>
       </c>
       <c r="D85" s="135"/>
       <c r="E85" s="130" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F85" s="131" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G85" s="151">
         <v>43</v>
       </c>
       <c r="H85" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I85" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J85" s="61"/>
       <c r="K85" s="61"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="24" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C86" s="98">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="46" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G86" s="152">
         <v>26</v>
       </c>
-      <c r="H86" s="162" t="s">
-        <v>494</v>
-      </c>
-      <c r="I86" s="163" t="s">
-        <v>494</v>
+      <c r="H86" s="171" t="s">
+        <v>728</v>
+      </c>
+      <c r="I86" s="162" t="s">
+        <v>488</v>
       </c>
       <c r="J86" s="61"/>
       <c r="K86" s="61"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="126" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B87" s="127" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C87" s="128">
         <v>10</v>
       </c>
       <c r="D87" s="129"/>
       <c r="E87" s="130" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F87" s="131" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G87" s="130">
         <v>200</v>
       </c>
       <c r="H87" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I87" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J87" s="61"/>
       <c r="K87" s="61"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="45" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G88" s="152">
         <v>330</v>
       </c>
       <c r="H88" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I88" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J88" s="61"/>
       <c r="K88" s="61"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="126" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B89" s="133" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C89" s="134">
         <v>7</v>
       </c>
       <c r="D89" s="135"/>
       <c r="E89" s="130" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F89" s="131" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G89" s="151">
         <v>1</v>
       </c>
       <c r="H89" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I89" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J89" s="61"/>
       <c r="K89" s="61"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="45" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G90" s="152">
         <v>109</v>
       </c>
       <c r="H90" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I90" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J90" s="61"/>
       <c r="K90" s="61"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B91" s="127" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C91" s="128">
         <v>9</v>
       </c>
       <c r="D91" s="129"/>
       <c r="E91" s="127" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F91" s="131" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G91" s="130">
         <v>286</v>
       </c>
       <c r="H91" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I91" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J91" s="61"/>
       <c r="K91" s="61"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C92" s="98">
         <v>6</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="45" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G92" s="152">
         <v>873</v>
       </c>
       <c r="H92" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I92" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J92" s="61"/>
       <c r="K92" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="126" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B93" s="137" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C93" s="128">
         <v>11</v>
       </c>
       <c r="D93" s="129"/>
       <c r="E93" s="130" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F93" s="131" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G93" s="130">
         <v>230</v>
       </c>
       <c r="H93" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I93" s="163" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J93" s="61"/>
       <c r="K93" s="61"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B94" s="120" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C94" s="121">
         <v>9</v>
       </c>
       <c r="D94" s="122"/>
       <c r="E94" s="125" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F94" s="123" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G94" s="153">
         <v>882</v>
       </c>
       <c r="H94" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I94" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J94" s="61"/>
       <c r="K94" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="126" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B95" s="127" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C95" s="128">
         <v>9</v>
       </c>
       <c r="D95" s="129"/>
       <c r="E95" s="132" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F95" s="138" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G95" s="130">
         <v>479</v>
       </c>
       <c r="H95" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I95" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J95" s="175"/>
       <c r="K95" s="61" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C96" s="98">
         <v>1</v>
@@ -7971,26 +7980,26 @@
       <c r="D96" s="4"/>
       <c r="E96" s="41"/>
       <c r="F96" s="61" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G96" s="152" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H96" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I96" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J96" s="61"/>
       <c r="K96" s="61"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="126" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B97" s="133" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C97" s="134">
         <v>1</v>
@@ -7998,57 +8007,57 @@
       <c r="D97" s="135"/>
       <c r="E97" s="132"/>
       <c r="F97" s="139" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G97" s="151" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H97" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I97" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J97" s="61"/>
       <c r="K97" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C98" s="98">
         <v>7</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="41" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F98" s="61" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G98" s="152" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="H98" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I98" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J98" s="61"/>
       <c r="K98" s="61"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="126" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B99" s="127" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C99" s="128">
         <v>7</v>
@@ -8056,120 +8065,120 @@
       <c r="D99" s="129"/>
       <c r="E99" s="132"/>
       <c r="F99" s="139" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G99" s="130" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H99" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I99" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J99" s="162" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K99" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C100" s="98">
         <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="41" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F100" s="61" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G100" s="152" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H100" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I100" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J100" s="61"/>
       <c r="K100" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="126" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B101" s="133" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C101" s="134">
         <v>9</v>
       </c>
       <c r="D101" s="135"/>
       <c r="E101" s="132" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F101" s="139" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G101" s="151" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="H101" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I101" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J101" s="61"/>
       <c r="K101" s="61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C102" s="98">
         <v>9</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="41" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F102" s="61" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G102" s="152" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H102" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I102" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J102" s="61"/>
       <c r="K102" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B103" s="47"/>
       <c r="C103" s="99"/>
@@ -8184,7 +8193,7 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="98"/>
@@ -8199,7 +8208,7 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="97"/>
@@ -8214,7 +8223,7 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="98"/>
@@ -8229,7 +8238,7 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B107" s="47"/>
       <c r="C107" s="99"/>
@@ -8244,7 +8253,7 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="98"/>
@@ -8259,7 +8268,7 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="97"/>
@@ -8274,7 +8283,7 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="98"/>
@@ -8289,7 +8298,7 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B111" s="47"/>
       <c r="C111" s="99"/>
@@ -8304,7 +8313,7 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="98"/>
@@ -8319,7 +8328,7 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="97"/>
@@ -8334,7 +8343,7 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="24" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="98"/>
@@ -8349,7 +8358,7 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="24" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B115" s="47"/>
       <c r="C115" s="99"/>
@@ -8364,7 +8373,7 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="98"/>
@@ -8379,7 +8388,7 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="24" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="97"/>
@@ -8394,7 +8403,7 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="24" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="98"/>
@@ -8409,7 +8418,7 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="24" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B119" s="47"/>
       <c r="C119" s="99"/>
@@ -8424,7 +8433,7 @@
     </row>
     <row r="120" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="98"/>
@@ -8439,7 +8448,7 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="97"/>
@@ -8454,7 +8463,7 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="24" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="98"/>
@@ -8469,7 +8478,7 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B123" s="47"/>
       <c r="C123" s="99"/>
@@ -8484,7 +8493,7 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="24" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="98"/>
@@ -8499,7 +8508,7 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="97"/>
@@ -8514,7 +8523,7 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="98"/>
@@ -8529,7 +8538,7 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B127" s="47"/>
       <c r="C127" s="99"/>
@@ -8544,7 +8553,7 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="98"/>
@@ -8559,7 +8568,7 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B129" s="47"/>
       <c r="C129" s="99"/>
@@ -8574,7 +8583,7 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="98"/>
@@ -8589,7 +8598,7 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B131" s="47"/>
       <c r="C131" s="99"/>
@@ -8604,7 +8613,7 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="98"/>
@@ -8619,7 +8628,7 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B133" s="47"/>
       <c r="C133" s="99"/>
@@ -8634,7 +8643,7 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="98"/>
@@ -8649,7 +8658,7 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="24" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B135" s="47"/>
       <c r="C135" s="99"/>
@@ -8664,7 +8673,7 @@
     </row>
     <row r="136" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="98"/>
@@ -8679,7 +8688,7 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B137" s="47"/>
       <c r="C137" s="99"/>
@@ -8694,7 +8703,7 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="98"/>
@@ -8709,7 +8718,7 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B139" s="47"/>
       <c r="C139" s="99"/>
@@ -8724,7 +8733,7 @@
     </row>
     <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="98"/>
@@ -8739,7 +8748,7 @@
     </row>
     <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B141" s="47"/>
       <c r="C141" s="99"/>
@@ -8754,7 +8763,7 @@
     </row>
     <row r="142" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="24" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="98"/>
@@ -8769,7 +8778,7 @@
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="24" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B143" s="47"/>
       <c r="C143" s="99"/>
@@ -8784,7 +8793,7 @@
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="98"/>
@@ -8799,7 +8808,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="24" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B145" s="47"/>
       <c r="C145" s="99"/>
@@ -8814,7 +8823,7 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="98"/>
@@ -8829,7 +8838,7 @@
     </row>
     <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B147" s="47"/>
       <c r="C147" s="99"/>
@@ -8844,7 +8853,7 @@
     </row>
     <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="98"/>
@@ -8859,7 +8868,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="24" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B149" s="47"/>
       <c r="C149" s="99"/>
@@ -8874,7 +8883,7 @@
     </row>
     <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="24" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="98"/>
@@ -8889,7 +8898,7 @@
     </row>
     <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B151" s="47"/>
       <c r="C151" s="99"/>
@@ -8904,7 +8913,7 @@
     </row>
     <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="24" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="98"/>
@@ -8919,7 +8928,7 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B153" s="47"/>
       <c r="C153" s="99"/>
@@ -8934,7 +8943,7 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="98"/>
@@ -8949,7 +8958,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B155" s="47"/>
       <c r="C155" s="99"/>
@@ -8964,7 +8973,7 @@
     </row>
     <row r="156" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="98"/>
@@ -8979,7 +8988,7 @@
     </row>
     <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="24" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B157" s="47"/>
       <c r="C157" s="99"/>
@@ -8994,7 +9003,7 @@
     </row>
     <row r="158" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="98"/>
@@ -9009,7 +9018,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B159" s="47"/>
       <c r="C159" s="99"/>
@@ -9024,7 +9033,7 @@
     </row>
     <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="24" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="98"/>
@@ -9039,7 +9048,7 @@
     </row>
     <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B161" s="47"/>
       <c r="C161" s="99"/>
@@ -9054,7 +9063,7 @@
     </row>
     <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="24" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="98"/>
@@ -9069,7 +9078,7 @@
     </row>
     <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="24" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B163" s="47"/>
       <c r="C163" s="99"/>
@@ -9084,7 +9093,7 @@
     </row>
     <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="98"/>
@@ -9099,7 +9108,7 @@
     </row>
     <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="24" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B165" s="47"/>
       <c r="C165" s="99"/>
@@ -9114,7 +9123,7 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="98"/>
@@ -9129,7 +9138,7 @@
     </row>
     <row r="167" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B167" s="47"/>
       <c r="C167" s="99"/>
@@ -9144,7 +9153,7 @@
     </row>
     <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="24" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="98"/>
@@ -9159,7 +9168,7 @@
     </row>
     <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B169" s="47"/>
       <c r="C169" s="99"/>
@@ -9174,7 +9183,7 @@
     </row>
     <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="98"/>
@@ -9189,7 +9198,7 @@
     </row>
     <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B171" s="47"/>
       <c r="C171" s="99"/>
@@ -9204,7 +9213,7 @@
     </row>
     <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="24" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="98"/>
@@ -9219,7 +9228,7 @@
     </row>
     <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="24" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B173" s="47"/>
       <c r="C173" s="99"/>
@@ -9234,7 +9243,7 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="24" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="98"/>
@@ -9249,7 +9258,7 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="24" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B175" s="47"/>
       <c r="C175" s="99"/>
@@ -9264,7 +9273,7 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="24" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="98"/>
@@ -9279,7 +9288,7 @@
     </row>
     <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="24" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B177" s="47"/>
       <c r="C177" s="99"/>
@@ -9294,7 +9303,7 @@
     </row>
     <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="24" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="98"/>
@@ -9309,7 +9318,7 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="24" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B179" s="47"/>
       <c r="C179" s="99"/>
@@ -9324,7 +9333,7 @@
     </row>
     <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="24" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="98"/>
@@ -9339,7 +9348,7 @@
     </row>
     <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B181" s="47"/>
       <c r="C181" s="99"/>
@@ -9354,7 +9363,7 @@
     </row>
     <row r="182" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="98"/>
@@ -9369,7 +9378,7 @@
     </row>
     <row r="183" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="24" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B183" s="47"/>
       <c r="C183" s="99"/>
@@ -9384,7 +9393,7 @@
     </row>
     <row r="184" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="98"/>
@@ -9399,7 +9408,7 @@
     </row>
     <row r="185" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B185" s="47"/>
       <c r="C185" s="99"/>
@@ -9414,7 +9423,7 @@
     </row>
     <row r="186" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="24" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="98"/>
@@ -9429,7 +9438,7 @@
     </row>
     <row r="187" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="24" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B187" s="47"/>
       <c r="C187" s="99"/>
@@ -9444,7 +9453,7 @@
     </row>
     <row r="188" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="98"/>
@@ -9459,7 +9468,7 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B189" s="47"/>
       <c r="C189" s="99"/>
@@ -9474,7 +9483,7 @@
     </row>
     <row r="190" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="24" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="98"/>
@@ -9489,7 +9498,7 @@
     </row>
     <row r="191" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="24" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B191" s="47"/>
       <c r="C191" s="99"/>
@@ -9504,7 +9513,7 @@
     </row>
     <row r="192" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="98"/>
@@ -9519,7 +9528,7 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B193" s="47"/>
       <c r="C193" s="99"/>
@@ -9534,7 +9543,7 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="98"/>
@@ -9549,7 +9558,7 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B195" s="47"/>
       <c r="C195" s="99"/>
@@ -9564,7 +9573,7 @@
     </row>
     <row r="196" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="98"/>
@@ -9579,7 +9588,7 @@
     </row>
     <row r="197" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="24" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B197" s="47"/>
       <c r="C197" s="99"/>
@@ -9594,7 +9603,7 @@
     </row>
     <row r="198" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="98"/>
@@ -9609,7 +9618,7 @@
     </row>
     <row r="199" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="24" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B199" s="47"/>
       <c r="C199" s="99"/>
@@ -9624,7 +9633,7 @@
     </row>
     <row r="200" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="98"/>
@@ -9639,7 +9648,7 @@
     </row>
     <row r="201" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="24" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B201" s="47"/>
       <c r="C201" s="99"/>
@@ -9654,7 +9663,7 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="98"/>
@@ -9669,7 +9678,7 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="24" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B203" s="47"/>
       <c r="C203" s="99"/>
@@ -9684,239 +9693,249 @@
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1">
       <c r="A204" s="126" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B204" s="133" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C204" s="134">
         <v>9</v>
       </c>
       <c r="D204" s="139"/>
       <c r="E204" s="140" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F204" s="139" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G204" s="155" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H204" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I204" s="162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J204" s="61"/>
       <c r="K204" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1">
       <c r="A205" s="114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C205" s="98">
         <v>9</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G205" s="156" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H205" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I205" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J205" s="61"/>
       <c r="K205" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1">
       <c r="A206" s="126" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B206" s="133" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C206" s="142">
         <v>9</v>
       </c>
       <c r="D206" s="133"/>
       <c r="E206" s="133" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F206" s="133" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G206" s="157" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H206" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I206" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J206" s="61"/>
       <c r="K206" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1">
       <c r="A207" s="114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B207" s="145" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C207" s="146">
         <v>9</v>
       </c>
       <c r="D207" s="145"/>
       <c r="E207" s="145" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F207" s="145" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G207" s="158" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H207" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I207" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J207" s="61"/>
       <c r="K207" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1">
       <c r="A208" s="126" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B208" s="147" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C208" s="148">
         <v>11</v>
       </c>
       <c r="D208" s="147"/>
       <c r="E208" s="147" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F208" s="147" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G208" s="159" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H208" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I208" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J208" s="61"/>
       <c r="K208" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1">
       <c r="A209" s="114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B209" s="145" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C209" s="146">
         <v>11</v>
       </c>
       <c r="D209" s="145"/>
       <c r="E209" s="145" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F209" s="145" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G209" s="158" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H209" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I209" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J209" s="61"/>
       <c r="K209" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1">
       <c r="A210" s="126" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B210" s="147" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C210" s="148">
         <v>2</v>
       </c>
       <c r="D210" s="147"/>
       <c r="E210" s="147" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F210" s="147" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G210" s="159" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="H210" s="171" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I210" s="164" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J210" s="61"/>
       <c r="K210" s="61" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1">
       <c r="A211" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="B211" s="145"/>
-      <c r="C211" s="146"/>
+        <v>221</v>
+      </c>
+      <c r="B211" s="145" t="s">
+        <v>814</v>
+      </c>
+      <c r="C211" s="146">
+        <v>4</v>
+      </c>
       <c r="D211" s="145"/>
-      <c r="E211" s="145"/>
+      <c r="E211" s="145" t="s">
+        <v>815</v>
+      </c>
       <c r="F211" s="145"/>
       <c r="G211" s="158"/>
-      <c r="H211" s="60"/>
-      <c r="I211" s="60"/>
+      <c r="H211" s="171" t="s">
+        <v>728</v>
+      </c>
+      <c r="I211" s="164" t="s">
+        <v>488</v>
+      </c>
       <c r="J211" s="61"/>
       <c r="K211" s="61"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1">
       <c r="A212" s="126" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B212" s="147"/>
       <c r="C212" s="148"/>
@@ -9931,7 +9950,7 @@
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1">
       <c r="A213" s="114" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B213" s="145"/>
       <c r="C213" s="146"/>
@@ -9946,7 +9965,7 @@
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1">
       <c r="A214" s="126" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B214" s="147"/>
       <c r="C214" s="148"/>
@@ -9961,7 +9980,7 @@
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="114" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B215" s="61"/>
       <c r="C215" s="143"/>
@@ -9972,7 +9991,7 @@
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1">
       <c r="A216" s="114" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B216" s="61"/>
       <c r="C216" s="143"/>
@@ -9983,7 +10002,7 @@
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="114" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B217" s="61"/>
       <c r="C217" s="143"/>
@@ -9994,7 +10013,7 @@
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1">
       <c r="A218" s="114" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B218" s="61"/>
       <c r="C218" s="143"/>
@@ -10005,7 +10024,7 @@
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="114" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B219" s="61"/>
       <c r="C219" s="143"/>
@@ -10016,7 +10035,7 @@
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1">
       <c r="A220" s="114" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B220" s="61"/>
       <c r="C220" s="143"/>
@@ -10027,7 +10046,7 @@
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1">
       <c r="A221" s="114" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B221" s="61"/>
       <c r="C221" s="143"/>
@@ -10038,7 +10057,7 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1">
       <c r="A222" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B222" s="61"/>
       <c r="C222" s="143"/>
@@ -10049,7 +10068,7 @@
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1">
       <c r="A223" s="114" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B223" s="61"/>
       <c r="C223" s="143"/>
@@ -10060,7 +10079,7 @@
     </row>
     <row r="224" spans="1:11" ht="15.75" customHeight="1">
       <c r="A224" s="114" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B224" s="61"/>
       <c r="C224" s="143"/>
@@ -10071,7 +10090,7 @@
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1">
       <c r="A225" s="114" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B225" s="61"/>
       <c r="C225" s="143"/>
@@ -10082,7 +10101,7 @@
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1">
       <c r="A226" s="114" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B226" s="61"/>
       <c r="C226" s="143"/>
@@ -10093,7 +10112,7 @@
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1">
       <c r="A227" s="114" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B227" s="61"/>
       <c r="C227" s="143"/>
@@ -10104,7 +10123,7 @@
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1">
       <c r="A228" s="114" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B228" s="61"/>
       <c r="C228" s="143"/>
@@ -10115,7 +10134,7 @@
     </row>
     <row r="229" spans="1:7" ht="15.75" customHeight="1">
       <c r="A229" s="114" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B229" s="61"/>
       <c r="C229" s="143"/>
@@ -10126,7 +10145,7 @@
     </row>
     <row r="230" spans="1:7" ht="15.75" customHeight="1">
       <c r="A230" s="114" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B230" s="61"/>
       <c r="C230" s="143"/>
@@ -10137,7 +10156,7 @@
     </row>
     <row r="231" spans="1:7" ht="15.75" customHeight="1">
       <c r="A231" s="114" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B231" s="61"/>
       <c r="C231" s="143"/>
@@ -10148,7 +10167,7 @@
     </row>
     <row r="232" spans="1:7" ht="15.75" customHeight="1">
       <c r="A232" s="114" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B232" s="61"/>
       <c r="C232" s="143"/>
@@ -10159,7 +10178,7 @@
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1">
       <c r="A233" s="114" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B233" s="61"/>
       <c r="C233" s="143"/>
@@ -10170,7 +10189,7 @@
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1">
       <c r="A234" s="114" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B234" s="61"/>
       <c r="C234" s="143"/>
@@ -10190,20 +10209,20 @@
     <row r="241" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="242" spans="1:8" ht="15.75" customHeight="1">
       <c r="A242" s="54" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C242" s="97">
         <v>3</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F242" s="53" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G242" s="28">
         <v>327</v>
@@ -10211,20 +10230,20 @@
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
       <c r="A243" s="54" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C243" s="98">
         <v>3</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="45" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F243" s="53" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G243" s="8">
         <v>514</v>
@@ -10232,20 +10251,20 @@
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1">
       <c r="A244" s="54" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C244" s="97">
         <v>9</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="46" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F244" s="53" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G244" s="28">
         <v>124</v>
@@ -10253,53 +10272,53 @@
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1">
       <c r="A245" s="54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C245" s="98">
         <v>9</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="45" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F245" s="43" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G245" s="8">
         <v>44</v>
       </c>
       <c r="H245" s="56" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
       <c r="A246" s="54" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C246" s="97">
         <v>11</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="46" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F246" s="43" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G246" s="28"/>
       <c r="H246" s="56" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
       <c r="A247" s="54" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="98"/>
@@ -10309,7 +10328,7 @@
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
       <c r="A248" s="54" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="97"/>
@@ -10319,7 +10338,7 @@
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1">
       <c r="A249" s="54" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="98"/>
@@ -10329,7 +10348,7 @@
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1">
       <c r="A250" s="54" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B250" s="47"/>
       <c r="C250" s="99"/>
@@ -10339,7 +10358,7 @@
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
       <c r="A251" s="54" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="98"/>
@@ -10349,7 +10368,7 @@
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
       <c r="A252" s="54" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="97"/>
@@ -10359,7 +10378,7 @@
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
       <c r="A253" s="54" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="98"/>
@@ -10369,7 +10388,7 @@
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1">
       <c r="A254" s="54" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B254" s="47"/>
       <c r="C254" s="99"/>
@@ -10379,7 +10398,7 @@
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1">
       <c r="A255" s="54" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="98"/>
@@ -10389,7 +10408,7 @@
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1">
       <c r="A256" s="54" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="97"/>
@@ -10399,7 +10418,7 @@
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1">
       <c r="A257" s="54" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="98"/>
@@ -10409,7 +10428,7 @@
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1">
       <c r="A258" s="54" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B258" s="47"/>
       <c r="C258" s="99"/>
@@ -10419,7 +10438,7 @@
     </row>
     <row r="259" spans="1:7" ht="15.75" customHeight="1">
       <c r="A259" s="54" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="98"/>
@@ -10429,7 +10448,7 @@
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1">
       <c r="A260" s="54" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="97"/>
@@ -10439,7 +10458,7 @@
     </row>
     <row r="261" spans="1:7" ht="15.75" customHeight="1">
       <c r="A261" s="54" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="98"/>
@@ -10449,7 +10468,7 @@
     </row>
     <row r="262" spans="1:7" ht="15.75" customHeight="1">
       <c r="A262" s="54" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B262" s="47"/>
       <c r="C262" s="99"/>
@@ -10459,7 +10478,7 @@
     </row>
     <row r="263" spans="1:7" ht="15.75" customHeight="1">
       <c r="A263" s="54" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="98"/>
@@ -10469,7 +10488,7 @@
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1">
       <c r="A264" s="54" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="97"/>
@@ -10479,7 +10498,7 @@
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1">
       <c r="A265" s="54" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="98"/>
@@ -10489,7 +10508,7 @@
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1">
       <c r="A266" s="54" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B266" s="47"/>
       <c r="C266" s="99"/>
@@ -10499,7 +10518,7 @@
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="54" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="98"/>
@@ -10509,7 +10528,7 @@
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1">
       <c r="A268" s="54" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="97"/>
@@ -10519,7 +10538,7 @@
     </row>
     <row r="269" spans="1:7" ht="15.75" customHeight="1">
       <c r="A269" s="54" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="98"/>
@@ -10529,7 +10548,7 @@
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1">
       <c r="A270" s="54" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B270" s="47"/>
       <c r="C270" s="99"/>
@@ -10539,7 +10558,7 @@
     </row>
     <row r="271" spans="1:7" ht="15.75" customHeight="1">
       <c r="A271" s="54" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="98"/>
@@ -10549,7 +10568,7 @@
     </row>
     <row r="272" spans="1:7" ht="15.75" customHeight="1">
       <c r="A272" s="54" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B272" s="47"/>
       <c r="C272" s="99"/>
@@ -10559,7 +10578,7 @@
     </row>
     <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="98"/>
@@ -10569,7 +10588,7 @@
     </row>
     <row r="274" spans="1:7" ht="15.75" customHeight="1">
       <c r="A274" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B274" s="47"/>
       <c r="C274" s="99"/>
@@ -10579,7 +10598,7 @@
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1">
       <c r="A275" s="54" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="98"/>
@@ -10589,7 +10608,7 @@
     </row>
     <row r="276" spans="1:7" ht="15.75" customHeight="1">
       <c r="A276" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B276" s="47"/>
       <c r="C276" s="99"/>
@@ -10599,7 +10618,7 @@
     </row>
     <row r="277" spans="1:7" ht="15.75" customHeight="1">
       <c r="A277" s="54" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="98"/>
@@ -10609,7 +10628,7 @@
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1">
       <c r="A278" s="54" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B278" s="47"/>
       <c r="C278" s="99"/>
@@ -10619,7 +10638,7 @@
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1">
       <c r="A279" s="54" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="98"/>
@@ -10629,7 +10648,7 @@
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1">
       <c r="A280" s="54" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B280" s="47"/>
       <c r="C280" s="99"/>
@@ -10639,7 +10658,7 @@
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1">
       <c r="A281" s="54" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="98"/>
@@ -10649,7 +10668,7 @@
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1">
       <c r="A282" s="54" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B282" s="47"/>
       <c r="C282" s="99"/>
@@ -10659,7 +10678,7 @@
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1">
       <c r="A283" s="54" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="98"/>
@@ -10669,7 +10688,7 @@
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1">
       <c r="A284" s="54" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B284" s="47"/>
       <c r="C284" s="99"/>
@@ -10679,7 +10698,7 @@
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1">
       <c r="A285" s="54" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="98"/>
@@ -10689,7 +10708,7 @@
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1">
       <c r="A286" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B286" s="47"/>
       <c r="C286" s="99"/>
@@ -10699,7 +10718,7 @@
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1">
       <c r="A287" s="54" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="98"/>
@@ -10709,7 +10728,7 @@
     </row>
     <row r="288" spans="1:7" ht="15.75" customHeight="1">
       <c r="A288" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B288" s="47"/>
       <c r="C288" s="99"/>
@@ -10719,7 +10738,7 @@
     </row>
     <row r="289" spans="1:7" ht="15.75" customHeight="1">
       <c r="A289" s="54" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="98"/>
@@ -10729,7 +10748,7 @@
     </row>
     <row r="290" spans="1:7" ht="15.75" customHeight="1">
       <c r="A290" s="54" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B290" s="47"/>
       <c r="C290" s="99"/>
@@ -10739,7 +10758,7 @@
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1">
       <c r="A291" s="54" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="98"/>
@@ -10749,7 +10768,7 @@
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1">
       <c r="A292" s="54" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B292" s="47"/>
       <c r="C292" s="99"/>
@@ -10759,7 +10778,7 @@
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1">
       <c r="A293" s="54" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="98"/>
@@ -10769,7 +10788,7 @@
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1">
       <c r="A294" s="54" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B294" s="47"/>
       <c r="C294" s="99"/>
@@ -10779,7 +10798,7 @@
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1">
       <c r="A295" s="54" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="98"/>
@@ -10789,7 +10808,7 @@
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1">
       <c r="A296" s="54" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B296" s="47"/>
       <c r="C296" s="99"/>
@@ -10799,7 +10818,7 @@
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1">
       <c r="A297" s="54" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="98"/>
@@ -10809,7 +10828,7 @@
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1">
       <c r="A298" s="54" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B298" s="47"/>
       <c r="C298" s="99"/>
@@ -10819,7 +10838,7 @@
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1">
       <c r="A299" s="54" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="98"/>
@@ -10829,7 +10848,7 @@
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1">
       <c r="A300" s="54" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B300" s="47"/>
       <c r="C300" s="99"/>
@@ -10839,7 +10858,7 @@
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1">
       <c r="A301" s="54" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="98"/>
@@ -10849,7 +10868,7 @@
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1">
       <c r="A302" s="54" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B302" s="47"/>
       <c r="C302" s="99"/>
@@ -10859,7 +10878,7 @@
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1">
       <c r="A303" s="54" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="98"/>
@@ -10869,7 +10888,7 @@
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1">
       <c r="A304" s="54" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B304" s="47"/>
       <c r="C304" s="99"/>
@@ -10879,7 +10898,7 @@
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1">
       <c r="A305" s="54" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="98"/>
@@ -10889,7 +10908,7 @@
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A306" s="54" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B306" s="47"/>
       <c r="C306" s="99"/>
@@ -10899,7 +10918,7 @@
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1">
       <c r="A307" s="54" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="98"/>
@@ -10909,7 +10928,7 @@
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1">
       <c r="A308" s="54" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B308" s="47"/>
       <c r="C308" s="99"/>
@@ -10919,7 +10938,7 @@
     </row>
     <row r="309" spans="1:7" ht="15.75" customHeight="1">
       <c r="A309" s="54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="98"/>
@@ -10929,7 +10948,7 @@
     </row>
     <row r="310" spans="1:7" ht="15.75" customHeight="1">
       <c r="A310" s="54" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B310" s="47"/>
       <c r="C310" s="99"/>
@@ -10939,7 +10958,7 @@
     </row>
     <row r="311" spans="1:7" ht="15.75" customHeight="1">
       <c r="A311" s="54" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="98"/>
@@ -10949,7 +10968,7 @@
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1">
       <c r="A312" s="54" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B312" s="47"/>
       <c r="C312" s="99"/>
@@ -10959,7 +10978,7 @@
     </row>
     <row r="313" spans="1:7" ht="15.75" customHeight="1">
       <c r="A313" s="54" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="98"/>
@@ -10969,7 +10988,7 @@
     </row>
     <row r="314" spans="1:7" ht="15.75" customHeight="1">
       <c r="A314" s="54" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B314" s="47"/>
       <c r="C314" s="99"/>
@@ -10979,7 +10998,7 @@
     </row>
     <row r="315" spans="1:7" ht="15.75" customHeight="1">
       <c r="A315" s="54" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="98"/>
@@ -10989,7 +11008,7 @@
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1">
       <c r="A316" s="54" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B316" s="47"/>
       <c r="C316" s="99"/>
@@ -10999,7 +11018,7 @@
     </row>
     <row r="317" spans="1:7" ht="15.75" customHeight="1">
       <c r="A317" s="54" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="98"/>
@@ -11009,7 +11028,7 @@
     </row>
     <row r="318" spans="1:7" ht="15.75" customHeight="1">
       <c r="A318" s="54" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B318" s="47"/>
       <c r="C318" s="99"/>
@@ -11019,7 +11038,7 @@
     </row>
     <row r="319" spans="1:7" ht="15.75" customHeight="1">
       <c r="A319" s="54" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="98"/>
@@ -11029,7 +11048,7 @@
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1">
       <c r="A320" s="54" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B320" s="47"/>
       <c r="C320" s="99"/>
@@ -11039,7 +11058,7 @@
     </row>
     <row r="321" spans="1:7" ht="15.75" customHeight="1">
       <c r="A321" s="54" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="98"/>
@@ -11049,7 +11068,7 @@
     </row>
     <row r="322" spans="1:7" ht="15.75" customHeight="1">
       <c r="A322" s="54" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B322" s="47"/>
       <c r="C322" s="99"/>
@@ -11059,7 +11078,7 @@
     </row>
     <row r="323" spans="1:7" ht="15.75" customHeight="1">
       <c r="A323" s="54" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="98"/>
@@ -11069,7 +11088,7 @@
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1">
       <c r="A324" s="54" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B324" s="47"/>
       <c r="C324" s="99"/>
@@ -11079,7 +11098,7 @@
     </row>
     <row r="325" spans="1:7" ht="15.75" customHeight="1">
       <c r="A325" s="54" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="98"/>
@@ -11089,7 +11108,7 @@
     </row>
     <row r="326" spans="1:7" ht="15.75" customHeight="1">
       <c r="A326" s="54" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B326" s="47"/>
       <c r="C326" s="99"/>
@@ -11099,7 +11118,7 @@
     </row>
     <row r="327" spans="1:7" ht="15.75" customHeight="1">
       <c r="A327" s="54" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="98"/>
@@ -11109,7 +11128,7 @@
     </row>
     <row r="328" spans="1:7" ht="15.75" customHeight="1">
       <c r="A328" s="54" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B328" s="47"/>
       <c r="C328" s="99"/>
@@ -11119,7 +11138,7 @@
     </row>
     <row r="329" spans="1:7" ht="15.75" customHeight="1">
       <c r="A329" s="54" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="98"/>
@@ -11129,7 +11148,7 @@
     </row>
     <row r="330" spans="1:7" ht="15.75" customHeight="1">
       <c r="A330" s="54" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B330" s="47"/>
       <c r="C330" s="99"/>
@@ -11139,7 +11158,7 @@
     </row>
     <row r="331" spans="1:7" ht="15.75" customHeight="1">
       <c r="A331" s="54" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="98"/>
@@ -11149,7 +11168,7 @@
     </row>
     <row r="332" spans="1:7" ht="15.75" customHeight="1">
       <c r="A332" s="54" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B332" s="47"/>
       <c r="C332" s="99"/>
@@ -11159,7 +11178,7 @@
     </row>
     <row r="333" spans="1:7" ht="15.75" customHeight="1">
       <c r="A333" s="54" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="98"/>
@@ -11169,7 +11188,7 @@
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1">
       <c r="A334" s="54" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B334" s="47"/>
       <c r="C334" s="99"/>
@@ -11179,7 +11198,7 @@
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1">
       <c r="A335" s="54" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="98"/>
@@ -11189,7 +11208,7 @@
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1">
       <c r="A336" s="54" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B336" s="47"/>
       <c r="C336" s="99"/>
@@ -11199,7 +11218,7 @@
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1">
       <c r="A337" s="54" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="98"/>
@@ -11209,7 +11228,7 @@
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1">
       <c r="A338" s="54" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B338" s="47"/>
       <c r="C338" s="99"/>
@@ -11219,7 +11238,7 @@
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1">
       <c r="A339" s="54" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="98"/>
@@ -11229,7 +11248,7 @@
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1">
       <c r="A340" s="54" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B340" s="47"/>
       <c r="C340" s="99"/>
@@ -11239,7 +11258,7 @@
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1">
       <c r="A341" s="54" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="98"/>
@@ -14660,7 +14679,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
       <c r="A1" s="202" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B1" s="203"/>
       <c r="C1" s="203"/>
@@ -14673,27 +14692,27 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="205" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B2" s="206"/>
       <c r="C2" s="83" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D2" s="207" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E2" s="208"/>
       <c r="F2" s="208"/>
       <c r="G2" s="209"/>
       <c r="H2" s="210" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I2" s="211"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="212" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B4" s="213"/>
       <c r="C4" s="213"/>
@@ -14706,16 +14725,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="84" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E5" s="85" t="s">
         <v>7</v>
@@ -14727,13 +14746,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="33.75">
@@ -14741,31 +14760,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="88" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>606</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>608</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>610</v>
+      </c>
+      <c r="H6" s="88" t="s">
         <v>611</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="I6" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="K6" s="196" t="s">
         <v>612</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>613</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>614</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>615</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>616</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>617</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>591</v>
-      </c>
-      <c r="K6" s="196" t="s">
-        <v>618</v>
       </c>
       <c r="L6" s="196"/>
       <c r="M6" s="196"/>
@@ -14779,31 +14798,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="88" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>617</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>618</v>
+      </c>
+      <c r="H7" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="I7" s="89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K7" s="196" t="s">
         <v>620</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>622</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>623</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>624</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>625</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>588</v>
-      </c>
-      <c r="K7" s="196" t="s">
-        <v>626</v>
       </c>
       <c r="L7" s="196"/>
       <c r="M7" s="196"/>
@@ -14817,28 +14836,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="88" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>624</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>625</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="H8" s="88" t="s">
         <v>627</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>628</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>629</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>631</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>632</v>
-      </c>
-      <c r="H8" s="88" t="s">
-        <v>633</v>
-      </c>
       <c r="I8" s="89" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -14919,7 +14938,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="197" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B15" s="198"/>
       <c r="C15" s="198"/>
@@ -14932,23 +14951,23 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="84" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E16" s="200" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F16" s="200"/>
       <c r="G16" s="200" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H16" s="200"/>
       <c r="I16" s="201"/>
@@ -14958,20 +14977,20 @@
         <v>1</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E17" s="192" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F17" s="193"/>
       <c r="G17" s="192" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H17" s="194"/>
       <c r="I17" s="195"/>
@@ -14981,20 +15000,20 @@
         <v>2</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E18" s="192" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F18" s="193"/>
       <c r="G18" s="192" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H18" s="194"/>
       <c r="I18" s="195"/>
@@ -15004,25 +15023,25 @@
         <v>3</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F19" s="193"/>
       <c r="G19" s="192" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H19" s="194"/>
       <c r="I19" s="195"/>
       <c r="K19" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15051,7 +15070,7 @@
       <c r="H21" s="182"/>
       <c r="I21" s="183"/>
       <c r="K21" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15190,7 +15209,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="20"/>
@@ -15243,7 +15262,7 @@
     <row r="5" spans="1:21" ht="15">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D5" s="30"/>
       <c r="K5" s="34"/>
@@ -15253,7 +15272,7 @@
     </row>
     <row r="6" spans="1:21" ht="15">
       <c r="B6" s="32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D6" s="33"/>
       <c r="K6" s="34"/>
@@ -15261,7 +15280,7 @@
     </row>
     <row r="7" spans="1:21" ht="15">
       <c r="B7" s="32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D7" s="33"/>
       <c r="K7" s="34"/>
@@ -15269,7 +15288,7 @@
     </row>
     <row r="8" spans="1:21" ht="15">
       <c r="B8" s="32" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D8" s="33"/>
       <c r="K8" s="34"/>
@@ -15280,14 +15299,14 @@
     </row>
     <row r="10" spans="1:21" ht="15">
       <c r="B10" s="31" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K10" s="34"/>
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="B11" s="32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K11" s="34"/>
       <c r="O11" s="37"/>
@@ -15319,19 +15338,19 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
       <c r="B2" s="217" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C2" s="217"/>
       <c r="O2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="58" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1">
@@ -15339,10 +15358,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -15350,10 +15369,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -15361,10 +15380,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -15372,10 +15391,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -15383,10 +15402,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -15394,10 +15413,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -15405,10 +15424,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -15416,10 +15435,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -15427,10 +15446,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -15438,10 +15457,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D13" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -15449,10 +15468,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -15460,10 +15479,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -15471,10 +15490,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -15482,10 +15501,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -15557,40 +15576,40 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="217" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="217"/>
       <c r="C3" s="217"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="62" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B4" s="219" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C4" s="219"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B5" s="218" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C5" s="218"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="63" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B6" s="218" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C6" s="218"/>
     </row>
@@ -15599,16 +15618,16 @@
         <v>27</v>
       </c>
       <c r="B7" s="218" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C7" s="218"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="63" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B8" s="218" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C8" s="218"/>
     </row>
@@ -15644,111 +15663,111 @@
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="220" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C2" s="221"/>
       <c r="D2" s="222"/>
       <c r="J2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="65" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="85.5">
       <c r="B4" s="67" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="71.25">
       <c r="B5" s="67" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="67" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="71.25">
       <c r="B7" s="67" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="85.5">
       <c r="B8" s="67" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="67" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="71.25">
       <c r="B10" s="67" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="73" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
@@ -15776,23 +15795,23 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="15">
       <c r="C4" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="15">
       <c r="C6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -15821,72 +15840,72 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="219" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B5" s="219"/>
       <c r="C5" s="219"/>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="62" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="77" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="57">
       <c r="A8" s="79" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1">
       <c r="A9" s="81" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57">
       <c r="A10" s="82" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -19,14 +19,14 @@
   <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="jqvuzJn8Lf/XHWAhwIuz09YQ2YQAYUhN1DjVsFh9M+Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="jqvuzJn8Lf/XHWAhwIuz09YQ2YQAYUhN1DjVsFh9M+Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="823">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>Main Metallurgy Plant</t>
   </si>
   <si>
-    <t>Basic industry</t>
-  </si>
-  <si>
     <t>N 69 00.150 E 033 07.336</t>
   </si>
   <si>
@@ -1144,16 +1141,10 @@
     <t>Tuloma Powerplant</t>
   </si>
   <si>
-    <t>Coal Powerplant</t>
-  </si>
-  <si>
     <t>N 68 48.803 E 032 41.408</t>
   </si>
   <si>
     <t>SRNTGT088</t>
-  </si>
-  <si>
-    <t>ARMY Fuel Storage (2ns Corps)</t>
   </si>
   <si>
     <t>N 69 26.053 E 030 54.534</t>
@@ -2510,6 +2501,24 @@
   </si>
   <si>
     <t>Defense against WMD (weapons of mass destruction), where consequences of failure unaceptable.</t>
+  </si>
+  <si>
+    <t>ARMY Fuel Storage (2nd Corps)</t>
+  </si>
+  <si>
+    <t>Powerplant that supports Murmansk International airport</t>
+  </si>
+  <si>
+    <t>Storage for rocket propellant for SCUDs and precursor chemicals for chemical weapons</t>
+  </si>
+  <si>
+    <t>Mixing of precursor chemicals into chemical weapon warhead</t>
+  </si>
+  <si>
+    <t>Production of chemical weapon warhead</t>
+  </si>
+  <si>
+    <t>Provides metal to most of Notias vehicle factories</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +2528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999]0000;General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2661,6 +2670,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3237,7 +3258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3615,25 +3636,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3647,17 +3663,22 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3666,14 +3687,26 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4932,10 +4965,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5592,7 +5625,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
@@ -5623,7 +5656,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
@@ -5654,7 +5687,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -5677,10 +5710,12 @@
       <c r="G25" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="8"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
@@ -5707,7 +5742,9 @@
       <c r="H26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
@@ -6595,7 +6632,7 @@
       <c r="H54" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="I54" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="2"/>
@@ -6629,7 +6666,7 @@
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
@@ -7510,19 +7547,19 @@
         <v>10</v>
       </c>
       <c r="D87" s="27"/>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="178" t="s">
+        <v>822</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>360</v>
       </c>
       <c r="G87" s="28">
         <v>200</v>
       </c>
-      <c r="H87" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="23" t="s">
+      <c r="H87" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J87" s="2"/>
@@ -7530,28 +7567,28 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="C88" s="32" t="s">
         <v>362</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>363</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G88" s="31">
         <v>330</v>
       </c>
-      <c r="H88" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="23" t="s">
+      <c r="H88" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I88" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J88" s="2"/>
@@ -7559,26 +7596,26 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>367</v>
       </c>
       <c r="C89" s="26">
         <v>7</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F89" s="24" t="s">
         <v>368</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>369</v>
       </c>
       <c r="G89" s="28">
         <v>1</v>
       </c>
-      <c r="H89" s="22" t="s">
-        <v>22</v>
+      <c r="H89" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>22</v>
@@ -7588,28 +7625,28 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B90" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="B90" s="29" t="s">
-        <v>371</v>
-      </c>
       <c r="C90" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="20" t="s">
-        <v>372</v>
+        <v>818</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G90" s="31">
         <v>109</v>
       </c>
-      <c r="H90" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="23" t="s">
+      <c r="H90" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J90" s="2"/>
@@ -7617,28 +7654,28 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>375</v>
+        <v>817</v>
       </c>
       <c r="C91" s="26">
         <v>9</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="25" t="s">
-        <v>375</v>
+        <v>817</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G91" s="28">
         <v>286</v>
       </c>
-      <c r="H91" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I91" s="23" t="s">
+      <c r="H91" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="2"/>
@@ -7646,20 +7683,20 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C92" s="32">
         <v>6</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G92" s="31">
         <v>873</v>
@@ -7667,7 +7704,7 @@
       <c r="H92" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J92" s="2"/>
@@ -7677,28 +7714,28 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C93" s="26">
         <v>11</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="28" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G93" s="28">
         <v>230</v>
       </c>
-      <c r="H93" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93" s="23" t="s">
+      <c r="H93" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I93" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J93" s="2"/>
@@ -7706,20 +7743,20 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C94" s="54">
         <v>9</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G94" s="58">
         <v>882</v>
@@ -7737,20 +7774,20 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C95" s="26">
         <v>9</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G95" s="28">
         <v>479</v>
@@ -7768,21 +7805,23 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C96" s="32">
         <v>1</v>
       </c>
       <c r="D96" s="30"/>
-      <c r="E96" s="60"/>
+      <c r="E96" s="177" t="s">
+        <v>821</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>66</v>
@@ -7795,21 +7834,23 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C97" s="26">
         <v>1</v>
       </c>
       <c r="D97" s="27"/>
-      <c r="E97" s="59"/>
+      <c r="E97" s="176" t="s">
+        <v>820</v>
+      </c>
       <c r="F97" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>66</v>
@@ -7824,23 +7865,23 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C98" s="32">
         <v>7</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="60" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H98" s="33" t="s">
         <v>66</v>
@@ -7850,26 +7891,28 @@
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="61" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C99" s="26">
         <v>7</v>
       </c>
       <c r="D99" s="27"/>
-      <c r="E99" s="59"/>
+      <c r="E99" s="175" t="s">
+        <v>819</v>
+      </c>
       <c r="F99" s="24" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H99" s="33" t="s">
         <v>66</v>
@@ -7881,28 +7924,28 @@
         <v>66</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C100" s="32">
         <v>9</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="60" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H100" s="33" t="s">
         <v>66</v>
@@ -7917,23 +7960,23 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C101" s="26">
         <v>9</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="59" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H101" s="33" t="s">
         <v>66</v>
@@ -7948,20 +7991,20 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C102" s="32">
         <v>9</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="60" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G102" s="31" t="s">
         <v>201</v>
@@ -7974,12 +8017,12 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B103" s="50"/>
       <c r="C103" s="62"/>
@@ -7994,7 +8037,7 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="32"/>
@@ -8009,7 +8052,7 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B105" s="50"/>
       <c r="C105" s="62"/>
@@ -8024,7 +8067,7 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="32"/>
@@ -8039,7 +8082,7 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B107" s="50"/>
       <c r="C107" s="62"/>
@@ -8054,7 +8097,7 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="32"/>
@@ -8069,7 +8112,7 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B109" s="50"/>
       <c r="C109" s="62"/>
@@ -8084,7 +8127,7 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="32"/>
@@ -8099,7 +8142,7 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B111" s="50"/>
       <c r="C111" s="62"/>
@@ -8114,7 +8157,7 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B112" s="29"/>
       <c r="C112" s="32"/>
@@ -8129,7 +8172,7 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B113" s="50"/>
       <c r="C113" s="62"/>
@@ -8144,7 +8187,7 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="32"/>
@@ -8159,7 +8202,7 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B115" s="50"/>
       <c r="C115" s="62"/>
@@ -8174,7 +8217,7 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B116" s="29"/>
       <c r="C116" s="32"/>
@@ -8189,7 +8232,7 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B117" s="50"/>
       <c r="C117" s="62"/>
@@ -8204,7 +8247,7 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B118" s="29"/>
       <c r="C118" s="32"/>
@@ -8219,7 +8262,7 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B119" s="50"/>
       <c r="C119" s="62"/>
@@ -8234,7 +8277,7 @@
     </row>
     <row r="120" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B120" s="29"/>
       <c r="C120" s="32"/>
@@ -8249,7 +8292,7 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B121" s="50"/>
       <c r="C121" s="62"/>
@@ -8264,7 +8307,7 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B122" s="29"/>
       <c r="C122" s="32"/>
@@ -8279,7 +8322,7 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B123" s="50"/>
       <c r="C123" s="62"/>
@@ -8294,7 +8337,7 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B124" s="29"/>
       <c r="C124" s="32"/>
@@ -8309,7 +8352,7 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B125" s="50"/>
       <c r="C125" s="62"/>
@@ -8324,7 +8367,7 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B126" s="29"/>
       <c r="C126" s="32"/>
@@ -8339,7 +8382,7 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B127" s="50"/>
       <c r="C127" s="62"/>
@@ -8354,7 +8397,7 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="32"/>
@@ -8369,7 +8412,7 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B129" s="50"/>
       <c r="C129" s="62"/>
@@ -8384,7 +8427,7 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B130" s="29"/>
       <c r="C130" s="32"/>
@@ -8399,7 +8442,7 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B131" s="50"/>
       <c r="C131" s="62"/>
@@ -8414,7 +8457,7 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B132" s="29"/>
       <c r="C132" s="32"/>
@@ -8429,7 +8472,7 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B133" s="50"/>
       <c r="C133" s="62"/>
@@ -8444,7 +8487,7 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B134" s="29"/>
       <c r="C134" s="32"/>
@@ -8459,7 +8502,7 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B135" s="50"/>
       <c r="C135" s="62"/>
@@ -8474,7 +8517,7 @@
     </row>
     <row r="136" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B136" s="29"/>
       <c r="C136" s="32"/>
@@ -8489,7 +8532,7 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B137" s="50"/>
       <c r="C137" s="62"/>
@@ -8504,7 +8547,7 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B138" s="29"/>
       <c r="C138" s="32"/>
@@ -8519,7 +8562,7 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B139" s="50"/>
       <c r="C139" s="62"/>
@@ -8534,7 +8577,7 @@
     </row>
     <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B140" s="29"/>
       <c r="C140" s="32"/>
@@ -8549,7 +8592,7 @@
     </row>
     <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B141" s="50"/>
       <c r="C141" s="62"/>
@@ -8564,7 +8607,7 @@
     </row>
     <row r="142" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="32"/>
@@ -8579,7 +8622,7 @@
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B143" s="50"/>
       <c r="C143" s="62"/>
@@ -8594,7 +8637,7 @@
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="32"/>
@@ -8609,7 +8652,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B145" s="50"/>
       <c r="C145" s="62"/>
@@ -8624,7 +8667,7 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="32"/>
@@ -8639,7 +8682,7 @@
     </row>
     <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B147" s="50"/>
       <c r="C147" s="62"/>
@@ -8654,7 +8697,7 @@
     </row>
     <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="32"/>
@@ -8669,7 +8712,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B149" s="50"/>
       <c r="C149" s="62"/>
@@ -8684,7 +8727,7 @@
     </row>
     <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="32"/>
@@ -8699,7 +8742,7 @@
     </row>
     <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B151" s="50"/>
       <c r="C151" s="62"/>
@@ -8714,7 +8757,7 @@
     </row>
     <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B152" s="29"/>
       <c r="C152" s="32"/>
@@ -8729,7 +8772,7 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B153" s="50"/>
       <c r="C153" s="62"/>
@@ -8744,7 +8787,7 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B154" s="29"/>
       <c r="C154" s="32"/>
@@ -8759,7 +8802,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B155" s="50"/>
       <c r="C155" s="62"/>
@@ -8774,7 +8817,7 @@
     </row>
     <row r="156" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B156" s="29"/>
       <c r="C156" s="32"/>
@@ -8789,7 +8832,7 @@
     </row>
     <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B157" s="50"/>
       <c r="C157" s="62"/>
@@ -8804,7 +8847,7 @@
     </row>
     <row r="158" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B158" s="29"/>
       <c r="C158" s="32"/>
@@ -8819,7 +8862,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B159" s="50"/>
       <c r="C159" s="62"/>
@@ -8834,7 +8877,7 @@
     </row>
     <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B160" s="29"/>
       <c r="C160" s="32"/>
@@ -8849,7 +8892,7 @@
     </row>
     <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B161" s="50"/>
       <c r="C161" s="62"/>
@@ -8864,7 +8907,7 @@
     </row>
     <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B162" s="29"/>
       <c r="C162" s="32"/>
@@ -8879,7 +8922,7 @@
     </row>
     <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B163" s="50"/>
       <c r="C163" s="62"/>
@@ -8894,7 +8937,7 @@
     </row>
     <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B164" s="29"/>
       <c r="C164" s="32"/>
@@ -8909,7 +8952,7 @@
     </row>
     <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B165" s="50"/>
       <c r="C165" s="62"/>
@@ -8924,7 +8967,7 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B166" s="29"/>
       <c r="C166" s="32"/>
@@ -8939,7 +8982,7 @@
     </row>
     <row r="167" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B167" s="50"/>
       <c r="C167" s="62"/>
@@ -8954,7 +8997,7 @@
     </row>
     <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B168" s="29"/>
       <c r="C168" s="32"/>
@@ -8969,7 +9012,7 @@
     </row>
     <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B169" s="50"/>
       <c r="C169" s="62"/>
@@ -8984,7 +9027,7 @@
     </row>
     <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B170" s="29"/>
       <c r="C170" s="32"/>
@@ -8999,7 +9042,7 @@
     </row>
     <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B171" s="50"/>
       <c r="C171" s="62"/>
@@ -9014,7 +9057,7 @@
     </row>
     <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B172" s="29"/>
       <c r="C172" s="32"/>
@@ -9029,7 +9072,7 @@
     </row>
     <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B173" s="50"/>
       <c r="C173" s="62"/>
@@ -9044,7 +9087,7 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B174" s="29"/>
       <c r="C174" s="32"/>
@@ -9059,7 +9102,7 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B175" s="50"/>
       <c r="C175" s="62"/>
@@ -9074,7 +9117,7 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B176" s="29"/>
       <c r="C176" s="32"/>
@@ -9089,7 +9132,7 @@
     </row>
     <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B177" s="50"/>
       <c r="C177" s="62"/>
@@ -9104,7 +9147,7 @@
     </row>
     <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B178" s="29"/>
       <c r="C178" s="32"/>
@@ -9119,7 +9162,7 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B179" s="50"/>
       <c r="C179" s="62"/>
@@ -9134,7 +9177,7 @@
     </row>
     <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B180" s="29"/>
       <c r="C180" s="32"/>
@@ -9149,7 +9192,7 @@
     </row>
     <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B181" s="50"/>
       <c r="C181" s="62"/>
@@ -9164,7 +9207,7 @@
     </row>
     <row r="182" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B182" s="29"/>
       <c r="C182" s="32"/>
@@ -9179,7 +9222,7 @@
     </row>
     <row r="183" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B183" s="50"/>
       <c r="C183" s="62"/>
@@ -9194,7 +9237,7 @@
     </row>
     <row r="184" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B184" s="29"/>
       <c r="C184" s="32"/>
@@ -9209,7 +9252,7 @@
     </row>
     <row r="185" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B185" s="50"/>
       <c r="C185" s="62"/>
@@ -9224,7 +9267,7 @@
     </row>
     <row r="186" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B186" s="29"/>
       <c r="C186" s="32"/>
@@ -9239,7 +9282,7 @@
     </row>
     <row r="187" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B187" s="50"/>
       <c r="C187" s="62"/>
@@ -9254,7 +9297,7 @@
     </row>
     <row r="188" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="32"/>
@@ -9269,7 +9312,7 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B189" s="50"/>
       <c r="C189" s="62"/>
@@ -9284,7 +9327,7 @@
     </row>
     <row r="190" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B190" s="29"/>
       <c r="C190" s="32"/>
@@ -9299,7 +9342,7 @@
     </row>
     <row r="191" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B191" s="50"/>
       <c r="C191" s="62"/>
@@ -9314,7 +9357,7 @@
     </row>
     <row r="192" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B192" s="29"/>
       <c r="C192" s="32"/>
@@ -9329,7 +9372,7 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B193" s="50"/>
       <c r="C193" s="62"/>
@@ -9344,7 +9387,7 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B194" s="29"/>
       <c r="C194" s="32"/>
@@ -9359,7 +9402,7 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B195" s="50"/>
       <c r="C195" s="62"/>
@@ -9374,7 +9417,7 @@
     </row>
     <row r="196" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B196" s="29"/>
       <c r="C196" s="32"/>
@@ -9389,7 +9432,7 @@
     </row>
     <row r="197" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B197" s="50"/>
       <c r="C197" s="62"/>
@@ -9404,7 +9447,7 @@
     </row>
     <row r="198" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B198" s="29"/>
       <c r="C198" s="32"/>
@@ -9419,7 +9462,7 @@
     </row>
     <row r="199" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B199" s="50"/>
       <c r="C199" s="62"/>
@@ -9434,7 +9477,7 @@
     </row>
     <row r="200" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B200" s="29"/>
       <c r="C200" s="32"/>
@@ -9449,7 +9492,7 @@
     </row>
     <row r="201" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B201" s="50"/>
       <c r="C201" s="62"/>
@@ -9464,7 +9507,7 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B202" s="29"/>
       <c r="C202" s="32"/>
@@ -9479,7 +9522,7 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B203" s="50"/>
       <c r="C203" s="62"/>
@@ -9494,23 +9537,23 @@
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1">
       <c r="A204" s="24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C204" s="26">
         <v>9</v>
       </c>
       <c r="D204" s="24"/>
       <c r="E204" s="65" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G204" s="66" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H204" s="33" t="s">
         <v>66</v>
@@ -9520,28 +9563,28 @@
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B205" s="29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C205" s="32">
         <v>9</v>
       </c>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F205" s="29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H205" s="33" t="s">
         <v>66</v>
@@ -9551,28 +9594,28 @@
       </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1">
       <c r="A206" s="24" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C206" s="68">
         <v>9</v>
       </c>
       <c r="D206" s="25"/>
       <c r="E206" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G206" s="69" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H206" s="33" t="s">
         <v>66</v>
@@ -9582,28 +9625,28 @@
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B207" s="70" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C207" s="71">
         <v>9</v>
       </c>
       <c r="D207" s="70"/>
       <c r="E207" s="70" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F207" s="70" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G207" s="72" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H207" s="33" t="s">
         <v>66</v>
@@ -9613,28 +9656,28 @@
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1">
       <c r="A208" s="24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B208" s="73" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C208" s="74">
         <v>11</v>
       </c>
       <c r="D208" s="73"/>
       <c r="E208" s="73" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F208" s="73" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G208" s="75" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H208" s="33" t="s">
         <v>66</v>
@@ -9644,28 +9687,28 @@
       </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B209" s="70" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C209" s="71">
         <v>11</v>
       </c>
       <c r="D209" s="70"/>
       <c r="E209" s="70" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F209" s="70" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G209" s="72" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H209" s="33" t="s">
         <v>66</v>
@@ -9675,28 +9718,28 @@
       </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1">
       <c r="A210" s="24" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B210" s="73" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C210" s="74">
         <v>2</v>
       </c>
       <c r="D210" s="73"/>
       <c r="E210" s="73" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F210" s="73" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G210" s="75" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H210" s="33" t="s">
         <v>66</v>
@@ -9706,22 +9749,22 @@
       </c>
       <c r="J210" s="2"/>
       <c r="K210" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B211" s="70" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C211" s="71">
         <v>4</v>
       </c>
       <c r="D211" s="70"/>
       <c r="E211" s="70" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F211" s="70"/>
       <c r="G211" s="72"/>
@@ -9736,7 +9779,7 @@
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1">
       <c r="A212" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B212" s="73"/>
       <c r="C212" s="74"/>
@@ -9751,7 +9794,7 @@
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B213" s="70"/>
       <c r="C213" s="71"/>
@@ -9766,7 +9809,7 @@
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1">
       <c r="A214" s="24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B214" s="73"/>
       <c r="C214" s="74"/>
@@ -9781,7 +9824,7 @@
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="76"/>
@@ -9794,7 +9837,7 @@
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="76"/>
@@ -9807,7 +9850,7 @@
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="76"/>
@@ -9820,7 +9863,7 @@
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="76"/>
@@ -9833,7 +9876,7 @@
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="76"/>
@@ -9846,7 +9889,7 @@
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="76"/>
@@ -9859,7 +9902,7 @@
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="76"/>
@@ -9872,7 +9915,7 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="76"/>
@@ -9885,7 +9928,7 @@
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="76"/>
@@ -9898,7 +9941,7 @@
     </row>
     <row r="224" spans="1:11" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="76"/>
@@ -9911,7 +9954,7 @@
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="76"/>
@@ -9924,7 +9967,7 @@
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="76"/>
@@ -9937,7 +9980,7 @@
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="76"/>
@@ -9950,7 +9993,7 @@
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="76"/>
@@ -9963,7 +10006,7 @@
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="76"/>
@@ -9976,7 +10019,7 @@
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="76"/>
@@ -9989,7 +10032,7 @@
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="76"/>
@@ -10002,7 +10045,7 @@
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="76"/>
@@ -10015,7 +10058,7 @@
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="76"/>
@@ -10028,7 +10071,7 @@
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="76"/>
@@ -10083,10 +10126,10 @@
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1">
       <c r="A242" s="80" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B242" s="50" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C242" s="62">
         <v>3</v>
@@ -10096,7 +10139,7 @@
         <v>276</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G242" s="64">
         <v>327</v>
@@ -10106,10 +10149,10 @@
     </row>
     <row r="243" spans="1:9" ht="15.75" customHeight="1">
       <c r="A243" s="80" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B243" s="29" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C243" s="32">
         <v>3</v>
@@ -10119,7 +10162,7 @@
         <v>276</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G243" s="81">
         <v>514</v>
@@ -10129,20 +10172,20 @@
     </row>
     <row r="244" spans="1:9" ht="15.75" customHeight="1">
       <c r="A244" s="80" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B244" s="50" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C244" s="62">
         <v>9</v>
       </c>
       <c r="D244" s="63"/>
       <c r="E244" s="51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G244" s="64">
         <v>124</v>
@@ -10152,20 +10195,20 @@
     </row>
     <row r="245" spans="1:9" ht="15.75" customHeight="1">
       <c r="A245" s="80" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B245" s="29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C245" s="32">
         <v>9</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G245" s="81">
         <v>44</v>
@@ -10177,20 +10220,20 @@
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1">
       <c r="A246" s="80" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B246" s="50" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C246" s="62">
         <v>11</v>
       </c>
       <c r="D246" s="63"/>
       <c r="E246" s="51" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G246" s="64"/>
       <c r="H246" s="82" t="s">
@@ -10200,7 +10243,7 @@
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1">
       <c r="A247" s="80" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B247" s="29"/>
       <c r="C247" s="32"/>
@@ -10213,7 +10256,7 @@
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1">
       <c r="A248" s="80" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B248" s="50"/>
       <c r="C248" s="62"/>
@@ -10226,7 +10269,7 @@
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1">
       <c r="A249" s="80" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B249" s="29"/>
       <c r="C249" s="32"/>
@@ -10239,7 +10282,7 @@
     </row>
     <row r="250" spans="1:9" ht="15.75" customHeight="1">
       <c r="A250" s="80" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B250" s="50"/>
       <c r="C250" s="62"/>
@@ -10252,7 +10295,7 @@
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1">
       <c r="A251" s="80" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B251" s="29"/>
       <c r="C251" s="32"/>
@@ -10265,7 +10308,7 @@
     </row>
     <row r="252" spans="1:9" ht="15.75" customHeight="1">
       <c r="A252" s="80" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B252" s="50"/>
       <c r="C252" s="62"/>
@@ -10278,7 +10321,7 @@
     </row>
     <row r="253" spans="1:9" ht="15.75" customHeight="1">
       <c r="A253" s="80" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B253" s="29"/>
       <c r="C253" s="32"/>
@@ -10291,7 +10334,7 @@
     </row>
     <row r="254" spans="1:9" ht="15.75" customHeight="1">
       <c r="A254" s="80" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B254" s="50"/>
       <c r="C254" s="62"/>
@@ -10304,7 +10347,7 @@
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1">
       <c r="A255" s="80" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B255" s="29"/>
       <c r="C255" s="32"/>
@@ -10317,7 +10360,7 @@
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1">
       <c r="A256" s="80" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B256" s="50"/>
       <c r="C256" s="62"/>
@@ -10330,7 +10373,7 @@
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1">
       <c r="A257" s="80" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B257" s="29"/>
       <c r="C257" s="32"/>
@@ -10343,7 +10386,7 @@
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1">
       <c r="A258" s="80" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B258" s="50"/>
       <c r="C258" s="62"/>
@@ -10356,7 +10399,7 @@
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1">
       <c r="A259" s="80" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B259" s="29"/>
       <c r="C259" s="32"/>
@@ -10369,7 +10412,7 @@
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1">
       <c r="A260" s="80" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B260" s="50"/>
       <c r="C260" s="62"/>
@@ -10382,7 +10425,7 @@
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1">
       <c r="A261" s="80" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B261" s="29"/>
       <c r="C261" s="32"/>
@@ -10395,7 +10438,7 @@
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1">
       <c r="A262" s="80" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B262" s="50"/>
       <c r="C262" s="62"/>
@@ -10408,7 +10451,7 @@
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1">
       <c r="A263" s="80" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B263" s="29"/>
       <c r="C263" s="32"/>
@@ -10421,7 +10464,7 @@
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1">
       <c r="A264" s="80" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B264" s="50"/>
       <c r="C264" s="62"/>
@@ -10434,7 +10477,7 @@
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1">
       <c r="A265" s="80" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B265" s="29"/>
       <c r="C265" s="32"/>
@@ -10447,7 +10490,7 @@
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1">
       <c r="A266" s="80" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B266" s="50"/>
       <c r="C266" s="62"/>
@@ -10460,7 +10503,7 @@
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1">
       <c r="A267" s="80" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B267" s="29"/>
       <c r="C267" s="32"/>
@@ -10473,7 +10516,7 @@
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1">
       <c r="A268" s="80" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B268" s="50"/>
       <c r="C268" s="62"/>
@@ -10486,7 +10529,7 @@
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1">
       <c r="A269" s="80" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B269" s="29"/>
       <c r="C269" s="32"/>
@@ -10499,7 +10542,7 @@
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1">
       <c r="A270" s="80" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B270" s="50"/>
       <c r="C270" s="62"/>
@@ -10512,7 +10555,7 @@
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1">
       <c r="A271" s="80" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B271" s="29"/>
       <c r="C271" s="32"/>
@@ -10525,7 +10568,7 @@
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1">
       <c r="A272" s="80" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B272" s="50"/>
       <c r="C272" s="62"/>
@@ -10538,7 +10581,7 @@
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1">
       <c r="A273" s="80" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B273" s="29"/>
       <c r="C273" s="32"/>
@@ -10551,7 +10594,7 @@
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1">
       <c r="A274" s="80" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B274" s="50"/>
       <c r="C274" s="62"/>
@@ -10564,7 +10607,7 @@
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1">
       <c r="A275" s="80" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B275" s="29"/>
       <c r="C275" s="32"/>
@@ -10577,7 +10620,7 @@
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1">
       <c r="A276" s="80" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B276" s="50"/>
       <c r="C276" s="62"/>
@@ -10590,7 +10633,7 @@
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1">
       <c r="A277" s="80" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B277" s="29"/>
       <c r="C277" s="32"/>
@@ -10603,7 +10646,7 @@
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1">
       <c r="A278" s="80" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B278" s="50"/>
       <c r="C278" s="62"/>
@@ -10616,7 +10659,7 @@
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1">
       <c r="A279" s="80" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B279" s="29"/>
       <c r="C279" s="32"/>
@@ -10629,7 +10672,7 @@
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1">
       <c r="A280" s="80" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B280" s="50"/>
       <c r="C280" s="62"/>
@@ -10642,7 +10685,7 @@
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1">
       <c r="A281" s="80" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B281" s="29"/>
       <c r="C281" s="32"/>
@@ -10655,7 +10698,7 @@
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1">
       <c r="A282" s="80" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B282" s="50"/>
       <c r="C282" s="62"/>
@@ -10668,7 +10711,7 @@
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1">
       <c r="A283" s="80" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B283" s="29"/>
       <c r="C283" s="32"/>
@@ -10681,7 +10724,7 @@
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1">
       <c r="A284" s="80" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B284" s="50"/>
       <c r="C284" s="62"/>
@@ -10694,7 +10737,7 @@
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1">
       <c r="A285" s="80" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B285" s="29"/>
       <c r="C285" s="32"/>
@@ -10707,7 +10750,7 @@
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1">
       <c r="A286" s="80" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B286" s="50"/>
       <c r="C286" s="62"/>
@@ -10720,7 +10763,7 @@
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1">
       <c r="A287" s="80" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B287" s="29"/>
       <c r="C287" s="32"/>
@@ -10733,7 +10776,7 @@
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1">
       <c r="A288" s="80" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B288" s="50"/>
       <c r="C288" s="62"/>
@@ -10746,7 +10789,7 @@
     </row>
     <row r="289" spans="1:9" ht="15.75" customHeight="1">
       <c r="A289" s="80" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B289" s="29"/>
       <c r="C289" s="32"/>
@@ -10759,7 +10802,7 @@
     </row>
     <row r="290" spans="1:9" ht="15.75" customHeight="1">
       <c r="A290" s="80" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B290" s="50"/>
       <c r="C290" s="62"/>
@@ -10772,7 +10815,7 @@
     </row>
     <row r="291" spans="1:9" ht="15.75" customHeight="1">
       <c r="A291" s="80" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B291" s="29"/>
       <c r="C291" s="32"/>
@@ -10785,7 +10828,7 @@
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1">
       <c r="A292" s="80" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B292" s="50"/>
       <c r="C292" s="62"/>
@@ -10798,7 +10841,7 @@
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1">
       <c r="A293" s="80" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B293" s="29"/>
       <c r="C293" s="32"/>
@@ -10811,7 +10854,7 @@
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1">
       <c r="A294" s="80" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B294" s="50"/>
       <c r="C294" s="62"/>
@@ -10824,7 +10867,7 @@
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1">
       <c r="A295" s="80" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B295" s="29"/>
       <c r="C295" s="32"/>
@@ -10837,7 +10880,7 @@
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1">
       <c r="A296" s="80" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B296" s="50"/>
       <c r="C296" s="62"/>
@@ -10850,7 +10893,7 @@
     </row>
     <row r="297" spans="1:9" ht="15.75" customHeight="1">
       <c r="A297" s="80" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B297" s="29"/>
       <c r="C297" s="32"/>
@@ -10863,7 +10906,7 @@
     </row>
     <row r="298" spans="1:9" ht="15.75" customHeight="1">
       <c r="A298" s="80" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B298" s="50"/>
       <c r="C298" s="62"/>
@@ -10876,7 +10919,7 @@
     </row>
     <row r="299" spans="1:9" ht="15.75" customHeight="1">
       <c r="A299" s="80" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B299" s="29"/>
       <c r="C299" s="32"/>
@@ -10889,7 +10932,7 @@
     </row>
     <row r="300" spans="1:9" ht="15.75" customHeight="1">
       <c r="A300" s="80" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B300" s="50"/>
       <c r="C300" s="62"/>
@@ -10902,7 +10945,7 @@
     </row>
     <row r="301" spans="1:9" ht="15.75" customHeight="1">
       <c r="A301" s="80" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B301" s="29"/>
       <c r="C301" s="32"/>
@@ -10915,7 +10958,7 @@
     </row>
     <row r="302" spans="1:9" ht="15.75" customHeight="1">
       <c r="A302" s="80" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B302" s="50"/>
       <c r="C302" s="62"/>
@@ -10928,7 +10971,7 @@
     </row>
     <row r="303" spans="1:9" ht="15.75" customHeight="1">
       <c r="A303" s="80" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B303" s="29"/>
       <c r="C303" s="32"/>
@@ -10941,7 +10984,7 @@
     </row>
     <row r="304" spans="1:9" ht="15.75" customHeight="1">
       <c r="A304" s="80" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B304" s="50"/>
       <c r="C304" s="62"/>
@@ -10954,7 +10997,7 @@
     </row>
     <row r="305" spans="1:9" ht="15.75" customHeight="1">
       <c r="A305" s="80" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B305" s="29"/>
       <c r="C305" s="32"/>
@@ -10967,7 +11010,7 @@
     </row>
     <row r="306" spans="1:9" ht="15.75" customHeight="1">
       <c r="A306" s="80" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B306" s="50"/>
       <c r="C306" s="62"/>
@@ -10980,7 +11023,7 @@
     </row>
     <row r="307" spans="1:9" ht="15.75" customHeight="1">
       <c r="A307" s="80" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B307" s="29"/>
       <c r="C307" s="32"/>
@@ -10993,7 +11036,7 @@
     </row>
     <row r="308" spans="1:9" ht="15.75" customHeight="1">
       <c r="A308" s="80" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B308" s="50"/>
       <c r="C308" s="62"/>
@@ -11006,7 +11049,7 @@
     </row>
     <row r="309" spans="1:9" ht="15.75" customHeight="1">
       <c r="A309" s="80" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B309" s="29"/>
       <c r="C309" s="32"/>
@@ -11019,7 +11062,7 @@
     </row>
     <row r="310" spans="1:9" ht="15.75" customHeight="1">
       <c r="A310" s="80" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B310" s="50"/>
       <c r="C310" s="62"/>
@@ -11032,7 +11075,7 @@
     </row>
     <row r="311" spans="1:9" ht="15.75" customHeight="1">
       <c r="A311" s="80" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B311" s="29"/>
       <c r="C311" s="32"/>
@@ -11045,7 +11088,7 @@
     </row>
     <row r="312" spans="1:9" ht="15.75" customHeight="1">
       <c r="A312" s="80" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B312" s="50"/>
       <c r="C312" s="62"/>
@@ -11058,7 +11101,7 @@
     </row>
     <row r="313" spans="1:9" ht="15.75" customHeight="1">
       <c r="A313" s="80" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B313" s="29"/>
       <c r="C313" s="32"/>
@@ -11071,7 +11114,7 @@
     </row>
     <row r="314" spans="1:9" ht="15.75" customHeight="1">
       <c r="A314" s="80" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B314" s="50"/>
       <c r="C314" s="62"/>
@@ -11084,7 +11127,7 @@
     </row>
     <row r="315" spans="1:9" ht="15.75" customHeight="1">
       <c r="A315" s="80" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B315" s="29"/>
       <c r="C315" s="32"/>
@@ -11097,7 +11140,7 @@
     </row>
     <row r="316" spans="1:9" ht="15.75" customHeight="1">
       <c r="A316" s="80" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B316" s="50"/>
       <c r="C316" s="62"/>
@@ -11110,7 +11153,7 @@
     </row>
     <row r="317" spans="1:9" ht="15.75" customHeight="1">
       <c r="A317" s="80" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B317" s="29"/>
       <c r="C317" s="32"/>
@@ -11123,7 +11166,7 @@
     </row>
     <row r="318" spans="1:9" ht="15.75" customHeight="1">
       <c r="A318" s="80" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B318" s="50"/>
       <c r="C318" s="62"/>
@@ -11136,7 +11179,7 @@
     </row>
     <row r="319" spans="1:9" ht="15.75" customHeight="1">
       <c r="A319" s="80" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B319" s="29"/>
       <c r="C319" s="32"/>
@@ -11149,7 +11192,7 @@
     </row>
     <row r="320" spans="1:9" ht="15.75" customHeight="1">
       <c r="A320" s="80" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B320" s="50"/>
       <c r="C320" s="62"/>
@@ -11162,7 +11205,7 @@
     </row>
     <row r="321" spans="1:9" ht="15.75" customHeight="1">
       <c r="A321" s="80" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B321" s="29"/>
       <c r="C321" s="32"/>
@@ -11175,7 +11218,7 @@
     </row>
     <row r="322" spans="1:9" ht="15.75" customHeight="1">
       <c r="A322" s="80" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B322" s="50"/>
       <c r="C322" s="62"/>
@@ -11188,7 +11231,7 @@
     </row>
     <row r="323" spans="1:9" ht="15.75" customHeight="1">
       <c r="A323" s="80" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B323" s="29"/>
       <c r="C323" s="32"/>
@@ -11201,7 +11244,7 @@
     </row>
     <row r="324" spans="1:9" ht="15.75" customHeight="1">
       <c r="A324" s="80" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B324" s="50"/>
       <c r="C324" s="62"/>
@@ -11214,7 +11257,7 @@
     </row>
     <row r="325" spans="1:9" ht="15.75" customHeight="1">
       <c r="A325" s="80" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B325" s="29"/>
       <c r="C325" s="32"/>
@@ -11227,7 +11270,7 @@
     </row>
     <row r="326" spans="1:9" ht="15.75" customHeight="1">
       <c r="A326" s="80" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B326" s="50"/>
       <c r="C326" s="62"/>
@@ -11240,7 +11283,7 @@
     </row>
     <row r="327" spans="1:9" ht="15.75" customHeight="1">
       <c r="A327" s="80" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B327" s="29"/>
       <c r="C327" s="32"/>
@@ -11253,7 +11296,7 @@
     </row>
     <row r="328" spans="1:9" ht="15.75" customHeight="1">
       <c r="A328" s="80" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B328" s="50"/>
       <c r="C328" s="62"/>
@@ -11266,7 +11309,7 @@
     </row>
     <row r="329" spans="1:9" ht="15.75" customHeight="1">
       <c r="A329" s="80" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B329" s="29"/>
       <c r="C329" s="32"/>
@@ -11279,7 +11322,7 @@
     </row>
     <row r="330" spans="1:9" ht="15.75" customHeight="1">
       <c r="A330" s="80" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B330" s="50"/>
       <c r="C330" s="62"/>
@@ -11292,7 +11335,7 @@
     </row>
     <row r="331" spans="1:9" ht="15.75" customHeight="1">
       <c r="A331" s="80" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B331" s="29"/>
       <c r="C331" s="32"/>
@@ -11305,7 +11348,7 @@
     </row>
     <row r="332" spans="1:9" ht="15.75" customHeight="1">
       <c r="A332" s="80" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B332" s="50"/>
       <c r="C332" s="62"/>
@@ -11318,7 +11361,7 @@
     </row>
     <row r="333" spans="1:9" ht="15.75" customHeight="1">
       <c r="A333" s="80" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B333" s="29"/>
       <c r="C333" s="32"/>
@@ -11331,7 +11374,7 @@
     </row>
     <row r="334" spans="1:9" ht="15.75" customHeight="1">
       <c r="A334" s="80" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B334" s="50"/>
       <c r="C334" s="62"/>
@@ -11344,7 +11387,7 @@
     </row>
     <row r="335" spans="1:9" ht="15.75" customHeight="1">
       <c r="A335" s="80" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B335" s="29"/>
       <c r="C335" s="32"/>
@@ -11357,7 +11400,7 @@
     </row>
     <row r="336" spans="1:9" ht="15.75" customHeight="1">
       <c r="A336" s="80" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B336" s="50"/>
       <c r="C336" s="62"/>
@@ -11370,7 +11413,7 @@
     </row>
     <row r="337" spans="1:9" ht="15.75" customHeight="1">
       <c r="A337" s="80" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B337" s="29"/>
       <c r="C337" s="32"/>
@@ -11383,7 +11426,7 @@
     </row>
     <row r="338" spans="1:9" ht="15.75" customHeight="1">
       <c r="A338" s="80" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B338" s="50"/>
       <c r="C338" s="62"/>
@@ -11396,7 +11439,7 @@
     </row>
     <row r="339" spans="1:9" ht="15.75" customHeight="1">
       <c r="A339" s="80" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B339" s="29"/>
       <c r="C339" s="32"/>
@@ -11409,7 +11452,7 @@
     </row>
     <row r="340" spans="1:9" ht="15.75" customHeight="1">
       <c r="A340" s="80" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B340" s="50"/>
       <c r="C340" s="62"/>
@@ -11422,7 +11465,7 @@
     </row>
     <row r="341" spans="1:9" ht="15.75" customHeight="1">
       <c r="A341" s="80" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B341" s="29"/>
       <c r="C341" s="32"/>
@@ -16193,8 +16236,8 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16219,81 +16262,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="162" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A2" s="165" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="87" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="166" t="s">
         <v>668</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A2" s="150" t="s">
-        <v>669</v>
-      </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="87" t="s">
-        <v>670</v>
-      </c>
-      <c r="D2" s="152" t="s">
-        <v>671</v>
       </c>
       <c r="E2" s="153"/>
       <c r="F2" s="153"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="154" t="s">
-        <v>672</v>
-      </c>
-      <c r="I2" s="155"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="167" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="154"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A4" s="156" t="s">
-        <v>673</v>
-      </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="149"/>
+      <c r="A4" s="168" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="A5" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>673</v>
+      </c>
+      <c r="D5" s="89" t="s">
         <v>674</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="E5" s="89" t="s">
         <v>675</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="F5" s="89" t="s">
         <v>676</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>677</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>678</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>679</v>
       </c>
       <c r="G5" s="89" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1">
@@ -16301,104 +16344,104 @@
         <v>1</v>
       </c>
       <c r="B6" s="93" t="s">
+        <v>680</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>682</v>
+      </c>
+      <c r="E6" s="93" t="s">
         <v>683</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="F6" s="93" t="s">
         <v>684</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="G6" s="93" t="s">
         <v>685</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="H6" s="93" t="s">
         <v>686</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="I6" s="94" t="s">
         <v>687</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="K6" s="156" t="s">
         <v>688</v>
       </c>
-      <c r="H6" s="93" t="s">
-        <v>689</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>690</v>
-      </c>
-      <c r="K6" s="157" t="s">
-        <v>691</v>
-      </c>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="92">
         <v>2</v>
       </c>
       <c r="B7" s="93" t="s">
+        <v>689</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>691</v>
+      </c>
+      <c r="E7" s="93" t="s">
         <v>692</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="F7" s="93" t="s">
         <v>693</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="G7" s="93" t="s">
         <v>694</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="H7" s="93" t="s">
         <v>695</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="I7" s="94" t="s">
         <v>696</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="K7" s="156" t="s">
         <v>697</v>
       </c>
-      <c r="H7" s="93" t="s">
-        <v>698</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>699</v>
-      </c>
-      <c r="K7" s="157" t="s">
-        <v>700</v>
-      </c>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="A8" s="92">
         <v>3</v>
       </c>
       <c r="B8" s="93" t="s">
+        <v>698</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>699</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>700</v>
+      </c>
+      <c r="E8" s="93" t="s">
         <v>701</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="F8" s="93" t="s">
         <v>702</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="G8" s="93" t="s">
         <v>703</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="H8" s="93" t="s">
         <v>704</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="I8" s="94" t="s">
         <v>705</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>706</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>707</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1">
@@ -16478,111 +16521,111 @@
       <c r="I14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A15" s="159" t="s">
-        <v>709</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="161"/>
+      <c r="A15" s="158" t="s">
+        <v>706</v>
+      </c>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="A16" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" s="89" t="s">
         <v>674</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="C16" s="89" t="s">
         <v>677</v>
       </c>
-      <c r="C16" s="89" t="s">
-        <v>680</v>
-      </c>
       <c r="D16" s="89" t="s">
-        <v>681</v>
-      </c>
-      <c r="E16" s="162" t="s">
-        <v>710</v>
-      </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="162" t="s">
-        <v>711</v>
-      </c>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
+        <v>678</v>
+      </c>
+      <c r="E16" s="161" t="s">
+        <v>707</v>
+      </c>
+      <c r="F16" s="148"/>
+      <c r="G16" s="161" t="s">
+        <v>708</v>
+      </c>
+      <c r="H16" s="151"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="99">
         <v>1</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>708</v>
-      </c>
-      <c r="E17" s="166" t="s">
-        <v>713</v>
-      </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="166" t="s">
-        <v>714</v>
-      </c>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
+        <v>705</v>
+      </c>
+      <c r="E17" s="155" t="s">
+        <v>710</v>
+      </c>
+      <c r="F17" s="148"/>
+      <c r="G17" s="155" t="s">
+        <v>711</v>
+      </c>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="99">
         <v>2</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>708</v>
-      </c>
-      <c r="E18" s="166" t="s">
+        <v>705</v>
+      </c>
+      <c r="E18" s="155" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18" s="148"/>
+      <c r="G18" s="155" t="s">
         <v>713</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="166" t="s">
-        <v>716</v>
-      </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="99">
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>695</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>715</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>716</v>
+      </c>
+      <c r="F19" s="148"/>
+      <c r="G19" s="155" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="93" t="s">
-        <v>698</v>
-      </c>
-      <c r="D19" s="93" t="s">
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="K19" s="91" t="s">
         <v>718</v>
-      </c>
-      <c r="E19" s="166" t="s">
-        <v>719</v>
-      </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="166" t="s">
-        <v>720</v>
-      </c>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
-      <c r="K19" s="91" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
@@ -16592,11 +16635,11 @@
       <c r="B20" s="100"/>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="152"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="99">
@@ -16605,13 +16648,13 @@
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
       <c r="K21" s="91" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
@@ -16621,11 +16664,11 @@
       <c r="B22" s="100"/>
       <c r="C22" s="100"/>
       <c r="D22" s="100"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="99">
@@ -16634,11 +16677,11 @@
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
       <c r="D23" s="100"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="99">
@@ -16647,11 +16690,11 @@
       <c r="B24" s="100"/>
       <c r="C24" s="100"/>
       <c r="D24" s="100"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="99">
@@ -16660,11 +16703,11 @@
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
       <c r="D25" s="100"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="101">
@@ -16673,11 +16716,11 @@
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="168"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="153"/>
-      <c r="I26" s="155"/>
+      <c r="I26" s="154"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
@@ -17655,14 +17698,16 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -17675,16 +17720,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17719,13 +17762,13 @@
       <c r="A1" s="102"/>
       <c r="B1" s="103"/>
       <c r="C1" s="103" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D1" s="103"/>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
       <c r="G1" s="103" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H1" s="103"/>
       <c r="I1" s="104"/>
@@ -17733,7 +17776,7 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
       <c r="A2" s="169" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B2" s="170"/>
       <c r="C2" s="146"/>
@@ -17750,7 +17793,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>7</v>
@@ -17762,10 +17805,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="113" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G3" s="113" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H3" s="116" t="s">
         <v>12</v>
@@ -17784,7 +17827,7 @@
     <row r="5" spans="1:21" ht="14.25" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="118" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D5" s="98"/>
       <c r="K5" s="119"/>
@@ -17794,7 +17837,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1">
       <c r="B6" s="120" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D6" s="98"/>
       <c r="K6" s="119"/>
@@ -17802,7 +17845,7 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1">
       <c r="B7" s="120" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D7" s="98"/>
       <c r="K7" s="119"/>
@@ -17810,7 +17853,7 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1">
       <c r="B8" s="120" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D8" s="98"/>
       <c r="K8" s="119"/>
@@ -17822,14 +17865,14 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1">
       <c r="B10" s="118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K10" s="119"/>
       <c r="O10" s="105"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1">
       <c r="B11" s="120" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K11" s="119"/>
       <c r="O11" s="105"/>
@@ -20829,19 +20872,19 @@
     <row r="1" spans="2:15" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1">
       <c r="B2" s="171" t="s">
-        <v>733</v>
-      </c>
-      <c r="C2" s="163"/>
+        <v>730</v>
+      </c>
+      <c r="C2" s="148"/>
       <c r="O2" s="91" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="121" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1">
@@ -20849,10 +20892,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1">
@@ -20860,10 +20903,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="14.25" customHeight="1">
@@ -20871,10 +20914,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1">
@@ -20882,10 +20925,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1">
@@ -20893,10 +20936,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="14.25" customHeight="1">
@@ -20904,10 +20947,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="14.25" customHeight="1">
@@ -20915,10 +20958,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -20926,10 +20969,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" customHeight="1">
@@ -20937,10 +20980,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="14.25" customHeight="1">
@@ -20948,10 +20991,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="14.25" customHeight="1">
@@ -20959,10 +21002,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="14.25" customHeight="1">
@@ -20970,10 +21013,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="14.25" customHeight="1">
@@ -20981,10 +21024,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.25" customHeight="1">
@@ -20992,10 +21035,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.25" customHeight="1">
@@ -22041,60 +22084,60 @@
     <row r="1" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
       <c r="J2" s="91" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="171" t="s">
-        <v>766</v>
-      </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="163"/>
+        <v>763</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="148"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="123" t="s">
-        <v>674</v>
-      </c>
-      <c r="B4" s="172" t="s">
-        <v>767</v>
-      </c>
-      <c r="C4" s="163"/>
+        <v>671</v>
+      </c>
+      <c r="B4" s="173" t="s">
+        <v>764</v>
+      </c>
+      <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="124" t="s">
-        <v>768</v>
-      </c>
-      <c r="B5" s="173" t="s">
-        <v>769</v>
-      </c>
-      <c r="C5" s="163"/>
+        <v>765</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>766</v>
+      </c>
+      <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>770</v>
-      </c>
-      <c r="B6" s="173" t="s">
-        <v>771</v>
-      </c>
-      <c r="C6" s="163"/>
+        <v>767</v>
+      </c>
+      <c r="B6" s="172" t="s">
+        <v>768</v>
+      </c>
+      <c r="C6" s="148"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>772</v>
-      </c>
-      <c r="B7" s="173" t="s">
-        <v>773</v>
-      </c>
-      <c r="C7" s="163"/>
+        <v>769</v>
+      </c>
+      <c r="B7" s="172" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="124" t="s">
-        <v>774</v>
-      </c>
-      <c r="B8" s="173" t="s">
-        <v>775</v>
-      </c>
-      <c r="C8" s="163"/>
+        <v>771</v>
+      </c>
+      <c r="B8" s="172" t="s">
+        <v>772</v>
+      </c>
+      <c r="C8" s="148"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
@@ -23123,111 +23166,111 @@
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1">
       <c r="B2" s="174" t="s">
-        <v>776</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+        <v>773</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
       <c r="J2" s="91" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="126" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D3" s="127" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1">
       <c r="B4" s="128" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D4" s="130" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" customHeight="1">
       <c r="B5" s="128" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D5" s="131" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="128" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C6" s="129" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" customHeight="1">
       <c r="B7" s="128" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C7" s="132" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.25" customHeight="1">
       <c r="B8" s="128" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C8" s="129" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D8" s="131" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="128" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1">
       <c r="B10" s="128" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C10" s="132" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D10" s="131" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1">
       <c r="B11" s="134" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1">
@@ -26224,24 +26267,24 @@
     <row r="2" spans="3:4" ht="14.25" customHeight="1"/>
     <row r="3" spans="3:4" ht="14.25" customHeight="1">
       <c r="C3" s="91" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="14.25" customHeight="1">
       <c r="C4" s="91" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="14.25" customHeight="1"/>
     <row r="6" spans="3:4" ht="14.25" customHeight="1">
       <c r="C6" s="91" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="14.25" customHeight="1"/>
@@ -27252,7 +27295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -27266,75 +27311,75 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
       <c r="J1" s="91" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="172" t="s">
-        <v>809</v>
-      </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163"/>
+      <c r="A5" s="173" t="s">
+        <v>806</v>
+      </c>
+      <c r="B5" s="151"/>
+      <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="123" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1">
       <c r="A7" s="137" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
       <c r="A8" s="138" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B8" s="139" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C8" s="129" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1">
       <c r="A9" s="140" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
       <c r="A10" s="141" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C10" s="129" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -3627,6 +3627,18 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3636,20 +3648,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3663,22 +3680,17 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3695,18 +3707,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4968,7 +4968,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4987,15 +4987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5008,10 +5008,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="34.5">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -5079,10 +5079,10 @@
       <c r="G4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -5108,10 +5108,10 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -5139,10 +5139,10 @@
       <c r="G6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -5170,10 +5170,10 @@
       <c r="G7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="2"/>
@@ -5201,10 +5201,10 @@
       <c r="G8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="2"/>
@@ -7547,7 +7547,7 @@
         <v>10</v>
       </c>
       <c r="D87" s="27"/>
-      <c r="E87" s="178" t="s">
+      <c r="E87" s="145" t="s">
         <v>822</v>
       </c>
       <c r="F87" s="24" t="s">
@@ -7814,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="30"/>
-      <c r="E96" s="177" t="s">
+      <c r="E96" s="144" t="s">
         <v>821</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="27"/>
-      <c r="E97" s="176" t="s">
+      <c r="E97" s="143" t="s">
         <v>820</v>
       </c>
       <c r="F97" s="24" t="s">
@@ -7905,7 +7905,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="27"/>
-      <c r="E99" s="175" t="s">
+      <c r="E99" s="142" t="s">
         <v>819</v>
       </c>
       <c r="F99" s="24" t="s">
@@ -16262,50 +16262,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="151" t="s">
         <v>665</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="154" t="s">
         <v>666</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="87" t="s">
         <v>667</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="156" t="s">
         <v>668</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="167" t="s">
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="158" t="s">
         <v>669</v>
       </c>
-      <c r="I2" s="154"/>
+      <c r="I2" s="159"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="160" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="A5" s="88" t="s">
@@ -16367,15 +16367,15 @@
       <c r="I6" s="94" t="s">
         <v>687</v>
       </c>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="161" t="s">
         <v>688</v>
       </c>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="157"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="92">
@@ -16405,15 +16405,15 @@
       <c r="I7" s="94" t="s">
         <v>696</v>
       </c>
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="161" t="s">
         <v>697</v>
       </c>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="A8" s="92">
@@ -16521,17 +16521,17 @@
       <c r="I14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="163" t="s">
         <v>706</v>
       </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="165"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="A16" s="88" t="s">
@@ -16546,15 +16546,15 @@
       <c r="D16" s="89" t="s">
         <v>678</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="166" t="s">
         <v>707</v>
       </c>
-      <c r="F16" s="148"/>
-      <c r="G16" s="161" t="s">
+      <c r="F16" s="167"/>
+      <c r="G16" s="166" t="s">
         <v>708</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="99">
@@ -16569,15 +16569,15 @@
       <c r="D17" s="93" t="s">
         <v>705</v>
       </c>
-      <c r="E17" s="155" t="s">
+      <c r="E17" s="170" t="s">
         <v>710</v>
       </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="155" t="s">
+      <c r="F17" s="167"/>
+      <c r="G17" s="170" t="s">
         <v>711</v>
       </c>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="99">
@@ -16592,15 +16592,15 @@
       <c r="D18" s="93" t="s">
         <v>705</v>
       </c>
-      <c r="E18" s="155" t="s">
+      <c r="E18" s="170" t="s">
         <v>710</v>
       </c>
-      <c r="F18" s="148"/>
-      <c r="G18" s="155" t="s">
+      <c r="F18" s="167"/>
+      <c r="G18" s="170" t="s">
         <v>713</v>
       </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="152"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="99">
@@ -16615,15 +16615,15 @@
       <c r="D19" s="93" t="s">
         <v>715</v>
       </c>
-      <c r="E19" s="155" t="s">
+      <c r="E19" s="170" t="s">
         <v>716</v>
       </c>
-      <c r="F19" s="148"/>
-      <c r="G19" s="155" t="s">
+      <c r="F19" s="167"/>
+      <c r="G19" s="170" t="s">
         <v>717</v>
       </c>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
       <c r="K19" s="91" t="s">
         <v>718</v>
       </c>
@@ -16635,11 +16635,11 @@
       <c r="B20" s="100"/>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="152"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="99">
@@ -16648,11 +16648,11 @@
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="169"/>
       <c r="K21" s="91" t="s">
         <v>719</v>
       </c>
@@ -16664,11 +16664,11 @@
       <c r="B22" s="100"/>
       <c r="C22" s="100"/>
       <c r="D22" s="100"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="99">
@@ -16677,11 +16677,11 @@
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
       <c r="D23" s="100"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="99">
@@ -16690,11 +16690,11 @@
       <c r="B24" s="100"/>
       <c r="C24" s="100"/>
       <c r="D24" s="100"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="169"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="99">
@@ -16703,11 +16703,11 @@
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
       <c r="D25" s="100"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="152"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="169"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="101">
@@ -16716,11 +16716,11 @@
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="154"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="159"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
@@ -17698,16 +17698,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -17720,14 +17718,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17775,11 +17775,11 @@
       <c r="O1" s="105"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="173" t="s">
         <v>722</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="150"/>
       <c r="D2" s="106"/>
       <c r="E2" s="107"/>
       <c r="F2" s="108"/>
@@ -20871,10 +20871,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="175" t="s">
         <v>730</v>
       </c>
-      <c r="C2" s="148"/>
+      <c r="C2" s="167"/>
       <c r="O2" s="91" t="s">
         <v>731</v>
       </c>
@@ -22088,56 +22088,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="175" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="148"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="167"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="123" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="177" t="s">
         <v>764</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="167"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="124" t="s">
         <v>765</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="176" t="s">
         <v>766</v>
       </c>
-      <c r="C5" s="148"/>
+      <c r="C5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="176" t="s">
         <v>768</v>
       </c>
-      <c r="C6" s="148"/>
+      <c r="C6" s="167"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="124" t="s">
         <v>769</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="176" t="s">
         <v>770</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="167"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="124" t="s">
         <v>771</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="176" t="s">
         <v>772</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
@@ -23165,11 +23165,11 @@
       <c r="D1" s="125"/>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="178" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
       <c r="J2" s="91" t="s">
         <v>731</v>
       </c>
@@ -27318,11 +27318,11 @@
     <row r="3" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>806</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="148"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="123" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e7e979f8cac0a3/Repos/OPAT-background/INTEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0CA5F3DE83AF92ED1BC7EDC13B4DA35EBA2966E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0C3FA3-6BE4-49AE-AA49-94EB3B2239AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9290D1-362D-4BB1-AED8-1067790AA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="0" windowWidth="32370" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="844">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3764,20 +3764,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3791,22 +3796,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3826,7 +3826,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5203,10 +5203,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J206" sqref="J206"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7519,7 +7519,9 @@
       <c r="I74" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="8"/>
+      <c r="J74" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K74" s="2" t="s">
         <v>233</v>
       </c>
@@ -7548,7 +7550,9 @@
       <c r="I75" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="8"/>
+      <c r="J75" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K75" s="2" t="s">
         <v>233</v>
       </c>
@@ -7579,7 +7583,9 @@
       <c r="I76" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="8"/>
+      <c r="J76" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K76" s="2" t="s">
         <v>233</v>
       </c>
@@ -8138,7 +8144,9 @@
       <c r="I95" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="8"/>
+      <c r="J95" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K95" s="2" t="s">
         <v>233</v>
       </c>
@@ -16608,50 +16616,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="156" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="159" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="80" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="161" t="s">
         <v>629</v>
       </c>
       <c r="E2" s="162"/>
       <c r="F2" s="162"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="176" t="s">
+      <c r="G2" s="160"/>
+      <c r="H2" s="163" t="s">
         <v>630</v>
       </c>
-      <c r="I2" s="163"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="165" t="s">
         <v>631</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -16713,15 +16721,15 @@
       <c r="I6" s="87" t="s">
         <v>648</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="166" t="s">
         <v>649</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -16751,15 +16759,15 @@
       <c r="I7" s="87" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="165" t="s">
+      <c r="K7" s="166" t="s">
         <v>658</v>
       </c>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -16867,17 +16875,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="168" t="s">
         <v>667</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="169"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -16892,15 +16900,15 @@
       <c r="D16" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="171" t="s">
         <v>668</v>
       </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="170" t="s">
+      <c r="F16" s="172"/>
+      <c r="G16" s="171" t="s">
         <v>669</v>
       </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="161"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -16915,15 +16923,15 @@
       <c r="D17" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="175" t="s">
         <v>671</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="164" t="s">
+      <c r="F17" s="172"/>
+      <c r="G17" s="175" t="s">
         <v>672</v>
       </c>
-      <c r="H17" s="160"/>
-      <c r="I17" s="161"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -16938,15 +16946,15 @@
       <c r="D18" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="E18" s="175" t="s">
         <v>671</v>
       </c>
-      <c r="F18" s="157"/>
-      <c r="G18" s="164" t="s">
+      <c r="F18" s="172"/>
+      <c r="G18" s="175" t="s">
         <v>674</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="174"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -16961,15 +16969,15 @@
       <c r="D19" s="86" t="s">
         <v>676</v>
       </c>
-      <c r="E19" s="164" t="s">
+      <c r="E19" s="175" t="s">
         <v>677</v>
       </c>
-      <c r="F19" s="157"/>
-      <c r="G19" s="164" t="s">
+      <c r="F19" s="172"/>
+      <c r="G19" s="175" t="s">
         <v>678</v>
       </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="161"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="174"/>
       <c r="K19" s="84" t="s">
         <v>679</v>
       </c>
@@ -16981,11 +16989,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -16994,11 +17002,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="K21" s="84" t="s">
         <v>680</v>
       </c>
@@ -17010,11 +17018,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="161"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17023,11 +17031,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="161"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17036,11 +17044,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17049,11 +17057,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17062,11 +17070,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="158"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
+      <c r="I26" s="164"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18044,16 +18052,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18066,14 +18072,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21220,7 +21228,7 @@
       <c r="B2" s="180" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="172"/>
       <c r="O2" s="84" t="s">
         <v>692</v>
       </c>
@@ -22437,8 +22445,8 @@
       <c r="A3" s="180" t="s">
         <v>724</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="172"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22447,7 +22455,7 @@
       <c r="B4" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="157"/>
+      <c r="C4" s="172"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22456,7 +22464,7 @@
       <c r="B5" s="181" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="157"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22465,7 +22473,7 @@
       <c r="B6" s="181" t="s">
         <v>729</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22474,7 +22482,7 @@
       <c r="B7" s="181" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="157"/>
+      <c r="C7" s="172"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22483,7 +22491,7 @@
       <c r="B8" s="181" t="s">
         <v>733</v>
       </c>
-      <c r="C8" s="157"/>
+      <c r="C8" s="172"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23514,8 +23522,8 @@
       <c r="B2" s="183" t="s">
         <v>734</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="J2" s="84" t="s">
         <v>692</v>
       </c>
@@ -27667,8 +27675,8 @@
       <c r="A5" s="182" t="s">
         <v>767</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="861">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2585,6 +2585,54 @@
   </si>
   <si>
     <t>Neck</t>
+  </si>
+  <si>
+    <t>Air Defense Command Center (ADCC)</t>
+  </si>
+  <si>
+    <t>Command and control of Notian IADS network</t>
+  </si>
+  <si>
+    <t>Sector Command Center North (SCC North)</t>
+  </si>
+  <si>
+    <t>Sector Command Center South (SCC South)</t>
+  </si>
+  <si>
+    <t>IADS Command and control of Sector NORTH</t>
+  </si>
+  <si>
+    <t>665ft</t>
+  </si>
+  <si>
+    <t>262ft</t>
+  </si>
+  <si>
+    <t>967ft</t>
+  </si>
+  <si>
+    <t>N68 55.713 E033 10.092</t>
+  </si>
+  <si>
+    <t>N69 02.910 E033 24.593</t>
+  </si>
+  <si>
+    <t>N68 09.708 E033 26.228</t>
+  </si>
+  <si>
+    <t>AWACS Connection Node</t>
+  </si>
+  <si>
+    <t>Connection node from AWACS to ADCC as part of IADS</t>
+  </si>
+  <si>
+    <t>Not urgent</t>
+  </si>
+  <si>
+    <t>N69 21.886 E034 13.457</t>
+  </si>
+  <si>
+    <t>747ft</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3761,20 +3809,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3788,22 +3841,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3820,6 +3868,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3853,7 +3904,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3938,7 @@
         <xdr:cNvPr id="3" name="image2.png" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,7 +3977,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +4011,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +4050,7 @@
         <xdr:cNvPr id="2" name="image10.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,7 +4084,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4123,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4229,7 +4280,7 @@
         <xdr:cNvPr id="4" name="image4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4314,7 @@
         <xdr:cNvPr id="5" name="image6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4353,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4510,7 @@
         <xdr:cNvPr id="3" name="image8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,7 +4544,7 @@
         <xdr:cNvPr id="5" name="image9.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4583,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,7 +4764,7 @@
         <xdr:cNvPr id="3" name="image7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4747,7 +4798,7 @@
         <xdr:cNvPr id="4" name="image14.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4837,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4907,7 +4958,7 @@
         <xdr:cNvPr id="3" name="image13.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4992,7 @@
         <xdr:cNvPr id="4" name="image11.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +5026,7 @@
         <xdr:cNvPr id="5" name="image12.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,10 +5251,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7762,7 +7813,9 @@
       <c r="I82" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="8"/>
+      <c r="J82" s="8" t="s">
+        <v>843</v>
+      </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
@@ -7849,7 +7902,9 @@
       <c r="I85" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="8"/>
+      <c r="J85" s="8" t="s">
+        <v>858</v>
+      </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
@@ -7965,7 +8020,9 @@
       <c r="I89" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="8"/>
+      <c r="J89" s="8" t="s">
+        <v>843</v>
+      </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
@@ -9912,7 +9969,9 @@
       <c r="I204" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J204" s="8"/>
+      <c r="J204" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K204" s="2" t="s">
         <v>369</v>
       </c>
@@ -9943,7 +10002,9 @@
       <c r="I205" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J205" s="8"/>
+      <c r="J205" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K205" s="2" t="s">
         <v>369</v>
       </c>
@@ -10136,14 +10197,28 @@
       <c r="A212" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B212" s="66"/>
-      <c r="C212" s="67"/>
+      <c r="B212" s="66" t="s">
+        <v>845</v>
+      </c>
+      <c r="C212" s="67">
+        <v>2</v>
+      </c>
       <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
+      <c r="E212" s="66" t="s">
+        <v>846</v>
+      </c>
+      <c r="F212" s="66" t="s">
+        <v>853</v>
+      </c>
+      <c r="G212" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="H212" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I212" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="J212" s="8"/>
       <c r="K212" s="2"/>
     </row>
@@ -10151,14 +10226,28 @@
       <c r="A213" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B213" s="63"/>
-      <c r="C213" s="64"/>
+      <c r="B213" s="63" t="s">
+        <v>847</v>
+      </c>
+      <c r="C213" s="64">
+        <v>2</v>
+      </c>
       <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
+      <c r="E213" s="63" t="s">
+        <v>849</v>
+      </c>
+      <c r="F213" s="63" t="s">
+        <v>854</v>
+      </c>
+      <c r="G213" s="65" t="s">
+        <v>851</v>
+      </c>
+      <c r="H213" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I213" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="J213" s="8"/>
       <c r="K213" s="2"/>
     </row>
@@ -10166,14 +10255,28 @@
       <c r="A214" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B214" s="66"/>
-      <c r="C214" s="67"/>
+      <c r="B214" s="66" t="s">
+        <v>848</v>
+      </c>
+      <c r="C214" s="67">
+        <v>2</v>
+      </c>
       <c r="D214" s="66"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="68"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
+      <c r="E214" s="66" t="s">
+        <v>849</v>
+      </c>
+      <c r="F214" s="66" t="s">
+        <v>855</v>
+      </c>
+      <c r="G214" s="68" t="s">
+        <v>850</v>
+      </c>
+      <c r="H214" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I214" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="J214" s="8"/>
       <c r="K214" s="2"/>
     </row>
@@ -10181,25 +10284,39 @@
       <c r="A215" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="69"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="70"/>
-      <c r="I215" s="70"/>
+      <c r="B215" s="63" t="s">
+        <v>856</v>
+      </c>
+      <c r="C215" s="184">
+        <v>2</v>
+      </c>
+      <c r="D215" s="63"/>
+      <c r="E215" s="63" t="s">
+        <v>857</v>
+      </c>
+      <c r="F215" s="63" t="s">
+        <v>859</v>
+      </c>
+      <c r="G215" s="65" t="s">
+        <v>860</v>
+      </c>
+      <c r="H215" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I215" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="69"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="66"/>
+      <c r="E216" s="66"/>
+      <c r="F216" s="66"/>
+      <c r="G216" s="68"/>
       <c r="H216" s="70"/>
       <c r="I216" s="70"/>
     </row>
@@ -16617,50 +16734,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="156" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="159" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="80" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="161" t="s">
         <v>629</v>
       </c>
       <c r="E2" s="162"/>
       <c r="F2" s="162"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="176" t="s">
+      <c r="G2" s="160"/>
+      <c r="H2" s="163" t="s">
         <v>630</v>
       </c>
-      <c r="I2" s="163"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="165" t="s">
         <v>631</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="A5" s="81" t="s">
@@ -16722,15 +16839,15 @@
       <c r="I6" s="87" t="s">
         <v>648</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="166" t="s">
         <v>649</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="85">
@@ -16760,15 +16877,15 @@
       <c r="I7" s="87" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="165" t="s">
+      <c r="K7" s="166" t="s">
         <v>658</v>
       </c>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="A8" s="85">
@@ -16876,17 +16993,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="168" t="s">
         <v>667</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="169"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="A16" s="81" t="s">
@@ -16901,15 +17018,15 @@
       <c r="D16" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="171" t="s">
         <v>668</v>
       </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="170" t="s">
+      <c r="F16" s="172"/>
+      <c r="G16" s="171" t="s">
         <v>669</v>
       </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="161"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="92">
@@ -16924,15 +17041,15 @@
       <c r="D17" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="175" t="s">
         <v>671</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="164" t="s">
+      <c r="F17" s="172"/>
+      <c r="G17" s="175" t="s">
         <v>672</v>
       </c>
-      <c r="H17" s="160"/>
-      <c r="I17" s="161"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="92">
@@ -16947,15 +17064,15 @@
       <c r="D18" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="E18" s="175" t="s">
         <v>671</v>
       </c>
-      <c r="F18" s="157"/>
-      <c r="G18" s="164" t="s">
+      <c r="F18" s="172"/>
+      <c r="G18" s="175" t="s">
         <v>674</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="174"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="92">
@@ -16970,15 +17087,15 @@
       <c r="D19" s="86" t="s">
         <v>676</v>
       </c>
-      <c r="E19" s="164" t="s">
+      <c r="E19" s="175" t="s">
         <v>677</v>
       </c>
-      <c r="F19" s="157"/>
-      <c r="G19" s="164" t="s">
+      <c r="F19" s="172"/>
+      <c r="G19" s="175" t="s">
         <v>678</v>
       </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="161"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="174"/>
       <c r="K19" s="84" t="s">
         <v>679</v>
       </c>
@@ -16990,11 +17107,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="92">
@@ -17003,11 +17120,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="K21" s="84" t="s">
         <v>680</v>
       </c>
@@ -17019,11 +17136,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="161"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="92">
@@ -17032,11 +17149,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="161"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="92">
@@ -17045,11 +17162,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="92">
@@ -17058,11 +17175,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="94">
@@ -17071,11 +17188,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="158"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
+      <c r="I26" s="164"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
@@ -18053,16 +18170,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18075,14 +18190,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21229,7 +21346,7 @@
       <c r="B2" s="180" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="172"/>
       <c r="O2" s="84" t="s">
         <v>692</v>
       </c>
@@ -22446,8 +22563,8 @@
       <c r="A3" s="180" t="s">
         <v>724</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="172"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="116" t="s">
@@ -22456,7 +22573,7 @@
       <c r="B4" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="157"/>
+      <c r="C4" s="172"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="117" t="s">
@@ -22465,7 +22582,7 @@
       <c r="B5" s="181" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="157"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="117" t="s">
@@ -22474,7 +22591,7 @@
       <c r="B6" s="181" t="s">
         <v>729</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="117" t="s">
@@ -22483,7 +22600,7 @@
       <c r="B7" s="181" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="157"/>
+      <c r="C7" s="172"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="117" t="s">
@@ -22492,7 +22609,7 @@
       <c r="B8" s="181" t="s">
         <v>733</v>
       </c>
-      <c r="C8" s="157"/>
+      <c r="C8" s="172"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
@@ -23523,8 +23640,8 @@
       <c r="B2" s="183" t="s">
         <v>734</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="J2" s="84" t="s">
         <v>692</v>
       </c>
@@ -27676,8 +27793,8 @@
       <c r="A5" s="182" t="s">
         <v>767</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF9292-9228-4D62-AD5C-4846FBA82A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D304E4A-43BA-4F8B-871D-47B463EB026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1620" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="861">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3818,20 +3818,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3845,22 +3850,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5260,7 +5260,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
+      <selection pane="bottomRight" activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10074,7 +10074,9 @@
       <c r="I207" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J207" s="8"/>
+      <c r="J207" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K207" s="2" t="s">
         <v>369</v>
       </c>
@@ -16742,50 +16744,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="157" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="160" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="162" t="s">
         <v>629</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
         <v>630</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="166" t="s">
         <v>631</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -16847,15 +16849,15 @@
       <c r="I6" s="87" t="s">
         <v>648</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="167" t="s">
         <v>649</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -16885,15 +16887,15 @@
       <c r="I7" s="87" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="167" t="s">
         <v>658</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17001,17 +17003,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>667</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17026,15 +17028,15 @@
       <c r="D16" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="172" t="s">
         <v>668</v>
       </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
         <v>669</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17049,15 +17051,15 @@
       <c r="D17" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>672</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17072,15 +17074,15 @@
       <c r="D18" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
         <v>674</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17095,15 +17097,15 @@
       <c r="D19" s="86" t="s">
         <v>676</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="176" t="s">
         <v>677</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
         <v>678</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
         <v>679</v>
       </c>
@@ -17115,11 +17117,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17128,11 +17130,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
         <v>680</v>
       </c>
@@ -17144,11 +17146,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17157,11 +17159,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17170,11 +17172,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17183,11 +17185,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17196,11 +17198,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18178,16 +18180,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18200,14 +18200,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21354,7 +21356,7 @@
       <c r="B2" s="181" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
         <v>692</v>
       </c>
@@ -22571,8 +22573,8 @@
       <c r="A3" s="181" t="s">
         <v>724</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22581,7 +22583,7 @@
       <c r="B4" s="183" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22590,7 +22592,7 @@
       <c r="B5" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22599,7 +22601,7 @@
       <c r="B6" s="182" t="s">
         <v>729</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22608,7 +22610,7 @@
       <c r="B7" s="182" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22617,7 +22619,7 @@
       <c r="B8" s="182" t="s">
         <v>733</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23648,8 +23650,8 @@
       <c r="B2" s="184" t="s">
         <v>734</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
         <v>692</v>
       </c>
@@ -27801,8 +27803,8 @@
       <c r="A5" s="183" t="s">
         <v>767</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D304E4A-43BA-4F8B-871D-47B463EB026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88034D-C8BD-4DC3-8EED-E1F2D6AA19F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1620" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="861">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -5260,7 +5260,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J206" sqref="J206"/>
+      <selection pane="bottomRight" activeCell="K210" sqref="K210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10107,7 +10107,9 @@
       <c r="I208" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J208" s="8"/>
+      <c r="J208" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K208" s="2" t="s">
         <v>369</v>
       </c>
@@ -10138,7 +10140,9 @@
       <c r="I209" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J209" s="8"/>
+      <c r="J209" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K209" s="2" t="s">
         <v>369</v>
       </c>
@@ -10169,7 +10173,9 @@
       <c r="I210" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J210" s="8"/>
+      <c r="J210" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K210" s="2" t="s">
         <v>369</v>
       </c>
@@ -10200,8 +10206,12 @@
       <c r="I211" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J211" s="8"/>
-      <c r="K211" s="2"/>
+      <c r="J211" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21" t="s">
@@ -10229,8 +10239,12 @@
       <c r="I212" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J212" s="8"/>
-      <c r="K212" s="2"/>
+      <c r="J212" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="857">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3800,20 +3800,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3827,22 +3832,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3892,7 +3892,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,7 +3926,7 @@
         <xdr:cNvPr id="3" name="image2.png" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +3965,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +3999,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4038,7 @@
         <xdr:cNvPr id="2" name="image10.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4072,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4111,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4268,7 @@
         <xdr:cNvPr id="4" name="image4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4302,7 @@
         <xdr:cNvPr id="5" name="image6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4341,7 +4341,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,7 +4498,7 @@
         <xdr:cNvPr id="3" name="image8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4532,7 @@
         <xdr:cNvPr id="5" name="image9.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4571,7 +4571,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4752,7 @@
         <xdr:cNvPr id="3" name="image7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4786,7 @@
         <xdr:cNvPr id="4" name="image14.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4825,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4946,7 +4946,7 @@
         <xdr:cNvPr id="3" name="image13.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +4980,7 @@
         <xdr:cNvPr id="4" name="image11.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,7 +5014,7 @@
         <xdr:cNvPr id="5" name="image12.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5239,10 +5239,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5360,7 +5360,9 @@
         <v>22</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="21" t="s">
@@ -5792,7 +5794,9 @@
         <v>22</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="19" spans="1:26" ht="14.25">
       <c r="A19" s="21" t="s">
@@ -6059,7 +6063,9 @@
         <v>22</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -6088,7 +6094,9 @@
         <v>22</v>
       </c>
       <c r="J28" s="8"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="21" t="s">
@@ -6117,7 +6125,9 @@
         <v>22</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
@@ -6146,7 +6156,9 @@
         <v>22</v>
       </c>
       <c r="J30" s="8"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="21" t="s">
@@ -6248,7 +6260,9 @@
         <v>22</v>
       </c>
       <c r="J33" s="41"/>
-      <c r="K33" s="33"/>
+      <c r="K33" s="33" t="s">
+        <v>363</v>
+      </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -6847,7 +6861,9 @@
         <v>22</v>
       </c>
       <c r="J49" s="41"/>
-      <c r="K49" s="33"/>
+      <c r="K49" s="33" t="s">
+        <v>363</v>
+      </c>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
@@ -6891,7 +6907,9 @@
         <v>22</v>
       </c>
       <c r="J50" s="8"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="21" t="s">
@@ -7111,7 +7129,9 @@
         <v>22</v>
       </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
@@ -8282,7 +8302,9 @@
         <v>22</v>
       </c>
       <c r="J96" s="8"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="21" t="s">
@@ -16798,50 +16820,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="157" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="160" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="162" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="166" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="A5" s="81" t="s">
@@ -16903,15 +16925,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="167" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="85">
@@ -16941,15 +16963,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="167" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="A8" s="85">
@@ -17057,17 +17079,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="A16" s="81" t="s">
@@ -17082,15 +17104,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="92">
@@ -17105,15 +17127,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="92">
@@ -17128,15 +17150,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="92">
@@ -17151,15 +17173,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17171,11 +17193,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="92">
@@ -17184,11 +17206,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17200,11 +17222,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="92">
@@ -17213,11 +17235,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="92">
@@ -17226,11 +17248,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="92">
@@ -17239,11 +17261,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="94">
@@ -17252,11 +17274,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
@@ -18234,16 +18256,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18256,14 +18276,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21410,7 +21432,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22627,8 +22649,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="116" t="s">
@@ -22637,7 +22659,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="117" t="s">
@@ -22646,7 +22668,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="117" t="s">
@@ -22655,7 +22677,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="117" t="s">
@@ -22664,7 +22686,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="117" t="s">
@@ -22673,7 +22695,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
@@ -23704,8 +23726,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -27857,8 +27879,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2621,6 +2621,54 @@
   </si>
   <si>
     <t>Kola Bay</t>
+  </si>
+  <si>
+    <t>40th Composite Maritime Aviation Division HQ</t>
+  </si>
+  <si>
+    <t>60th Air Division HQ</t>
+  </si>
+  <si>
+    <t>70th Air Division HQ</t>
+  </si>
+  <si>
+    <t>80th Air Support Division HQ</t>
+  </si>
+  <si>
+    <t>280ft</t>
+  </si>
+  <si>
+    <t>216ft</t>
+  </si>
+  <si>
+    <t>161ft</t>
+  </si>
+  <si>
+    <t>N 69 04.364 E 033 24.593</t>
+  </si>
+  <si>
+    <t>N 69 05.012 E 033 28.750</t>
+  </si>
+  <si>
+    <t>N 69 03.978 E 033 25.054</t>
+  </si>
+  <si>
+    <t>N 68 48.916 E 032 49.370</t>
+  </si>
+  <si>
+    <t>206ft</t>
+  </si>
+  <si>
+    <t>HQ for 40th Composite Maritime Aviation Division</t>
+  </si>
+  <si>
+    <t>HQ for 60th Air Division</t>
+  </si>
+  <si>
+    <t>HQ for 70th Air Divison</t>
+  </si>
+  <si>
+    <t>HQ for 80th Air Support Division</t>
   </si>
 </sst>
 </file>
@@ -3800,20 +3848,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3827,22 +3880,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3892,7 +3940,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,7 +3974,7 @@
         <xdr:cNvPr id="3" name="image2.png" descr="JFACC symbol.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +4013,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +4047,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4086,7 @@
         <xdr:cNvPr id="2" name="image10.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4120,7 @@
         <xdr:cNvPr id="3" name="image5.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4159,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4316,7 @@
         <xdr:cNvPr id="4" name="image4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4350,7 @@
         <xdr:cNvPr id="5" name="image6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4341,7 +4389,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,7 +4546,7 @@
         <xdr:cNvPr id="3" name="image8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4580,7 @@
         <xdr:cNvPr id="5" name="image9.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4571,7 +4619,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4800,7 @@
         <xdr:cNvPr id="3" name="image7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4834,7 @@
         <xdr:cNvPr id="4" name="image14.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4873,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4946,7 +4994,7 @@
         <xdr:cNvPr id="3" name="image13.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +5028,7 @@
         <xdr:cNvPr id="4" name="image11.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,7 +5062,7 @@
         <xdr:cNvPr id="5" name="image12.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5239,10 +5287,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -10405,64 +10453,120 @@
       <c r="A216" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B216" s="66"/>
-      <c r="C216" s="67"/>
+      <c r="B216" s="66" t="s">
+        <v>857</v>
+      </c>
+      <c r="C216" s="67">
+        <v>2</v>
+      </c>
       <c r="D216" s="66"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="66"/>
-      <c r="G216" s="68"/>
-      <c r="H216" s="70"/>
-      <c r="I216" s="70"/>
+      <c r="E216" s="66" t="s">
+        <v>869</v>
+      </c>
+      <c r="F216" s="66" t="s">
+        <v>864</v>
+      </c>
+      <c r="G216" s="68" t="s">
+        <v>862</v>
+      </c>
+      <c r="H216" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I216" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="69"/>
+      <c r="B217" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C217" s="69">
+        <v>2</v>
+      </c>
       <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="70"/>
-      <c r="I217" s="70"/>
+      <c r="E217" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="F217" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="G217" s="65" t="s">
+        <v>863</v>
+      </c>
+      <c r="H217" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I217" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="69"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="70"/>
-      <c r="I218" s="70"/>
+      <c r="B218" s="66" t="s">
+        <v>859</v>
+      </c>
+      <c r="C218" s="67">
+        <v>2</v>
+      </c>
+      <c r="D218" s="66"/>
+      <c r="E218" s="66" t="s">
+        <v>871</v>
+      </c>
+      <c r="F218" s="66" t="s">
+        <v>866</v>
+      </c>
+      <c r="G218" s="68" t="s">
+        <v>861</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I218" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="69"/>
+      <c r="B219" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C219" s="69">
+        <v>2</v>
+      </c>
       <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="70"/>
-      <c r="I219" s="70"/>
+      <c r="E219" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F219" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="G219" s="65" t="s">
+        <v>868</v>
+      </c>
+      <c r="H219" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I219" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="69"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="67"/>
+      <c r="D220" s="66"/>
+      <c r="E220" s="66"/>
+      <c r="F220" s="66"/>
+      <c r="G220" s="68"/>
       <c r="H220" s="70"/>
       <c r="I220" s="70"/>
     </row>
@@ -16828,50 +16932,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="157" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="160" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="162" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="166" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="A5" s="81" t="s">
@@ -16933,15 +17037,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="167" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="A7" s="85">
@@ -16971,15 +17075,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="167" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="A8" s="85">
@@ -17087,17 +17191,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="A16" s="81" t="s">
@@ -17112,15 +17216,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="92">
@@ -17135,15 +17239,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="92">
@@ -17158,15 +17262,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="92">
@@ -17181,15 +17285,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17201,11 +17305,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="92">
@@ -17214,11 +17318,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17230,11 +17334,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="92">
@@ -17243,11 +17347,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="92">
@@ -17256,11 +17360,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="92">
@@ -17269,11 +17373,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="94">
@@ -17282,11 +17386,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
@@ -18264,16 +18368,14 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18286,14 +18388,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21440,7 +21544,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22657,8 +22761,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="116" t="s">
@@ -22667,7 +22771,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="117" t="s">
@@ -22676,7 +22780,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="117" t="s">
@@ -22685,7 +22789,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="117" t="s">
@@ -22694,7 +22798,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="117" t="s">
@@ -22703,7 +22807,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1"/>
@@ -23734,8 +23838,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -27887,8 +27991,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C635E93-9D77-48F6-84B7-51632BBABD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656776C2-3F28-4EB1-8426-0368D61853EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3854,20 +3854,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3881,22 +3886,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5293,10 +5293,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5727,7 +5727,9 @@
       <c r="I14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>27</v>
       </c>
@@ -16940,50 +16942,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="157" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="160" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="162" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="166" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17045,15 +17047,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="167" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17083,15 +17085,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="167" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17199,17 +17201,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17224,15 +17226,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17247,15 +17249,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17270,15 +17272,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17293,15 +17295,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17313,11 +17315,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17326,11 +17328,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17342,11 +17344,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17355,11 +17357,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17368,11 +17370,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17381,11 +17383,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17394,11 +17396,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18376,16 +18378,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18398,14 +18398,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21552,7 +21554,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22769,8 +22771,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22779,7 +22781,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22788,7 +22790,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22797,7 +22799,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22806,7 +22808,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22815,7 +22817,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23846,8 +23848,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -27999,8 +28001,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656776C2-3F28-4EB1-8426-0368D61853EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB998D72-24B0-4BD6-AA0D-D18C82ADD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -5293,10 +5293,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5760,7 +5760,9 @@
       <c r="I15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>27</v>
       </c>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB998D72-24B0-4BD6-AA0D-D18C82ADD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F98C7-BB9C-4EC6-8C31-BF07F1AEDA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1620" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3854,25 +3854,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3886,17 +3881,22 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5293,13 +5293,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
@@ -5918,7 +5918,9 @@
         <v>22</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
@@ -7667,7 +7669,9 @@
         <v>22</v>
       </c>
       <c r="J73" s="8"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
@@ -16929,7 +16933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -16944,50 +16948,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="172" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="175" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="176" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="164" t="s">
+      <c r="G2" s="160"/>
+      <c r="H2" s="177" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17049,15 +17053,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="166" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17087,15 +17091,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="166" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17203,17 +17207,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="168" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="171"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17228,15 +17232,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="171" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="172" t="s">
+      <c r="F16" s="158"/>
+      <c r="G16" s="171" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17251,15 +17255,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="176" t="s">
+      <c r="F17" s="158"/>
+      <c r="G17" s="165" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17274,15 +17278,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="176" t="s">
+      <c r="F18" s="158"/>
+      <c r="G18" s="165" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="175"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17297,15 +17301,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="165" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="176" t="s">
+      <c r="F19" s="158"/>
+      <c r="G19" s="165" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="175"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17317,11 +17321,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17330,11 +17334,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17346,11 +17350,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17359,11 +17363,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17372,11 +17376,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17385,11 +17389,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17398,11 +17402,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="178"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="159"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="165"/>
+      <c r="I26" s="164"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18380,14 +18384,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18400,16 +18406,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18423,7 +18427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -21542,7 +21546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -21556,7 +21560,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="158"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22755,7 +22759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -22773,8 +22777,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22783,7 +22787,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22792,7 +22796,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22801,7 +22805,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22810,7 +22814,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22819,7 +22823,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="158"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23834,7 +23838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -23850,8 +23854,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -26938,7 +26942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
@@ -27981,7 +27985,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -28003,8 +28007,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F98C7-BB9C-4EC6-8C31-BF07F1AEDA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5247EED-8030-430F-A5AA-825CD2BB7EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1620" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1830" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3854,20 +3854,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3881,22 +3886,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5293,10 +5293,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5917,7 +5917,9 @@
       <c r="I20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>363</v>
       </c>
@@ -6128,7 +6130,9 @@
       <c r="I27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>363</v>
       </c>
@@ -6159,7 +6163,9 @@
       <c r="I28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>363</v>
       </c>
@@ -6190,7 +6196,9 @@
       <c r="I29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>363</v>
       </c>
@@ -7668,7 +7676,9 @@
       <c r="I73" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="8"/>
+      <c r="J73" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K73" s="2" t="s">
         <v>363</v>
       </c>
@@ -16948,50 +16958,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="157" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="160" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="162" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="166" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17053,15 +17063,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="167" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17091,15 +17101,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="167" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17207,17 +17217,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17232,15 +17242,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17255,15 +17265,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17278,15 +17288,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17301,15 +17311,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="176" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17321,11 +17331,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17334,11 +17344,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17350,11 +17360,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17363,11 +17373,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17376,11 +17386,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17389,11 +17399,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17402,11 +17412,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18384,16 +18394,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18406,14 +18414,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21560,7 +21570,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22777,8 +22787,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22787,7 +22797,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22796,7 +22806,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22805,7 +22815,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22814,7 +22824,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22823,7 +22833,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23854,8 +23864,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -28007,8 +28017,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5247EED-8030-430F-A5AA-825CD2BB7EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73328E9C-B6A9-4935-96A6-874FE8A2A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1830" windowWidth="33390" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3854,25 +3854,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3886,17 +3881,22 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5293,10 +5293,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6229,7 +6229,9 @@
       <c r="I30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>363</v>
       </c>
@@ -6333,7 +6335,9 @@
       <c r="I33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K33" s="33" t="s">
         <v>363</v>
       </c>
@@ -6906,7 +6910,9 @@
         <v>22</v>
       </c>
       <c r="J48" s="8"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="144" t="s">
@@ -16958,50 +16964,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="172" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="175" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="176" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="164" t="s">
+      <c r="G2" s="160"/>
+      <c r="H2" s="177" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17063,15 +17069,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="166" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17101,15 +17107,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="166" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17217,17 +17223,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="168" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="171"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17242,15 +17248,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="171" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="172" t="s">
+      <c r="F16" s="158"/>
+      <c r="G16" s="171" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17265,15 +17271,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="176" t="s">
+      <c r="F17" s="158"/>
+      <c r="G17" s="165" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17288,15 +17294,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="176" t="s">
+      <c r="F18" s="158"/>
+      <c r="G18" s="165" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="175"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17311,15 +17317,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="165" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="176" t="s">
+      <c r="F19" s="158"/>
+      <c r="G19" s="165" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="175"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17331,11 +17337,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17344,11 +17350,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17360,11 +17366,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17373,11 +17379,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17386,11 +17392,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17399,11 +17405,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17412,11 +17418,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="178"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="159"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="165"/>
+      <c r="I26" s="164"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18394,14 +18400,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18414,16 +18422,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21570,7 +21576,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="158"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22787,8 +22793,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22797,7 +22803,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22806,7 +22812,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22815,7 +22821,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22824,7 +22830,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22833,7 +22839,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="158"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23864,8 +23870,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -28017,8 +28023,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9D0F57-5302-49F4-A7F8-B59B8AA7FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6730BE-FE46-44C5-A4AD-D764794C6A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="873">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3854,25 +3854,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3886,17 +3881,22 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5293,13 +5293,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
@@ -6913,7 +6913,9 @@
       <c r="I48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K48" s="2" t="s">
         <v>363</v>
       </c>
@@ -6990,7 +6992,9 @@
       <c r="I50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K50" s="2" t="s">
         <v>363</v>
       </c>
@@ -16953,7 +16957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -16968,50 +16972,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="172" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="175" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="80" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="176" t="s">
         <v>623</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="164" t="s">
+      <c r="G2" s="160"/>
+      <c r="H2" s="177" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="178" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17073,15 +17077,15 @@
       <c r="I6" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="166" t="s">
         <v>643</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17111,15 +17115,15 @@
       <c r="I7" s="87" t="s">
         <v>651</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="166" t="s">
         <v>652</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17227,17 +17231,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="168" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="171"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17252,15 +17256,15 @@
       <c r="D16" s="82" t="s">
         <v>633</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="171" t="s">
         <v>662</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="172" t="s">
+      <c r="F16" s="158"/>
+      <c r="G16" s="171" t="s">
         <v>663</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17275,15 +17279,15 @@
       <c r="D17" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="176" t="s">
+      <c r="F17" s="158"/>
+      <c r="G17" s="165" t="s">
         <v>666</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17298,15 +17302,15 @@
       <c r="D18" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="176" t="s">
+      <c r="F18" s="158"/>
+      <c r="G18" s="165" t="s">
         <v>668</v>
       </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="175"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17321,15 +17325,15 @@
       <c r="D19" s="86" t="s">
         <v>670</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="165" t="s">
         <v>671</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="176" t="s">
+      <c r="F19" s="158"/>
+      <c r="G19" s="165" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="175"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
       <c r="K19" s="84" t="s">
         <v>673</v>
       </c>
@@ -17341,11 +17345,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17354,11 +17358,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
       <c r="K21" s="84" t="s">
         <v>674</v>
       </c>
@@ -17370,11 +17374,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17383,11 +17387,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17396,11 +17400,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17409,11 +17413,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17422,11 +17426,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="178"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="159"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="165"/>
+      <c r="I26" s="164"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18404,14 +18408,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18424,16 +18430,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18447,7 +18451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -21566,7 +21570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -21580,7 +21584,7 @@
       <c r="B2" s="181" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="158"/>
       <c r="O2" s="84" t="s">
         <v>686</v>
       </c>
@@ -22779,7 +22783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -22797,8 +22801,8 @@
       <c r="A3" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22807,7 +22811,7 @@
       <c r="B4" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22816,7 +22820,7 @@
       <c r="B5" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -22825,7 +22829,7 @@
       <c r="B6" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -22834,7 +22838,7 @@
       <c r="B7" s="182" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -22843,7 +22847,7 @@
       <c r="B8" s="182" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="158"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23858,7 +23862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -23874,8 +23878,8 @@
       <c r="B2" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
       <c r="J2" s="84" t="s">
         <v>686</v>
       </c>
@@ -26962,7 +26966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
@@ -28005,7 +28009,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -28027,8 +28031,8 @@
       <c r="A5" s="183" t="s">
         <v>761</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6730BE-FE46-44C5-A4AD-D764794C6A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE339416-08C4-4A91-814C-9FF41324D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="892">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -1561,18 +1561,12 @@
     <t>Kambiland Army 5th Corps HQ</t>
   </si>
   <si>
-    <t>N 66 04.039 E 033 05.437</t>
-  </si>
-  <si>
     <t>DRKTGT002</t>
   </si>
   <si>
     <t>Kambiland Army 6th Corps HQ</t>
   </si>
   <si>
-    <t>N 66 57.242 E 030 21.386</t>
-  </si>
-  <si>
     <t>DRKTGT003</t>
   </si>
   <si>
@@ -1582,25 +1576,13 @@
     <t>ARMY base</t>
   </si>
   <si>
-    <t>N 67 11.252 E 032 21.834</t>
-  </si>
-  <si>
     <t>DRKTGT004</t>
   </si>
   <si>
-    <t>Fuel and Gas Storage</t>
-  </si>
-  <si>
-    <t>*** feel free to redesignate to refinery, a nice looking plant - rare</t>
-  </si>
-  <si>
     <t>N 67 04.923 E 033 17.900</t>
   </si>
   <si>
     <t>DRKTGT005</t>
-  </si>
-  <si>
-    <t>Railway Maintenance Depot</t>
   </si>
   <si>
     <t>The biggest Railway Infrastructure of the Region</t>
@@ -2675,6 +2657,81 @@
   </si>
   <si>
     <t>HQ for 80th Air Support Division</t>
+  </si>
+  <si>
+    <t>Docks for DRKTGT004</t>
+  </si>
+  <si>
+    <t>Fuel  Refinery and Storage</t>
+  </si>
+  <si>
+    <t>N 67 04.657 E032 19.701</t>
+  </si>
+  <si>
+    <t>10,11,14</t>
+  </si>
+  <si>
+    <t>Main DUSS Fuel production in AO. Docks are DRKTGT006</t>
+  </si>
+  <si>
+    <t>Railway Depot</t>
+  </si>
+  <si>
+    <t>Fuel Docks</t>
+  </si>
+  <si>
+    <t>Army Fuel Depot</t>
+  </si>
+  <si>
+    <t>Fuel for ARMY</t>
+  </si>
+  <si>
+    <t>N 67 00.470 E030 18.951</t>
+  </si>
+  <si>
+    <t>Headquarters of the Supreme High Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Main Military Council </t>
+  </si>
+  <si>
+    <t>The General Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The General Staff work and meet in thebuilding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Council of Defense </t>
+  </si>
+  <si>
+    <t>State Committee of Defense (War cabinet)</t>
+  </si>
+  <si>
+    <t>Alakourtti Airbase</t>
+  </si>
+  <si>
+    <t>N 66 57.658 E 030 20.346</t>
+  </si>
+  <si>
+    <t>N 66 57.854 E 030 24.161</t>
+  </si>
+  <si>
+    <t>N 66 58.417 E 030 20.992</t>
+  </si>
+  <si>
+    <t>MiG-29 SQN (311) MiG-25 SQN (312)</t>
+  </si>
+  <si>
+    <t>N 67 11.375 E 032 22.066</t>
+  </si>
+  <si>
+    <t>N 66 52.395 E 3224.292</t>
+  </si>
+  <si>
+    <t>N 66 57.737 E 30 23.691</t>
+  </si>
+  <si>
+    <t>N 65 49.046 E 031 28.752</t>
   </si>
 </sst>
 </file>
@@ -2684,11 +2741,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999]0000;General"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2844,6 +2909,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3446,290 +3525,287 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3737,186 +3813,200 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5292,11 +5382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
+      <selection pane="bottomRight" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5568,7 +5658,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>63</v>
@@ -5599,7 +5689,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>63</v>
@@ -5627,10 +5717,10 @@
         <v>48</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>63</v>
@@ -5646,7 +5736,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C12" s="29">
         <v>6</v>
@@ -5661,7 +5751,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>63</v>
@@ -5690,7 +5780,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>63</v>
@@ -5793,9 +5883,7 @@
       <c r="I16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="143" t="s">
-        <v>63</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="2" t="s">
         <v>27</v>
       </c>
@@ -5826,9 +5914,7 @@
       <c r="I17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="143" t="s">
-        <v>63</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="2" t="s">
         <v>27</v>
       </c>
@@ -6123,10 +6209,10 @@
         <v>123</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>63</v>
@@ -6146,20 +6232,20 @@
         <v>124</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C28" s="29">
         <v>5</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="18" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>63</v>
@@ -6179,20 +6265,20 @@
         <v>125</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C29" s="23">
         <v>5</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>63</v>
@@ -6212,7 +6298,7 @@
         <v>126</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
@@ -6222,10 +6308,10 @@
         <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>63</v>
@@ -6328,10 +6414,10 @@
         <v>138</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>63</v>
@@ -6382,10 +6468,10 @@
         <v>143</v>
       </c>
       <c r="H34" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I34" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J34" s="39"/>
       <c r="K34" s="35"/>
@@ -6426,10 +6512,10 @@
         <v>147</v>
       </c>
       <c r="H35" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I35" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="33"/>
@@ -6470,10 +6556,10 @@
         <v>151</v>
       </c>
       <c r="H36" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I36" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="2"/>
@@ -6499,10 +6585,10 @@
         <v>68</v>
       </c>
       <c r="H37" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I37" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="33"/>
@@ -6543,10 +6629,10 @@
         <v>158</v>
       </c>
       <c r="H38" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I38" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="2"/>
@@ -6572,10 +6658,10 @@
         <v>162</v>
       </c>
       <c r="H39" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I39" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="33"/>
@@ -6616,10 +6702,10 @@
         <v>166</v>
       </c>
       <c r="H40" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I40" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="2"/>
@@ -6645,10 +6731,10 @@
         <v>170</v>
       </c>
       <c r="H41" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I41" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J41" s="41"/>
       <c r="K41" s="33"/>
@@ -6689,10 +6775,10 @@
         <v>174</v>
       </c>
       <c r="H42" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I42" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="2"/>
@@ -6718,10 +6804,10 @@
         <v>178</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I43" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J43" s="41"/>
       <c r="K43" s="33"/>
@@ -6762,10 +6848,10 @@
         <v>182</v>
       </c>
       <c r="H44" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I44" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="2"/>
@@ -6791,10 +6877,10 @@
         <v>186</v>
       </c>
       <c r="H45" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I45" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J45" s="41"/>
       <c r="K45" s="33"/>
@@ -6835,10 +6921,10 @@
         <v>190</v>
       </c>
       <c r="H46" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I46" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="2"/>
@@ -6848,20 +6934,20 @@
         <v>191</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C47" s="23">
         <v>5</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="138" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F47" s="144" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G47" s="138" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>63</v>
@@ -6899,7 +6985,7 @@
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="145" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>194</v>
@@ -6913,9 +6999,7 @@
       <c r="I48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="143" t="s">
-        <v>63</v>
-      </c>
+      <c r="J48" s="8"/>
       <c r="K48" s="2" t="s">
         <v>363</v>
       </c>
@@ -6925,14 +7009,14 @@
         <v>195</v>
       </c>
       <c r="B49" s="146" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C49" s="23">
         <v>9</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="138" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>196</v>
@@ -6978,7 +7062,7 @@
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="145" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>199</v>
@@ -6992,9 +7076,7 @@
       <c r="I50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="143" t="s">
-        <v>63</v>
-      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="2" t="s">
         <v>363</v>
       </c>
@@ -7004,7 +7086,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="146" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C51" s="23">
         <v>2</v>
@@ -7116,10 +7198,10 @@
         <v>211</v>
       </c>
       <c r="F54" s="147" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G54" s="148" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>63</v>
@@ -7288,20 +7370,20 @@
         <v>232</v>
       </c>
       <c r="B60" s="149" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C60" s="29">
         <v>9</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="145" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F60" s="147" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>63</v>
@@ -7360,10 +7442,10 @@
         <v>238</v>
       </c>
       <c r="F62" s="147" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H62" s="30" t="s">
         <v>63</v>
@@ -7415,13 +7497,13 @@
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="145" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F64" s="147" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>63</v>
@@ -7453,10 +7535,10 @@
         <v>581</v>
       </c>
       <c r="H65" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I65" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="2"/>
@@ -7482,10 +7564,10 @@
         <v>463</v>
       </c>
       <c r="H66" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I66" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="2"/>
@@ -7511,10 +7593,10 @@
         <v>555</v>
       </c>
       <c r="H67" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I67" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="2"/>
@@ -7540,10 +7622,10 @@
         <v>364</v>
       </c>
       <c r="H68" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I68" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="2"/>
@@ -7569,10 +7651,10 @@
         <v>269</v>
       </c>
       <c r="H69" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I69" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="2"/>
@@ -7598,10 +7680,10 @@
         <v>89</v>
       </c>
       <c r="H70" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="I70" s="150" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="2"/>
@@ -7618,13 +7700,13 @@
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="138" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F71" s="144" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G71" s="138" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="H71" s="30" t="s">
         <v>63</v>
@@ -7647,13 +7729,13 @@
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="145" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F72" s="147" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G72" s="148" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="H72" s="30" t="s">
         <v>63</v>
@@ -7676,13 +7758,13 @@
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="138" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F73" s="144" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G73" s="138" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>63</v>
@@ -7804,13 +7886,13 @@
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="138" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F77" s="144" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G77" s="138" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H77" s="30" t="s">
         <v>63</v>
@@ -7822,7 +7904,7 @@
         <v>63</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7869,10 +7951,10 @@
         <v>291</v>
       </c>
       <c r="F79" s="144" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G79" s="138" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="H79" s="30" t="s">
         <v>63</v>
@@ -7895,7 +7977,7 @@
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="145" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>294</v>
@@ -7927,10 +8009,10 @@
         <v>297</v>
       </c>
       <c r="F81" s="144" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G81" s="138" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H81" s="30" t="s">
         <v>63</v>
@@ -7946,7 +8028,7 @@
         <v>298</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C82" s="29">
         <v>8</v>
@@ -7968,7 +8050,7 @@
         <v>22</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="K82" s="2"/>
     </row>
@@ -8002,7 +8084,7 @@
         <v>63</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8020,10 +8102,10 @@
         <v>306</v>
       </c>
       <c r="F84" s="147" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G84" s="148" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H84" s="30" t="s">
         <v>63</v>
@@ -8061,7 +8143,7 @@
         <v>22</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="K85" s="2"/>
     </row>
@@ -8106,7 +8188,7 @@
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="138" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F87" s="21" t="s">
         <v>316</v>
@@ -8157,7 +8239,7 @@
         <v>321</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C89" s="23">
         <v>6</v>
@@ -8179,7 +8261,7 @@
         <v>22</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="K89" s="2"/>
     </row>
@@ -8195,7 +8277,7 @@
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="18" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>326</v>
@@ -8217,14 +8299,14 @@
         <v>327</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C91" s="23">
         <v>7</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="22" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>328</v>
@@ -8379,7 +8461,7 @@
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="137" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>347</v>
@@ -8410,7 +8492,7 @@
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="136" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F97" s="21" t="s">
         <v>351</v>
@@ -8472,7 +8554,7 @@
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="135" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F99" s="21" t="s">
         <v>361</v>
@@ -10349,10 +10431,10 @@
         <v>506</v>
       </c>
       <c r="F211" s="63" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G211" s="65" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H211" s="30" t="s">
         <v>63</v>
@@ -10372,20 +10454,20 @@
         <v>386</v>
       </c>
       <c r="B212" s="66" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C212" s="67">
         <v>2</v>
       </c>
       <c r="D212" s="66"/>
       <c r="E212" s="66" t="s">
+        <v>834</v>
+      </c>
+      <c r="F212" s="66" t="s">
+        <v>841</v>
+      </c>
+      <c r="G212" s="68" t="s">
         <v>840</v>
-      </c>
-      <c r="F212" s="66" t="s">
-        <v>847</v>
-      </c>
-      <c r="G212" s="68" t="s">
-        <v>846</v>
       </c>
       <c r="H212" s="30" t="s">
         <v>63</v>
@@ -10405,20 +10487,20 @@
         <v>387</v>
       </c>
       <c r="B213" s="63" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C213" s="64">
         <v>2</v>
       </c>
       <c r="D213" s="63"/>
       <c r="E213" s="63" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F213" s="63" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G213" s="65" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="H213" s="30" t="s">
         <v>63</v>
@@ -10430,7 +10512,7 @@
         <v>63</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10438,20 +10520,20 @@
         <v>388</v>
       </c>
       <c r="B214" s="66" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C214" s="67">
         <v>2</v>
       </c>
       <c r="D214" s="66"/>
       <c r="E214" s="66" t="s">
+        <v>837</v>
+      </c>
+      <c r="F214" s="66" t="s">
         <v>843</v>
       </c>
-      <c r="F214" s="66" t="s">
-        <v>849</v>
-      </c>
       <c r="G214" s="68" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H214" s="30" t="s">
         <v>63</v>
@@ -10467,20 +10549,20 @@
         <v>389</v>
       </c>
       <c r="B215" s="63" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C215" s="151">
         <v>2</v>
       </c>
       <c r="D215" s="63"/>
       <c r="E215" s="63" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F215" s="63" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G215" s="65" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H215" s="30" t="s">
         <v>63</v>
@@ -10494,20 +10576,20 @@
         <v>390</v>
       </c>
       <c r="B216" s="66" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C216" s="67">
         <v>2</v>
       </c>
       <c r="D216" s="66"/>
       <c r="E216" s="66" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F216" s="66" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G216" s="68" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H216" s="30" t="s">
         <v>63</v>
@@ -10521,20 +10603,20 @@
         <v>391</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C217" s="69">
         <v>2</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F217" s="63" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G217" s="65" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="H217" s="30" t="s">
         <v>63</v>
@@ -10548,20 +10630,20 @@
         <v>392</v>
       </c>
       <c r="B218" s="66" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C218" s="67">
         <v>2</v>
       </c>
       <c r="D218" s="66"/>
       <c r="E218" s="66" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F218" s="66" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G218" s="68" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H218" s="30" t="s">
         <v>63</v>
@@ -10575,20 +10657,20 @@
         <v>393</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C219" s="69">
         <v>2</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F219" s="63" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="G219" s="65" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="H219" s="30" t="s">
         <v>63</v>
@@ -10828,13 +10910,13 @@
       <c r="H240" s="70"/>
       <c r="I240" s="70"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="71"/>
       <c r="F241" s="2"/>
       <c r="H241" s="70"/>
       <c r="I241" s="70"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="73" t="s">
         <v>507</v>
       </c>
@@ -10848,21 +10930,23 @@
       <c r="E242" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F242" s="188" t="s">
+        <v>885</v>
+      </c>
+      <c r="G242" s="57">
+        <v>506</v>
+      </c>
+      <c r="H242" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I242" s="70"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="G242" s="57">
-        <v>327</v>
-      </c>
-      <c r="H242" s="70"/>
-      <c r="I242" s="70"/>
-    </row>
-    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="73" t="s">
+      <c r="B243" s="26" t="s">
         <v>510</v>
-      </c>
-      <c r="B243" s="26" t="s">
-        <v>511</v>
       </c>
       <c r="C243" s="29">
         <v>3</v>
@@ -10871,54 +10955,58 @@
       <c r="E243" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F243" s="188" t="s">
+        <v>891</v>
+      </c>
+      <c r="G243" s="74">
+        <v>452</v>
+      </c>
+      <c r="H243" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I243" s="70"/>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="73" t="s">
+        <v>511</v>
+      </c>
+      <c r="B244" s="44" t="s">
         <v>512</v>
-      </c>
-      <c r="G243" s="74">
-        <v>514</v>
-      </c>
-      <c r="H243" s="70"/>
-      <c r="I243" s="70"/>
-    </row>
-    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="73" t="s">
-        <v>513</v>
-      </c>
-      <c r="B244" s="44" t="s">
-        <v>514</v>
       </c>
       <c r="C244" s="55">
         <v>9</v>
       </c>
       <c r="D244" s="56"/>
       <c r="E244" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
+      </c>
+      <c r="F244" s="188" t="s">
+        <v>888</v>
       </c>
       <c r="G244" s="57">
-        <v>124</v>
-      </c>
-      <c r="H244" s="70"/>
+        <v>167</v>
+      </c>
+      <c r="H244" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="I244" s="70"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="73" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>518</v>
+        <v>868</v>
       </c>
       <c r="C245" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="18" t="s">
-        <v>519</v>
+        <v>871</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G245" s="74">
         <v>44</v>
@@ -10928,136 +11016,219 @@
       </c>
       <c r="I245" s="70"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="73" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B246" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="C246" s="55">
-        <v>11</v>
+        <v>872</v>
+      </c>
+      <c r="C246" s="55" t="s">
+        <v>870</v>
       </c>
       <c r="D246" s="56"/>
       <c r="E246" s="45" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G246" s="57"/>
+        <v>518</v>
+      </c>
+      <c r="G246" s="57">
+        <v>130</v>
+      </c>
       <c r="H246" s="75" t="s">
         <v>22</v>
       </c>
       <c r="I246" s="70"/>
-    </row>
-    <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K246" s="185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="C247" s="29">
+        <v>10</v>
+      </c>
+      <c r="D247" s="27"/>
+      <c r="E247" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G247" s="74">
+        <v>15</v>
+      </c>
+      <c r="H247" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I247" s="70"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="73" t="s">
+        <v>520</v>
+      </c>
+      <c r="B248" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="C248" s="55">
+        <v>9</v>
+      </c>
+      <c r="D248" s="56"/>
+      <c r="E248" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G248" s="57">
+        <v>539</v>
+      </c>
+      <c r="H248" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I248" s="70"/>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="C249" s="29">
+        <v>3</v>
+      </c>
+      <c r="D249" s="27"/>
+      <c r="E249" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="F249" s="188" t="s">
+        <v>884</v>
+      </c>
+      <c r="G249" s="74">
+        <v>512</v>
+      </c>
+      <c r="H249" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I249" s="75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="B250" s="186" t="s">
+        <v>879</v>
+      </c>
+      <c r="C250" s="55">
+        <v>3</v>
+      </c>
+      <c r="D250" s="56"/>
+      <c r="E250" s="187" t="s">
+        <v>880</v>
+      </c>
+      <c r="F250" s="188" t="s">
+        <v>889</v>
+      </c>
+      <c r="G250" s="57">
+        <v>3</v>
+      </c>
+      <c r="H250" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I250" s="75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="73" t="s">
+        <v>523</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="C251" s="29">
+        <v>3</v>
+      </c>
+      <c r="D251" s="27"/>
+      <c r="E251" s="189" t="s">
+        <v>882</v>
+      </c>
+      <c r="F251" s="188" t="s">
+        <v>890</v>
+      </c>
+      <c r="G251" s="74">
+        <v>504</v>
+      </c>
+      <c r="H251" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I251" s="75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="B252" s="186" t="s">
+        <v>883</v>
+      </c>
+      <c r="C252" s="55">
+        <v>4</v>
+      </c>
+      <c r="D252" s="56"/>
+      <c r="E252" s="187" t="s">
+        <v>887</v>
+      </c>
+      <c r="F252" s="188" t="s">
+        <v>886</v>
+      </c>
+      <c r="G252" s="57">
+        <v>548</v>
+      </c>
+      <c r="H252" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I252" s="70"/>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="73" t="s">
         <v>525</v>
-      </c>
-      <c r="B247" s="26"/>
-      <c r="C247" s="29"/>
-      <c r="D247" s="27"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="74"/>
-      <c r="H247" s="70"/>
-      <c r="I247" s="70"/>
-    </row>
-    <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="73" t="s">
-        <v>526</v>
-      </c>
-      <c r="B248" s="44"/>
-      <c r="C248" s="55"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="45"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="57"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="70"/>
-    </row>
-    <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="73" t="s">
-        <v>527</v>
-      </c>
-      <c r="B249" s="26"/>
-      <c r="C249" s="29"/>
-      <c r="D249" s="27"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="74"/>
-      <c r="H249" s="70"/>
-      <c r="I249" s="70"/>
-    </row>
-    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="B250" s="44"/>
-      <c r="C250" s="55"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="45"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="57"/>
-      <c r="H250" s="70"/>
-      <c r="I250" s="70"/>
-    </row>
-    <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="B251" s="26"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="27"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="74"/>
-      <c r="H251" s="70"/>
-      <c r="I251" s="70"/>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="73" t="s">
-        <v>530</v>
-      </c>
-      <c r="B252" s="44"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="57"/>
-      <c r="H252" s="70"/>
-      <c r="I252" s="70"/>
-    </row>
-    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="73" t="s">
-        <v>531</v>
       </c>
       <c r="B253" s="26"/>
       <c r="C253" s="29"/>
       <c r="D253" s="27"/>
-      <c r="E253" s="18"/>
+      <c r="E253" s="189"/>
       <c r="F253" s="2"/>
       <c r="G253" s="74"/>
       <c r="H253" s="70"/>
       <c r="I253" s="70"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="73" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B254" s="44"/>
       <c r="C254" s="55"/>
       <c r="D254" s="56"/>
       <c r="E254" s="45"/>
-      <c r="F254" s="2"/>
+      <c r="F254" s="45"/>
       <c r="G254" s="57"/>
       <c r="H254" s="70"/>
       <c r="I254" s="70"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="73" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B255" s="26"/>
       <c r="C255" s="29"/>
@@ -11068,9 +11239,9 @@
       <c r="H255" s="70"/>
       <c r="I255" s="70"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="73" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B256" s="44"/>
       <c r="C256" s="55"/>
@@ -11083,7 +11254,7 @@
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="73" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B257" s="26"/>
       <c r="C257" s="29"/>
@@ -11096,7 +11267,7 @@
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="73" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B258" s="44"/>
       <c r="C258" s="55"/>
@@ -11109,7 +11280,7 @@
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="73" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B259" s="26"/>
       <c r="C259" s="29"/>
@@ -11122,7 +11293,7 @@
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="73" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B260" s="44"/>
       <c r="C260" s="55"/>
@@ -11135,7 +11306,7 @@
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="73" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B261" s="26"/>
       <c r="C261" s="29"/>
@@ -11148,7 +11319,7 @@
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="73" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B262" s="44"/>
       <c r="C262" s="55"/>
@@ -11161,7 +11332,7 @@
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="73" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B263" s="26"/>
       <c r="C263" s="29"/>
@@ -11174,7 +11345,7 @@
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="73" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="55"/>
@@ -11187,7 +11358,7 @@
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="73" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B265" s="26"/>
       <c r="C265" s="29"/>
@@ -11200,7 +11371,7 @@
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="73" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B266" s="44"/>
       <c r="C266" s="55"/>
@@ -11213,7 +11384,7 @@
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="73" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B267" s="26"/>
       <c r="C267" s="29"/>
@@ -11226,7 +11397,7 @@
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="73" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="55"/>
@@ -11239,7 +11410,7 @@
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="73" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B269" s="26"/>
       <c r="C269" s="29"/>
@@ -11252,7 +11423,7 @@
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="73" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B270" s="44"/>
       <c r="C270" s="55"/>
@@ -11265,7 +11436,7 @@
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="73" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B271" s="26"/>
       <c r="C271" s="29"/>
@@ -11278,7 +11449,7 @@
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="73" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B272" s="44"/>
       <c r="C272" s="55"/>
@@ -11291,7 +11462,7 @@
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="73" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B273" s="26"/>
       <c r="C273" s="29"/>
@@ -11304,7 +11475,7 @@
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="73" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="55"/>
@@ -11317,7 +11488,7 @@
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="73" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B275" s="26"/>
       <c r="C275" s="29"/>
@@ -11330,7 +11501,7 @@
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="73" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B276" s="44"/>
       <c r="C276" s="55"/>
@@ -11343,7 +11514,7 @@
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="73" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B277" s="26"/>
       <c r="C277" s="29"/>
@@ -11356,7 +11527,7 @@
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="73" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B278" s="44"/>
       <c r="C278" s="55"/>
@@ -11369,7 +11540,7 @@
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="73" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B279" s="26"/>
       <c r="C279" s="29"/>
@@ -11382,7 +11553,7 @@
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="73" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B280" s="44"/>
       <c r="C280" s="55"/>
@@ -11395,7 +11566,7 @@
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="73" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B281" s="26"/>
       <c r="C281" s="29"/>
@@ -11408,7 +11579,7 @@
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="73" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="55"/>
@@ -11421,7 +11592,7 @@
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="73" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B283" s="26"/>
       <c r="C283" s="29"/>
@@ -11434,7 +11605,7 @@
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="73" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B284" s="44"/>
       <c r="C284" s="55"/>
@@ -11447,7 +11618,7 @@
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="73" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B285" s="26"/>
       <c r="C285" s="29"/>
@@ -11460,7 +11631,7 @@
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="73" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B286" s="44"/>
       <c r="C286" s="55"/>
@@ -11473,7 +11644,7 @@
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="73" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B287" s="26"/>
       <c r="C287" s="29"/>
@@ -11486,7 +11657,7 @@
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="73" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B288" s="44"/>
       <c r="C288" s="55"/>
@@ -11499,7 +11670,7 @@
     </row>
     <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="73" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B289" s="26"/>
       <c r="C289" s="29"/>
@@ -11512,7 +11683,7 @@
     </row>
     <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="73" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B290" s="44"/>
       <c r="C290" s="55"/>
@@ -11525,7 +11696,7 @@
     </row>
     <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="73" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B291" s="26"/>
       <c r="C291" s="29"/>
@@ -11538,7 +11709,7 @@
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="73" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="55"/>
@@ -11551,7 +11722,7 @@
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="73" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B293" s="26"/>
       <c r="C293" s="29"/>
@@ -11564,7 +11735,7 @@
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="73" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B294" s="44"/>
       <c r="C294" s="55"/>
@@ -11577,7 +11748,7 @@
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="73" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B295" s="26"/>
       <c r="C295" s="29"/>
@@ -11590,7 +11761,7 @@
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="73" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B296" s="44"/>
       <c r="C296" s="55"/>
@@ -11603,7 +11774,7 @@
     </row>
     <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="73" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B297" s="26"/>
       <c r="C297" s="29"/>
@@ -11616,7 +11787,7 @@
     </row>
     <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="73" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B298" s="44"/>
       <c r="C298" s="55"/>
@@ -11629,7 +11800,7 @@
     </row>
     <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="73" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B299" s="26"/>
       <c r="C299" s="29"/>
@@ -11642,7 +11813,7 @@
     </row>
     <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="73" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B300" s="44"/>
       <c r="C300" s="55"/>
@@ -11655,7 +11826,7 @@
     </row>
     <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="73" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B301" s="26"/>
       <c r="C301" s="29"/>
@@ -11668,7 +11839,7 @@
     </row>
     <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="73" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="55"/>
@@ -11681,7 +11852,7 @@
     </row>
     <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="73" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B303" s="26"/>
       <c r="C303" s="29"/>
@@ -11694,7 +11865,7 @@
     </row>
     <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="73" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B304" s="44"/>
       <c r="C304" s="55"/>
@@ -11707,7 +11878,7 @@
     </row>
     <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="73" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B305" s="26"/>
       <c r="C305" s="29"/>
@@ -11720,7 +11891,7 @@
     </row>
     <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="73" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B306" s="44"/>
       <c r="C306" s="55"/>
@@ -11733,7 +11904,7 @@
     </row>
     <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="73" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B307" s="26"/>
       <c r="C307" s="29"/>
@@ -11746,7 +11917,7 @@
     </row>
     <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="73" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B308" s="44"/>
       <c r="C308" s="55"/>
@@ -11759,7 +11930,7 @@
     </row>
     <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="73" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B309" s="26"/>
       <c r="C309" s="29"/>
@@ -11772,7 +11943,7 @@
     </row>
     <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="73" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B310" s="44"/>
       <c r="C310" s="55"/>
@@ -11785,7 +11956,7 @@
     </row>
     <row r="311" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="73" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B311" s="26"/>
       <c r="C311" s="29"/>
@@ -11798,7 +11969,7 @@
     </row>
     <row r="312" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="73" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B312" s="44"/>
       <c r="C312" s="55"/>
@@ -11811,7 +11982,7 @@
     </row>
     <row r="313" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="73" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B313" s="26"/>
       <c r="C313" s="29"/>
@@ -11824,7 +11995,7 @@
     </row>
     <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="73" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B314" s="44"/>
       <c r="C314" s="55"/>
@@ -11837,7 +12008,7 @@
     </row>
     <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="73" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B315" s="26"/>
       <c r="C315" s="29"/>
@@ -11850,7 +12021,7 @@
     </row>
     <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="73" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B316" s="44"/>
       <c r="C316" s="55"/>
@@ -11863,7 +12034,7 @@
     </row>
     <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="73" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B317" s="26"/>
       <c r="C317" s="29"/>
@@ -11876,7 +12047,7 @@
     </row>
     <row r="318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="73" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B318" s="44"/>
       <c r="C318" s="55"/>
@@ -11889,7 +12060,7 @@
     </row>
     <row r="319" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="73" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B319" s="26"/>
       <c r="C319" s="29"/>
@@ -11902,7 +12073,7 @@
     </row>
     <row r="320" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="73" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B320" s="44"/>
       <c r="C320" s="55"/>
@@ -11915,7 +12086,7 @@
     </row>
     <row r="321" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="73" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B321" s="26"/>
       <c r="C321" s="29"/>
@@ -11928,7 +12099,7 @@
     </row>
     <row r="322" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="73" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B322" s="44"/>
       <c r="C322" s="55"/>
@@ -11941,7 +12112,7 @@
     </row>
     <row r="323" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="73" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B323" s="26"/>
       <c r="C323" s="29"/>
@@ -11954,7 +12125,7 @@
     </row>
     <row r="324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="73" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B324" s="44"/>
       <c r="C324" s="55"/>
@@ -11967,7 +12138,7 @@
     </row>
     <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="73" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B325" s="26"/>
       <c r="C325" s="29"/>
@@ -11980,7 +12151,7 @@
     </row>
     <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="73" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B326" s="44"/>
       <c r="C326" s="55"/>
@@ -11993,7 +12164,7 @@
     </row>
     <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="73" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B327" s="26"/>
       <c r="C327" s="29"/>
@@ -12006,7 +12177,7 @@
     </row>
     <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="73" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B328" s="44"/>
       <c r="C328" s="55"/>
@@ -12019,7 +12190,7 @@
     </row>
     <row r="329" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="73" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B329" s="26"/>
       <c r="C329" s="29"/>
@@ -12032,7 +12203,7 @@
     </row>
     <row r="330" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="73" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B330" s="44"/>
       <c r="C330" s="55"/>
@@ -12045,7 +12216,7 @@
     </row>
     <row r="331" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="73" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B331" s="26"/>
       <c r="C331" s="29"/>
@@ -12058,7 +12229,7 @@
     </row>
     <row r="332" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="73" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B332" s="44"/>
       <c r="C332" s="55"/>
@@ -12071,7 +12242,7 @@
     </row>
     <row r="333" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="73" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B333" s="26"/>
       <c r="C333" s="29"/>
@@ -12084,7 +12255,7 @@
     </row>
     <row r="334" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="73" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B334" s="44"/>
       <c r="C334" s="55"/>
@@ -12097,7 +12268,7 @@
     </row>
     <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="73" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B335" s="26"/>
       <c r="C335" s="29"/>
@@ -12110,7 +12281,7 @@
     </row>
     <row r="336" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="73" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B336" s="44"/>
       <c r="C336" s="55"/>
@@ -12123,7 +12294,7 @@
     </row>
     <row r="337" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="73" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B337" s="26"/>
       <c r="C337" s="29"/>
@@ -12136,7 +12307,7 @@
     </row>
     <row r="338" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="73" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B338" s="44"/>
       <c r="C338" s="55"/>
@@ -12149,7 +12320,7 @@
     </row>
     <row r="339" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="73" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B339" s="26"/>
       <c r="C339" s="29"/>
@@ -12162,7 +12333,7 @@
     </row>
     <row r="340" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="73" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B340" s="44"/>
       <c r="C340" s="55"/>
@@ -12175,7 +12346,7 @@
     </row>
     <row r="341" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="73" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B341" s="26"/>
       <c r="C341" s="29"/>
@@ -16972,81 +17143,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
-        <v>620</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
+      <c r="A1" s="157" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
-        <v>621</v>
-      </c>
-      <c r="B2" s="160"/>
+      <c r="A2" s="160" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="161"/>
       <c r="C2" s="80" t="s">
-        <v>622</v>
-      </c>
-      <c r="D2" s="176" t="s">
-        <v>623</v>
+        <v>616</v>
+      </c>
+      <c r="D2" s="162" t="s">
+        <v>617</v>
       </c>
       <c r="E2" s="163"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="177" t="s">
-        <v>624</v>
-      </c>
-      <c r="I2" s="164"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="164" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" s="165"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
-        <v>625</v>
-      </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
+      <c r="A4" s="166" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G5" s="82" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17054,104 +17225,104 @@
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="H6" s="86" t="s">
         <v>635</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="K6" s="167" t="s">
         <v>637</v>
       </c>
-      <c r="E6" s="86" t="s">
-        <v>638</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>639</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>640</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>641</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="K6" s="166" t="s">
-        <v>643</v>
-      </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
         <v>2</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="H7" s="86" t="s">
         <v>644</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="K7" s="167" t="s">
         <v>646</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>647</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>648</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>649</v>
-      </c>
-      <c r="H7" s="86" t="s">
-        <v>650</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>651</v>
-      </c>
-      <c r="K7" s="166" t="s">
-        <v>652</v>
-      </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>647</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>648</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>649</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>651</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>652</v>
+      </c>
+      <c r="H8" s="86" t="s">
         <v>653</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="I8" s="87" t="s">
         <v>654</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>655</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>656</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>657</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>658</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>659</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17231,111 +17402,111 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
-        <v>661</v>
-      </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="A15" s="169" t="s">
+        <v>655</v>
+      </c>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="171"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>626</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>632</v>
-      </c>
       <c r="D16" s="82" t="s">
-        <v>633</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>662</v>
-      </c>
-      <c r="F16" s="158"/>
-      <c r="G16" s="171" t="s">
-        <v>663</v>
-      </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+        <v>627</v>
+      </c>
+      <c r="E16" s="172" t="s">
+        <v>656</v>
+      </c>
+      <c r="F16" s="173"/>
+      <c r="G16" s="172" t="s">
+        <v>657</v>
+      </c>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
         <v>1</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D17" s="86" t="s">
+        <v>654</v>
+      </c>
+      <c r="E17" s="176" t="s">
+        <v>659</v>
+      </c>
+      <c r="F17" s="173"/>
+      <c r="G17" s="176" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="165" t="s">
-        <v>665</v>
-      </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
-        <v>666</v>
-      </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
         <v>2</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>660</v>
-      </c>
-      <c r="E18" s="165" t="s">
-        <v>665</v>
-      </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+        <v>654</v>
+      </c>
+      <c r="E18" s="176" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" s="173"/>
+      <c r="G18" s="176" t="s">
+        <v>662</v>
+      </c>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
         <v>3</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>670</v>
-      </c>
-      <c r="E19" s="165" t="s">
-        <v>671</v>
-      </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
-        <v>672</v>
-      </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+        <v>664</v>
+      </c>
+      <c r="E19" s="176" t="s">
+        <v>665</v>
+      </c>
+      <c r="F19" s="173"/>
+      <c r="G19" s="176" t="s">
+        <v>666</v>
+      </c>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="K19" s="84" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17345,11 +17516,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17358,13 +17529,13 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="K21" s="84" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17374,11 +17545,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17387,11 +17558,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17400,11 +17571,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17413,11 +17584,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17426,11 +17597,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="159"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="165"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18408,16 +18579,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18430,14 +18599,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18472,13 +18643,13 @@
       <c r="A1" s="95"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D1" s="96"/>
       <c r="E1" s="96"/>
       <c r="F1" s="96"/>
       <c r="G1" s="96" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H1" s="96"/>
       <c r="I1" s="97"/>
@@ -18486,7 +18657,7 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="179" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B2" s="180"/>
       <c r="C2" s="156"/>
@@ -18503,7 +18674,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C3" s="106" t="s">
         <v>7</v>
@@ -18515,10 +18686,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G3" s="106" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>12</v>
@@ -18537,7 +18708,7 @@
     <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="B5" s="111" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D5" s="91"/>
       <c r="K5" s="112"/>
@@ -18547,7 +18718,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D6" s="91"/>
       <c r="K6" s="112"/>
@@ -18555,7 +18726,7 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D7" s="91"/>
       <c r="K7" s="112"/>
@@ -18563,7 +18734,7 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="113" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D8" s="91"/>
       <c r="K8" s="112"/>
@@ -18575,14 +18746,14 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="111" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K10" s="112"/>
       <c r="O10" s="98"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K11" s="112"/>
       <c r="O11" s="98"/>
@@ -21582,19 +21753,19 @@
     <row r="1" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="181" t="s">
-        <v>685</v>
-      </c>
-      <c r="C2" s="158"/>
+        <v>679</v>
+      </c>
+      <c r="C2" s="173"/>
       <c r="O2" s="84" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="114" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21602,10 +21773,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21613,10 +21784,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21624,10 +21795,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21635,10 +21806,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21646,10 +21817,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21657,10 +21828,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21668,10 +21839,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21679,10 +21850,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21690,10 +21861,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21701,10 +21872,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21712,10 +21883,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21723,10 +21894,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21734,10 +21905,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21745,10 +21916,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22794,60 +22965,60 @@
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="84" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="s">
-        <v>718</v>
-      </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="158"/>
+        <v>712</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B4" s="183" t="s">
-        <v>719</v>
-      </c>
-      <c r="C4" s="158"/>
+        <v>713</v>
+      </c>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B5" s="182" t="s">
-        <v>721</v>
-      </c>
-      <c r="C5" s="158"/>
+        <v>715</v>
+      </c>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B6" s="182" t="s">
-        <v>723</v>
-      </c>
-      <c r="C6" s="158"/>
+        <v>717</v>
+      </c>
+      <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B7" s="182" t="s">
-        <v>725</v>
-      </c>
-      <c r="C7" s="158"/>
+        <v>719</v>
+      </c>
+      <c r="C7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B8" s="182" t="s">
-        <v>727</v>
-      </c>
-      <c r="C8" s="158"/>
+        <v>721</v>
+      </c>
+      <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23876,111 +24047,111 @@
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="184" t="s">
-        <v>728</v>
-      </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
+        <v>722</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="J2" s="84" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="119" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="121" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D4" s="123" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="121" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="121" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="121" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="121" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="121" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D9" s="126" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="121" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="127" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26977,24 +27148,24 @@
     <row r="2" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="84" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="84" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="84" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D6" s="129" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28021,7 +28192,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J1" s="84" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28029,67 +28200,67 @@
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="183" t="s">
-        <v>761</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="158"/>
+        <v>755</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C7" s="122" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="131" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="133" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="134" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE339416-08C4-4A91-814C-9FF41324D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510309B-48B7-4A25-98A3-55E12AE3BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3924,6 +3924,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3992,17 +4003,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5383,10 +5383,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E249" sqref="E249"/>
+      <selection pane="bottomRight" activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5405,15 +5405,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5426,10 +5426,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -10930,7 +10930,7 @@
       <c r="E242" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="F242" s="188" t="s">
+      <c r="F242" s="155" t="s">
         <v>885</v>
       </c>
       <c r="G242" s="57">
@@ -10955,7 +10955,7 @@
       <c r="E243" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F243" s="188" t="s">
+      <c r="F243" s="155" t="s">
         <v>891</v>
       </c>
       <c r="G243" s="74">
@@ -10980,7 +10980,7 @@
       <c r="E244" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="F244" s="188" t="s">
+      <c r="F244" s="155" t="s">
         <v>888</v>
       </c>
       <c r="G244" s="57">
@@ -11040,7 +11040,7 @@
         <v>22</v>
       </c>
       <c r="I246" s="70"/>
-      <c r="K246" s="185" t="s">
+      <c r="K246" s="152" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11108,7 +11108,7 @@
       <c r="E249" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="F249" s="188" t="s">
+      <c r="F249" s="155" t="s">
         <v>884</v>
       </c>
       <c r="G249" s="74">
@@ -11125,17 +11125,17 @@
       <c r="A250" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="B250" s="186" t="s">
+      <c r="B250" s="153" t="s">
         <v>879</v>
       </c>
       <c r="C250" s="55">
         <v>3</v>
       </c>
       <c r="D250" s="56"/>
-      <c r="E250" s="187" t="s">
+      <c r="E250" s="154" t="s">
         <v>880</v>
       </c>
-      <c r="F250" s="188" t="s">
+      <c r="F250" s="155" t="s">
         <v>889</v>
       </c>
       <c r="G250" s="57">
@@ -11159,10 +11159,10 @@
         <v>3</v>
       </c>
       <c r="D251" s="27"/>
-      <c r="E251" s="189" t="s">
+      <c r="E251" s="156" t="s">
         <v>882</v>
       </c>
-      <c r="F251" s="188" t="s">
+      <c r="F251" s="155" t="s">
         <v>890</v>
       </c>
       <c r="G251" s="74">
@@ -11179,17 +11179,17 @@
       <c r="A252" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="B252" s="186" t="s">
+      <c r="B252" s="153" t="s">
         <v>883</v>
       </c>
       <c r="C252" s="55">
         <v>4</v>
       </c>
       <c r="D252" s="56"/>
-      <c r="E252" s="187" t="s">
+      <c r="E252" s="154" t="s">
         <v>887</v>
       </c>
-      <c r="F252" s="188" t="s">
+      <c r="F252" s="155" t="s">
         <v>886</v>
       </c>
       <c r="G252" s="57">
@@ -11207,7 +11207,7 @@
       <c r="B253" s="26"/>
       <c r="C253" s="29"/>
       <c r="D253" s="27"/>
-      <c r="E253" s="189"/>
+      <c r="E253" s="156"/>
       <c r="F253" s="2"/>
       <c r="G253" s="74"/>
       <c r="H253" s="70"/>
@@ -17126,7 +17126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17143,50 +17145,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="162" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="165" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="167" t="s">
         <v>617</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="164" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="169" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="171" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17248,15 +17250,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="172" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17286,15 +17288,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="172" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17402,17 +17404,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="174" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="171"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17427,15 +17429,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="177" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="172" t="s">
+      <c r="F16" s="178"/>
+      <c r="G16" s="177" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17450,15 +17452,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="176" t="s">
+      <c r="F17" s="178"/>
+      <c r="G17" s="181" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17473,15 +17475,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="176" t="s">
+      <c r="F18" s="178"/>
+      <c r="G18" s="181" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="174"/>
-      <c r="I18" s="175"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17496,15 +17498,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="181" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="176" t="s">
+      <c r="F19" s="178"/>
+      <c r="G19" s="181" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="175"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17516,11 +17518,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17529,11 +17531,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17545,11 +17547,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17558,11 +17560,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="180"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17571,11 +17573,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17584,11 +17586,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17597,11 +17599,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="165"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="170"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18620,7 +18622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18656,11 +18660,11 @@
       <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="184" t="s">
         <v>671</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="161"/>
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
       <c r="F2" s="101"/>
@@ -21752,10 +21756,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="178"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -22969,56 +22973,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>716</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="178"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24046,11 +24050,11 @@
       <c r="D1" s="118"/>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28199,11 +28203,11 @@
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510309B-48B7-4A25-98A3-55E12AE3BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15320682-5C8A-489F-B3FC-1F6C07028515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="892">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3944,25 +3944,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3976,17 +3971,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5383,10 +5383,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E245" sqref="E245"/>
+      <selection pane="bottomRight" activeCell="I252" sqref="I242:I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10939,7 +10939,9 @@
       <c r="H242" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I242" s="70"/>
+      <c r="I242" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="73" t="s">
@@ -10964,7 +10966,9 @@
       <c r="H243" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I243" s="70"/>
+      <c r="I243" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="73" t="s">
@@ -10989,7 +10993,9 @@
       <c r="H244" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I244" s="70"/>
+      <c r="I244" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="73" t="s">
@@ -11014,7 +11020,9 @@
       <c r="H245" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I245" s="70"/>
+      <c r="I245" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="73" t="s">
@@ -11039,7 +11047,9 @@
       <c r="H246" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I246" s="70"/>
+      <c r="I246" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="K246" s="152" t="s">
         <v>231</v>
       </c>
@@ -11067,7 +11077,9 @@
       <c r="H247" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I247" s="70"/>
+      <c r="I247" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="73" t="s">
@@ -11092,7 +11104,9 @@
       <c r="H248" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I248" s="70"/>
+      <c r="I248" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="73" t="s">
@@ -11198,7 +11212,9 @@
       <c r="H252" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I252" s="70"/>
+      <c r="I252" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="73" t="s">
@@ -17145,50 +17161,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="177" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="180" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="181" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="168"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="169" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="182" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="170"/>
+      <c r="I2" s="169"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="183" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17250,15 +17266,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="172" t="s">
+      <c r="K6" s="171" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17288,15 +17304,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="171" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17404,17 +17420,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="173" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17429,15 +17445,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="176" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="177" t="s">
+      <c r="F16" s="163"/>
+      <c r="G16" s="176" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17452,15 +17468,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="181" t="s">
+      <c r="F17" s="163"/>
+      <c r="G17" s="170" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="179"/>
-      <c r="I17" s="180"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17475,15 +17491,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="181" t="s">
+      <c r="F18" s="163"/>
+      <c r="G18" s="170" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="180"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17498,15 +17514,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="170" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="181" t="s">
+      <c r="F19" s="163"/>
+      <c r="G19" s="170" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17518,11 +17534,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="180"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17531,11 +17547,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="180"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17547,11 +17563,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="180"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17560,11 +17576,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="180"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17573,11 +17589,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="180"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17586,11 +17602,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="180"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17599,11 +17615,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="183"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="168"/>
-      <c r="I26" s="170"/>
+      <c r="I26" s="169"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18581,14 +18597,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18601,16 +18619,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21759,7 +21775,7 @@
       <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="178"/>
+      <c r="C2" s="163"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -22976,8 +22992,8 @@
       <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="178"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -22986,7 +23002,7 @@
       <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -22995,7 +23011,7 @@
       <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="178"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23004,7 +23020,7 @@
       <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="163"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23013,7 +23029,7 @@
       <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="178"/>
+      <c r="C7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23022,7 +23038,7 @@
       <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24053,8 +24069,8 @@
       <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28206,8 +28222,8 @@
       <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15320682-5C8A-489F-B3FC-1F6C07028515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AF8522-F4D0-43CE-9136-1636E6E97645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="893">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2732,6 +2732,9 @@
   </si>
   <si>
     <t>N 65 49.046 E 031 28.752</t>
+  </si>
+  <si>
+    <t>Robin</t>
   </si>
 </sst>
 </file>
@@ -3944,20 +3947,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3971,22 +3979,17 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5383,10 +5386,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I252" sqref="I242:I252"/>
+      <selection pane="bottomRight" activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10942,6 +10945,9 @@
       <c r="I242" s="75" t="s">
         <v>22</v>
       </c>
+      <c r="K242" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="73" t="s">
@@ -11214,6 +11220,9 @@
       </c>
       <c r="I252" s="75" t="s">
         <v>22</v>
+      </c>
+      <c r="K252" s="152" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17161,50 +17170,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="162" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="165" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="165"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="167" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="168"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="182" t="s">
+      <c r="G2" s="166"/>
+      <c r="H2" s="169" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="169"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="171" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17266,15 +17275,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="171" t="s">
+      <c r="K6" s="172" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17304,15 +17313,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="171" t="s">
+      <c r="K7" s="172" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17420,17 +17429,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="174" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="175"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17445,15 +17454,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="177" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="176" t="s">
+      <c r="F16" s="178"/>
+      <c r="G16" s="177" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17468,15 +17477,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="170" t="s">
+      <c r="F17" s="178"/>
+      <c r="G17" s="181" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17491,15 +17500,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="170" t="s">
+      <c r="F18" s="178"/>
+      <c r="G18" s="181" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17514,15 +17523,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="170" t="s">
+      <c r="E19" s="181" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="170" t="s">
+      <c r="F19" s="178"/>
+      <c r="G19" s="181" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17534,11 +17543,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17547,11 +17556,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17563,11 +17572,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17576,11 +17585,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="180"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17589,11 +17598,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17602,11 +17611,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17615,11 +17624,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="164"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="183"/>
       <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
+      <c r="I26" s="170"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18597,16 +18606,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18619,14 +18626,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21775,7 +21784,7 @@
       <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="178"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -22992,8 +23001,8 @@
       <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="163"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23002,7 +23011,7 @@
       <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23011,7 +23020,7 @@
       <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23020,7 +23029,7 @@
       <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="163"/>
+      <c r="C6" s="178"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23029,7 +23038,7 @@
       <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23038,7 +23047,7 @@
       <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24069,8 +24078,8 @@
       <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28222,8 +28231,8 @@
       <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AF8522-F4D0-43CE-9136-1636E6E97645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0296E7D-7893-47A8-B1DB-AB6656322772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="900">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2735,6 +2735,27 @@
   </si>
   <si>
     <t>Robin</t>
+  </si>
+  <si>
+    <t>822nd Rocket artillery regiment</t>
+  </si>
+  <si>
+    <t>823rd Rocket artillery regiment</t>
+  </si>
+  <si>
+    <t>831th Special Forces Brigade</t>
+  </si>
+  <si>
+    <t>DRK Army Independent Unit</t>
+  </si>
+  <si>
+    <t>N 66 04.098 E 032 57.380</t>
+  </si>
+  <si>
+    <t>N 66 48.688 E 032 21.512</t>
+  </si>
+  <si>
+    <t>N 67 01.221 E 030 19.331</t>
   </si>
 </sst>
 </file>
@@ -3947,25 +3968,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3979,17 +3995,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5385,11 +5406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G255" sqref="G255"/>
+      <selection pane="bottomRight" activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10927,7 +10948,7 @@
         <v>508</v>
       </c>
       <c r="C242" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D242" s="56"/>
       <c r="E242" s="44" t="s">
@@ -10957,7 +10978,7 @@
         <v>510</v>
       </c>
       <c r="C243" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D243" s="27"/>
       <c r="E243" s="18" t="s">
@@ -10984,7 +11005,7 @@
         <v>512</v>
       </c>
       <c r="C244" s="55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D244" s="56"/>
       <c r="E244" s="45" t="s">
@@ -11229,39 +11250,75 @@
       <c r="A253" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="B253" s="26"/>
-      <c r="C253" s="29"/>
+      <c r="B253" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="C253" s="29">
+        <v>6</v>
+      </c>
       <c r="D253" s="27"/>
-      <c r="E253" s="156"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="74"/>
-      <c r="H253" s="70"/>
+      <c r="E253" s="156" t="s">
+        <v>896</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G253" s="74">
+        <v>323</v>
+      </c>
+      <c r="H253" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="I253" s="70"/>
     </row>
     <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="B254" s="44"/>
-      <c r="C254" s="55"/>
+      <c r="B254" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="C254" s="55">
+        <v>6</v>
+      </c>
       <c r="D254" s="56"/>
-      <c r="E254" s="45"/>
-      <c r="F254" s="45"/>
-      <c r="G254" s="57"/>
-      <c r="H254" s="70"/>
+      <c r="E254" s="156" t="s">
+        <v>896</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G254" s="57">
+        <v>188</v>
+      </c>
+      <c r="H254" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="I254" s="70"/>
     </row>
     <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="B255" s="26"/>
-      <c r="C255" s="29"/>
+      <c r="B255" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="C255" s="29">
+        <v>6</v>
+      </c>
       <c r="D255" s="27"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="74"/>
-      <c r="H255" s="70"/>
+      <c r="E255" s="156" t="s">
+        <v>896</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G255" s="74">
+        <v>553</v>
+      </c>
+      <c r="H255" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="I255" s="70"/>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17170,50 +17227,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="177" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="180" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="181" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="168"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="169" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="182" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="170"/>
+      <c r="I2" s="169"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="183" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17275,15 +17332,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="172" t="s">
+      <c r="K6" s="171" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17313,15 +17370,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="171" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17429,17 +17486,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="173" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17454,15 +17511,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="176" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="177" t="s">
+      <c r="F16" s="163"/>
+      <c r="G16" s="176" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17477,15 +17534,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="181" t="s">
+      <c r="F17" s="163"/>
+      <c r="G17" s="170" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="179"/>
-      <c r="I17" s="180"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17500,15 +17557,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="181" t="s">
+      <c r="F18" s="163"/>
+      <c r="G18" s="170" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="180"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17523,15 +17580,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="170" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="181" t="s">
+      <c r="F19" s="163"/>
+      <c r="G19" s="170" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17543,11 +17600,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="180"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17556,11 +17613,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="180"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17572,11 +17629,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="180"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17585,11 +17642,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="180"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17598,11 +17655,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="180"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17611,11 +17668,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="180"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17624,11 +17681,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="183"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="168"/>
-      <c r="I26" s="170"/>
+      <c r="I26" s="169"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18606,14 +18663,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18626,16 +18685,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21784,7 +21841,7 @@
       <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="178"/>
+      <c r="C2" s="163"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23001,8 +23058,8 @@
       <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="178"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23011,7 +23068,7 @@
       <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23020,7 +23077,7 @@
       <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="178"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23029,7 +23086,7 @@
       <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="163"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23038,7 +23095,7 @@
       <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="178"/>
+      <c r="C7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23047,7 +23104,7 @@
       <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24078,8 +24135,8 @@
       <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28231,8 +28288,8 @@
       <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0296E7D-7893-47A8-B1DB-AB6656322772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09D421-3C66-4845-86ED-C318AEE117D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="900">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3968,20 +3968,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3995,22 +4000,17 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4030,7 +4030,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5407,10 +5407,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E258" sqref="E258"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7023,7 +7023,9 @@
       <c r="I48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K48" s="2" t="s">
         <v>363</v>
       </c>
@@ -7054,7 +7056,9 @@
       <c r="I49" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="41"/>
+      <c r="J49" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K49" s="33" t="s">
         <v>363</v>
       </c>
@@ -7100,7 +7104,9 @@
       <c r="I50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K50" s="2" t="s">
         <v>363</v>
       </c>
@@ -17227,50 +17233,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="162" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="165" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="165"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="167" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="168"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="182" t="s">
+      <c r="G2" s="166"/>
+      <c r="H2" s="169" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="169"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="171" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17332,15 +17338,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="171" t="s">
+      <c r="K6" s="172" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17370,15 +17376,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="171" t="s">
+      <c r="K7" s="172" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17486,17 +17492,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="174" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="175"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17511,15 +17517,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="177" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="176" t="s">
+      <c r="F16" s="178"/>
+      <c r="G16" s="177" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17534,15 +17540,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="170" t="s">
+      <c r="F17" s="178"/>
+      <c r="G17" s="181" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17557,15 +17563,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="170" t="s">
+      <c r="F18" s="178"/>
+      <c r="G18" s="181" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17580,15 +17586,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="170" t="s">
+      <c r="E19" s="181" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="170" t="s">
+      <c r="F19" s="178"/>
+      <c r="G19" s="181" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17600,11 +17606,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17613,11 +17619,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17629,11 +17635,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17642,11 +17648,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="180"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17655,11 +17661,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17668,11 +17674,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17681,11 +17687,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="164"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="183"/>
       <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
+      <c r="I26" s="170"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18663,16 +18669,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18685,14 +18689,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21841,7 +21847,7 @@
       <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="178"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23058,8 +23064,8 @@
       <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="163"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23068,7 +23074,7 @@
       <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23077,7 +23083,7 @@
       <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23086,7 +23092,7 @@
       <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="163"/>
+      <c r="C6" s="178"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23095,7 +23101,7 @@
       <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23104,7 +23110,7 @@
       <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24135,8 +24141,8 @@
       <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28288,8 +28294,8 @@
       <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09D421-3C66-4845-86ED-C318AEE117D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B74C-96E9-4AD4-8AFC-79FC66C843B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,11 @@
     <sheet name="Risk levels" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="jqvuzJn8Lf/XHWAhwIuz09YQ2YQAYUhN1DjVsFh9M+Q="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="905">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2756,6 +2751,21 @@
   </si>
   <si>
     <t>N 67 01.221 E 030 19.331</t>
+  </si>
+  <si>
+    <t>Zelenoborsky Vehicle Depot</t>
+  </si>
+  <si>
+    <t>Kovda Army Ammunition Storage</t>
+  </si>
+  <si>
+    <t>Louhi Rocket Artillery ammo depot</t>
+  </si>
+  <si>
+    <t>Nationalist TV Studio</t>
+  </si>
+  <si>
+    <t>Air Defense Command Center</t>
   </si>
 </sst>
 </file>
@@ -3546,10 +3556,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3968,25 +3979,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4000,17 +4006,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4028,9 +4039,17 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2" xfId="1" xr:uid="{AD4AA7C0-7717-4E15-8659-E5F2B8E661BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5407,10 +5426,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
+      <selection pane="bottomRight" activeCell="A256" sqref="A256:B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11328,10 +11347,12 @@
       <c r="I255" s="70"/>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="73" t="s">
+      <c r="A256" s="192" t="s">
         <v>528</v>
       </c>
-      <c r="B256" s="44"/>
+      <c r="B256" s="191" t="s">
+        <v>900</v>
+      </c>
       <c r="C256" s="55"/>
       <c r="D256" s="56"/>
       <c r="E256" s="45"/>
@@ -11341,10 +11362,12 @@
       <c r="I256" s="70"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="73" t="s">
+      <c r="A257" s="192" t="s">
         <v>529</v>
       </c>
-      <c r="B257" s="26"/>
+      <c r="B257" s="190" t="s">
+        <v>901</v>
+      </c>
       <c r="C257" s="29"/>
       <c r="D257" s="27"/>
       <c r="E257" s="18"/>
@@ -11354,10 +11377,12 @@
       <c r="I257" s="70"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="73" t="s">
+      <c r="A258" s="192" t="s">
         <v>530</v>
       </c>
-      <c r="B258" s="44"/>
+      <c r="B258" s="191" t="s">
+        <v>902</v>
+      </c>
       <c r="C258" s="55"/>
       <c r="D258" s="56"/>
       <c r="E258" s="45"/>
@@ -11367,10 +11392,12 @@
       <c r="I258" s="70"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="192" t="s">
         <v>531</v>
       </c>
-      <c r="B259" s="26"/>
+      <c r="B259" s="190" t="s">
+        <v>903</v>
+      </c>
       <c r="C259" s="29"/>
       <c r="D259" s="27"/>
       <c r="E259" s="18"/>
@@ -11380,10 +11407,12 @@
       <c r="I259" s="70"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="73" t="s">
+      <c r="A260" s="192" t="s">
         <v>532</v>
       </c>
-      <c r="B260" s="44"/>
+      <c r="B260" s="191" t="s">
+        <v>904</v>
+      </c>
       <c r="C260" s="55"/>
       <c r="D260" s="56"/>
       <c r="E260" s="45"/>
@@ -17233,50 +17262,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="177" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="180" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="181" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="168"/>
       <c r="F2" s="168"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="169" t="s">
+      <c r="G2" s="165"/>
+      <c r="H2" s="182" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="170"/>
+      <c r="I2" s="169"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="183" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17338,15 +17367,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="172" t="s">
+      <c r="K6" s="171" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17376,15 +17405,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="171" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17492,17 +17521,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="173" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17517,15 +17546,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="176" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="177" t="s">
+      <c r="F16" s="163"/>
+      <c r="G16" s="176" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17540,15 +17569,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="181" t="s">
+      <c r="F17" s="163"/>
+      <c r="G17" s="170" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="179"/>
-      <c r="I17" s="180"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17563,15 +17592,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="170" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="181" t="s">
+      <c r="F18" s="163"/>
+      <c r="G18" s="170" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="180"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17586,15 +17615,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="170" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="181" t="s">
+      <c r="F19" s="163"/>
+      <c r="G19" s="170" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17606,11 +17635,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="180"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17619,11 +17648,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="180"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17635,11 +17664,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="180"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17648,11 +17677,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="180"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17661,11 +17690,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="180"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17674,11 +17703,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="180"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17687,11 +17716,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="183"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="168"/>
-      <c r="I26" s="170"/>
+      <c r="I26" s="169"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18669,14 +18698,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18689,16 +18720,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21847,7 +21876,7 @@
       <c r="B2" s="186" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="178"/>
+      <c r="C2" s="163"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23064,8 +23093,8 @@
       <c r="A3" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="178"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23074,7 +23103,7 @@
       <c r="B4" s="188" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23083,7 +23112,7 @@
       <c r="B5" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="178"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23092,7 +23121,7 @@
       <c r="B6" s="187" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="163"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23101,7 +23130,7 @@
       <c r="B7" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="178"/>
+      <c r="C7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23110,7 +23139,7 @@
       <c r="B8" s="187" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24141,8 +24170,8 @@
       <c r="B2" s="189" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28294,8 +28323,8 @@
       <c r="A5" s="188" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_I\Dokumentumok\132\_OPAT\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B74C-96E9-4AD4-8AFC-79FC66C843B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32642D99-5140-4B37-A7BB-9B633ED5E83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -2759,13 +2759,31 @@
     <t>Kovda Army Ammunition Storage</t>
   </si>
   <si>
-    <t>Louhi Rocket Artillery ammo depot</t>
-  </si>
-  <si>
     <t>Nationalist TV Studio</t>
   </si>
   <si>
     <t>Air Defense Command Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final assembly, repair and maintenance of DRK ARMY vehicles is conducted here. </t>
+  </si>
+  <si>
+    <t>N 66 49.036 E 032 17.292</t>
+  </si>
+  <si>
+    <t>Rocket Artillery ammo depot</t>
+  </si>
+  <si>
+    <t>N 66 48.697 E 032 19.946</t>
+  </si>
+  <si>
+    <t>Ammunition main storage for independent Rocket Artillery Forces</t>
+  </si>
+  <si>
+    <t>Dawn’s Vengeance has close ties to the National Television to influence the people</t>
+  </si>
+  <si>
+    <t>N 66 57.888 E 030 21.285</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3970,6 +3988,13 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3979,20 +4004,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4006,22 +4036,17 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4039,13 +4064,12 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -5425,11 +5449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A256" sqref="A256:B260"/>
+      <selection pane="bottomRight" activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5448,15 +5472,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="159"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5469,10 +5493,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -11294,7 +11318,9 @@
       <c r="H253" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I253" s="70"/>
+      <c r="I253" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="73" t="s">
@@ -11319,7 +11345,9 @@
       <c r="H254" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I254" s="70"/>
+      <c r="I254" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="73" t="s">
@@ -11344,74 +11372,112 @@
       <c r="H255" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I255" s="70"/>
+      <c r="I255" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="192" t="s">
+      <c r="A256" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="B256" s="191" t="s">
+      <c r="B256" s="158" t="s">
         <v>900</v>
       </c>
-      <c r="C256" s="55"/>
+      <c r="C256" s="55">
+        <v>10</v>
+      </c>
       <c r="D256" s="56"/>
-      <c r="E256" s="45"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="57"/>
-      <c r="H256" s="70"/>
-      <c r="I256" s="70"/>
+      <c r="E256" s="156" t="s">
+        <v>904</v>
+      </c>
+      <c r="F256" s="155" t="s">
+        <v>905</v>
+      </c>
+      <c r="G256" s="57">
+        <v>171</v>
+      </c>
+      <c r="H256" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I256" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="192" t="s">
+      <c r="A257" s="159" t="s">
         <v>529</v>
       </c>
-      <c r="B257" s="190" t="s">
+      <c r="B257" s="157" t="s">
         <v>901</v>
       </c>
-      <c r="C257" s="29"/>
+      <c r="C257" s="29">
+        <v>12</v>
+      </c>
       <c r="D257" s="27"/>
       <c r="E257" s="18"/>
       <c r="F257" s="2"/>
       <c r="G257" s="74"/>
       <c r="H257" s="70"/>
-      <c r="I257" s="70"/>
+      <c r="I257" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="192" t="s">
+      <c r="A258" s="159" t="s">
         <v>530</v>
       </c>
-      <c r="B258" s="191" t="s">
+      <c r="B258" s="193" t="s">
+        <v>906</v>
+      </c>
+      <c r="C258" s="55">
+        <v>12</v>
+      </c>
+      <c r="D258" s="56"/>
+      <c r="E258" s="154" t="s">
+        <v>908</v>
+      </c>
+      <c r="F258" s="155" t="s">
+        <v>907</v>
+      </c>
+      <c r="G258" s="57">
+        <v>207</v>
+      </c>
+      <c r="H258" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I258" s="75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="159" t="s">
+        <v>531</v>
+      </c>
+      <c r="B259" s="194" t="s">
         <v>902</v>
-      </c>
-      <c r="C258" s="55"/>
-      <c r="D258" s="56"/>
-      <c r="E258" s="45"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="57"/>
-      <c r="H258" s="70"/>
-      <c r="I258" s="70"/>
-    </row>
-    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="192" t="s">
-        <v>531</v>
-      </c>
-      <c r="B259" s="190" t="s">
-        <v>903</v>
       </c>
       <c r="C259" s="29"/>
       <c r="D259" s="27"/>
-      <c r="E259" s="18"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="74"/>
+      <c r="E259" s="156" t="s">
+        <v>909</v>
+      </c>
+      <c r="F259" s="155" t="s">
+        <v>910</v>
+      </c>
+      <c r="G259" s="74">
+        <v>512</v>
+      </c>
       <c r="H259" s="70"/>
-      <c r="I259" s="70"/>
+      <c r="I259" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="192" t="s">
+      <c r="A260" s="159" t="s">
         <v>532</v>
       </c>
-      <c r="B260" s="191" t="s">
-        <v>904</v>
+      <c r="B260" s="158" t="s">
+        <v>903</v>
       </c>
       <c r="C260" s="55"/>
       <c r="D260" s="56"/>
@@ -11419,7 +11485,9 @@
       <c r="F260" s="2"/>
       <c r="G260" s="57"/>
       <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
+      <c r="I260" s="75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="73" t="s">
@@ -17262,50 +17330,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="165" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="167"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="168" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="165"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="170" t="s">
         <v>617</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="182" t="s">
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="172" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="169"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="174" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17367,15 +17435,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="171" t="s">
+      <c r="K6" s="175" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17405,15 +17473,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="171" t="s">
+      <c r="K7" s="175" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17521,17 +17589,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="177" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="175"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17546,15 +17614,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="180" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="176" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="180" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17569,15 +17637,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="184" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="170" t="s">
+      <c r="F17" s="181"/>
+      <c r="G17" s="184" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="183"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17592,15 +17660,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="184" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="170" t="s">
+      <c r="F18" s="181"/>
+      <c r="G18" s="184" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="183"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17615,15 +17683,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="170" t="s">
+      <c r="E19" s="184" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="170" t="s">
+      <c r="F19" s="181"/>
+      <c r="G19" s="184" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="183"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17635,11 +17703,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="183"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17648,11 +17716,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="183"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17664,11 +17732,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="183"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17677,11 +17745,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="183"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17690,11 +17758,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="183"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17703,11 +17771,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="183"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17716,11 +17784,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="173"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18698,16 +18766,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18720,14 +18786,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18777,11 +18845,11 @@
       <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="187" t="s">
         <v>671</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="161"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
       <c r="F2" s="101"/>
@@ -21873,10 +21941,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="189" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="181"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23090,56 +23158,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="189" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="163"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="181"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="191" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="181"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="190" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="181"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>716</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="190" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="163"/>
+      <c r="C6" s="181"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="190" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="181"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="190" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="181"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24167,11 +24235,11 @@
       <c r="D1" s="118"/>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="192" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28320,11 +28388,11 @@
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="191" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="181"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3729A5B4-F8D2-4620-8483-15662491CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805BE4CC-8922-4F64-9A9E-B8ABACCE7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="33705" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -3578,7 +3578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4010,25 +4010,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4042,17 +4037,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4070,9 +4070,13 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5450,10 +5454,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7265,7 +7269,7 @@
       <c r="E53" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="196" t="s">
         <v>209</v>
       </c>
       <c r="G53" s="25">
@@ -7477,7 +7481,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="27"/>
-      <c r="E60" s="145" t="s">
+      <c r="E60" s="195" t="s">
         <v>806</v>
       </c>
       <c r="F60" s="147" t="s">
@@ -8520,7 +8524,9 @@
       <c r="I94" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J94" s="8"/>
+      <c r="J94" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K94" s="2" t="s">
         <v>231</v>
       </c>
@@ -17366,50 +17372,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="182" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="185" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="186" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="173"/>
       <c r="F2" s="173"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="174" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="187" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="175"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="188" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="169"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17471,15 +17477,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="176" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17509,15 +17515,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="176" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17625,17 +17631,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="178" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="181"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17650,15 +17656,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="181" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="182" t="s">
+      <c r="F16" s="168"/>
+      <c r="G16" s="181" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="184"/>
-      <c r="I16" s="185"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="172"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17673,15 +17679,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="186" t="s">
+      <c r="E17" s="175" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="183"/>
-      <c r="G17" s="186" t="s">
+      <c r="F17" s="168"/>
+      <c r="G17" s="175" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="184"/>
-      <c r="I17" s="185"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="172"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17696,15 +17702,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="186" t="s">
+      <c r="E18" s="175" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="183"/>
-      <c r="G18" s="186" t="s">
+      <c r="F18" s="168"/>
+      <c r="G18" s="175" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="184"/>
-      <c r="I18" s="185"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="172"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17719,15 +17725,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="186" t="s">
+      <c r="E19" s="175" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="186" t="s">
+      <c r="F19" s="168"/>
+      <c r="G19" s="175" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="184"/>
-      <c r="I19" s="185"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="172"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17739,11 +17745,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="185"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="172"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17752,11 +17758,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="185"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17768,11 +17774,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="185"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="172"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17781,11 +17787,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="185"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17794,11 +17800,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="185"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="172"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17807,11 +17813,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="185"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17820,11 +17826,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="188"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="173"/>
-      <c r="I26" s="175"/>
+      <c r="I26" s="174"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18802,14 +18808,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18822,16 +18830,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21980,7 +21986,7 @@
       <c r="B2" s="191" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="183"/>
+      <c r="C2" s="168"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23197,8 +23203,8 @@
       <c r="A3" s="191" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="183"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="168"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23207,7 +23213,7 @@
       <c r="B4" s="193" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="168"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23216,7 +23222,7 @@
       <c r="B5" s="192" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23225,7 +23231,7 @@
       <c r="B6" s="192" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="183"/>
+      <c r="C6" s="168"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23234,7 +23240,7 @@
       <c r="B7" s="192" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="168"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23243,7 +23249,7 @@
       <c r="B8" s="192" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="168"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24274,8 +24280,8 @@
       <c r="B2" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28427,8 +28433,8 @@
       <c r="A5" s="193" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="183"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805BE4CC-8922-4F64-9A9E-B8ABACCE7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1C465-6F2F-497E-A074-ED1817DA1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2610" windowWidth="33705" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -4001,6 +4001,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4010,20 +4014,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4037,22 +4046,17 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4070,13 +4074,9 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5454,10 +5454,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5476,15 +5476,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5497,10 +5497,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -6055,7 +6055,9 @@
       <c r="I19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>363</v>
       </c>
@@ -7269,7 +7271,7 @@
       <c r="E53" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="196" t="s">
+      <c r="F53" s="163" t="s">
         <v>209</v>
       </c>
       <c r="G53" s="25">
@@ -7481,7 +7483,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="27"/>
-      <c r="E60" s="195" t="s">
+      <c r="E60" s="162" t="s">
         <v>806</v>
       </c>
       <c r="F60" s="147" t="s">
@@ -17372,50 +17374,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="169" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="172" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="174" t="s">
         <v>617</v>
       </c>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="187" t="s">
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="176" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="174"/>
+      <c r="I2" s="177"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="178" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="184"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17477,15 +17479,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="176" t="s">
+      <c r="K6" s="179" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17515,15 +17517,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="176" t="s">
+      <c r="K7" s="179" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17631,17 +17633,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="181" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="180"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="183"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17656,15 +17658,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="184" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="168"/>
-      <c r="G16" s="181" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="184" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17679,15 +17681,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="175" t="s">
+      <c r="E17" s="188" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="168"/>
-      <c r="G17" s="175" t="s">
+      <c r="F17" s="185"/>
+      <c r="G17" s="188" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="171"/>
-      <c r="I17" s="172"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17702,15 +17704,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="175" t="s">
+      <c r="E18" s="188" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="168"/>
-      <c r="G18" s="175" t="s">
+      <c r="F18" s="185"/>
+      <c r="G18" s="188" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17725,15 +17727,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="175" t="s">
+      <c r="E19" s="188" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="168"/>
-      <c r="G19" s="175" t="s">
+      <c r="F19" s="185"/>
+      <c r="G19" s="188" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="172"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17745,11 +17747,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="172"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17758,11 +17760,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="172"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17774,11 +17776,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="172"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17787,11 +17789,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17800,11 +17802,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="172"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17813,11 +17815,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17826,11 +17828,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="174"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18808,16 +18810,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18830,14 +18830,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18887,11 +18889,11 @@
       <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>671</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="168"/>
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
       <c r="F2" s="101"/>
@@ -21983,10 +21985,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="193" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="168"/>
+      <c r="C2" s="185"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23200,56 +23202,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="193" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="168"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="185"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="195" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="168"/>
+      <c r="C4" s="185"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="194" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="168"/>
+      <c r="C5" s="185"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>716</v>
       </c>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="194" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="168"/>
+      <c r="C6" s="185"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="194" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="168"/>
+      <c r="C7" s="185"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="194" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="168"/>
+      <c r="C8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24277,11 +24279,11 @@
       <c r="D1" s="118"/>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28430,11 +28432,11 @@
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="195" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="168"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="185"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1C465-6F2F-497E-A074-ED1817DA1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8493DA13-ACD0-47B9-84DE-DAF170120C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="2610" windowWidth="33705" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="33495" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -4014,25 +4014,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4046,17 +4041,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5454,10 +5454,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6121,7 +6121,9 @@
       <c r="I21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>363</v>
       </c>
@@ -17374,50 +17376,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="171"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="187" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="173"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="188" t="s">
         <v>617</v>
       </c>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="176" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="189" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="177"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="190" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17479,15 +17481,15 @@
       <c r="I6" s="87" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="179" t="s">
+      <c r="K6" s="178" t="s">
         <v>637</v>
       </c>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17517,15 +17519,15 @@
       <c r="I7" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="178" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17633,17 +17635,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="180" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="183"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="182"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17658,15 +17660,15 @@
       <c r="D16" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="183" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="170"/>
+      <c r="G16" s="183" t="s">
         <v>657</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17681,15 +17683,15 @@
       <c r="D17" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E17" s="188" t="s">
+      <c r="E17" s="177" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="185"/>
-      <c r="G17" s="188" t="s">
+      <c r="F17" s="170"/>
+      <c r="G17" s="177" t="s">
         <v>660</v>
       </c>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17704,15 +17706,15 @@
       <c r="D18" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="177" t="s">
         <v>659</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="188" t="s">
+      <c r="F18" s="170"/>
+      <c r="G18" s="177" t="s">
         <v>662</v>
       </c>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="174"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17727,15 +17729,15 @@
       <c r="D19" s="86" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="188" t="s">
+      <c r="E19" s="177" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="185"/>
-      <c r="G19" s="188" t="s">
+      <c r="F19" s="170"/>
+      <c r="G19" s="177" t="s">
         <v>666</v>
       </c>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="174"/>
       <c r="K19" s="84" t="s">
         <v>667</v>
       </c>
@@ -17747,11 +17749,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17760,11 +17762,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="K21" s="84" t="s">
         <v>668</v>
       </c>
@@ -17776,11 +17778,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17789,11 +17791,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17802,11 +17804,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17815,11 +17817,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17828,11 +17830,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="190"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="171"/>
       <c r="H26" s="175"/>
-      <c r="I26" s="177"/>
+      <c r="I26" s="176"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18810,14 +18812,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18830,16 +18834,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21988,7 +21990,7 @@
       <c r="B2" s="193" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="185"/>
+      <c r="C2" s="170"/>
       <c r="O2" s="84" t="s">
         <v>680</v>
       </c>
@@ -23205,8 +23207,8 @@
       <c r="A3" s="193" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="185"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="170"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23215,7 +23217,7 @@
       <c r="B4" s="195" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="185"/>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23224,7 +23226,7 @@
       <c r="B5" s="194" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="185"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23233,7 +23235,7 @@
       <c r="B6" s="194" t="s">
         <v>717</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23242,7 +23244,7 @@
       <c r="B7" s="194" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="185"/>
+      <c r="C7" s="170"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23251,7 +23253,7 @@
       <c r="B8" s="194" t="s">
         <v>721</v>
       </c>
-      <c r="C8" s="185"/>
+      <c r="C8" s="170"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24282,8 +24284,8 @@
       <c r="B2" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="J2" s="84" t="s">
         <v>680</v>
       </c>
@@ -28435,8 +28437,8 @@
       <c r="A5" s="195" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="185"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8493DA13-ACD0-47B9-84DE-DAF170120C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7C143-6602-40F8-A7BB-2266792D9AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="33495" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -1125,9 +1125,6 @@
   </si>
   <si>
     <t>Olenogorsk SAM Factory</t>
-  </si>
-  <si>
-    <t>SAM factory (3 production lines)</t>
   </si>
   <si>
     <t>N 68 07.059 E 033 17.674</t>
@@ -2784,6 +2781,9 @@
   </si>
   <si>
     <t>N 66 57.888 E 030 21.285</t>
+  </si>
+  <si>
+    <t>SAM factory (2 production lines)</t>
   </si>
 </sst>
 </file>
@@ -4014,20 +4014,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4041,22 +4046,17 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5453,14 +5453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="167" t="s">
         <v>4</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>63</v>
@@ -5766,7 +5766,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>63</v>
@@ -5794,10 +5794,10 @@
         <v>48</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>63</v>
@@ -5813,7 +5813,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C12" s="29">
         <v>6</v>
@@ -5828,7 +5828,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>63</v>
@@ -5857,7 +5857,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>63</v>
@@ -6298,10 +6298,10 @@
         <v>123</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>63</v>
@@ -6321,20 +6321,20 @@
         <v>124</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C28" s="29">
         <v>5</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>63</v>
@@ -6354,20 +6354,20 @@
         <v>125</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C29" s="23">
         <v>5</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>63</v>
@@ -6387,7 +6387,7 @@
         <v>126</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
@@ -6397,10 +6397,10 @@
         <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>63</v>
@@ -6507,10 +6507,10 @@
         <v>138</v>
       </c>
       <c r="F33" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>783</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>784</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>63</v>
@@ -6561,10 +6561,10 @@
         <v>143</v>
       </c>
       <c r="H34" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I34" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J34" s="39"/>
       <c r="K34" s="35"/>
@@ -6605,10 +6605,10 @@
         <v>147</v>
       </c>
       <c r="H35" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I35" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="33"/>
@@ -6649,10 +6649,10 @@
         <v>151</v>
       </c>
       <c r="H36" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I36" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="2"/>
@@ -6678,10 +6678,10 @@
         <v>68</v>
       </c>
       <c r="H37" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I37" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="33"/>
@@ -6722,10 +6722,10 @@
         <v>158</v>
       </c>
       <c r="H38" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I38" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="2"/>
@@ -6751,10 +6751,10 @@
         <v>162</v>
       </c>
       <c r="H39" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I39" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="33"/>
@@ -6795,10 +6795,10 @@
         <v>166</v>
       </c>
       <c r="H40" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I40" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="2"/>
@@ -6824,10 +6824,10 @@
         <v>170</v>
       </c>
       <c r="H41" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I41" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J41" s="41"/>
       <c r="K41" s="33"/>
@@ -6868,10 +6868,10 @@
         <v>174</v>
       </c>
       <c r="H42" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I42" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="2"/>
@@ -6897,10 +6897,10 @@
         <v>178</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I43" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J43" s="41"/>
       <c r="K43" s="33"/>
@@ -6941,10 +6941,10 @@
         <v>182</v>
       </c>
       <c r="H44" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I44" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="2"/>
@@ -6970,10 +6970,10 @@
         <v>186</v>
       </c>
       <c r="H45" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I45" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J45" s="41"/>
       <c r="K45" s="33"/>
@@ -7014,10 +7014,10 @@
         <v>190</v>
       </c>
       <c r="H46" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I46" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="2"/>
@@ -7027,20 +7027,20 @@
         <v>191</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C47" s="23">
         <v>5</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="138" t="s">
+        <v>792</v>
+      </c>
+      <c r="F47" s="144" t="s">
+        <v>794</v>
+      </c>
+      <c r="G47" s="138" t="s">
         <v>793</v>
-      </c>
-      <c r="F47" s="144" t="s">
-        <v>795</v>
-      </c>
-      <c r="G47" s="138" t="s">
-        <v>794</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>63</v>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="J47" s="41"/>
       <c r="K47" s="33" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="145" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>194</v>
@@ -7106,14 +7106,14 @@
         <v>195</v>
       </c>
       <c r="B49" s="146" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C49" s="23">
         <v>9</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="138" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>196</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="145" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>199</v>
@@ -7187,7 +7187,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="146" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C51" s="23">
         <v>2</v>
@@ -7305,10 +7305,10 @@
         <v>211</v>
       </c>
       <c r="F54" s="147" t="s">
+        <v>800</v>
+      </c>
+      <c r="G54" s="148" t="s">
         <v>801</v>
-      </c>
-      <c r="G54" s="148" t="s">
-        <v>802</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>63</v>
@@ -7479,20 +7479,20 @@
         <v>232</v>
       </c>
       <c r="B60" s="149" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C60" s="29">
         <v>9</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="162" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F60" s="147" t="s">
+        <v>803</v>
+      </c>
+      <c r="G60" s="148" t="s">
         <v>804</v>
-      </c>
-      <c r="G60" s="148" t="s">
-        <v>805</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>63</v>
@@ -7553,10 +7553,10 @@
         <v>238</v>
       </c>
       <c r="F62" s="147" t="s">
+        <v>806</v>
+      </c>
+      <c r="G62" s="148" t="s">
         <v>807</v>
-      </c>
-      <c r="G62" s="148" t="s">
-        <v>808</v>
       </c>
       <c r="H62" s="30" t="s">
         <v>63</v>
@@ -7612,13 +7612,13 @@
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="145" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F64" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="G64" s="148" t="s">
         <v>809</v>
-      </c>
-      <c r="G64" s="148" t="s">
-        <v>810</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>63</v>
@@ -7652,10 +7652,10 @@
         <v>581</v>
       </c>
       <c r="H65" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I65" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="2"/>
@@ -7681,10 +7681,10 @@
         <v>463</v>
       </c>
       <c r="H66" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I66" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="2"/>
@@ -7710,10 +7710,10 @@
         <v>555</v>
       </c>
       <c r="H67" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I67" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="2"/>
@@ -7739,10 +7739,10 @@
         <v>364</v>
       </c>
       <c r="H68" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I68" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="2"/>
@@ -7768,10 +7768,10 @@
         <v>269</v>
       </c>
       <c r="H69" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I69" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="2"/>
@@ -7797,10 +7797,10 @@
         <v>89</v>
       </c>
       <c r="H70" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I70" s="150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="2"/>
@@ -7817,13 +7817,13 @@
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="138" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F71" s="144" t="s">
+        <v>810</v>
+      </c>
+      <c r="G71" s="138" t="s">
         <v>811</v>
-      </c>
-      <c r="G71" s="138" t="s">
-        <v>812</v>
       </c>
       <c r="H71" s="30" t="s">
         <v>63</v>
@@ -7846,13 +7846,13 @@
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="145" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F72" s="147" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G72" s="148" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H72" s="30" t="s">
         <v>63</v>
@@ -7875,13 +7875,13 @@
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F73" s="144" t="s">
+        <v>817</v>
+      </c>
+      <c r="G73" s="138" t="s">
         <v>818</v>
-      </c>
-      <c r="G73" s="138" t="s">
-        <v>819</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>63</v>
@@ -8003,13 +8003,13 @@
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="138" t="s">
+        <v>820</v>
+      </c>
+      <c r="F77" s="144" t="s">
         <v>821</v>
       </c>
-      <c r="F77" s="144" t="s">
+      <c r="G77" s="138" t="s">
         <v>822</v>
-      </c>
-      <c r="G77" s="138" t="s">
-        <v>823</v>
       </c>
       <c r="H77" s="30" t="s">
         <v>63</v>
@@ -8021,7 +8021,7 @@
         <v>63</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8068,10 +8068,10 @@
         <v>291</v>
       </c>
       <c r="F79" s="144" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G79" s="138" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H79" s="30" t="s">
         <v>63</v>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="145" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>294</v>
@@ -8126,10 +8126,10 @@
         <v>297</v>
       </c>
       <c r="F81" s="144" t="s">
+        <v>827</v>
+      </c>
+      <c r="G81" s="138" t="s">
         <v>828</v>
-      </c>
-      <c r="G81" s="138" t="s">
-        <v>829</v>
       </c>
       <c r="H81" s="30" t="s">
         <v>63</v>
@@ -8145,7 +8145,7 @@
         <v>298</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C82" s="29">
         <v>8</v>
@@ -8167,7 +8167,7 @@
         <v>22</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K82" s="2"/>
     </row>
@@ -8201,7 +8201,7 @@
         <v>63</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,10 +8219,10 @@
         <v>306</v>
       </c>
       <c r="F84" s="147" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G84" s="148" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H84" s="30" t="s">
         <v>63</v>
@@ -8260,7 +8260,7 @@
         <v>22</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K85" s="2"/>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="138" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F87" s="21" t="s">
         <v>316</v>
@@ -8356,7 +8356,7 @@
         <v>321</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C89" s="23">
         <v>6</v>
@@ -8378,7 +8378,7 @@
         <v>22</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K89" s="2"/>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>326</v>
@@ -8416,14 +8416,14 @@
         <v>327</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C91" s="23">
         <v>7</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>328</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="137" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>347</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="136" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F97" s="21" t="s">
         <v>351</v>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="135" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F99" s="21" t="s">
         <v>361</v>
@@ -8706,13 +8706,13 @@
       </c>
       <c r="D100" s="27"/>
       <c r="E100" s="54" t="s">
+        <v>910</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="G100" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="H100" s="30" t="s">
         <v>63</v>
@@ -8720,30 +8720,32 @@
       <c r="I100" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J100" s="8"/>
+      <c r="J100" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="K100" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="C101" s="23">
         <v>9</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="G101" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="G101" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="H101" s="30" t="s">
         <v>63</v>
@@ -8758,20 +8760,20 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>375</v>
       </c>
       <c r="C102" s="29">
         <v>9</v>
       </c>
       <c r="D102" s="27"/>
       <c r="E102" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G102" s="28" t="s">
         <v>186</v>
@@ -8791,7 +8793,7 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" s="44"/>
       <c r="C103" s="55"/>
@@ -8806,7 +8808,7 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="29"/>
@@ -8821,7 +8823,7 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B105" s="44"/>
       <c r="C105" s="55"/>
@@ -8836,7 +8838,7 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="29"/>
@@ -8851,7 +8853,7 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B107" s="44"/>
       <c r="C107" s="55"/>
@@ -8866,7 +8868,7 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="29"/>
@@ -8881,7 +8883,7 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B109" s="44"/>
       <c r="C109" s="55"/>
@@ -8896,7 +8898,7 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="29"/>
@@ -8911,7 +8913,7 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B111" s="44"/>
       <c r="C111" s="55"/>
@@ -8926,7 +8928,7 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="29"/>
@@ -8941,7 +8943,7 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B113" s="44"/>
       <c r="C113" s="55"/>
@@ -8956,7 +8958,7 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="29"/>
@@ -8971,7 +8973,7 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B115" s="44"/>
       <c r="C115" s="55"/>
@@ -8986,7 +8988,7 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="29"/>
@@ -9001,7 +9003,7 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B117" s="44"/>
       <c r="C117" s="55"/>
@@ -9016,7 +9018,7 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="29"/>
@@ -9031,7 +9033,7 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B119" s="44"/>
       <c r="C119" s="55"/>
@@ -9046,7 +9048,7 @@
     </row>
     <row r="120" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="29"/>
@@ -9061,7 +9063,7 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B121" s="44"/>
       <c r="C121" s="55"/>
@@ -9076,7 +9078,7 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="29"/>
@@ -9091,7 +9093,7 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B123" s="44"/>
       <c r="C123" s="55"/>
@@ -9106,7 +9108,7 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="29"/>
@@ -9121,7 +9123,7 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B125" s="44"/>
       <c r="C125" s="55"/>
@@ -9136,7 +9138,7 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="29"/>
@@ -9151,7 +9153,7 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="55"/>
@@ -9166,7 +9168,7 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="29"/>
@@ -9181,7 +9183,7 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B129" s="44"/>
       <c r="C129" s="55"/>
@@ -9196,7 +9198,7 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="29"/>
@@ -9211,7 +9213,7 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B131" s="44"/>
       <c r="C131" s="55"/>
@@ -9226,7 +9228,7 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="29"/>
@@ -9241,7 +9243,7 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B133" s="44"/>
       <c r="C133" s="55"/>
@@ -9256,7 +9258,7 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B134" s="26"/>
       <c r="C134" s="29"/>
@@ -9271,7 +9273,7 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B135" s="44"/>
       <c r="C135" s="55"/>
@@ -9286,7 +9288,7 @@
     </row>
     <row r="136" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B136" s="26"/>
       <c r="C136" s="29"/>
@@ -9301,7 +9303,7 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B137" s="44"/>
       <c r="C137" s="55"/>
@@ -9316,7 +9318,7 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B138" s="26"/>
       <c r="C138" s="29"/>
@@ -9331,7 +9333,7 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B139" s="44"/>
       <c r="C139" s="55"/>
@@ -9346,7 +9348,7 @@
     </row>
     <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B140" s="26"/>
       <c r="C140" s="29"/>
@@ -9361,7 +9363,7 @@
     </row>
     <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B141" s="44"/>
       <c r="C141" s="55"/>
@@ -9376,7 +9378,7 @@
     </row>
     <row r="142" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B142" s="26"/>
       <c r="C142" s="29"/>
@@ -9391,7 +9393,7 @@
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B143" s="44"/>
       <c r="C143" s="55"/>
@@ -9406,7 +9408,7 @@
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B144" s="26"/>
       <c r="C144" s="29"/>
@@ -9421,7 +9423,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B145" s="44"/>
       <c r="C145" s="55"/>
@@ -9436,7 +9438,7 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B146" s="26"/>
       <c r="C146" s="29"/>
@@ -9451,7 +9453,7 @@
     </row>
     <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B147" s="44"/>
       <c r="C147" s="55"/>
@@ -9466,7 +9468,7 @@
     </row>
     <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B148" s="26"/>
       <c r="C148" s="29"/>
@@ -9481,7 +9483,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B149" s="44"/>
       <c r="C149" s="55"/>
@@ -9496,7 +9498,7 @@
     </row>
     <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B150" s="26"/>
       <c r="C150" s="29"/>
@@ -9511,7 +9513,7 @@
     </row>
     <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B151" s="44"/>
       <c r="C151" s="55"/>
@@ -9526,7 +9528,7 @@
     </row>
     <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B152" s="26"/>
       <c r="C152" s="29"/>
@@ -9541,7 +9543,7 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B153" s="44"/>
       <c r="C153" s="55"/>
@@ -9556,7 +9558,7 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B154" s="26"/>
       <c r="C154" s="29"/>
@@ -9571,7 +9573,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B155" s="44"/>
       <c r="C155" s="55"/>
@@ -9586,7 +9588,7 @@
     </row>
     <row r="156" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B156" s="26"/>
       <c r="C156" s="29"/>
@@ -9601,7 +9603,7 @@
     </row>
     <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B157" s="44"/>
       <c r="C157" s="55"/>
@@ -9616,7 +9618,7 @@
     </row>
     <row r="158" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B158" s="26"/>
       <c r="C158" s="29"/>
@@ -9631,7 +9633,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" s="44"/>
       <c r="C159" s="55"/>
@@ -9646,7 +9648,7 @@
     </row>
     <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B160" s="26"/>
       <c r="C160" s="29"/>
@@ -9661,7 +9663,7 @@
     </row>
     <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B161" s="44"/>
       <c r="C161" s="55"/>
@@ -9676,7 +9678,7 @@
     </row>
     <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B162" s="26"/>
       <c r="C162" s="29"/>
@@ -9691,7 +9693,7 @@
     </row>
     <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B163" s="44"/>
       <c r="C163" s="55"/>
@@ -9706,7 +9708,7 @@
     </row>
     <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B164" s="26"/>
       <c r="C164" s="29"/>
@@ -9721,7 +9723,7 @@
     </row>
     <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B165" s="44"/>
       <c r="C165" s="55"/>
@@ -9736,7 +9738,7 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B166" s="26"/>
       <c r="C166" s="29"/>
@@ -9751,7 +9753,7 @@
     </row>
     <row r="167" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B167" s="44"/>
       <c r="C167" s="55"/>
@@ -9766,7 +9768,7 @@
     </row>
     <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B168" s="26"/>
       <c r="C168" s="29"/>
@@ -9781,7 +9783,7 @@
     </row>
     <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B169" s="44"/>
       <c r="C169" s="55"/>
@@ -9796,7 +9798,7 @@
     </row>
     <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B170" s="26"/>
       <c r="C170" s="29"/>
@@ -9811,7 +9813,7 @@
     </row>
     <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B171" s="44"/>
       <c r="C171" s="55"/>
@@ -9826,7 +9828,7 @@
     </row>
     <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B172" s="26"/>
       <c r="C172" s="29"/>
@@ -9841,7 +9843,7 @@
     </row>
     <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B173" s="44"/>
       <c r="C173" s="55"/>
@@ -9856,7 +9858,7 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B174" s="26"/>
       <c r="C174" s="29"/>
@@ -9871,7 +9873,7 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B175" s="44"/>
       <c r="C175" s="55"/>
@@ -9886,7 +9888,7 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B176" s="26"/>
       <c r="C176" s="29"/>
@@ -9901,7 +9903,7 @@
     </row>
     <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B177" s="44"/>
       <c r="C177" s="55"/>
@@ -9916,7 +9918,7 @@
     </row>
     <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B178" s="26"/>
       <c r="C178" s="29"/>
@@ -9931,7 +9933,7 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B179" s="44"/>
       <c r="C179" s="55"/>
@@ -9946,7 +9948,7 @@
     </row>
     <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B180" s="26"/>
       <c r="C180" s="29"/>
@@ -9961,7 +9963,7 @@
     </row>
     <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B181" s="44"/>
       <c r="C181" s="55"/>
@@ -9976,7 +9978,7 @@
     </row>
     <row r="182" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B182" s="26"/>
       <c r="C182" s="29"/>
@@ -9991,7 +9993,7 @@
     </row>
     <row r="183" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B183" s="44"/>
       <c r="C183" s="55"/>
@@ -10006,7 +10008,7 @@
     </row>
     <row r="184" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B184" s="26"/>
       <c r="C184" s="29"/>
@@ -10021,7 +10023,7 @@
     </row>
     <row r="185" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B185" s="44"/>
       <c r="C185" s="55"/>
@@ -10036,7 +10038,7 @@
     </row>
     <row r="186" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B186" s="26"/>
       <c r="C186" s="29"/>
@@ -10051,7 +10053,7 @@
     </row>
     <row r="187" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B187" s="44"/>
       <c r="C187" s="55"/>
@@ -10066,7 +10068,7 @@
     </row>
     <row r="188" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B188" s="26"/>
       <c r="C188" s="29"/>
@@ -10081,7 +10083,7 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B189" s="44"/>
       <c r="C189" s="55"/>
@@ -10096,7 +10098,7 @@
     </row>
     <row r="190" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B190" s="26"/>
       <c r="C190" s="29"/>
@@ -10111,7 +10113,7 @@
     </row>
     <row r="191" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B191" s="44"/>
       <c r="C191" s="55"/>
@@ -10126,7 +10128,7 @@
     </row>
     <row r="192" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B192" s="26"/>
       <c r="C192" s="29"/>
@@ -10141,7 +10143,7 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B193" s="44"/>
       <c r="C193" s="55"/>
@@ -10156,7 +10158,7 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B194" s="26"/>
       <c r="C194" s="29"/>
@@ -10171,7 +10173,7 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B195" s="44"/>
       <c r="C195" s="55"/>
@@ -10186,7 +10188,7 @@
     </row>
     <row r="196" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B196" s="26"/>
       <c r="C196" s="29"/>
@@ -10201,7 +10203,7 @@
     </row>
     <row r="197" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B197" s="44"/>
       <c r="C197" s="55"/>
@@ -10216,7 +10218,7 @@
     </row>
     <row r="198" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B198" s="26"/>
       <c r="C198" s="29"/>
@@ -10231,7 +10233,7 @@
     </row>
     <row r="199" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B199" s="44"/>
       <c r="C199" s="55"/>
@@ -10246,7 +10248,7 @@
     </row>
     <row r="200" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B200" s="26"/>
       <c r="C200" s="29"/>
@@ -10261,7 +10263,7 @@
     </row>
     <row r="201" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B201" s="44"/>
       <c r="C201" s="55"/>
@@ -10276,7 +10278,7 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B202" s="26"/>
       <c r="C202" s="29"/>
@@ -10291,7 +10293,7 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B203" s="44"/>
       <c r="C203" s="55"/>
@@ -10306,23 +10308,23 @@
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C204" s="23">
         <v>9</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="F204" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="F204" s="21" t="s">
+      <c r="G204" s="59" t="s">
         <v>481</v>
-      </c>
-      <c r="G204" s="59" t="s">
-        <v>482</v>
       </c>
       <c r="H204" s="30" t="s">
         <v>63</v>
@@ -10339,20 +10341,20 @@
     </row>
     <row r="205" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C205" s="29">
         <v>9</v>
       </c>
       <c r="D205" s="26"/>
       <c r="E205" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="F205" s="26" t="s">
         <v>484</v>
-      </c>
-      <c r="F205" s="26" t="s">
-        <v>485</v>
       </c>
       <c r="G205" s="60" t="s">
         <v>348</v>
@@ -10372,23 +10374,23 @@
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C206" s="61">
         <v>9</v>
       </c>
       <c r="D206" s="22"/>
       <c r="E206" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F206" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="F206" s="22" t="s">
+      <c r="G206" s="62" t="s">
         <v>488</v>
-      </c>
-      <c r="G206" s="62" t="s">
-        <v>489</v>
       </c>
       <c r="H206" s="30" t="s">
         <v>63</v>
@@ -10405,23 +10407,23 @@
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B207" s="63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C207" s="64">
         <v>9</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="F207" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="F207" s="63" t="s">
+      <c r="G207" s="65" t="s">
         <v>492</v>
-      </c>
-      <c r="G207" s="65" t="s">
-        <v>493</v>
       </c>
       <c r="H207" s="30" t="s">
         <v>63</v>
@@ -10438,23 +10440,23 @@
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B208" s="66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C208" s="67">
         <v>11</v>
       </c>
       <c r="D208" s="66"/>
       <c r="E208" s="66" t="s">
+        <v>494</v>
+      </c>
+      <c r="F208" s="66" t="s">
         <v>495</v>
       </c>
-      <c r="F208" s="66" t="s">
+      <c r="G208" s="68" t="s">
         <v>496</v>
-      </c>
-      <c r="G208" s="68" t="s">
-        <v>497</v>
       </c>
       <c r="H208" s="30" t="s">
         <v>63</v>
@@ -10471,23 +10473,23 @@
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B209" s="63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C209" s="64">
         <v>11</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F209" s="63" t="s">
         <v>499</v>
       </c>
-      <c r="F209" s="63" t="s">
-        <v>500</v>
-      </c>
       <c r="G209" s="65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H209" s="30" t="s">
         <v>63</v>
@@ -10504,23 +10506,23 @@
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B210" s="66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C210" s="67">
         <v>2</v>
       </c>
       <c r="D210" s="66"/>
       <c r="E210" s="66" t="s">
+        <v>501</v>
+      </c>
+      <c r="F210" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="F210" s="66" t="s">
+      <c r="G210" s="68" t="s">
         <v>503</v>
-      </c>
-      <c r="G210" s="68" t="s">
-        <v>504</v>
       </c>
       <c r="H210" s="30" t="s">
         <v>63</v>
@@ -10537,23 +10539,23 @@
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B211" s="63" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C211" s="64">
         <v>4</v>
       </c>
       <c r="D211" s="63"/>
       <c r="E211" s="63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F211" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G211" s="65" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H211" s="30" t="s">
         <v>63</v>
@@ -10570,23 +10572,23 @@
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B212" s="66" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C212" s="67">
         <v>2</v>
       </c>
       <c r="D212" s="66"/>
       <c r="E212" s="66" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F212" s="66" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G212" s="68" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H212" s="30" t="s">
         <v>63</v>
@@ -10603,23 +10605,23 @@
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B213" s="63" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C213" s="64">
         <v>2</v>
       </c>
       <c r="D213" s="63"/>
       <c r="E213" s="63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F213" s="63" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G213" s="65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H213" s="30" t="s">
         <v>63</v>
@@ -10631,28 +10633,28 @@
         <v>63</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B214" s="66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C214" s="67">
         <v>2</v>
       </c>
       <c r="D214" s="66"/>
       <c r="E214" s="66" t="s">
+        <v>836</v>
+      </c>
+      <c r="F214" s="66" t="s">
+        <v>842</v>
+      </c>
+      <c r="G214" s="68" t="s">
         <v>837</v>
-      </c>
-      <c r="F214" s="66" t="s">
-        <v>843</v>
-      </c>
-      <c r="G214" s="68" t="s">
-        <v>838</v>
       </c>
       <c r="H214" s="30" t="s">
         <v>63</v>
@@ -10665,23 +10667,23 @@
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B215" s="63" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C215" s="151">
         <v>2</v>
       </c>
       <c r="D215" s="63"/>
       <c r="E215" s="63" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F215" s="63" t="s">
+        <v>846</v>
+      </c>
+      <c r="G215" s="65" t="s">
         <v>847</v>
-      </c>
-      <c r="G215" s="65" t="s">
-        <v>848</v>
       </c>
       <c r="H215" s="30" t="s">
         <v>63</v>
@@ -10692,23 +10694,23 @@
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B216" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C216" s="67">
         <v>2</v>
       </c>
       <c r="D216" s="66"/>
       <c r="E216" s="66" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F216" s="66" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G216" s="68" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H216" s="30" t="s">
         <v>63</v>
@@ -10719,23 +10721,23 @@
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C217" s="69">
         <v>2</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F217" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G217" s="65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H217" s="30" t="s">
         <v>63</v>
@@ -10746,23 +10748,23 @@
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B218" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C218" s="67">
         <v>2</v>
       </c>
       <c r="D218" s="66"/>
       <c r="E218" s="66" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F218" s="66" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G218" s="68" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H218" s="30" t="s">
         <v>63</v>
@@ -10773,23 +10775,23 @@
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C219" s="69">
         <v>2</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F219" s="63" t="s">
+        <v>860</v>
+      </c>
+      <c r="G219" s="65" t="s">
         <v>861</v>
-      </c>
-      <c r="G219" s="65" t="s">
-        <v>862</v>
       </c>
       <c r="H219" s="30" t="s">
         <v>63</v>
@@ -10800,7 +10802,7 @@
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B220" s="66"/>
       <c r="C220" s="67"/>
@@ -10813,7 +10815,7 @@
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="69"/>
@@ -10826,7 +10828,7 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="69"/>
@@ -10839,7 +10841,7 @@
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="69"/>
@@ -10852,7 +10854,7 @@
     </row>
     <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="69"/>
@@ -10865,7 +10867,7 @@
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="69"/>
@@ -10878,7 +10880,7 @@
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="69"/>
@@ -10891,7 +10893,7 @@
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="69"/>
@@ -10904,7 +10906,7 @@
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="69"/>
@@ -10917,7 +10919,7 @@
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="69"/>
@@ -10930,7 +10932,7 @@
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="69"/>
@@ -10943,7 +10945,7 @@
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="69"/>
@@ -10956,7 +10958,7 @@
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="69"/>
@@ -10969,7 +10971,7 @@
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="69"/>
@@ -10982,7 +10984,7 @@
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="69"/>
@@ -11037,10 +11039,10 @@
     </row>
     <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="B242" s="44" t="s">
         <v>507</v>
-      </c>
-      <c r="B242" s="44" t="s">
-        <v>508</v>
       </c>
       <c r="C242" s="55">
         <v>6</v>
@@ -11050,7 +11052,7 @@
         <v>245</v>
       </c>
       <c r="F242" s="155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G242" s="57">
         <v>506</v>
@@ -11062,15 +11064,15 @@
         <v>22</v>
       </c>
       <c r="K242" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="B243" s="26" t="s">
         <v>509</v>
-      </c>
-      <c r="B243" s="26" t="s">
-        <v>510</v>
       </c>
       <c r="C243" s="29">
         <v>6</v>
@@ -11080,7 +11082,7 @@
         <v>245</v>
       </c>
       <c r="F243" s="155" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G243" s="74">
         <v>452</v>
@@ -11094,20 +11096,20 @@
     </row>
     <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="B244" s="44" t="s">
         <v>511</v>
-      </c>
-      <c r="B244" s="44" t="s">
-        <v>512</v>
       </c>
       <c r="C244" s="55">
         <v>6</v>
       </c>
       <c r="D244" s="56"/>
       <c r="E244" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F244" s="155" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G244" s="57">
         <v>167</v>
@@ -11121,20 +11123,20 @@
     </row>
     <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="73" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C245" s="29">
         <v>10</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G245" s="74">
         <v>44</v>
@@ -11148,20 +11150,20 @@
     </row>
     <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="73" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B246" s="44" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C246" s="55" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D246" s="56"/>
       <c r="E246" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="G246" s="57">
         <v>130</v>
@@ -11178,20 +11180,20 @@
     </row>
     <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C247" s="29">
         <v>10</v>
       </c>
       <c r="D247" s="27"/>
       <c r="E247" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G247" s="74">
         <v>15</v>
@@ -11205,20 +11207,20 @@
     </row>
     <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B248" s="44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C248" s="55">
         <v>9</v>
       </c>
       <c r="D248" s="56"/>
       <c r="E248" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="G248" s="57">
         <v>539</v>
@@ -11232,20 +11234,20 @@
     </row>
     <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C249" s="29">
         <v>3</v>
       </c>
       <c r="D249" s="27"/>
       <c r="E249" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F249" s="155" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G249" s="74">
         <v>512</v>
@@ -11259,20 +11261,20 @@
     </row>
     <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="73" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B250" s="153" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C250" s="55">
         <v>3</v>
       </c>
       <c r="D250" s="56"/>
       <c r="E250" s="154" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F250" s="155" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G250" s="57">
         <v>3</v>
@@ -11286,20 +11288,20 @@
     </row>
     <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="73" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C251" s="29">
         <v>3</v>
       </c>
       <c r="D251" s="27"/>
       <c r="E251" s="156" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F251" s="155" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G251" s="74">
         <v>504</v>
@@ -11313,20 +11315,20 @@
     </row>
     <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B252" s="153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C252" s="55">
         <v>4</v>
       </c>
       <c r="D252" s="56"/>
       <c r="E252" s="154" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F252" s="155" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G252" s="57">
         <v>548</v>
@@ -11343,20 +11345,20 @@
     </row>
     <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C253" s="29">
         <v>6</v>
       </c>
       <c r="D253" s="27"/>
       <c r="E253" s="156" t="s">
+        <v>895</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="G253" s="74">
         <v>323</v>
@@ -11370,20 +11372,20 @@
     </row>
     <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B254" s="44" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C254" s="55">
         <v>6</v>
       </c>
       <c r="D254" s="56"/>
       <c r="E254" s="156" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G254" s="57">
         <v>188</v>
@@ -11397,20 +11399,20 @@
     </row>
     <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C255" s="29">
         <v>6</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="156" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G255" s="74">
         <v>553</v>
@@ -11424,20 +11426,20 @@
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="159" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B256" s="158" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C256" s="55">
         <v>10</v>
       </c>
       <c r="D256" s="56"/>
       <c r="E256" s="156" t="s">
+        <v>903</v>
+      </c>
+      <c r="F256" s="155" t="s">
         <v>904</v>
-      </c>
-      <c r="F256" s="155" t="s">
-        <v>905</v>
       </c>
       <c r="G256" s="57">
         <v>171</v>
@@ -11451,10 +11453,10 @@
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="159" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B257" s="157" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C257" s="29">
         <v>12</v>
@@ -11470,20 +11472,20 @@
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="159" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B258" s="160" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C258" s="55">
         <v>12</v>
       </c>
       <c r="D258" s="56"/>
       <c r="E258" s="154" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F258" s="155" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G258" s="57">
         <v>207</v>
@@ -11497,18 +11499,18 @@
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="159" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B259" s="161" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C259" s="29"/>
       <c r="D259" s="27"/>
       <c r="E259" s="156" t="s">
+        <v>908</v>
+      </c>
+      <c r="F259" s="155" t="s">
         <v>909</v>
-      </c>
-      <c r="F259" s="155" t="s">
-        <v>910</v>
       </c>
       <c r="G259" s="74">
         <v>512</v>
@@ -11520,10 +11522,10 @@
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="159" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B260" s="158" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C260" s="55"/>
       <c r="D260" s="56"/>
@@ -11537,7 +11539,7 @@
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="73" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B261" s="26"/>
       <c r="C261" s="29"/>
@@ -11550,7 +11552,7 @@
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="73" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B262" s="44"/>
       <c r="C262" s="55"/>
@@ -11563,7 +11565,7 @@
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B263" s="26"/>
       <c r="C263" s="29"/>
@@ -11576,7 +11578,7 @@
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="55"/>
@@ -11589,7 +11591,7 @@
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B265" s="26"/>
       <c r="C265" s="29"/>
@@ -11602,7 +11604,7 @@
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="73" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B266" s="44"/>
       <c r="C266" s="55"/>
@@ -11615,7 +11617,7 @@
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="73" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B267" s="26"/>
       <c r="C267" s="29"/>
@@ -11628,7 +11630,7 @@
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="55"/>
@@ -11641,7 +11643,7 @@
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B269" s="26"/>
       <c r="C269" s="29"/>
@@ -11654,7 +11656,7 @@
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B270" s="44"/>
       <c r="C270" s="55"/>
@@ -11667,7 +11669,7 @@
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B271" s="26"/>
       <c r="C271" s="29"/>
@@ -11680,7 +11682,7 @@
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B272" s="44"/>
       <c r="C272" s="55"/>
@@ -11693,7 +11695,7 @@
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B273" s="26"/>
       <c r="C273" s="29"/>
@@ -11706,7 +11708,7 @@
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="55"/>
@@ -11719,7 +11721,7 @@
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B275" s="26"/>
       <c r="C275" s="29"/>
@@ -11732,7 +11734,7 @@
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B276" s="44"/>
       <c r="C276" s="55"/>
@@ -11745,7 +11747,7 @@
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B277" s="26"/>
       <c r="C277" s="29"/>
@@ -11758,7 +11760,7 @@
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B278" s="44"/>
       <c r="C278" s="55"/>
@@ -11771,7 +11773,7 @@
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="73" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B279" s="26"/>
       <c r="C279" s="29"/>
@@ -11784,7 +11786,7 @@
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B280" s="44"/>
       <c r="C280" s="55"/>
@@ -11797,7 +11799,7 @@
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B281" s="26"/>
       <c r="C281" s="29"/>
@@ -11810,7 +11812,7 @@
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="73" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="55"/>
@@ -11823,7 +11825,7 @@
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="73" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B283" s="26"/>
       <c r="C283" s="29"/>
@@ -11836,7 +11838,7 @@
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B284" s="44"/>
       <c r="C284" s="55"/>
@@ -11849,7 +11851,7 @@
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B285" s="26"/>
       <c r="C285" s="29"/>
@@ -11862,7 +11864,7 @@
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="73" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B286" s="44"/>
       <c r="C286" s="55"/>
@@ -11875,7 +11877,7 @@
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="73" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B287" s="26"/>
       <c r="C287" s="29"/>
@@ -11888,7 +11890,7 @@
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="73" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B288" s="44"/>
       <c r="C288" s="55"/>
@@ -11901,7 +11903,7 @@
     </row>
     <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="73" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B289" s="26"/>
       <c r="C289" s="29"/>
@@ -11914,7 +11916,7 @@
     </row>
     <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="73" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B290" s="44"/>
       <c r="C290" s="55"/>
@@ -11927,7 +11929,7 @@
     </row>
     <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="73" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B291" s="26"/>
       <c r="C291" s="29"/>
@@ -11940,7 +11942,7 @@
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="73" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="55"/>
@@ -11953,7 +11955,7 @@
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="73" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B293" s="26"/>
       <c r="C293" s="29"/>
@@ -11966,7 +11968,7 @@
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="73" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B294" s="44"/>
       <c r="C294" s="55"/>
@@ -11979,7 +11981,7 @@
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="73" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B295" s="26"/>
       <c r="C295" s="29"/>
@@ -11992,7 +11994,7 @@
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B296" s="44"/>
       <c r="C296" s="55"/>
@@ -12005,7 +12007,7 @@
     </row>
     <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="73" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B297" s="26"/>
       <c r="C297" s="29"/>
@@ -12018,7 +12020,7 @@
     </row>
     <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="73" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B298" s="44"/>
       <c r="C298" s="55"/>
@@ -12031,7 +12033,7 @@
     </row>
     <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B299" s="26"/>
       <c r="C299" s="29"/>
@@ -12044,7 +12046,7 @@
     </row>
     <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B300" s="44"/>
       <c r="C300" s="55"/>
@@ -12057,7 +12059,7 @@
     </row>
     <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B301" s="26"/>
       <c r="C301" s="29"/>
@@ -12070,7 +12072,7 @@
     </row>
     <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="55"/>
@@ -12083,7 +12085,7 @@
     </row>
     <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B303" s="26"/>
       <c r="C303" s="29"/>
@@ -12096,7 +12098,7 @@
     </row>
     <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B304" s="44"/>
       <c r="C304" s="55"/>
@@ -12109,7 +12111,7 @@
     </row>
     <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B305" s="26"/>
       <c r="C305" s="29"/>
@@ -12122,7 +12124,7 @@
     </row>
     <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B306" s="44"/>
       <c r="C306" s="55"/>
@@ -12135,7 +12137,7 @@
     </row>
     <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="73" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B307" s="26"/>
       <c r="C307" s="29"/>
@@ -12148,7 +12150,7 @@
     </row>
     <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="73" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B308" s="44"/>
       <c r="C308" s="55"/>
@@ -12161,7 +12163,7 @@
     </row>
     <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="73" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B309" s="26"/>
       <c r="C309" s="29"/>
@@ -12174,7 +12176,7 @@
     </row>
     <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B310" s="44"/>
       <c r="C310" s="55"/>
@@ -12187,7 +12189,7 @@
     </row>
     <row r="311" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B311" s="26"/>
       <c r="C311" s="29"/>
@@ -12200,7 +12202,7 @@
     </row>
     <row r="312" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B312" s="44"/>
       <c r="C312" s="55"/>
@@ -12213,7 +12215,7 @@
     </row>
     <row r="313" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B313" s="26"/>
       <c r="C313" s="29"/>
@@ -12226,7 +12228,7 @@
     </row>
     <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B314" s="44"/>
       <c r="C314" s="55"/>
@@ -12239,7 +12241,7 @@
     </row>
     <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B315" s="26"/>
       <c r="C315" s="29"/>
@@ -12252,7 +12254,7 @@
     </row>
     <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B316" s="44"/>
       <c r="C316" s="55"/>
@@ -12265,7 +12267,7 @@
     </row>
     <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B317" s="26"/>
       <c r="C317" s="29"/>
@@ -12278,7 +12280,7 @@
     </row>
     <row r="318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B318" s="44"/>
       <c r="C318" s="55"/>
@@ -12291,7 +12293,7 @@
     </row>
     <row r="319" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B319" s="26"/>
       <c r="C319" s="29"/>
@@ -12304,7 +12306,7 @@
     </row>
     <row r="320" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B320" s="44"/>
       <c r="C320" s="55"/>
@@ -12317,7 +12319,7 @@
     </row>
     <row r="321" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="73" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B321" s="26"/>
       <c r="C321" s="29"/>
@@ -12330,7 +12332,7 @@
     </row>
     <row r="322" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="73" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B322" s="44"/>
       <c r="C322" s="55"/>
@@ -12343,7 +12345,7 @@
     </row>
     <row r="323" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="73" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B323" s="26"/>
       <c r="C323" s="29"/>
@@ -12356,7 +12358,7 @@
     </row>
     <row r="324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B324" s="44"/>
       <c r="C324" s="55"/>
@@ -12369,7 +12371,7 @@
     </row>
     <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B325" s="26"/>
       <c r="C325" s="29"/>
@@ -12382,7 +12384,7 @@
     </row>
     <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B326" s="44"/>
       <c r="C326" s="55"/>
@@ -12395,7 +12397,7 @@
     </row>
     <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="73" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B327" s="26"/>
       <c r="C327" s="29"/>
@@ -12408,7 +12410,7 @@
     </row>
     <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="73" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B328" s="44"/>
       <c r="C328" s="55"/>
@@ -12421,7 +12423,7 @@
     </row>
     <row r="329" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B329" s="26"/>
       <c r="C329" s="29"/>
@@ -12434,7 +12436,7 @@
     </row>
     <row r="330" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="73" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B330" s="44"/>
       <c r="C330" s="55"/>
@@ -12447,7 +12449,7 @@
     </row>
     <row r="331" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="73" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B331" s="26"/>
       <c r="C331" s="29"/>
@@ -12460,7 +12462,7 @@
     </row>
     <row r="332" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="73" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B332" s="44"/>
       <c r="C332" s="55"/>
@@ -12473,7 +12475,7 @@
     </row>
     <row r="333" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="73" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B333" s="26"/>
       <c r="C333" s="29"/>
@@ -12486,7 +12488,7 @@
     </row>
     <row r="334" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="73" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B334" s="44"/>
       <c r="C334" s="55"/>
@@ -12499,7 +12501,7 @@
     </row>
     <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B335" s="26"/>
       <c r="C335" s="29"/>
@@ -12512,7 +12514,7 @@
     </row>
     <row r="336" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="73" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B336" s="44"/>
       <c r="C336" s="55"/>
@@ -12525,7 +12527,7 @@
     </row>
     <row r="337" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="73" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B337" s="26"/>
       <c r="C337" s="29"/>
@@ -12538,7 +12540,7 @@
     </row>
     <row r="338" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B338" s="44"/>
       <c r="C338" s="55"/>
@@ -12551,7 +12553,7 @@
     </row>
     <row r="339" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B339" s="26"/>
       <c r="C339" s="29"/>
@@ -12564,7 +12566,7 @@
     </row>
     <row r="340" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="73" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B340" s="44"/>
       <c r="C340" s="55"/>
@@ -12577,7 +12579,7 @@
     </row>
     <row r="341" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="73" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B341" s="26"/>
       <c r="C341" s="29"/>
@@ -17361,7 +17363,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -17376,81 +17378,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="169" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="171"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="172" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="80" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="174" t="s">
         <v>616</v>
-      </c>
-      <c r="D2" s="188" t="s">
-        <v>617</v>
       </c>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="189" t="s">
-        <v>618</v>
-      </c>
-      <c r="I2" s="176"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="176" t="s">
+        <v>617</v>
+      </c>
+      <c r="I2" s="177"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
-        <v>619</v>
-      </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="186"/>
+      <c r="A4" s="178" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>620</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="C5" s="82" t="s">
         <v>621</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="82" t="s">
         <v>622</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="F5" s="82" t="s">
         <v>624</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>625</v>
       </c>
       <c r="G5" s="82" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="82" t="s">
+        <v>625</v>
+      </c>
+      <c r="I5" s="83" t="s">
         <v>626</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="K5" s="84" t="s">
         <v>627</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17458,104 +17460,104 @@
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="D6" s="86" t="s">
         <v>630</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="E6" s="86" t="s">
         <v>631</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="F6" s="86" t="s">
         <v>632</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="G6" s="86" t="s">
         <v>633</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="H6" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="I6" s="87" t="s">
         <v>635</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="K6" s="179" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="178" t="s">
-        <v>637</v>
-      </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
         <v>2</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="86" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="D7" s="86" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="E7" s="86" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="F7" s="86" t="s">
         <v>641</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="G7" s="86" t="s">
         <v>642</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="H7" s="86" t="s">
         <v>643</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="I7" s="87" t="s">
         <v>644</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="K7" s="179" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="178" t="s">
-        <v>646</v>
-      </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>646</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>647</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="D8" s="86" t="s">
         <v>648</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="E8" s="86" t="s">
         <v>649</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="F8" s="86" t="s">
         <v>650</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="G8" s="86" t="s">
         <v>651</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="H8" s="86" t="s">
         <v>652</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="I8" s="87" t="s">
         <v>653</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17635,111 +17637,111 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180" t="s">
-        <v>655</v>
-      </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="182"/>
+      <c r="A15" s="181" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="183"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C16" s="82" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="82" t="s">
         <v>626</v>
       </c>
-      <c r="D16" s="82" t="s">
-        <v>627</v>
-      </c>
-      <c r="E16" s="183" t="s">
+      <c r="E16" s="184" t="s">
+        <v>655</v>
+      </c>
+      <c r="F16" s="185"/>
+      <c r="G16" s="184" t="s">
         <v>656</v>
       </c>
-      <c r="F16" s="170"/>
-      <c r="G16" s="183" t="s">
-        <v>657</v>
-      </c>
-      <c r="H16" s="173"/>
-      <c r="I16" s="174"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
         <v>1</v>
       </c>
       <c r="B17" s="86" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>653</v>
+      </c>
+      <c r="E17" s="188" t="s">
         <v>658</v>
       </c>
-      <c r="C17" s="86" t="s">
-        <v>644</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>654</v>
-      </c>
-      <c r="E17" s="177" t="s">
+      <c r="F17" s="185"/>
+      <c r="G17" s="188" t="s">
         <v>659</v>
       </c>
-      <c r="F17" s="170"/>
-      <c r="G17" s="177" t="s">
-        <v>660</v>
-      </c>
-      <c r="H17" s="173"/>
-      <c r="I17" s="174"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
         <v>2</v>
       </c>
       <c r="B18" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>653</v>
+      </c>
+      <c r="E18" s="188" t="s">
+        <v>658</v>
+      </c>
+      <c r="F18" s="185"/>
+      <c r="G18" s="188" t="s">
         <v>661</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>644</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>654</v>
-      </c>
-      <c r="E18" s="177" t="s">
-        <v>659</v>
-      </c>
-      <c r="F18" s="170"/>
-      <c r="G18" s="177" t="s">
-        <v>662</v>
-      </c>
-      <c r="H18" s="173"/>
-      <c r="I18" s="174"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
         <v>3</v>
       </c>
       <c r="B19" s="86" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="86" t="s">
         <v>663</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>644</v>
-      </c>
-      <c r="D19" s="86" t="s">
+      <c r="E19" s="188" t="s">
         <v>664</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="F19" s="185"/>
+      <c r="G19" s="188" t="s">
         <v>665</v>
       </c>
-      <c r="F19" s="170"/>
-      <c r="G19" s="177" t="s">
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+      <c r="K19" s="84" t="s">
         <v>666</v>
-      </c>
-      <c r="H19" s="173"/>
-      <c r="I19" s="174"/>
-      <c r="K19" s="84" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17749,11 +17751,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="174"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17762,13 +17764,13 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="174"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
       <c r="K21" s="84" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17778,11 +17780,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="174"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17791,11 +17793,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="174"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17804,11 +17806,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17817,11 +17819,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="174"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17830,11 +17832,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="171"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="190"/>
       <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18812,16 +18814,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18834,14 +18834,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18857,7 +18859,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -18878,13 +18880,13 @@
       <c r="A1" s="95"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1" s="96"/>
       <c r="E1" s="96"/>
       <c r="F1" s="96"/>
       <c r="G1" s="96" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1" s="96"/>
       <c r="I1" s="97"/>
@@ -18892,7 +18894,7 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="191" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B2" s="192"/>
       <c r="C2" s="168"/>
@@ -18909,7 +18911,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C3" s="106" t="s">
         <v>7</v>
@@ -18921,10 +18923,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="106" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="106" t="s">
         <v>624</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>625</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>12</v>
@@ -18943,7 +18945,7 @@
     <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="B5" s="111" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D5" s="91"/>
       <c r="K5" s="112"/>
@@ -18953,7 +18955,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D6" s="91"/>
       <c r="K6" s="112"/>
@@ -18961,7 +18963,7 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D7" s="91"/>
       <c r="K7" s="112"/>
@@ -18969,7 +18971,7 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="113" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D8" s="91"/>
       <c r="K8" s="112"/>
@@ -18981,14 +18983,14 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="111" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K10" s="112"/>
       <c r="O10" s="98"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K11" s="112"/>
       <c r="O11" s="98"/>
@@ -21976,7 +21978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -21988,19 +21990,19 @@
     <row r="1" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="193" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="185"/>
+      <c r="O2" s="84" t="s">
         <v>679</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="O2" s="84" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="114" t="s">
+        <v>680</v>
+      </c>
+      <c r="C3" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="C3" s="115" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22008,10 +22010,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>683</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22019,10 +22021,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>685</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22030,10 +22032,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="84" t="s">
         <v>687</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22041,10 +22043,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D7" s="84" t="s">
         <v>689</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22052,10 +22054,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D8" s="84" t="s">
         <v>691</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22063,10 +22065,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" s="84" t="s">
         <v>693</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22074,10 +22076,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>695</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22085,10 +22087,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D11" s="84" t="s">
         <v>697</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22096,10 +22098,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" s="84" t="s">
         <v>699</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22107,10 +22109,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D13" s="84" t="s">
         <v>701</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22118,10 +22120,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D14" s="84" t="s">
         <v>703</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22129,10 +22131,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D15" s="84" t="s">
         <v>705</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22140,10 +22142,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>707</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22151,10 +22153,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>709</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23189,7 +23191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -23200,60 +23202,60 @@
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="193" t="s">
-        <v>712</v>
-      </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="170"/>
+        <v>711</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="185"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B4" s="195" t="s">
-        <v>713</v>
-      </c>
-      <c r="C4" s="170"/>
+        <v>712</v>
+      </c>
+      <c r="C4" s="185"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="194" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="194" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="170"/>
+      <c r="C5" s="185"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="194" t="s">
         <v>716</v>
       </c>
-      <c r="B6" s="194" t="s">
-        <v>717</v>
-      </c>
-      <c r="C6" s="170"/>
+      <c r="C6" s="185"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" s="194" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="194" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" s="170"/>
+      <c r="C7" s="185"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="B8" s="194" t="s">
         <v>720</v>
       </c>
-      <c r="B8" s="194" t="s">
-        <v>721</v>
-      </c>
-      <c r="C8" s="170"/>
+      <c r="C8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24268,7 +24270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -24282,111 +24284,111 @@
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="196" t="s">
-        <v>722</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+        <v>721</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
       <c r="J2" s="84" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="119" t="s">
+        <v>722</v>
+      </c>
+      <c r="C3" s="115" t="s">
         <v>723</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="D3" s="120" t="s">
         <v>724</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="121" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="122" t="s">
         <v>726</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="D4" s="123" t="s">
         <v>727</v>
-      </c>
-      <c r="D4" s="123" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="121" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="122" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="D5" s="124" t="s">
         <v>730</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="121" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" s="122" t="s">
         <v>732</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="D6" s="124" t="s">
         <v>733</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="121" t="s">
+        <v>734</v>
+      </c>
+      <c r="C7" s="125" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>736</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="121" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="122" t="s">
         <v>738</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>739</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="121" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" s="122" t="s">
         <v>741</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="D9" s="126" t="s">
         <v>742</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="121" t="s">
+        <v>743</v>
+      </c>
+      <c r="C10" s="125" t="s">
         <v>744</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="D10" s="124" t="s">
         <v>745</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="127" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" s="128" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="D11" s="90" t="s">
         <v>748</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -27372,7 +27374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
@@ -27383,24 +27385,24 @@
     <row r="2" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="84" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="84" t="s">
+        <v>750</v>
+      </c>
+      <c r="D4" s="129" t="s">
         <v>751</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="84" t="s">
+        <v>752</v>
+      </c>
+      <c r="D6" s="129" t="s">
         <v>753</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28415,7 +28417,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -28427,7 +28429,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J1" s="84" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28435,67 +28437,67 @@
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="195" t="s">
-        <v>755</v>
-      </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="170"/>
+        <v>754</v>
+      </c>
+      <c r="B5" s="186"/>
+      <c r="C5" s="185"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B7" s="93" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="122" t="s">
         <v>757</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="131" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B8" s="132" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" s="122" t="s">
         <v>759</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="I8" s="84" t="s">
         <v>760</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="133" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B9" s="125" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="122" t="s">
         <v>762</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="134" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" s="93" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" s="122" t="s">
         <v>764</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
+++ b/INTEL/OPAC_JOINT_TARGET_LIST_v 0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olahe\Git-projects\OPAT-background\INTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\OPAT-background\INTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7C143-6602-40F8-A7BB-2266792D9AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C6854B-CAA9-40D7-82A4-93EA4DA3843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="105" windowWidth="32805" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPAC Joint Target List" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="911">
   <si>
     <t>OPERATION ARCTIC CITADEL JOINT TARGET LIST</t>
   </si>
@@ -4014,25 +4014,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4046,17 +4041,22 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5454,13 +5454,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="167" t="s">
         <v>4</v>
       </c>
@@ -6247,7 +6247,9 @@
       <c r="I25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>363</v>
       </c>
@@ -6278,7 +6280,9 @@
       <c r="I26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>363</v>
       </c>
@@ -7407,7 +7411,9 @@
       <c r="I57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="8"/>
+      <c r="J57" s="143" t="s">
+        <v>63</v>
+      </c>
       <c r="K57" s="2" t="s">
         <v>363</v>
       </c>
@@ -17363,7 +17369,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -17378,50 +17384,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="184" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="171"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="187" t="s">
         <v>614</v>
       </c>
-      <c r="B2" s="173"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="80" t="s">
         <v>615</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="188" t="s">
         <v>616</v>
       </c>
       <c r="E2" s="175"/>
       <c r="F2" s="175"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="176" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="189" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="177"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="190" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
@@ -17483,15 +17489,15 @@
       <c r="I6" s="87" t="s">
         <v>635</v>
       </c>
-      <c r="K6" s="179" t="s">
+      <c r="K6" s="178" t="s">
         <v>636</v>
       </c>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="85">
@@ -17521,15 +17527,15 @@
       <c r="I7" s="87" t="s">
         <v>644</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="178" t="s">
         <v>645</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85">
@@ -17637,17 +17643,17 @@
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="180" t="s">
         <v>654</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="183"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="182"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
@@ -17662,15 +17668,15 @@
       <c r="D16" s="82" t="s">
         <v>626</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="183" t="s">
         <v>655</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="170"/>
+      <c r="G16" s="183" t="s">
         <v>656</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
@@ -17685,15 +17691,15 @@
       <c r="D17" s="86" t="s">
         <v>653</v>
       </c>
-      <c r="E17" s="188" t="s">
+      <c r="E17" s="177" t="s">
         <v>658</v>
       </c>
-      <c r="F17" s="185"/>
-      <c r="G17" s="188" t="s">
+      <c r="F17" s="170"/>
+      <c r="G17" s="177" t="s">
         <v>659</v>
       </c>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="174"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -17708,15 +17714,15 @@
       <c r="D18" s="86" t="s">
         <v>653</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="177" t="s">
         <v>658</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="188" t="s">
+      <c r="F18" s="170"/>
+      <c r="G18" s="177" t="s">
         <v>661</v>
       </c>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="174"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -17731,15 +17737,15 @@
       <c r="D19" s="86" t="s">
         <v>663</v>
       </c>
-      <c r="E19" s="188" t="s">
+      <c r="E19" s="177" t="s">
         <v>664</v>
       </c>
-      <c r="F19" s="185"/>
-      <c r="G19" s="188" t="s">
+      <c r="F19" s="170"/>
+      <c r="G19" s="177" t="s">
         <v>665</v>
       </c>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="174"/>
       <c r="K19" s="84" t="s">
         <v>666</v>
       </c>
@@ -17751,11 +17757,11 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
@@ -17764,11 +17770,11 @@
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="K21" s="84" t="s">
         <v>667</v>
       </c>
@@ -17780,11 +17786,11 @@
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
@@ -17793,11 +17799,11 @@
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
@@ -17806,11 +17812,11 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
@@ -17819,11 +17825,11 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94">
@@ -17832,11 +17838,11 @@
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="190"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="171"/>
       <c r="H26" s="175"/>
-      <c r="I26" s="177"/>
+      <c r="I26" s="176"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18814,14 +18820,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="E18:F18"/>
@@ -18834,16 +18842,14 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18859,7 +18865,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -21978,7 +21984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -21992,7 +21998,7 @@
       <c r="B2" s="193" t="s">
         <v>678</v>
       </c>
-      <c r="C2" s="185"/>
+      <c r="C2" s="170"/>
       <c r="O2" s="84" t="s">
         <v>679</v>
       </c>
@@ -23191,7 +23197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -23209,8 +23215,8 @@
       <c r="A3" s="193" t="s">
         <v>711</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="185"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="170"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
@@ -23219,7 +23225,7 @@
       <c r="B4" s="195" t="s">
         <v>712</v>
       </c>
-      <c r="C4" s="185"/>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
@@ -23228,7 +23234,7 @@
       <c r="B5" s="194" t="s">
         <v>714</v>
       </c>
-      <c r="C5" s="185"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
@@ -23237,7 +23243,7 @@
       <c r="B6" s="194" t="s">
         <v>716</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
@@ -23246,7 +23252,7 @@
       <c r="B7" s="194" t="s">
         <v>718</v>
       </c>
-      <c r="C7" s="185"/>
+      <c r="C7" s="170"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
@@ -23255,7 +23261,7 @@
       <c r="B8" s="194" t="s">
         <v>720</v>
       </c>
-      <c r="C8" s="185"/>
+      <c r="C8" s="170"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24270,7 +24276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -24286,8 +24292,8 @@
       <c r="B2" s="196" t="s">
         <v>721</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="J2" s="84" t="s">
         <v>679</v>
       </c>
@@ -27374,7 +27380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="59.75" customWidth="1"/>
@@ -28417,7 +28423,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -28439,8 +28445,8 @@
       <c r="A5" s="195" t="s">
         <v>754</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="185"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
